--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC85CF94-82F8-4270-9966-EDC4A10185F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2780260B-0F86-4FEA-B174-485AC83B190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3802,34 +3802,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>316.30681307869423</c:v>
+                  <c:v>307.6524012583032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247.03238654071251</c:v>
+                  <c:v>235.84952830141509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246.72859582950656</c:v>
+                  <c:v>235.53131426627755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397.30341050637861</c:v>
+                  <c:v>390.44846010709273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>279.7766966707556</c:v>
+                  <c:v>269.95369973386175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302.77879714405367</c:v>
+                  <c:v>293.72606285449035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>293.34280287745258</c:v>
+                  <c:v>283.98943642325855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>372.99463803116527</c:v>
+                  <c:v>365.68429006453096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>215.92822881689185</c:v>
+                  <c:v>203.03940504246953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>283.63709207365667</c:v>
+                  <c:v>273.95255063605447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,37 +3920,37 @@
             <c:numRef>
               <c:f>'Pruebas Distancias Fresas'!$H$157:$H$166</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>435.05</c:v>
+                  <c:v>428.75205667145201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>297.64</c:v>
+                  <c:v>288.41898203828401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.44</c:v>
+                  <c:v>185.40381441599305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>602.54</c:v>
+                  <c:v>598.04018000465487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>535.80999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>526.1</c:v>
+                  <c:v>530.74700347717464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>520.94961378236951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298.85000000000002</c:v>
+                  <c:v>289.68375308256418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>253.91</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>291.10000000000002</c:v>
+                  <c:v>243.05148693229589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>281.67576129301574</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>538.98</c:v>
+                  <c:v>533.94459197560934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8185,8 +8185,8 @@
   </sheetPr>
   <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157:H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10243,11 +10243,11 @@
         <v>-25</v>
       </c>
       <c r="D108" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E108" s="16">
         <f>SQRT((B108*B108)+(C108*C108)+(D108*D108))</f>
-        <v>316.30681307869423</v>
+        <v>307.6524012583032</v>
       </c>
       <c r="F108" s="3">
         <v>409.94</v>
@@ -10256,14 +10256,14 @@
         <v>-12.35</v>
       </c>
       <c r="H108" s="3">
-        <v>145</v>
-      </c>
-      <c r="I108" s="3">
-        <v>435.05</v>
+        <v>125</v>
+      </c>
+      <c r="I108" s="16">
+        <v>428.75205667145201</v>
       </c>
       <c r="J108" s="16">
         <f>SQRT((F108*F108)+(G108*G108)+(H108*H108))</f>
-        <v>435.00382308664825</v>
+        <v>428.75205667145201</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -10277,11 +10277,11 @@
         <v>0</v>
       </c>
       <c r="D109" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E109" s="16">
         <f t="shared" ref="E109:E117" si="3">SQRT((B109*B109)+(C109*C109)+(D109*D109))</f>
-        <v>247.03238654071251</v>
+        <v>235.84952830141509</v>
       </c>
       <c r="F109" s="3">
         <v>257.33999999999997</v>
@@ -10290,14 +10290,14 @@
         <v>36.56</v>
       </c>
       <c r="H109" s="3">
-        <v>145</v>
-      </c>
-      <c r="I109" s="3">
-        <v>297.64</v>
+        <v>125</v>
+      </c>
+      <c r="I109" s="16">
+        <v>288.41898203828401</v>
       </c>
       <c r="J109" s="16">
-        <f t="shared" ref="J109:J117" si="4">SQRT((F109*F109)+(G109*G109)+(H109*H109))</f>
-        <v>297.63317893003796</v>
+        <f t="shared" ref="I109:J117" si="4">SQRT((F109*F109)+(G109*G109)+(H109*H109))</f>
+        <v>288.41898203828401</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -10311,11 +10311,11 @@
         <v>-75</v>
       </c>
       <c r="D110" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E110" s="16">
         <f t="shared" si="3"/>
-        <v>246.72859582950656</v>
+        <v>235.53131426627755</v>
       </c>
       <c r="F110" s="3">
         <v>134.88</v>
@@ -10324,14 +10324,14 @@
         <v>23.6</v>
       </c>
       <c r="H110" s="3">
-        <v>145</v>
-      </c>
-      <c r="I110" s="3">
-        <v>199.44</v>
+        <v>125</v>
+      </c>
+      <c r="I110" s="16">
+        <v>185.40381441599305</v>
       </c>
       <c r="J110" s="16">
         <f t="shared" si="4"/>
-        <v>199.43563974375292</v>
+        <v>185.40381441599305</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -10345,11 +10345,11 @@
         <v>85</v>
       </c>
       <c r="D111" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E111" s="16">
         <f t="shared" si="3"/>
-        <v>397.30341050637861</v>
+        <v>390.44846010709273</v>
       </c>
       <c r="F111" s="3">
         <v>580.85</v>
@@ -10358,14 +10358,14 @@
         <v>-68.12</v>
       </c>
       <c r="H111" s="3">
-        <v>145</v>
-      </c>
-      <c r="I111" s="3">
-        <v>602.54</v>
+        <v>125</v>
+      </c>
+      <c r="I111" s="16">
+        <v>598.04018000465487</v>
       </c>
       <c r="J111" s="16">
         <f t="shared" si="4"/>
-        <v>602.53801282574693</v>
+        <v>598.04018000465487</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -10379,11 +10379,11 @@
         <v>45</v>
       </c>
       <c r="D112" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E112" s="16">
         <f t="shared" si="3"/>
-        <v>279.7766966707556</v>
+        <v>269.95369973386175</v>
       </c>
       <c r="F112" s="3">
         <v>514.59</v>
@@ -10392,14 +10392,14 @@
         <v>35.56</v>
       </c>
       <c r="H112" s="3">
-        <v>145</v>
-      </c>
-      <c r="I112" s="3">
-        <v>535.80999999999995</v>
+        <v>125</v>
+      </c>
+      <c r="I112" s="16">
+        <v>530.74700347717464</v>
       </c>
       <c r="J112" s="16">
         <f t="shared" si="4"/>
-        <v>535.81002388906461</v>
+        <v>530.74700347717464</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -10413,11 +10413,11 @@
         <v>75</v>
       </c>
       <c r="D113" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E113" s="16">
         <f t="shared" si="3"/>
-        <v>302.77879714405367</v>
+        <v>293.72606285449035</v>
       </c>
       <c r="F113" s="3">
         <v>505.49</v>
@@ -10426,14 +10426,14 @@
         <v>15.6</v>
       </c>
       <c r="H113" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I113" s="16">
-        <v>526.1</v>
+        <v>520.94961378236951</v>
       </c>
       <c r="J113" s="16">
         <f t="shared" si="4"/>
-        <v>526.10692839003741</v>
+        <v>520.94961378236951</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -10447,11 +10447,11 @@
         <v>0</v>
       </c>
       <c r="D114" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E114" s="16">
         <f t="shared" si="3"/>
-        <v>293.34280287745258</v>
+        <v>283.98943642325855</v>
       </c>
       <c r="F114" s="3">
         <v>261.32</v>
@@ -10460,14 +10460,14 @@
         <v>-1.88</v>
       </c>
       <c r="H114" s="3">
-        <v>145</v>
-      </c>
-      <c r="I114" s="3">
-        <v>298.85000000000002</v>
+        <v>125</v>
+      </c>
+      <c r="I114" s="16">
+        <v>289.68375308256418</v>
       </c>
       <c r="J114" s="16">
         <f t="shared" si="4"/>
-        <v>298.85895803873774</v>
+        <v>289.68375308256418</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -10481,11 +10481,11 @@
         <v>-50</v>
       </c>
       <c r="D115" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E115" s="16">
         <f t="shared" si="3"/>
-        <v>372.99463803116527</v>
+        <v>365.68429006453096</v>
       </c>
       <c r="F115" s="3">
         <v>206.22</v>
@@ -10494,14 +10494,14 @@
         <v>-30.37</v>
       </c>
       <c r="H115" s="3">
-        <v>145</v>
-      </c>
-      <c r="I115" s="3">
-        <v>253.91</v>
+        <v>125</v>
+      </c>
+      <c r="I115" s="16">
+        <v>243.05148693229589</v>
       </c>
       <c r="J115" s="16">
         <f t="shared" si="4"/>
-        <v>253.91735919389205</v>
+        <v>243.05148693229589</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -10515,11 +10515,11 @@
         <v>0</v>
       </c>
       <c r="D116" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E116" s="16">
         <f t="shared" si="3"/>
-        <v>215.92822881689185</v>
+        <v>203.03940504246953</v>
       </c>
       <c r="F116" s="3">
         <v>246.03</v>
@@ -10528,14 +10528,14 @@
         <v>56.44</v>
       </c>
       <c r="H116" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I116" s="16">
-        <v>291.10000000000002</v>
+        <v>281.67576129301574</v>
       </c>
       <c r="J116" s="16">
         <f t="shared" si="4"/>
-        <v>291.10347730660999</v>
+        <v>281.67576129301574</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -10549,11 +10549,11 @@
         <v>105</v>
       </c>
       <c r="D117" s="3">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E117" s="16">
         <f t="shared" si="3"/>
-        <v>283.63709207365667</v>
+        <v>273.95255063605447</v>
       </c>
       <c r="F117" s="3">
         <v>510.73</v>
@@ -10562,14 +10562,14 @@
         <v>92.88</v>
       </c>
       <c r="H117" s="3">
-        <v>145</v>
-      </c>
-      <c r="I117" s="3">
-        <v>538.98</v>
+        <v>125</v>
+      </c>
+      <c r="I117" s="16">
+        <v>533.94459197560934</v>
       </c>
       <c r="J117" s="16">
         <f t="shared" si="4"/>
-        <v>538.977575878626</v>
+        <v>533.94459197560934</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -10974,14 +10974,14 @@
       </c>
       <c r="G157" s="24">
         <f t="shared" ref="G157:G166" si="7">E108</f>
-        <v>316.30681307869423</v>
-      </c>
-      <c r="H157" s="3">
-        <v>435.05</v>
+        <v>307.6524012583032</v>
+      </c>
+      <c r="H157" s="16">
+        <v>428.75205667145201</v>
       </c>
       <c r="I157" s="24">
         <f>ABS(G157-H157)</f>
-        <v>118.74318692130578</v>
+        <v>121.09965541314881</v>
       </c>
     </row>
     <row r="158" spans="6:9">
@@ -10990,14 +10990,14 @@
       </c>
       <c r="G158" s="24">
         <f t="shared" si="7"/>
-        <v>247.03238654071251</v>
-      </c>
-      <c r="H158" s="3">
-        <v>297.64</v>
+        <v>235.84952830141509</v>
+      </c>
+      <c r="H158" s="16">
+        <v>288.41898203828401</v>
       </c>
       <c r="I158" s="24">
         <f t="shared" ref="I158:I166" si="8">ABS(G158-H158)</f>
-        <v>50.607613459287478</v>
+        <v>52.569453736868923</v>
       </c>
     </row>
     <row r="159" spans="6:9">
@@ -11006,14 +11006,14 @@
       </c>
       <c r="G159" s="24">
         <f t="shared" si="7"/>
-        <v>246.72859582950656</v>
-      </c>
-      <c r="H159" s="3">
-        <v>199.44</v>
+        <v>235.53131426627755</v>
+      </c>
+      <c r="H159" s="16">
+        <v>185.40381441599305</v>
       </c>
       <c r="I159" s="24">
         <f t="shared" si="8"/>
-        <v>47.288595829506562</v>
+        <v>50.127499850284494</v>
       </c>
     </row>
     <row r="160" spans="6:9">
@@ -11022,14 +11022,14 @@
       </c>
       <c r="G160" s="24">
         <f t="shared" si="7"/>
-        <v>397.30341050637861</v>
-      </c>
-      <c r="H160" s="3">
-        <v>602.54</v>
+        <v>390.44846010709273</v>
+      </c>
+      <c r="H160" s="16">
+        <v>598.04018000465487</v>
       </c>
       <c r="I160" s="24">
         <f t="shared" si="8"/>
-        <v>205.23658949362135</v>
+        <v>207.59171989756214</v>
       </c>
     </row>
     <row r="161" spans="6:9">
@@ -11038,14 +11038,14 @@
       </c>
       <c r="G161" s="24">
         <f t="shared" si="7"/>
-        <v>279.7766966707556</v>
-      </c>
-      <c r="H161" s="3">
-        <v>535.80999999999995</v>
+        <v>269.95369973386175</v>
+      </c>
+      <c r="H161" s="16">
+        <v>530.74700347717464</v>
       </c>
       <c r="I161" s="24">
         <f t="shared" si="8"/>
-        <v>256.03330332924435</v>
+        <v>260.79330374331289</v>
       </c>
     </row>
     <row r="162" spans="6:9">
@@ -11054,14 +11054,14 @@
       </c>
       <c r="G162" s="24">
         <f t="shared" si="7"/>
-        <v>302.77879714405367</v>
+        <v>293.72606285449035</v>
       </c>
       <c r="H162" s="16">
-        <v>526.1</v>
+        <v>520.94961378236951</v>
       </c>
       <c r="I162" s="24">
         <f t="shared" si="8"/>
-        <v>223.32120285594635</v>
+        <v>227.22355092787916</v>
       </c>
     </row>
     <row r="163" spans="6:9">
@@ -11070,14 +11070,14 @@
       </c>
       <c r="G163" s="24">
         <f t="shared" si="7"/>
-        <v>293.34280287745258</v>
-      </c>
-      <c r="H163" s="3">
-        <v>298.85000000000002</v>
+        <v>283.98943642325855</v>
+      </c>
+      <c r="H163" s="16">
+        <v>289.68375308256418</v>
       </c>
       <c r="I163" s="24">
         <f t="shared" si="8"/>
-        <v>5.5071971225474385</v>
+        <v>5.6943166593056276</v>
       </c>
     </row>
     <row r="164" spans="6:9">
@@ -11086,14 +11086,14 @@
       </c>
       <c r="G164" s="24">
         <f t="shared" si="7"/>
-        <v>372.99463803116527</v>
-      </c>
-      <c r="H164" s="3">
-        <v>253.91</v>
+        <v>365.68429006453096</v>
+      </c>
+      <c r="H164" s="16">
+        <v>243.05148693229589</v>
       </c>
       <c r="I164" s="24">
         <f t="shared" si="8"/>
-        <v>119.08463803116527</v>
+        <v>122.63280313223507</v>
       </c>
     </row>
     <row r="165" spans="6:9">
@@ -11102,14 +11102,14 @@
       </c>
       <c r="G165" s="24">
         <f t="shared" si="7"/>
-        <v>215.92822881689185</v>
+        <v>203.03940504246953</v>
       </c>
       <c r="H165" s="16">
-        <v>291.10000000000002</v>
+        <v>281.67576129301574</v>
       </c>
       <c r="I165" s="24">
         <f t="shared" si="8"/>
-        <v>75.171771183108177</v>
+        <v>78.636356250546214</v>
       </c>
     </row>
     <row r="166" spans="6:9">
@@ -11118,14 +11118,14 @@
       </c>
       <c r="G166" s="24">
         <f t="shared" si="7"/>
-        <v>283.63709207365667</v>
-      </c>
-      <c r="H166" s="3">
-        <v>538.98</v>
+        <v>273.95255063605447</v>
+      </c>
+      <c r="H166" s="16">
+        <v>533.94459197560934</v>
       </c>
       <c r="I166" s="24">
         <f t="shared" si="8"/>
-        <v>255.34290792634334</v>
+        <v>259.99204133955487</v>
       </c>
     </row>
     <row r="168" spans="6:9">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="I168" s="24">
         <f>MAX(I157:I166)</f>
-        <v>256.03330332924435</v>
+        <v>260.79330374331289</v>
       </c>
     </row>
     <row r="169" spans="6:9">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="I169" s="24">
         <f>MIN(I157:I166)</f>
-        <v>5.5071971225474385</v>
+        <v>5.6943166593056276</v>
       </c>
     </row>
     <row r="170" spans="6:9">
@@ -11152,22 +11152,22 @@
       </c>
       <c r="I170" s="24">
         <f>SUM(I157:I166)/10</f>
-        <v>135.6337006152076</v>
+        <v>138.63607009506981</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2780260B-0F86-4FEA-B174-485AC83B190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2FC83F-DB84-4FB7-AB9D-BD0041CC5ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="31">
   <si>
     <t>Parámetros de la cámara</t>
   </si>
@@ -72,6 +72,21 @@
     <t>Distancia teórica (mm)</t>
   </si>
   <si>
+    <t>Coordenadas reales</t>
+  </si>
+  <si>
+    <t>Coordenadas obtenidas</t>
+  </si>
+  <si>
+    <t>Diferencia (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distancia real </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distancia obtenida </t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
@@ -102,15 +117,6 @@
     <t>P10</t>
   </si>
   <si>
-    <t>Coordenadas reales</t>
-  </si>
-  <si>
-    <t>Coordenadas obtenidas</t>
-  </si>
-  <si>
-    <t>Diferencia (mm)</t>
-  </si>
-  <si>
     <t>máximo (mm)</t>
   </si>
   <si>
@@ -118,12 +124,6 @@
   </si>
   <si>
     <t>media (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distancia real </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distancia obtenida </t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +399,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4291,6 +4297,1944 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coordenadas Eje X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38100474833808151"/>
+          <c:y val="2.6971603858626649E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$L$7:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$M$7:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD13-407D-94C4-74787E342E3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$L$7:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$N$7:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>230.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>656.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>562.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>510.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>248.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AD13-407D-94C4-74787E342E3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83365384"/>
+        <c:axId val="83367432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83365384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47269019150383979"/>
+              <c:y val="0.79589781230176437"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83367432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83367432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coordenadas (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83365384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coordenadas Eje Y</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$R$7:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$S$7:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80BB-4589-8EF6-3E3E66B6ED44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$R$7:$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$T$7:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-68.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-27.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-49.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-57.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-80BB-4589-8EF6-3E3E66B6ED44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1242805256"/>
+        <c:axId val="1242807816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1242805256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242807816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1242807816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coordenadas (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7060270602706028E-2"/>
+              <c:y val="0.35445132269650503"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242805256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distancias</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$Y$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distancia real </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$X$7:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$Y$7:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>254.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>367.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>429.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AA2-48FD-83BE-129B24A382A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$Z$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distancia obtenida </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$X$7:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$Z$7:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>276.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>584.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>235.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>532.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>296.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AA2-48FD-83BE-129B24A382A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="321299464"/>
+        <c:axId val="321301512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="321299464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321301512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="321301512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coordenadas (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321299464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4531,6 +6475,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7112,6 +9176,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7860,6 +11472,123 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB51134B-EA89-E7CE-CF0B-89FF1E851B04}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{57CBC38F-BAB5-7753-980B-ADCB6B4B1EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACEBB6A-6F0A-E711-E0F9-64C2CE7C6CA2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AB51134B-EA89-E7CE-CF0B-89FF1E851B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D95BACA-7770-BC77-28F1-7F3A19E1F1BA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5ACEBB6A-6F0A-E711-E0F9-64C2CE7C6CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8183,10 +11912,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:AA170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157:H166"/>
+    <sheetView tabSelected="1" topLeftCell="D81" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8200,9 +11929,21 @@
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" customWidth="1"/>
+    <col min="27" max="27" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:27">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -8217,7 +11958,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:27">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -8236,7 +11977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:27">
       <c r="A3" s="3">
         <v>151</v>
       </c>
@@ -8255,7 +11996,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:27">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8268,7 +12009,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:27">
       <c r="A5" s="3"/>
       <c r="B5" s="26" t="s">
         <v>4</v>
@@ -8285,7 +12026,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -8317,10 +12058,46 @@
         <v>12</v>
       </c>
       <c r="K6" s="1"/>
+      <c r="L6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:27">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>205</v>
@@ -8350,10 +12127,49 @@
         <v>276.73</v>
       </c>
       <c r="K7" s="1"/>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3">
+        <v>205</v>
+      </c>
+      <c r="N7" s="17">
+        <v>230.65</v>
+      </c>
+      <c r="O7" s="18">
+        <f>ABS(M7-N7)</f>
+        <v>25.650000000000006</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <v>24.02</v>
+      </c>
+      <c r="U7" s="18">
+        <f>ABS(S7-T7)</f>
+        <v>24.02</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>254.61</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>276.73</v>
+      </c>
+      <c r="AA7" s="18">
+        <f>ABS(Y7-Z7)</f>
+        <v>22.120000000000005</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:27">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>310</v>
@@ -8383,10 +12199,49 @@
         <v>290.87</v>
       </c>
       <c r="K8" s="1"/>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3">
+        <v>310</v>
+      </c>
+      <c r="N8" s="17">
+        <v>246.55</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" ref="O8:O16" si="0">ABS(M8-N8)</f>
+        <v>63.449999999999989</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <v>-31.89</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" ref="U8:U16" si="1">ABS(S8-T8)</f>
+        <v>31.89</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>344.82</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>290.87</v>
+      </c>
+      <c r="AA8" s="18">
+        <f t="shared" ref="AA8:AA16" si="2">ABS(Y8-Z8)</f>
+        <v>53.949999999999989</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:27">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>240</v>
@@ -8416,10 +12271,49 @@
         <v>219.34</v>
       </c>
       <c r="K9" s="1"/>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3">
+        <v>240</v>
+      </c>
+      <c r="N9" s="17">
+        <v>159.08000000000001</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="0"/>
+        <v>80.919999999999987</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="3">
+        <v>60</v>
+      </c>
+      <c r="T9" s="17">
+        <v>-1.53</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" si="1"/>
+        <v>61.53</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>289.83</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>219.34</v>
+      </c>
+      <c r="AA9" s="18">
+        <f t="shared" si="2"/>
+        <v>70.489999999999981</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:27">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
         <v>320</v>
@@ -8449,10 +12343,49 @@
         <v>677.43</v>
       </c>
       <c r="K10" s="1"/>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3">
+        <v>320</v>
+      </c>
+      <c r="N10" s="17">
+        <v>656.78</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="0"/>
+        <v>336.78</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T10" s="17">
+        <v>-68.97</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="1"/>
+        <v>31.03</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>367.7</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>677.43</v>
+      </c>
+      <c r="AA10" s="18">
+        <f t="shared" si="2"/>
+        <v>309.72999999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:27">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>190</v>
@@ -8482,10 +12415,49 @@
         <v>245.2</v>
       </c>
       <c r="K11" s="1"/>
+      <c r="L11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3">
+        <v>190</v>
+      </c>
+      <c r="N11" s="17">
+        <v>191.92</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="0"/>
+        <v>1.9199999999999875</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="3">
+        <v>55</v>
+      </c>
+      <c r="T11" s="17">
+        <v>22.07</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="1"/>
+        <v>32.93</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>248.85</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>245.2</v>
+      </c>
+      <c r="AA11" s="18">
+        <f t="shared" si="2"/>
+        <v>3.6500000000000057</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:27">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
         <v>270</v>
@@ -8515,10 +12487,49 @@
         <v>332.4</v>
       </c>
       <c r="K12" s="1"/>
+      <c r="L12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="3">
+        <v>270</v>
+      </c>
+      <c r="N12" s="17">
+        <v>294.88</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="0"/>
+        <v>24.879999999999995</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>-27.12</v>
+      </c>
+      <c r="U12" s="18">
+        <f t="shared" si="1"/>
+        <v>27.12</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>309.36</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>332.4</v>
+      </c>
+      <c r="AA12" s="18">
+        <f t="shared" si="2"/>
+        <v>23.039999999999964</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:27">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
         <v>300</v>
@@ -8548,10 +12559,49 @@
         <v>584.16999999999996</v>
       </c>
       <c r="K13" s="1"/>
+      <c r="L13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="3">
+        <v>300</v>
+      </c>
+      <c r="N13" s="17">
+        <v>562.15</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="0"/>
+        <v>262.14999999999998</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="3">
+        <v>-65</v>
+      </c>
+      <c r="T13" s="17">
+        <v>-49.46</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="1"/>
+        <v>15.54</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>342.09</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>584.16999999999996</v>
+      </c>
+      <c r="AA13" s="18">
+        <f t="shared" si="2"/>
+        <v>242.07999999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:27">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
         <v>155</v>
@@ -8581,10 +12631,49 @@
         <v>235.48</v>
       </c>
       <c r="K14" s="1"/>
+      <c r="L14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="3">
+        <v>155</v>
+      </c>
+      <c r="N14" s="17">
+        <v>176.35</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="0"/>
+        <v>21.349999999999994</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="3">
+        <v>55</v>
+      </c>
+      <c r="T14" s="17">
+        <v>39.39</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="1"/>
+        <v>15.61</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>223.27</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>235.48</v>
+      </c>
+      <c r="AA14" s="18">
+        <f t="shared" si="2"/>
+        <v>12.20999999999998</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:27">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
         <v>220</v>
@@ -8614,10 +12703,49 @@
         <v>532.36</v>
       </c>
       <c r="K15" s="1"/>
+      <c r="L15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="3">
+        <v>220</v>
+      </c>
+      <c r="N15" s="17">
+        <v>510.22</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="0"/>
+        <v>290.22000000000003</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="3">
+        <v>-40</v>
+      </c>
+      <c r="T15" s="17">
+        <v>16.91</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" si="1"/>
+        <v>56.91</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>269.82</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>532.36</v>
+      </c>
+      <c r="AA15" s="18">
+        <f t="shared" si="2"/>
+        <v>262.54000000000002</v>
+      </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:27">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
         <v>400</v>
@@ -8647,6 +12775,45 @@
         <v>296.12</v>
       </c>
       <c r="K16" s="1"/>
+      <c r="L16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="3">
+        <v>400</v>
+      </c>
+      <c r="N16" s="17">
+        <v>248.04</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="0"/>
+        <v>151.96</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="3">
+        <v>42</v>
+      </c>
+      <c r="T16" s="17">
+        <v>-57.99</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="1"/>
+        <v>99.990000000000009</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>429.61</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>296.12</v>
+      </c>
+      <c r="AA16" s="18">
+        <f t="shared" si="2"/>
+        <v>133.49</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
@@ -8752,7 +12919,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <v>205</v>
@@ -8785,7 +12952,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>160</v>
@@ -8818,7 +12985,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
         <v>230</v>
@@ -8851,7 +13018,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
         <v>230</v>
@@ -8884,7 +13051,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
         <v>350</v>
@@ -8994,7 +13161,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:27">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9007,7 +13174,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:27">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9019,8 +13186,22 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
+      <c r="T34" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34" s="18">
+        <f>MAX(U7:U16)</f>
+        <v>99.990000000000009</v>
+      </c>
+      <c r="Z34" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA34" s="18">
+        <f>MAX(AA7:AA16)</f>
+        <v>309.72999999999996</v>
+      </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:27">
       <c r="A35" s="3"/>
       <c r="B35" s="26" t="s">
         <v>4</v>
@@ -9036,8 +13217,29 @@
       <c r="I35" s="27"/>
       <c r="J35" s="28"/>
       <c r="K35" s="1"/>
+      <c r="N35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="18">
+        <f>MAX(O7:O16)</f>
+        <v>336.78</v>
+      </c>
+      <c r="T35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" s="18">
+        <f>MIN(U7:U16)</f>
+        <v>15.54</v>
+      </c>
+      <c r="Z35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA35" s="18">
+        <f>MIN(AA7:AA16)</f>
+        <v>3.6500000000000057</v>
+      </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:27">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -9069,10 +13271,31 @@
         <v>12</v>
       </c>
       <c r="K36" s="1"/>
+      <c r="N36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="18">
+        <f>MIN(O7:O16)</f>
+        <v>1.9199999999999875</v>
+      </c>
+      <c r="T36" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" s="18">
+        <f>SUM(U7:U16)/10</f>
+        <v>39.657000000000004</v>
+      </c>
+      <c r="Z36" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA36" s="18">
+        <f>SUM(AA7:AA16)/10</f>
+        <v>113.33</v>
+      </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:27">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B37" s="3">
         <v>280</v>
@@ -9102,10 +13325,17 @@
         <v>310.31</v>
       </c>
       <c r="K37" s="1"/>
+      <c r="N37" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="18">
+        <f>SUM(O7:O16)/10</f>
+        <v>125.928</v>
+      </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:27">
       <c r="A38" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3">
         <v>200</v>
@@ -9136,9 +13366,9 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:27">
       <c r="A39" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B39" s="3">
         <v>185</v>
@@ -9169,9 +13399,9 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:27">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3">
         <v>360</v>
@@ -9202,9 +13432,9 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:27">
       <c r="A41" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B41" s="3">
         <v>235</v>
@@ -9235,9 +13465,9 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:27">
       <c r="A42" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B42" s="3">
         <v>255</v>
@@ -9268,9 +13498,9 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:27">
       <c r="A43" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B43" s="3">
         <v>255</v>
@@ -9301,9 +13531,9 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:27">
       <c r="A44" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B44" s="3">
         <v>340</v>
@@ -9334,9 +13564,9 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:27">
       <c r="A45" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B45" s="3">
         <v>160</v>
@@ -9367,9 +13597,9 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:27">
       <c r="A46" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3">
         <v>220</v>
@@ -9400,7 +13630,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:27">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -9413,7 +13643,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:27">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -9423,13 +13653,13 @@
         <v>6</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -9441,7 +13671,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G49" s="3">
         <v>280</v>
@@ -9463,7 +13693,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G50" s="3">
         <v>200</v>
@@ -9472,7 +13702,7 @@
         <v>342.97</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" ref="I50:I58" si="0">ABS(G50-H50)</f>
+        <f t="shared" ref="I50:I58" si="3">ABS(G50-H50)</f>
         <v>142.97000000000003</v>
       </c>
       <c r="J50" s="1"/>
@@ -9485,7 +13715,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G51" s="3">
         <v>185</v>
@@ -9494,7 +13724,7 @@
         <v>166.39</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18.610000000000014</v>
       </c>
       <c r="J51" s="1"/>
@@ -9507,7 +13737,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G52" s="3">
         <v>360</v>
@@ -9516,7 +13746,7 @@
         <v>634.66</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>274.65999999999997</v>
       </c>
       <c r="J52" s="1"/>
@@ -9529,7 +13759,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G53" s="3">
         <v>235</v>
@@ -9538,7 +13768,7 @@
         <v>480.32</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>245.32</v>
       </c>
       <c r="J53" s="1"/>
@@ -9551,7 +13781,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G54" s="3">
         <v>255</v>
@@ -9560,7 +13790,7 @@
         <v>191.22</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63.78</v>
       </c>
       <c r="J54" s="1"/>
@@ -9573,7 +13803,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G55" s="3">
         <v>255</v>
@@ -9582,7 +13812,7 @@
         <v>250.75</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
       <c r="J55" s="1"/>
@@ -9595,7 +13825,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G56" s="3">
         <v>340</v>
@@ -9604,7 +13834,7 @@
         <v>451.91</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>111.91000000000003</v>
       </c>
       <c r="J56" s="1"/>
@@ -9617,7 +13847,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G57" s="3">
         <v>160</v>
@@ -9626,7 +13856,7 @@
         <v>345.53</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>185.52999999999997</v>
       </c>
       <c r="J57" s="1"/>
@@ -9639,7 +13869,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G58" s="3">
         <v>220</v>
@@ -9648,7 +13878,7 @@
         <v>137.04</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>82.960000000000008</v>
       </c>
       <c r="J58" s="1"/>
@@ -9676,7 +13906,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I60" s="3">
         <f>MAX(I49:I58)</f>
@@ -9694,7 +13924,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I61" s="3">
         <f>MIN(I49:I58)</f>
@@ -9712,7 +13942,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I62" s="3">
         <f>(SUM(I49:I58))/10</f>
@@ -9778,18 +14008,18 @@
         <v>6</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="F68" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="3">
         <v>-25</v>
@@ -9804,7 +14034,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="F69" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -9813,13 +14043,13 @@
         <v>20.239999999999998</v>
       </c>
       <c r="I69" s="18">
-        <f t="shared" ref="I69:I77" si="1">ABS(G69-H69)</f>
+        <f t="shared" ref="I69:I77" si="4">ABS(G69-H69)</f>
         <v>20.239999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="F70" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G70" s="3">
         <v>-75</v>
@@ -9828,13 +14058,13 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I70" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95.1</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="F71" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G71" s="3">
         <v>85</v>
@@ -9843,13 +14073,13 @@
         <v>-87.32</v>
       </c>
       <c r="I71" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>172.32</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="F72" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G72" s="3">
         <v>45</v>
@@ -9858,13 +14088,13 @@
         <v>8.74</v>
       </c>
       <c r="I72" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36.26</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="F73" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G73" s="3">
         <v>75</v>
@@ -9873,13 +14103,13 @@
         <v>-11.9</v>
       </c>
       <c r="I73" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>86.9</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="F74" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -9888,13 +14118,13 @@
         <v>-12.19</v>
       </c>
       <c r="I74" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.19</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="F75" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G75" s="3">
         <v>-50</v>
@@ -9903,13 +14133,13 @@
         <v>-63.67</v>
       </c>
       <c r="I75" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.670000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="F76" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -9918,13 +14148,13 @@
         <v>53.99</v>
       </c>
       <c r="I76" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53.99</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="F77" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G77" s="3">
         <v>105</v>
@@ -9933,13 +14163,13 @@
         <v>-2.71</v>
       </c>
       <c r="I77" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>107.71</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="H79" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I79" s="3">
         <f>MAX(I68:I77)</f>
@@ -9948,7 +14178,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="H80" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I80" s="3">
         <f>MIN(I68:I77)</f>
@@ -9957,7 +14187,7 @@
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I81" s="3">
         <f>(SUM(I68:I77))/10</f>
@@ -9969,18 +14199,18 @@
         <v>6</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G84" s="14">
         <v>316.31</v>
@@ -9995,7 +14225,7 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G85" s="3">
         <v>247.03</v>
@@ -10004,13 +14234,13 @@
         <v>372.91</v>
       </c>
       <c r="I85" s="18">
-        <f t="shared" ref="I85:I93" si="2">ABS(G85-H85)</f>
+        <f t="shared" ref="I85:I93" si="5">ABS(G85-H85)</f>
         <v>125.88000000000002</v>
       </c>
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G86" s="3">
         <v>246.73</v>
@@ -10019,13 +14249,13 @@
         <v>221.62</v>
       </c>
       <c r="I86" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.109999999999985</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G87" s="3">
         <v>397.3</v>
@@ -10034,13 +14264,13 @@
         <v>656.84</v>
       </c>
       <c r="I87" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>259.54000000000002</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G88" s="3">
         <v>279.77999999999997</v>
@@ -10049,13 +14279,13 @@
         <v>501.81</v>
       </c>
       <c r="I88" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>222.03000000000003</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G89" s="3">
         <v>302.77999999999997</v>
@@ -10064,13 +14294,13 @@
         <v>240.27</v>
       </c>
       <c r="I89" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62.509999999999962</v>
       </c>
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G90" s="3">
         <v>293.33999999999997</v>
@@ -10079,13 +14309,13 @@
         <v>289.91000000000003</v>
       </c>
       <c r="I90" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.42999999999995</v>
       </c>
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G91" s="3">
         <v>372.99</v>
@@ -10094,13 +14324,13 @@
         <v>478.85</v>
       </c>
       <c r="I91" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>105.86000000000001</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G92" s="3">
         <v>215.93</v>
@@ -10109,13 +14339,13 @@
         <v>378.59</v>
       </c>
       <c r="I92" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>162.65999999999997</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G93" s="3">
         <v>283.64</v>
@@ -10124,13 +14354,13 @@
         <v>199.53</v>
       </c>
       <c r="I93" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>84.109999999999985</v>
       </c>
     </row>
     <row r="95" spans="6:9">
       <c r="H95" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I95" s="3">
         <f>MAX(I84:I93)</f>
@@ -10139,7 +14369,7 @@
     </row>
     <row r="96" spans="6:9">
       <c r="H96" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I96" s="3">
         <f>MIN(I84:I93)</f>
@@ -10148,7 +14378,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="H97" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I97" s="3">
         <f>SUM(I84:I93)/10</f>
@@ -10234,7 +14464,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B108" s="3">
         <v>280</v>
@@ -10268,7 +14498,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B109" s="3">
         <v>200</v>
@@ -10280,7 +14510,7 @@
         <v>125</v>
       </c>
       <c r="E109" s="16">
-        <f t="shared" ref="E109:E117" si="3">SQRT((B109*B109)+(C109*C109)+(D109*D109))</f>
+        <f t="shared" ref="E109:E117" si="6">SQRT((B109*B109)+(C109*C109)+(D109*D109))</f>
         <v>235.84952830141509</v>
       </c>
       <c r="F109" s="3">
@@ -10296,13 +14526,13 @@
         <v>288.41898203828401</v>
       </c>
       <c r="J109" s="16">
-        <f t="shared" ref="I109:J117" si="4">SQRT((F109*F109)+(G109*G109)+(H109*H109))</f>
+        <f t="shared" ref="I109:J117" si="7">SQRT((F109*F109)+(G109*G109)+(H109*H109))</f>
         <v>288.41898203828401</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B110" s="3">
         <v>185</v>
@@ -10314,7 +14544,7 @@
         <v>125</v>
       </c>
       <c r="E110" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>235.53131426627755</v>
       </c>
       <c r="F110" s="3">
@@ -10330,13 +14560,13 @@
         <v>185.40381441599305</v>
       </c>
       <c r="J110" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>185.40381441599305</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B111" s="3">
         <v>360</v>
@@ -10348,7 +14578,7 @@
         <v>125</v>
       </c>
       <c r="E111" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>390.44846010709273</v>
       </c>
       <c r="F111" s="3">
@@ -10364,13 +14594,13 @@
         <v>598.04018000465487</v>
       </c>
       <c r="J111" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>598.04018000465487</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B112" s="3">
         <v>235</v>
@@ -10382,7 +14612,7 @@
         <v>125</v>
       </c>
       <c r="E112" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>269.95369973386175</v>
       </c>
       <c r="F112" s="3">
@@ -10398,13 +14628,13 @@
         <v>530.74700347717464</v>
       </c>
       <c r="J112" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>530.74700347717464</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B113" s="3">
         <v>255</v>
@@ -10416,7 +14646,7 @@
         <v>125</v>
       </c>
       <c r="E113" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>293.72606285449035</v>
       </c>
       <c r="F113" s="3">
@@ -10432,13 +14662,13 @@
         <v>520.94961378236951</v>
       </c>
       <c r="J113" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>520.94961378236951</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B114" s="3">
         <v>255</v>
@@ -10450,7 +14680,7 @@
         <v>125</v>
       </c>
       <c r="E114" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>283.98943642325855</v>
       </c>
       <c r="F114" s="3">
@@ -10466,13 +14696,13 @@
         <v>289.68375308256418</v>
       </c>
       <c r="J114" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>289.68375308256418</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B115" s="3">
         <v>340</v>
@@ -10484,7 +14714,7 @@
         <v>125</v>
       </c>
       <c r="E115" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>365.68429006453096</v>
       </c>
       <c r="F115" s="3">
@@ -10500,13 +14730,13 @@
         <v>243.05148693229589</v>
       </c>
       <c r="J115" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>243.05148693229589</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B116" s="3">
         <v>160</v>
@@ -10518,7 +14748,7 @@
         <v>125</v>
       </c>
       <c r="E116" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>203.03940504246953</v>
       </c>
       <c r="F116" s="3">
@@ -10534,13 +14764,13 @@
         <v>281.67576129301574</v>
       </c>
       <c r="J116" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>281.67576129301574</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B117" s="3">
         <v>220</v>
@@ -10552,7 +14782,7 @@
         <v>125</v>
       </c>
       <c r="E117" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>273.95255063605447</v>
       </c>
       <c r="F117" s="3">
@@ -10568,7 +14798,7 @@
         <v>533.94459197560934</v>
       </c>
       <c r="J117" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>533.94459197560934</v>
       </c>
     </row>
@@ -10577,18 +14807,18 @@
         <v>6</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="F121" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G121" s="3">
         <v>280</v>
@@ -10603,7 +14833,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="F122" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G122" s="3">
         <v>200</v>
@@ -10612,13 +14842,13 @@
         <v>257.33999999999997</v>
       </c>
       <c r="I122" s="18">
-        <f t="shared" ref="I122:I130" si="5">ABS(G122-H122)</f>
+        <f t="shared" ref="I122:I130" si="8">ABS(G122-H122)</f>
         <v>57.339999999999975</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="F123" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G123" s="3">
         <v>185</v>
@@ -10627,13 +14857,13 @@
         <v>134.88</v>
       </c>
       <c r="I123" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50.120000000000005</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="F124" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G124" s="3">
         <v>360</v>
@@ -10642,13 +14872,13 @@
         <v>580.85</v>
       </c>
       <c r="I124" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>220.85000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="F125" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G125" s="3">
         <v>235</v>
@@ -10657,13 +14887,13 @@
         <v>514.59</v>
       </c>
       <c r="I125" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>279.59000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="F126" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G126" s="3">
         <v>255</v>
@@ -10672,13 +14902,13 @@
         <v>505.49</v>
       </c>
       <c r="I126" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>250.49</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="F127" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G127" s="3">
         <v>255</v>
@@ -10687,13 +14917,13 @@
         <v>261.32</v>
       </c>
       <c r="I127" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.3199999999999932</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="F128" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G128" s="3">
         <v>340</v>
@@ -10702,13 +14932,13 @@
         <v>206.22</v>
       </c>
       <c r="I128" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>133.78</v>
       </c>
     </row>
     <row r="129" spans="6:9">
       <c r="F129" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G129" s="3">
         <v>160</v>
@@ -10717,13 +14947,13 @@
         <v>246.03</v>
       </c>
       <c r="I129" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>86.03</v>
       </c>
     </row>
     <row r="130" spans="6:9">
       <c r="F130" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G130" s="3">
         <v>220</v>
@@ -10732,13 +14962,13 @@
         <v>510.73</v>
       </c>
       <c r="I130" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>290.73</v>
       </c>
     </row>
     <row r="132" spans="6:9">
       <c r="H132" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I132" s="18">
         <f>MAX(I121:I130)</f>
@@ -10747,7 +14977,7 @@
     </row>
     <row r="133" spans="6:9">
       <c r="H133" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I133" s="18">
         <f>MIN(I121:I130)</f>
@@ -10756,7 +14986,7 @@
     </row>
     <row r="134" spans="6:9">
       <c r="H134" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I134" s="18">
         <f>SUM(I121:I130)/10</f>
@@ -10768,18 +14998,18 @@
         <v>6</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="6:9">
       <c r="F139" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G139" s="3">
         <v>-25</v>
@@ -10794,7 +15024,7 @@
     </row>
     <row r="140" spans="6:9">
       <c r="F140" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
@@ -10803,13 +15033,13 @@
         <v>36.56</v>
       </c>
       <c r="I140" s="18">
-        <f t="shared" ref="I140:I148" si="6">ABS(G140-H140)</f>
+        <f t="shared" ref="I140:I148" si="9">ABS(G140-H140)</f>
         <v>36.56</v>
       </c>
     </row>
     <row r="141" spans="6:9">
       <c r="F141" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G141" s="3">
         <v>-75</v>
@@ -10818,13 +15048,13 @@
         <v>23.6</v>
       </c>
       <c r="I141" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>98.6</v>
       </c>
     </row>
     <row r="142" spans="6:9">
       <c r="F142" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G142" s="3">
         <v>85</v>
@@ -10833,13 +15063,13 @@
         <v>-68.12</v>
       </c>
       <c r="I142" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>153.12</v>
       </c>
     </row>
     <row r="143" spans="6:9">
       <c r="F143" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G143" s="3">
         <v>45</v>
@@ -10848,13 +15078,13 @@
         <v>35.56</v>
       </c>
       <c r="I143" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.4399999999999977</v>
       </c>
     </row>
     <row r="144" spans="6:9">
       <c r="F144" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G144" s="3">
         <v>75</v>
@@ -10863,13 +15093,13 @@
         <v>15.6</v>
       </c>
       <c r="I144" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.4</v>
       </c>
     </row>
     <row r="145" spans="6:9">
       <c r="F145" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -10878,13 +15108,13 @@
         <v>-1.88</v>
       </c>
       <c r="I145" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.88</v>
       </c>
     </row>
     <row r="146" spans="6:9">
       <c r="F146" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G146" s="3">
         <v>-50</v>
@@ -10893,13 +15123,13 @@
         <v>-30.37</v>
       </c>
       <c r="I146" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.63</v>
       </c>
     </row>
     <row r="147" spans="6:9">
       <c r="F147" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G147" s="3">
         <v>0</v>
@@ -10908,13 +15138,13 @@
         <v>56.44</v>
       </c>
       <c r="I147" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>56.44</v>
       </c>
     </row>
     <row r="148" spans="6:9">
       <c r="F148" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G148" s="3">
         <v>105</v>
@@ -10923,13 +15153,13 @@
         <v>92.88</v>
       </c>
       <c r="I148" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.120000000000005</v>
       </c>
     </row>
     <row r="150" spans="6:9">
       <c r="H150" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I150" s="18">
         <f>MAX(I139:I148)</f>
@@ -10938,7 +15168,7 @@
     </row>
     <row r="151" spans="6:9">
       <c r="H151" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I151" s="18">
         <f>MIN(I139:I148)</f>
@@ -10947,7 +15177,7 @@
     </row>
     <row r="152" spans="6:9">
       <c r="H152" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I152" s="18">
         <f>SUM(I139:I148)/10</f>
@@ -10959,21 +15189,21 @@
         <v>6</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H156" s="25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="6:9">
       <c r="F157" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G157" s="24">
-        <f t="shared" ref="G157:G166" si="7">E108</f>
+        <f t="shared" ref="G157:G166" si="10">E108</f>
         <v>307.6524012583032</v>
       </c>
       <c r="H157" s="16">
@@ -10986,151 +15216,151 @@
     </row>
     <row r="158" spans="6:9">
       <c r="F158" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G158" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>235.84952830141509</v>
       </c>
       <c r="H158" s="16">
         <v>288.41898203828401</v>
       </c>
       <c r="I158" s="24">
-        <f t="shared" ref="I158:I166" si="8">ABS(G158-H158)</f>
+        <f t="shared" ref="I158:I166" si="11">ABS(G158-H158)</f>
         <v>52.569453736868923</v>
       </c>
     </row>
     <row r="159" spans="6:9">
       <c r="F159" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G159" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>235.53131426627755</v>
       </c>
       <c r="H159" s="16">
         <v>185.40381441599305</v>
       </c>
       <c r="I159" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>50.127499850284494</v>
       </c>
     </row>
     <row r="160" spans="6:9">
       <c r="F160" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G160" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>390.44846010709273</v>
       </c>
       <c r="H160" s="16">
         <v>598.04018000465487</v>
       </c>
       <c r="I160" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>207.59171989756214</v>
       </c>
     </row>
     <row r="161" spans="6:9">
       <c r="F161" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G161" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>269.95369973386175</v>
       </c>
       <c r="H161" s="16">
         <v>530.74700347717464</v>
       </c>
       <c r="I161" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>260.79330374331289</v>
       </c>
     </row>
     <row r="162" spans="6:9">
       <c r="F162" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G162" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>293.72606285449035</v>
       </c>
       <c r="H162" s="16">
         <v>520.94961378236951</v>
       </c>
       <c r="I162" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>227.22355092787916</v>
       </c>
     </row>
     <row r="163" spans="6:9">
       <c r="F163" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G163" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>283.98943642325855</v>
       </c>
       <c r="H163" s="16">
         <v>289.68375308256418</v>
       </c>
       <c r="I163" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.6943166593056276</v>
       </c>
     </row>
     <row r="164" spans="6:9">
       <c r="F164" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G164" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>365.68429006453096</v>
       </c>
       <c r="H164" s="16">
         <v>243.05148693229589</v>
       </c>
       <c r="I164" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>122.63280313223507</v>
       </c>
     </row>
     <row r="165" spans="6:9">
       <c r="F165" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G165" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>203.03940504246953</v>
       </c>
       <c r="H165" s="16">
         <v>281.67576129301574</v>
       </c>
       <c r="I165" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>78.636356250546214</v>
       </c>
     </row>
     <row r="166" spans="6:9">
       <c r="F166" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G166" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>273.95255063605447</v>
       </c>
       <c r="H166" s="16">
         <v>533.94459197560934</v>
       </c>
       <c r="I166" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>259.99204133955487</v>
       </c>
     </row>
     <row r="168" spans="6:9">
       <c r="H168" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I168" s="24">
         <f>MAX(I157:I166)</f>
@@ -11139,7 +15369,7 @@
     </row>
     <row r="169" spans="6:9">
       <c r="H169" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I169" s="24">
         <f>MIN(I157:I166)</f>
@@ -11148,7 +15378,7 @@
     </row>
     <row r="170" spans="6:9">
       <c r="H170" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I170" s="24">
         <f>SUM(I157:I166)/10</f>
@@ -11157,17 +15387,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2FC83F-DB84-4FB7-AB9D-BD0041CC5ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC098342-A122-45F6-A520-F89DFDA0EDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6084,7 +6084,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Coordenadas (mm)</a:t>
+                  <a:t>Distancia (mm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11914,7 +11914,7 @@
   </sheetPr>
   <dimension ref="A1:AA170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S11" workbookViewId="0">
       <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>

--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC098342-A122-45F6-A520-F89DFDA0EDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4557AE57-033C-426A-B1ED-CA2DEE321713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Distancias Fresas" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparaciones Resultados " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="31">
   <si>
     <t>Parámetros de la cámara</t>
   </si>
@@ -130,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +169,16 @@
       <name val="Liberation Sans"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +224,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF596"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +418,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,11 +436,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,6 +465,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF596"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11280,15 +11338,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11914,8 +11972,8 @@
   </sheetPr>
   <dimension ref="A1:AA170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S11" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156:I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11944,11 +12002,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -12011,19 +12069,19 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
@@ -12051,10 +12109,10 @@
       <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="1"/>
@@ -12085,13 +12143,13 @@
       <c r="X6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="Y6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="29" t="s">
+      <c r="Z6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" s="30" t="s">
+      <c r="AA6" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12869,19 +12927,19 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="26" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
@@ -13109,11 +13167,11 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -13203,19 +13261,19 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="3"/>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="26" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
       <c r="K35" s="1"/>
       <c r="N35" s="22" t="s">
         <v>28</v>
@@ -14386,11 +14444,11 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="31"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
@@ -14416,19 +14474,19 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="3"/>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="26" t="s">
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="28"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="31"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="4" t="s">
@@ -15403,4 +15461,1146 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A53AE-05FE-4343-86A2-73C17600B97E}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="H1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0297442586766501</v>
+      </c>
+      <c r="H3" s="3">
+        <v>125</v>
+      </c>
+      <c r="I3" s="3">
+        <v>59</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.0297442586766501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>280</v>
+      </c>
+      <c r="C7" s="17">
+        <v>273.24</v>
+      </c>
+      <c r="D7" s="35">
+        <f>ABS(B7-C7)</f>
+        <v>6.7599999999999909</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3">
+        <v>280</v>
+      </c>
+      <c r="J7" s="17">
+        <v>409.94</v>
+      </c>
+      <c r="K7" s="18">
+        <f>ABS(I7-J7)</f>
+        <v>129.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>200</v>
+      </c>
+      <c r="C8" s="17">
+        <v>342.97</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D16" si="0">ABS(B8-C8)</f>
+        <v>142.97000000000003</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="17">
+        <v>257.33999999999997</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" ref="K8:K16" si="1">ABS(I8-J8)</f>
+        <v>57.339999999999975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>185</v>
+      </c>
+      <c r="C9" s="17">
+        <v>166.39</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="0"/>
+        <v>18.610000000000014</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3">
+        <v>185</v>
+      </c>
+      <c r="J9" s="17">
+        <v>134.88</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="1"/>
+        <v>50.120000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>360</v>
+      </c>
+      <c r="C10" s="17">
+        <v>634.66</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>274.65999999999997</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3">
+        <v>360</v>
+      </c>
+      <c r="J10" s="17">
+        <v>580.85</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="1"/>
+        <v>220.85000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>235</v>
+      </c>
+      <c r="C11" s="17">
+        <v>480.32</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>245.32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3">
+        <v>235</v>
+      </c>
+      <c r="J11" s="17">
+        <v>514.59</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="1"/>
+        <v>279.59000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>255</v>
+      </c>
+      <c r="C12" s="17">
+        <v>191.22</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>63.78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3">
+        <v>255</v>
+      </c>
+      <c r="J12" s="17">
+        <v>505.49</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="1"/>
+        <v>250.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>255</v>
+      </c>
+      <c r="C13" s="17">
+        <v>250.75</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3">
+        <v>255</v>
+      </c>
+      <c r="J13" s="17">
+        <v>261.32</v>
+      </c>
+      <c r="K13" s="36">
+        <f t="shared" si="1"/>
+        <v>6.3199999999999932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>340</v>
+      </c>
+      <c r="C14" s="17">
+        <v>451.91</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>111.91000000000003</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3">
+        <v>340</v>
+      </c>
+      <c r="J14" s="17">
+        <v>206.22</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="1"/>
+        <v>133.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>160</v>
+      </c>
+      <c r="C15" s="17">
+        <v>345.53</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>185.52999999999997</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3">
+        <v>160</v>
+      </c>
+      <c r="J15" s="17">
+        <v>246.03</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="1"/>
+        <v>86.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>220</v>
+      </c>
+      <c r="C16" s="17">
+        <v>137.04</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>82.960000000000008</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3">
+        <v>220</v>
+      </c>
+      <c r="J16" s="17">
+        <v>510.73</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="1"/>
+        <v>290.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3">
+        <f>MAX(D7:D16)</f>
+        <v>274.65999999999997</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="18">
+        <f>MAX(K7:K16)</f>
+        <v>290.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3">
+        <f>MIN(D7:D16)</f>
+        <v>4.25</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="18">
+        <f>MIN(K7:K16)</f>
+        <v>6.3199999999999932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <f>(SUM(D7:D16))/10</f>
+        <v>113.675</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="18">
+        <f>SUM(K7:K16)/10</f>
+        <v>150.51900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-25</v>
+      </c>
+      <c r="C25" s="17">
+        <v>-24.65</v>
+      </c>
+      <c r="D25" s="37">
+        <f>ABS(B25-C25)</f>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-25</v>
+      </c>
+      <c r="J25" s="17">
+        <v>-12.35</v>
+      </c>
+      <c r="K25" s="37">
+        <f>ABS(I25-J25)</f>
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="D26" s="37">
+        <f t="shared" ref="D26:D34" si="2">ABS(B26-C26)</f>
+        <v>20.239999999999998</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>36.56</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" ref="K26:K34" si="3">ABS(I26-J26)</f>
+        <v>36.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-75</v>
+      </c>
+      <c r="C27" s="17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="2"/>
+        <v>95.1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-75</v>
+      </c>
+      <c r="J27" s="17">
+        <v>23.6</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="3"/>
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>85</v>
+      </c>
+      <c r="C28" s="17">
+        <v>-87.32</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="2"/>
+        <v>172.32</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3">
+        <v>85</v>
+      </c>
+      <c r="J28" s="17">
+        <v>-68.12</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="3"/>
+        <v>153.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45</v>
+      </c>
+      <c r="C29" s="17">
+        <v>8.74</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="2"/>
+        <v>36.26</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45</v>
+      </c>
+      <c r="J29" s="17">
+        <v>35.56</v>
+      </c>
+      <c r="K29" s="37">
+        <f t="shared" si="3"/>
+        <v>9.4399999999999977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3">
+        <v>75</v>
+      </c>
+      <c r="C30" s="17">
+        <v>-11.9</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="2"/>
+        <v>86.9</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="3">
+        <v>75</v>
+      </c>
+      <c r="J30" s="23">
+        <v>15.6</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="3"/>
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17">
+        <v>-12.19</v>
+      </c>
+      <c r="D31" s="37">
+        <f t="shared" si="2"/>
+        <v>12.19</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>-1.88</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" si="3"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C32" s="17">
+        <v>-63.67</v>
+      </c>
+      <c r="D32" s="37">
+        <f t="shared" si="2"/>
+        <v>13.670000000000002</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-50</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-30.37</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" si="3"/>
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>53.99</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="2"/>
+        <v>53.99</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <v>56.44</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="3"/>
+        <v>56.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>105</v>
+      </c>
+      <c r="C34" s="17">
+        <v>-2.71</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" si="2"/>
+        <v>107.71</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="3">
+        <v>105</v>
+      </c>
+      <c r="J34" s="17">
+        <v>92.88</v>
+      </c>
+      <c r="K34" s="37">
+        <f t="shared" si="3"/>
+        <v>12.120000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="C36" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3">
+        <f>MAX(D25:D34)</f>
+        <v>172.32</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="18">
+        <f>MAX(K25:K34)</f>
+        <v>153.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="C37" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3">
+        <f>MIN(D25:D34)</f>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="18">
+        <f>MIN(K25:K34)</f>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="C38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="3">
+        <f>(SUM(D25:D34))/10</f>
+        <v>59.873000000000005</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="18">
+        <f>SUM(K25:K34)/10</f>
+        <v>45.983999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="14">
+        <v>316.31</v>
+      </c>
+      <c r="C43" s="20">
+        <v>310.31</v>
+      </c>
+      <c r="D43" s="39">
+        <f>ABS(B43-C43)</f>
+        <v>6</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="24">
+        <v>307.6524012583032</v>
+      </c>
+      <c r="J43" s="24">
+        <v>428.75205667145201</v>
+      </c>
+      <c r="K43" s="24">
+        <v>121.09965541314881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3">
+        <v>247.03</v>
+      </c>
+      <c r="C44" s="17">
+        <v>372.91</v>
+      </c>
+      <c r="D44" s="18">
+        <f t="shared" ref="D44:D52" si="4">ABS(B44-C44)</f>
+        <v>125.88000000000002</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="24">
+        <v>235.84952830141509</v>
+      </c>
+      <c r="J44" s="24">
+        <v>288.41898203828401</v>
+      </c>
+      <c r="K44" s="24">
+        <v>52.569453736868923</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3">
+        <v>246.73</v>
+      </c>
+      <c r="C45" s="17">
+        <v>221.62</v>
+      </c>
+      <c r="D45" s="39">
+        <f t="shared" si="4"/>
+        <v>25.109999999999985</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="24">
+        <v>235.53131426627755</v>
+      </c>
+      <c r="J45" s="24">
+        <v>185.40381441599305</v>
+      </c>
+      <c r="K45" s="24">
+        <v>50.127499850284494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3">
+        <v>397.3</v>
+      </c>
+      <c r="C46" s="17">
+        <v>656.84</v>
+      </c>
+      <c r="D46" s="18">
+        <f t="shared" si="4"/>
+        <v>259.54000000000002</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="24">
+        <v>390.44846010709273</v>
+      </c>
+      <c r="J46" s="24">
+        <v>598.04018000465487</v>
+      </c>
+      <c r="K46" s="24">
+        <v>207.59171989756214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="3">
+        <v>279.77999999999997</v>
+      </c>
+      <c r="C47" s="17">
+        <v>501.81</v>
+      </c>
+      <c r="D47" s="18">
+        <f t="shared" si="4"/>
+        <v>222.03000000000003</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="24">
+        <v>269.95369973386175</v>
+      </c>
+      <c r="J47" s="24">
+        <v>530.74700347717464</v>
+      </c>
+      <c r="K47" s="24">
+        <v>260.79330374331289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="3">
+        <v>302.77999999999997</v>
+      </c>
+      <c r="C48" s="17">
+        <v>240.27</v>
+      </c>
+      <c r="D48" s="18">
+        <f t="shared" si="4"/>
+        <v>62.509999999999962</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="24">
+        <v>293.72606285449035</v>
+      </c>
+      <c r="J48" s="24">
+        <v>520.94961378236951</v>
+      </c>
+      <c r="K48" s="24">
+        <v>227.22355092787916</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="3">
+        <v>293.33999999999997</v>
+      </c>
+      <c r="C49" s="17">
+        <v>289.91000000000003</v>
+      </c>
+      <c r="D49" s="39">
+        <f t="shared" si="4"/>
+        <v>3.42999999999995</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="24">
+        <v>283.98943642325855</v>
+      </c>
+      <c r="J49" s="24">
+        <v>289.68375308256418</v>
+      </c>
+      <c r="K49" s="40">
+        <v>5.6943166593056276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="3">
+        <v>372.99</v>
+      </c>
+      <c r="C50" s="17">
+        <v>478.85</v>
+      </c>
+      <c r="D50" s="18">
+        <f t="shared" si="4"/>
+        <v>105.86000000000001</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="24">
+        <v>365.68429006453096</v>
+      </c>
+      <c r="J50" s="24">
+        <v>243.05148693229589</v>
+      </c>
+      <c r="K50" s="24">
+        <v>122.63280313223507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="3">
+        <v>215.93</v>
+      </c>
+      <c r="C51" s="17">
+        <v>378.59</v>
+      </c>
+      <c r="D51" s="18">
+        <f t="shared" si="4"/>
+        <v>162.65999999999997</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="24">
+        <v>203.03940504246953</v>
+      </c>
+      <c r="J51" s="24">
+        <v>281.67576129301574</v>
+      </c>
+      <c r="K51" s="24">
+        <v>78.636356250546214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="3">
+        <v>283.64</v>
+      </c>
+      <c r="C52" s="17">
+        <v>199.53</v>
+      </c>
+      <c r="D52" s="18">
+        <f t="shared" si="4"/>
+        <v>84.109999999999985</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="24">
+        <v>273.95255063605447</v>
+      </c>
+      <c r="J52" s="24">
+        <v>533.94459197560934</v>
+      </c>
+      <c r="K52" s="24">
+        <v>259.99204133955487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="C54" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="3">
+        <f>MAX(D43:D52)</f>
+        <v>259.54000000000002</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="33">
+        <v>260.79330374331289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="C55" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3">
+        <f>MIN(D43:D52)</f>
+        <v>3.42999999999995</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="33">
+        <v>5.6943166593056276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="C56" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="3">
+        <f>SUM(D43:D52)/10</f>
+        <v>105.71299999999999</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="33">
+        <v>138.63607009506981</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A176DBA2-3270-4989-A337-CA06A64CF497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D0617E-3F4C-4A3B-A1B3-E8E283661589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Distancias Fresas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="46">
   <si>
     <t>Parámetros de la cámara</t>
   </si>
@@ -223,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +290,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFAC9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -419,11 +431,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,15 +544,6 @@
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,9 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,6 +622,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +691,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFAC9"/>
       <color rgb="FFFFF596"/>
+      <color rgb="FFFFD1D1"/>
+      <color rgb="FFFFADAD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2147,841 +2220,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Coordenadas Eje Y</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pruebas Distancias Fresas'!$J$245</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coordenadas reales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'Pruebas Distancias Fresas'!$I$246:$I$270</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>P1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>P6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>P7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>P8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>P9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>P11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>P12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>P13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>P14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>P15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>P16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>P17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>P18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>P19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>P21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>P22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>P23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>P24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>P25</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Pruebas Distancias Fresas'!$J$246:$J$270</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5A9-4554-A0C4-012E992AD667}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pruebas Distancias Fresas'!$K$245</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coordenadas obtenidas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'Pruebas Distancias Fresas'!$I$246:$I$270</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>P1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>P6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>P7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>P8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>P9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>P11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>P12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>P13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>P14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>P15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>P16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>P17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>P18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>P19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>P21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>P22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>P23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>P24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>P25</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Pruebas Distancias Fresas'!$K$246:$K$270</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>163.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>453.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>188.19</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>102.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>91.09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>148.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>73.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76.36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62.96</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.82</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.55</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-17.91</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-27.69</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-13.81</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-32.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E5A9-4554-A0C4-012E992AD667}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="74974215"/>
-        <c:axId val="74976263"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="74974215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="25"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Puntos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48568675035354497"/>
-              <c:y val="0.87511554258958102"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74976263"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="74976263"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Coordenadas (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6260162601626018E-2"/>
-              <c:y val="0.41168571833926165"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74974215"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Distancias</a:t>
             </a:r>
           </a:p>
@@ -3766,7 +3004,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4404,7 +3642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5043,7 +4281,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5604,6 +4842,2445 @@
         <c:crossAx val="363378696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coordenadas Eje X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$427</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$428:$I$452</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$428:$J$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-741C-494D-95C2-1FA89A6AD56B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$427</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$428:$I$452</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$428:$K$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>262.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.89</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>248.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>544.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>602.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>253.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>589.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>322.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>236.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>261.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>369.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>212.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>259.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>320.27</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>236.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>270.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>430.15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>185.39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>259.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-741C-494D-95C2-1FA89A6AD56B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460197384"/>
+        <c:axId val="139544072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460197384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139544072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="139544072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coordenadas (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460197384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coordenadas Eje Y</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$462</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$463:$I$487</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$463:$J$487</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-101C-498E-83FF-36751ECAF027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$462</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$463:$I$487</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$463:$K$487</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>58.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>25.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.52</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>-12.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.42</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>-27.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-33.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-24.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-31.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-41.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-30.17</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>-44.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-65.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-35.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-55.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-101C-498E-83FF-36751ECAF027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458604040"/>
+        <c:axId val="1090332168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458604040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090332168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1090332168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coordenadas (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458604040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distancias</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$497</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distancia real </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$498:$I$522</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$498:$J$522</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>261.72504656604804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266.45825188948453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>266.45825188948453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>284.25340807103788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292.74562336608892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292.74562336608892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308.05843601498725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320.93613071762422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320.93613071762422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332.86633954186476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>347.56294393965533</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347.56294393965533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>349.85711369071805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>393.57337308308854</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>395.60080889704966</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>395.60080889704966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>411.46081222881969</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>411.94659848091959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>411.94659848091959</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>438.63424398922615</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>445.86993619215906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>445.86993619215906</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>484.66483264210535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC2A-4DF6-9CE8-8991D62E6DD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$497</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distancia obtenida </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$498:$I$522</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>P25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$498:$K$522</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>323.47000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>577.41999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>616.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>239.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>317.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>369.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>297.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>318.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>412.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>279.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>317.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>369.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>298.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>327.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>470.85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>320.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC2A-4DF6-9CE8-8991D62E6DD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="248067080"/>
+        <c:axId val="248078344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="248067080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248078344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="248078344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248067080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11115,6 +12792,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14532,6 +16289,1038 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19530,13 +22319,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19568,53 +22357,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Gráfico 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D634C1-0EB5-A790-C8A2-054F0B875CF2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9814E822-BB6F-D436-80FF-72F64A60AE7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>305</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19636,7 +22386,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19675,7 +22425,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19714,7 +22464,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19753,7 +22503,124 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238C4E10-07EE-4463-480C-76C3B7644F9E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{821CB3D7-25AB-A027-541F-A0F7DBD7B3BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBBCC1D-42C2-C81F-8895-6874FCF7BDDA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{238C4E10-07EE-4463-480C-76C3B7644F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82E4BA3-14D3-1991-7C71-826A83CB13A0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7EBBCC1D-42C2-C81F-8895-6874FCF7BDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20082,10 +22949,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA385"/>
+  <dimension ref="A1:AA527"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196:I204"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="L520" sqref="I520:L520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20098,7 +22965,7 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
@@ -20115,11 +22982,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -20183,19 +23050,19 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="37" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
@@ -21041,19 +23908,19 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="37" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
@@ -21281,11 +24148,11 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -21376,19 +24243,19 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="3"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="37" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="1"/>
       <c r="N35" s="22" t="s">
         <v>28</v>
@@ -22559,11 +25426,11 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="38"/>
-      <c r="C101" s="39"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="66"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
@@ -22590,19 +25457,19 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="3"/>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="37" t="s">
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="39"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="66"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="4" t="s">
@@ -23560,11 +26427,11 @@
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="37" t="s">
+      <c r="A174" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="38"/>
-      <c r="C174" s="39"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="66"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="7" t="s">
@@ -23592,19 +26459,19 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="3"/>
-      <c r="B179" s="37" t="s">
+      <c r="B179" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="38"/>
-      <c r="D179" s="38"/>
-      <c r="E179" s="39"/>
-      <c r="F179" s="37" t="s">
+      <c r="C179" s="64"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="66"/>
+      <c r="F179" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G179" s="38"/>
-      <c r="H179" s="38"/>
-      <c r="I179" s="38"/>
-      <c r="J179" s="39"/>
+      <c r="G179" s="64"/>
+      <c r="H179" s="64"/>
+      <c r="I179" s="64"/>
+      <c r="J179" s="66"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="4" t="s">
@@ -24288,26 +27155,26 @@
       <c r="A200" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B200" s="40">
+      <c r="B200" s="37">
         <v>650</v>
       </c>
-      <c r="C200" s="40">
+      <c r="C200" s="37">
         <v>50</v>
       </c>
-      <c r="D200" s="40">
+      <c r="D200" s="37">
         <v>252</v>
       </c>
-      <c r="E200" s="41">
+      <c r="E200" s="38">
         <f t="shared" si="14"/>
         <v>698.93061172050545</v>
       </c>
-      <c r="F200" s="40">
+      <c r="F200" s="37">
         <v>939.26</v>
       </c>
-      <c r="G200" s="40">
+      <c r="G200" s="37">
         <v>-1.4</v>
       </c>
-      <c r="H200" s="40">
+      <c r="H200" s="37">
         <v>252</v>
       </c>
       <c r="I200" s="16">
@@ -24322,7 +27189,7 @@
       <c r="A201" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B201" s="43">
+      <c r="B201" s="40">
         <v>650</v>
       </c>
       <c r="C201" s="18">
@@ -24430,7 +27297,7 @@
       <c r="C204" s="18">
         <v>-100</v>
       </c>
-      <c r="D204" s="40">
+      <c r="D204" s="37">
         <v>252</v>
       </c>
       <c r="E204" s="16">
@@ -24461,13 +27328,13 @@
       <c r="B205" s="18">
         <v>750</v>
       </c>
-      <c r="C205" s="44">
+      <c r="C205" s="41">
         <v>0</v>
       </c>
       <c r="D205" s="3">
         <v>252</v>
       </c>
-      <c r="E205" s="42">
+      <c r="E205" s="39">
         <f t="shared" si="17"/>
         <v>791.20414559075709</v>
       </c>
@@ -24791,10 +27658,10 @@
       <c r="I229" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J229" s="40">
+      <c r="J229" s="37">
         <v>650</v>
       </c>
-      <c r="K229" s="45">
+      <c r="K229" s="42">
         <v>939.26</v>
       </c>
       <c r="L229" s="18">
@@ -24806,10 +27673,10 @@
       <c r="I230" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J230" s="43">
+      <c r="J230" s="40">
         <v>650</v>
       </c>
-      <c r="K230" s="44">
+      <c r="K230" s="41">
         <v>606.57000000000005</v>
       </c>
       <c r="L230" s="18">
@@ -24824,7 +27691,7 @@
       <c r="J231" s="18">
         <v>700</v>
       </c>
-      <c r="K231" s="44">
+      <c r="K231" s="41">
         <v>686.24</v>
       </c>
       <c r="L231" s="18">
@@ -24839,7 +27706,7 @@
       <c r="J232" s="18">
         <v>700</v>
       </c>
-      <c r="K232" s="44">
+      <c r="K232" s="41">
         <v>1154.25</v>
       </c>
       <c r="L232" s="18">
@@ -24854,7 +27721,7 @@
       <c r="J233" s="18">
         <v>700</v>
       </c>
-      <c r="K233" s="44">
+      <c r="K233" s="41">
         <v>488.39</v>
       </c>
       <c r="L233" s="18">
@@ -24869,7 +27736,7 @@
       <c r="J234" s="18">
         <v>750</v>
       </c>
-      <c r="K234" s="44">
+      <c r="K234" s="41">
         <v>656.67</v>
       </c>
       <c r="L234" s="18">
@@ -25207,10 +28074,10 @@
       <c r="I265" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J265" s="40">
+      <c r="J265" s="37">
         <v>50</v>
       </c>
-      <c r="K265" s="45">
+      <c r="K265" s="42">
         <v>-1.4</v>
       </c>
       <c r="L265" s="18">
@@ -25225,7 +28092,7 @@
       <c r="J266" s="18">
         <v>-50</v>
       </c>
-      <c r="K266" s="44">
+      <c r="K266" s="41">
         <v>-1.55</v>
       </c>
       <c r="L266" s="18">
@@ -25240,7 +28107,7 @@
       <c r="J267" s="18">
         <v>0</v>
       </c>
-      <c r="K267" s="44">
+      <c r="K267" s="41">
         <v>-17.91</v>
       </c>
       <c r="L267" s="18">
@@ -25255,7 +28122,7 @@
       <c r="J268" s="18">
         <v>100</v>
       </c>
-      <c r="K268" s="44">
+      <c r="K268" s="41">
         <v>-27.69</v>
       </c>
       <c r="L268" s="18">
@@ -25270,7 +28137,7 @@
       <c r="J269" s="18">
         <v>-100</v>
       </c>
-      <c r="K269" s="44">
+      <c r="K269" s="41">
         <v>-13.81</v>
       </c>
       <c r="L269" s="18">
@@ -25282,10 +28149,10 @@
       <c r="I270" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J270" s="44">
+      <c r="J270" s="41">
         <v>0</v>
       </c>
-      <c r="K270" s="44">
+      <c r="K270" s="41">
         <v>-32.79</v>
       </c>
       <c r="L270" s="18">
@@ -25330,7 +28197,7 @@
       <c r="K281" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L281" s="48" t="s">
+      <c r="L281" s="45" t="s">
         <v>15</v>
       </c>
     </row>
@@ -25338,13 +28205,13 @@
       <c r="I282" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J282" s="49">
+      <c r="J282" s="46">
         <v>423.20680523829009</v>
       </c>
-      <c r="K282" s="47">
+      <c r="K282" s="44">
         <v>689.28</v>
       </c>
-      <c r="L282" s="49">
+      <c r="L282" s="46">
         <f>ABS(J282-K282)</f>
         <v>266.07319476170989</v>
       </c>
@@ -25353,13 +28220,13 @@
       <c r="I283" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J283" s="49">
+      <c r="J283" s="46">
         <v>434.8608972993548</v>
       </c>
-      <c r="K283" s="47">
+      <c r="K283" s="44">
         <v>1991.1</v>
       </c>
-      <c r="L283" s="49">
+      <c r="L283" s="46">
         <f t="shared" ref="L283:L306" si="20">ABS(J283-K283)</f>
         <v>1556.2391027006452</v>
       </c>
@@ -25368,13 +28235,13 @@
       <c r="I284" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J284" s="49">
+      <c r="J284" s="46">
         <v>434.8608972993548</v>
       </c>
-      <c r="K284" s="47">
+      <c r="K284" s="44">
         <v>448.54</v>
       </c>
-      <c r="L284" s="49">
+      <c r="L284" s="46">
         <f t="shared" si="20"/>
         <v>13.679102700645217</v>
       </c>
@@ -25383,13 +28250,13 @@
       <c r="I285" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J285" s="49">
+      <c r="J285" s="46">
         <v>472.76209661943079</v>
       </c>
-      <c r="K285" s="47">
+      <c r="K285" s="44">
         <v>678.07</v>
       </c>
-      <c r="L285" s="49">
+      <c r="L285" s="46">
         <f t="shared" si="20"/>
         <v>205.30790338056926</v>
       </c>
@@ -25398,13 +28265,13 @@
       <c r="I286" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J286" s="49">
+      <c r="J286" s="46">
         <v>475.39877997319263</v>
       </c>
-      <c r="K286" s="47">
+      <c r="K286" s="44">
         <v>1056.75</v>
       </c>
-      <c r="L286" s="49">
+      <c r="L286" s="46">
         <f t="shared" si="20"/>
         <v>581.35122002680737</v>
       </c>
@@ -25413,13 +28280,13 @@
       <c r="I287" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J287" s="49">
+      <c r="J287" s="46">
         <v>475.39877997319263</v>
       </c>
-      <c r="K287" s="47">
+      <c r="K287" s="44">
         <v>558.87</v>
       </c>
-      <c r="L287" s="49">
+      <c r="L287" s="46">
         <f t="shared" si="20"/>
         <v>83.471220026807373</v>
       </c>
@@ -25428,13 +28295,13 @@
       <c r="I288" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J288" s="49">
+      <c r="J288" s="46">
         <v>515.75575614819854</v>
       </c>
-      <c r="K288" s="47">
+      <c r="K288" s="44">
         <v>673.29</v>
       </c>
-      <c r="L288" s="49">
+      <c r="L288" s="46">
         <f t="shared" si="20"/>
         <v>157.53424385180142</v>
       </c>
@@ -25443,13 +28310,13 @@
       <c r="I289" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J289" s="49">
+      <c r="J289" s="46">
         <v>520.48438977552439</v>
       </c>
-      <c r="K289" s="47">
+      <c r="K289" s="44">
         <v>1099.58</v>
       </c>
-      <c r="L289" s="49">
+      <c r="L289" s="46">
         <f t="shared" si="20"/>
         <v>579.09561022447554</v>
       </c>
@@ -25458,13 +28325,13 @@
       <c r="I290" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J290" s="49">
+      <c r="J290" s="46">
         <v>520.48438977552439</v>
       </c>
-      <c r="K290" s="47">
+      <c r="K290" s="44">
         <v>547.4</v>
       </c>
-      <c r="L290" s="49">
+      <c r="L290" s="46">
         <f t="shared" si="20"/>
         <v>26.915610224475586</v>
       </c>
@@ -25473,13 +28340,13 @@
       <c r="I291" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J291" s="49">
+      <c r="J291" s="46">
         <v>542.12913590767278</v>
       </c>
-      <c r="K291" s="47">
+      <c r="K291" s="44">
         <v>703.92</v>
       </c>
-      <c r="L291" s="49">
+      <c r="L291" s="46">
         <f t="shared" si="20"/>
         <v>161.79086409232718</v>
       </c>
@@ -25488,13 +28355,13 @@
       <c r="I292" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J292" s="49">
+      <c r="J292" s="46">
         <v>542.70526070787264</v>
       </c>
-      <c r="K292" s="47">
+      <c r="K292" s="44">
         <v>863.67</v>
       </c>
-      <c r="L292" s="49">
+      <c r="L292" s="46">
         <f t="shared" si="20"/>
         <v>320.96473929212732</v>
       </c>
@@ -25503,13 +28370,13 @@
       <c r="I293" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J293" s="49">
+      <c r="J293" s="46">
         <v>542.70526070787264</v>
       </c>
-      <c r="K293" s="47">
+      <c r="K293" s="44">
         <v>636.28</v>
       </c>
-      <c r="L293" s="49">
+      <c r="L293" s="46">
         <f t="shared" si="20"/>
         <v>93.574739292127333</v>
       </c>
@@ -25518,13 +28385,13 @@
       <c r="I294" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J294" s="49">
+      <c r="J294" s="46">
         <v>559.91427915351471</v>
       </c>
-      <c r="K294" s="47">
+      <c r="K294" s="44">
         <v>705.75</v>
       </c>
-      <c r="L294" s="49">
+      <c r="L294" s="46">
         <f t="shared" si="20"/>
         <v>145.83572084648529</v>
       </c>
@@ -25533,13 +28400,13 @@
       <c r="I295" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J295" s="49">
+      <c r="J295" s="46">
         <v>579.65852016510553</v>
       </c>
-      <c r="K295" s="47">
+      <c r="K295" s="44">
         <v>2818.82</v>
       </c>
-      <c r="L295" s="49">
+      <c r="L295" s="46">
         <f t="shared" si="20"/>
         <v>2239.1614798348946</v>
       </c>
@@ -25548,13 +28415,13 @@
       <c r="I296" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J296" s="49">
+      <c r="J296" s="46">
         <v>579.65852016510553</v>
       </c>
-      <c r="K296" s="47">
+      <c r="K296" s="44">
         <v>449.84</v>
       </c>
-      <c r="L296" s="49">
+      <c r="L296" s="46">
         <f t="shared" si="20"/>
         <v>129.81852016510555</v>
       </c>
@@ -25563,13 +28430,13 @@
       <c r="I297" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J297" s="49">
+      <c r="J297" s="46">
         <v>650.7718494218999</v>
       </c>
-      <c r="K297" s="47">
+      <c r="K297" s="44">
         <v>718.07</v>
       </c>
-      <c r="L297" s="49">
+      <c r="L297" s="46">
         <f t="shared" si="20"/>
         <v>67.298150578100149</v>
       </c>
@@ -25578,13 +28445,13 @@
       <c r="I298" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J298" s="49">
+      <c r="J298" s="46">
         <v>651.46296901665869</v>
       </c>
-      <c r="K298" s="47">
+      <c r="K298" s="44">
         <v>877.23</v>
       </c>
-      <c r="L298" s="49">
+      <c r="L298" s="46">
         <f t="shared" si="20"/>
         <v>225.76703098334133</v>
       </c>
@@ -25593,13 +28460,13 @@
       <c r="I299" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J299" s="49">
+      <c r="J299" s="46">
         <v>651.46296901665869</v>
       </c>
-      <c r="K299" s="47">
+      <c r="K299" s="44">
         <v>662.25</v>
       </c>
-      <c r="L299" s="49">
+      <c r="L299" s="46">
         <f t="shared" si="20"/>
         <v>10.78703098334131</v>
       </c>
@@ -25608,13 +28475,13 @@
       <c r="I300" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J300" s="49">
+      <c r="J300" s="46">
         <v>697.1398711879848</v>
       </c>
-      <c r="K300" s="47">
+      <c r="K300" s="44">
         <v>725.9</v>
       </c>
-      <c r="L300" s="49">
+      <c r="L300" s="46">
         <f t="shared" si="20"/>
         <v>28.760128812015182</v>
       </c>
@@ -25623,13 +28490,13 @@
       <c r="I301" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J301" s="49">
+      <c r="J301" s="46">
         <v>698.93061172050545</v>
       </c>
-      <c r="K301" s="47">
+      <c r="K301" s="44">
         <v>972.48</v>
       </c>
-      <c r="L301" s="49">
+      <c r="L301" s="46">
         <f t="shared" si="20"/>
         <v>273.54938827949456</v>
       </c>
@@ -25638,13 +28505,13 @@
       <c r="I302" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J302" s="49">
+      <c r="J302" s="46">
         <v>698.93061172050545</v>
       </c>
-      <c r="K302" s="47">
+      <c r="K302" s="44">
         <v>656.83</v>
       </c>
-      <c r="L302" s="49">
+      <c r="L302" s="46">
         <f t="shared" si="20"/>
         <v>42.100611720505412</v>
       </c>
@@ -25653,13 +28520,13 @@
       <c r="I303" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J303" s="49">
+      <c r="J303" s="46">
         <v>743.97849431283964</v>
       </c>
-      <c r="K303" s="47">
+      <c r="K303" s="44">
         <v>731.27</v>
       </c>
-      <c r="L303" s="49">
+      <c r="L303" s="46">
         <f t="shared" si="20"/>
         <v>12.708494312839662</v>
       </c>
@@ -25668,13 +28535,13 @@
       <c r="I304" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J304" s="49">
+      <c r="J304" s="46">
         <v>750.66903492817664</v>
       </c>
-      <c r="K304" s="47">
+      <c r="K304" s="44">
         <v>1181.76</v>
       </c>
-      <c r="L304" s="49">
+      <c r="L304" s="46">
         <f t="shared" si="20"/>
         <v>431.09096507182335</v>
       </c>
@@ -25683,13 +28550,13 @@
       <c r="I305" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J305" s="49">
+      <c r="J305" s="46">
         <v>750.66903492817664</v>
       </c>
-      <c r="K305" s="47">
+      <c r="K305" s="44">
         <v>549.75</v>
       </c>
-      <c r="L305" s="49">
+      <c r="L305" s="46">
         <f t="shared" si="20"/>
         <v>200.91903492817664</v>
       </c>
@@ -25698,13 +28565,13 @@
       <c r="I306" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J306" s="49">
+      <c r="J306" s="46">
         <v>791.20414559075709</v>
       </c>
-      <c r="K306" s="47">
+      <c r="K306" s="44">
         <v>704.13</v>
       </c>
-      <c r="L306" s="49">
+      <c r="L306" s="46">
         <f t="shared" si="20"/>
         <v>87.074145590757098</v>
       </c>
@@ -25737,11 +28604,11 @@
       </c>
     </row>
     <row r="314" spans="1:12">
-      <c r="A314" s="37" t="s">
+      <c r="A314" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B314" s="38"/>
-      <c r="C314" s="39"/>
+      <c r="B314" s="64"/>
+      <c r="C314" s="66"/>
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="7" t="s">
@@ -25768,46 +28635,46 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="3"/>
-      <c r="B319" s="37" t="s">
+      <c r="B319" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C319" s="38"/>
-      <c r="D319" s="38"/>
-      <c r="E319" s="59"/>
-      <c r="F319" s="37" t="s">
+      <c r="C319" s="64"/>
+      <c r="D319" s="64"/>
+      <c r="E319" s="65"/>
+      <c r="F319" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G319" s="38"/>
-      <c r="H319" s="38"/>
-      <c r="I319" s="38"/>
-      <c r="J319" s="59"/>
+      <c r="G319" s="64"/>
+      <c r="H319" s="64"/>
+      <c r="I319" s="64"/>
+      <c r="J319" s="65"/>
     </row>
     <row r="320" spans="1:12">
-      <c r="A320" s="50" t="s">
+      <c r="A320" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B320" s="51" t="s">
+      <c r="B320" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C320" s="52" t="s">
+      <c r="C320" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D320" s="56" t="s">
+      <c r="D320" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E320" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F320" s="57" t="s">
+      <c r="F320" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G320" s="52" t="s">
+      <c r="G320" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H320" s="53" t="s">
+      <c r="H320" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I320" s="60" t="s">
+      <c r="I320" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J320" s="8" t="s">
@@ -25824,14 +28691,14 @@
       <c r="C321" s="18">
         <v>0</v>
       </c>
-      <c r="D321" s="44">
+      <c r="D321" s="41">
         <v>252</v>
       </c>
       <c r="E321" s="16">
         <f>SQRT((B321*B321)+(C321*C321)+(D321*D321))</f>
         <v>559.91427915351471</v>
       </c>
-      <c r="F321" s="58">
+      <c r="F321" s="55">
         <v>600.05999999999995</v>
       </c>
       <c r="G321" s="18">
@@ -25840,7 +28707,7 @@
       <c r="H321" s="18">
         <v>252</v>
       </c>
-      <c r="I321" s="44">
+      <c r="I321" s="41">
         <v>653.72</v>
       </c>
       <c r="J321" s="16">
@@ -25861,7 +28728,7 @@
       <c r="D322" s="14">
         <v>252</v>
       </c>
-      <c r="E322" s="55">
+      <c r="E322" s="52">
         <f>SQRT((B322*B322)+(C322*C322)+(D322*D322))</f>
         <v>650.7718494218999</v>
       </c>
@@ -25874,10 +28741,10 @@
       <c r="H322" s="14">
         <v>252</v>
       </c>
-      <c r="I322" s="55">
+      <c r="I322" s="52">
         <v>641.9</v>
       </c>
-      <c r="J322" s="55">
+      <c r="J322" s="52">
         <f>SQRT((F322*F322)+(G322*G322)+(H322*H322))</f>
         <v>641.90210663309097</v>
       </c>
@@ -25988,10 +28855,10 @@
       <c r="A326" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B326" s="40">
+      <c r="B326" s="37">
         <v>650</v>
       </c>
-      <c r="C326" s="40">
+      <c r="C326" s="37">
         <v>50</v>
       </c>
       <c r="D326" s="3">
@@ -26022,7 +28889,7 @@
       <c r="A327" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B327" s="43">
+      <c r="B327" s="40">
         <v>650</v>
       </c>
       <c r="C327" s="18">
@@ -26155,13 +29022,13 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="F334" s="50" t="s">
+      <c r="F334" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G334" s="48" t="s">
+      <c r="G334" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H334" s="48" t="s">
+      <c r="H334" s="45" t="s">
         <v>14</v>
       </c>
       <c r="I334" s="27" t="s">
@@ -26175,7 +29042,7 @@
       <c r="G335" s="18">
         <v>500</v>
       </c>
-      <c r="H335" s="61">
+      <c r="H335" s="57">
         <v>600.05999999999995</v>
       </c>
       <c r="I335" s="18">
@@ -26247,7 +29114,7 @@
       <c r="F340" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G340" s="40">
+      <c r="G340" s="37">
         <v>650</v>
       </c>
       <c r="H340" s="17">
@@ -26262,7 +29129,7 @@
       <c r="F341" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G341" s="43">
+      <c r="G341" s="40">
         <v>650</v>
       </c>
       <c r="H341" s="17">
@@ -26346,13 +29213,13 @@
       </c>
     </row>
     <row r="352" spans="6:9">
-      <c r="F352" s="62" t="s">
+      <c r="F352" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G352" s="48" t="s">
+      <c r="G352" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H352" s="48" t="s">
+      <c r="H352" s="45" t="s">
         <v>14</v>
       </c>
       <c r="I352" s="27" t="s">
@@ -26366,7 +29233,7 @@
       <c r="G353" s="18">
         <v>0</v>
       </c>
-      <c r="H353" s="44">
+      <c r="H353" s="41">
         <v>61.47</v>
       </c>
       <c r="I353" s="18">
@@ -26438,7 +29305,7 @@
       <c r="F358" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G358" s="40">
+      <c r="G358" s="37">
         <v>50</v>
       </c>
       <c r="H358" s="17">
@@ -26537,10 +29404,10 @@
       </c>
     </row>
     <row r="370" spans="6:9">
-      <c r="F370" s="54" t="s">
+      <c r="F370" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G370" s="46" t="s">
+      <c r="G370" s="43" t="s">
         <v>16</v>
       </c>
       <c r="H370" s="26" t="s">
@@ -26557,7 +29424,7 @@
       <c r="G371" s="24">
         <v>559.91427915351471</v>
       </c>
-      <c r="H371" s="61">
+      <c r="H371" s="57">
         <v>653.72</v>
       </c>
       <c r="I371" s="24">
@@ -26572,7 +29439,7 @@
       <c r="G372" s="24">
         <v>650.7718494218999</v>
       </c>
-      <c r="H372" s="63">
+      <c r="H372" s="59">
         <v>641.9</v>
       </c>
       <c r="I372" s="24">
@@ -26587,7 +29454,7 @@
       <c r="G373" s="24">
         <v>651.46296901665869</v>
       </c>
-      <c r="H373" s="64">
+      <c r="H373" s="60">
         <v>741.5</v>
       </c>
       <c r="I373" s="24">
@@ -26602,7 +29469,7 @@
       <c r="G374" s="24">
         <v>651.46296901665869</v>
       </c>
-      <c r="H374" s="64">
+      <c r="H374" s="60">
         <v>589.14</v>
       </c>
       <c r="I374" s="24">
@@ -26617,7 +29484,7 @@
       <c r="G375" s="24">
         <v>697.1398711879848</v>
       </c>
-      <c r="H375" s="64">
+      <c r="H375" s="60">
         <v>662.43</v>
       </c>
       <c r="I375" s="24">
@@ -26632,7 +29499,7 @@
       <c r="G376" s="24">
         <v>698.93061172050545</v>
       </c>
-      <c r="H376" s="64">
+      <c r="H376" s="60">
         <v>832.24</v>
       </c>
       <c r="I376" s="24">
@@ -26647,7 +29514,7 @@
       <c r="G377" s="24">
         <v>698.93061172050545</v>
       </c>
-      <c r="H377" s="64">
+      <c r="H377" s="60">
         <v>590.91999999999996</v>
       </c>
       <c r="I377" s="24">
@@ -26662,7 +29529,7 @@
       <c r="G378" s="24">
         <v>743.97849431283964</v>
       </c>
-      <c r="H378" s="64">
+      <c r="H378" s="60">
         <v>662.3</v>
       </c>
       <c r="I378" s="24">
@@ -26677,7 +29544,7 @@
       <c r="G379" s="24">
         <v>750.66903492817664</v>
       </c>
-      <c r="H379" s="64">
+      <c r="H379" s="60">
         <v>1069.96</v>
       </c>
       <c r="I379" s="24">
@@ -26692,7 +29559,7 @@
       <c r="G380" s="24">
         <v>750.66903492817664</v>
       </c>
-      <c r="H380" s="64">
+      <c r="H380" s="60">
         <v>507.25</v>
       </c>
       <c r="I380" s="24">
@@ -26718,7 +29585,7 @@
         <v>8.871849421899924</v>
       </c>
     </row>
-    <row r="385" spans="8:9">
+    <row r="385" spans="1:10">
       <c r="H385" s="22" t="s">
         <v>30</v>
       </c>
@@ -26727,25 +29594,2310 @@
         <v>117.54559357692099</v>
       </c>
     </row>
+    <row r="393" spans="1:10">
+      <c r="A393" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B393" s="64"/>
+      <c r="C393" s="66"/>
+    </row>
+    <row r="394" spans="1:10">
+      <c r="A394" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
+      <c r="A395" s="3">
+        <v>180</v>
+      </c>
+      <c r="B395" s="3">
+        <v>58</v>
+      </c>
+      <c r="C395" s="3">
+        <f>RADIANS(B395)</f>
+        <v>1.0122909661567112</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
+      <c r="A398" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" s="68"/>
+      <c r="C398" s="68"/>
+      <c r="D398" s="68"/>
+      <c r="E398" s="65"/>
+      <c r="F398" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G398" s="68"/>
+      <c r="H398" s="68"/>
+      <c r="I398" s="68"/>
+      <c r="J398" s="65"/>
+    </row>
+    <row r="399" spans="1:10">
+      <c r="A399" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G399" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H399" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I399" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J399" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="A400" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" s="3">
+        <v>190</v>
+      </c>
+      <c r="C400" s="3">
+        <v>0</v>
+      </c>
+      <c r="D400" s="3">
+        <f>$A$395</f>
+        <v>180</v>
+      </c>
+      <c r="E400" s="16">
+        <f>SQRT((B400*B400)+(C400*C400)+(D400*D400))</f>
+        <v>261.72504656604804</v>
+      </c>
+      <c r="F400" s="3">
+        <v>262.24</v>
+      </c>
+      <c r="G400" s="3">
+        <v>58.83</v>
+      </c>
+      <c r="H400" s="3">
+        <f>D400</f>
+        <v>180</v>
+      </c>
+      <c r="I400" s="16">
+        <v>323.47000000000003</v>
+      </c>
+      <c r="J400" s="16">
+        <f>SQRT((F400*F400)+(G400*G400)+(H400*H400))</f>
+        <v>323.46682441944495</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B401" s="3">
+        <v>190</v>
+      </c>
+      <c r="C401" s="3">
+        <v>50</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" ref="D401:D429" si="24">$A$395</f>
+        <v>180</v>
+      </c>
+      <c r="E401" s="16">
+        <f t="shared" ref="E401:E419" si="25">SQRT((B401*B401)+(C401*C401)+(D401*D401))</f>
+        <v>266.45825188948453</v>
+      </c>
+      <c r="F401" s="3">
+        <v>466.78</v>
+      </c>
+      <c r="G401" s="3">
+        <v>101.58</v>
+      </c>
+      <c r="H401" s="3">
+        <f t="shared" ref="H401:H419" si="26">D401</f>
+        <v>180</v>
+      </c>
+      <c r="I401" s="16">
+        <v>510.49</v>
+      </c>
+      <c r="J401" s="16">
+        <f t="shared" ref="I401:J415" si="27">SQRT((F401*F401)+(G401*G401)+(H401*H401))</f>
+        <v>510.49198309082186</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B402" s="3">
+        <v>190</v>
+      </c>
+      <c r="C402" s="3">
+        <v>-50</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E402" s="16">
+        <f t="shared" si="25"/>
+        <v>266.45825188948453</v>
+      </c>
+      <c r="F402" s="3">
+        <v>175.89</v>
+      </c>
+      <c r="G402" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="H402" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I402" s="16">
+        <v>255.75</v>
+      </c>
+      <c r="J402" s="16">
+        <f t="shared" si="27"/>
+        <v>255.74898259817181</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B403" s="3">
+        <v>220</v>
+      </c>
+      <c r="C403" s="3">
+        <v>0</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E403" s="16">
+        <f t="shared" si="25"/>
+        <v>284.25340807103788</v>
+      </c>
+      <c r="F403" s="16">
+        <v>248.64</v>
+      </c>
+      <c r="G403" s="3">
+        <v>45.58</v>
+      </c>
+      <c r="H403" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I403" s="16">
+        <v>310.32</v>
+      </c>
+      <c r="J403" s="16">
+        <f t="shared" si="27"/>
+        <v>310.32142368840732</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="A404" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B404" s="3">
+        <v>220</v>
+      </c>
+      <c r="C404" s="3">
+        <v>70</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E404" s="16">
+        <f t="shared" si="25"/>
+        <v>292.74562336608892</v>
+      </c>
+      <c r="F404" s="3">
+        <v>544.91999999999996</v>
+      </c>
+      <c r="G404" s="3">
+        <v>63.8</v>
+      </c>
+      <c r="H404" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I404" s="16">
+        <v>577.41999999999996</v>
+      </c>
+      <c r="J404" s="16">
+        <f t="shared" si="27"/>
+        <v>577.41514216376413</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B405" s="3">
+        <v>220</v>
+      </c>
+      <c r="C405" s="3">
+        <v>-70</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E405" s="16">
+        <f t="shared" si="25"/>
+        <v>292.74562336608892</v>
+      </c>
+      <c r="F405" s="3">
+        <v>177.44</v>
+      </c>
+      <c r="G405" s="16">
+        <v>25.41</v>
+      </c>
+      <c r="H405" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I405" s="16">
+        <v>254.03</v>
+      </c>
+      <c r="J405" s="16">
+        <f t="shared" si="27"/>
+        <v>254.02878124338588</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B406" s="3">
+        <v>250</v>
+      </c>
+      <c r="C406" s="3">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E406" s="16">
+        <f t="shared" si="25"/>
+        <v>308.05843601498725</v>
+      </c>
+      <c r="F406" s="3">
+        <v>250.7</v>
+      </c>
+      <c r="G406" s="3">
+        <v>21.85</v>
+      </c>
+      <c r="H406" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I406" s="16">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="J406" s="16">
+        <f t="shared" si="27"/>
+        <v>309.39927682526991</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B407" s="3">
+        <v>250</v>
+      </c>
+      <c r="C407" s="3">
+        <v>90</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E407" s="16">
+        <f t="shared" si="25"/>
+        <v>320.93613071762422</v>
+      </c>
+      <c r="F407" s="3">
+        <v>602.52</v>
+      </c>
+      <c r="G407" s="3">
+        <v>43.22</v>
+      </c>
+      <c r="H407" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I407" s="16">
+        <v>630.30999999999995</v>
+      </c>
+      <c r="J407" s="16">
+        <f t="shared" si="27"/>
+        <v>630.3160467574977</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B408" s="3">
+        <v>250</v>
+      </c>
+      <c r="C408" s="3">
+        <v>-90</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E408" s="16">
+        <f t="shared" si="25"/>
+        <v>320.93613071762422</v>
+      </c>
+      <c r="F408" s="3">
+        <v>162.81</v>
+      </c>
+      <c r="G408" s="3">
+        <v>14.27</v>
+      </c>
+      <c r="H408" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I408" s="16">
+        <v>243.13</v>
+      </c>
+      <c r="J408" s="16">
+        <f t="shared" si="27"/>
+        <v>243.12698122586067</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B409" s="3">
+        <v>280</v>
+      </c>
+      <c r="C409" s="3">
+        <v>0</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E409" s="16">
+        <f t="shared" si="25"/>
+        <v>332.86633954186476</v>
+      </c>
+      <c r="F409" s="3">
+        <v>253.89</v>
+      </c>
+      <c r="G409" s="3">
+        <v>5.38</v>
+      </c>
+      <c r="H409" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I409" s="16">
+        <v>311.27</v>
+      </c>
+      <c r="J409" s="16">
+        <f t="shared" si="27"/>
+        <v>311.27010216209328</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B410" s="3">
+        <v>280</v>
+      </c>
+      <c r="C410" s="3">
+        <v>100</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E410" s="16">
+        <f t="shared" si="25"/>
+        <v>347.56294393965533</v>
+      </c>
+      <c r="F410" s="3">
+        <v>589.71</v>
+      </c>
+      <c r="G410" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="H410" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I410" s="16">
+        <v>616.59</v>
+      </c>
+      <c r="J410" s="16">
+        <f t="shared" si="27"/>
+        <v>616.59239899628994</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B411" s="3">
+        <v>280</v>
+      </c>
+      <c r="C411" s="3">
+        <v>-100</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E411" s="16">
+        <f t="shared" si="25"/>
+        <v>347.56294393965533</v>
+      </c>
+      <c r="F411" s="3">
+        <v>157.87</v>
+      </c>
+      <c r="G411" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="H411" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I411" s="16">
+        <v>239.44</v>
+      </c>
+      <c r="J411" s="16">
+        <f t="shared" si="27"/>
+        <v>239.44594650985428</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B412" s="3">
+        <v>300</v>
+      </c>
+      <c r="C412" s="3">
+        <v>0</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E412" s="16">
+        <f t="shared" si="25"/>
+        <v>349.85711369071805</v>
+      </c>
+      <c r="F412" s="3">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="G412" s="3">
+        <v>-3.52</v>
+      </c>
+      <c r="H412" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I412" s="16">
+        <v>317.14999999999998</v>
+      </c>
+      <c r="J412" s="16">
+        <f t="shared" si="27"/>
+        <v>317.15232996148711</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="A413" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B413" s="3">
+        <v>300</v>
+      </c>
+      <c r="C413" s="3">
+        <v>10</v>
+      </c>
+      <c r="D413" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E413" s="16">
+        <f t="shared" si="25"/>
+        <v>350</v>
+      </c>
+      <c r="F413" s="3">
+        <v>322.72000000000003</v>
+      </c>
+      <c r="G413" s="16">
+        <v>-12.42</v>
+      </c>
+      <c r="H413" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I413" s="16">
+        <v>369.73</v>
+      </c>
+      <c r="J413" s="16">
+        <f t="shared" si="27"/>
+        <v>369.7329506549288</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10">
+      <c r="A414" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="3">
+        <v>300</v>
+      </c>
+      <c r="C414" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E414" s="16">
+        <f t="shared" si="25"/>
+        <v>350</v>
+      </c>
+      <c r="F414" s="16">
+        <v>236.74</v>
+      </c>
+      <c r="G414" s="3">
+        <v>-3.42</v>
+      </c>
+      <c r="H414" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I414" s="16">
+        <v>297.42</v>
+      </c>
+      <c r="J414" s="16">
+        <f t="shared" si="27"/>
+        <v>297.41809628870936</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10">
+      <c r="A415" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B415" s="3">
+        <v>350</v>
+      </c>
+      <c r="C415" s="3">
+        <v>0</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E415" s="16">
+        <f t="shared" si="25"/>
+        <v>393.57337308308854</v>
+      </c>
+      <c r="F415" s="3">
+        <v>261.91000000000003</v>
+      </c>
+      <c r="G415" s="16">
+        <v>-27.14</v>
+      </c>
+      <c r="H415" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I415" s="16">
+        <v>318.95999999999998</v>
+      </c>
+      <c r="J415" s="16">
+        <f t="shared" si="27"/>
+        <v>318.95678030103079</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10">
+      <c r="A416" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B416" s="3">
+        <v>350</v>
+      </c>
+      <c r="C416" s="3">
+        <v>40</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E416" s="16">
+        <f t="shared" si="25"/>
+        <v>395.60080889704966</v>
+      </c>
+      <c r="F416" s="3">
+        <v>369.51</v>
+      </c>
+      <c r="G416" s="3">
+        <v>-33.83</v>
+      </c>
+      <c r="H416" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I416" s="16">
+        <v>412.41</v>
+      </c>
+      <c r="J416" s="16">
+        <f>SQRT((F416*F416)+(G416*G416)+(H416*H416))</f>
+        <v>412.41012232970229</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B417" s="3">
+        <v>350</v>
+      </c>
+      <c r="C417" s="3">
+        <v>-40</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E417" s="16">
+        <f t="shared" si="25"/>
+        <v>395.60080889704966</v>
+      </c>
+      <c r="F417" s="3">
+        <v>212.74</v>
+      </c>
+      <c r="G417" s="3">
+        <v>-24.87</v>
+      </c>
+      <c r="H417" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I417" s="16">
+        <v>279.77999999999997</v>
+      </c>
+      <c r="J417" s="16">
+        <f t="shared" ref="J417:J422" si="28">SQRT((F417*F417)+(G417*G417)+(H417*H417))</f>
+        <v>279.77995728786578</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B418" s="3">
+        <v>370</v>
+      </c>
+      <c r="C418" s="3">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E418" s="16">
+        <f t="shared" si="25"/>
+        <v>411.46081222881969</v>
+      </c>
+      <c r="F418" s="3">
+        <v>259.89</v>
+      </c>
+      <c r="G418" s="3">
+        <v>-31.71</v>
+      </c>
+      <c r="H418" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I418" s="16">
+        <v>317.72000000000003</v>
+      </c>
+      <c r="J418" s="16">
+        <f t="shared" si="28"/>
+        <v>317.72367900425678</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="A419" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B419" s="3">
+        <v>370</v>
+      </c>
+      <c r="C419" s="3">
+        <v>20</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E419" s="16">
+        <f t="shared" si="25"/>
+        <v>411.94659848091959</v>
+      </c>
+      <c r="F419" s="3">
+        <v>320.27</v>
+      </c>
+      <c r="G419" s="3">
+        <v>-41.32</v>
+      </c>
+      <c r="H419" s="3">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="I419" s="16">
+        <v>369.7</v>
+      </c>
+      <c r="J419" s="16">
+        <f t="shared" si="28"/>
+        <v>369.70287434641347</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="A420" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B420" s="3">
+        <v>370</v>
+      </c>
+      <c r="C420" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E420" s="16">
+        <f t="shared" ref="E420:E429" si="29">SQRT((B420*B420)+(C420*C420)+(D420*D420))</f>
+        <v>411.94659848091959</v>
+      </c>
+      <c r="F420" s="16">
+        <v>236.49</v>
+      </c>
+      <c r="G420" s="3">
+        <v>-30.17</v>
+      </c>
+      <c r="H420" s="3">
+        <f t="shared" ref="H420:H429" si="30">D420</f>
+        <v>180</v>
+      </c>
+      <c r="I420" s="16">
+        <v>298.73</v>
+      </c>
+      <c r="J420" s="16">
+        <f t="shared" si="28"/>
+        <v>298.72688027695131</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="A421" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B421" s="3">
+        <v>400</v>
+      </c>
+      <c r="C421" s="3">
+        <v>0</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E421" s="16">
+        <f t="shared" si="29"/>
+        <v>438.63424398922615</v>
+      </c>
+      <c r="F421" s="3">
+        <v>270.08999999999997</v>
+      </c>
+      <c r="G421" s="16">
+        <v>-44.29</v>
+      </c>
+      <c r="H421" s="3">
+        <f t="shared" si="30"/>
+        <v>180</v>
+      </c>
+      <c r="I421" s="16">
+        <v>327.58</v>
+      </c>
+      <c r="J421" s="16">
+        <f t="shared" si="28"/>
+        <v>327.5823746784921</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
+      <c r="A422" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B422" s="3">
+        <v>400</v>
+      </c>
+      <c r="C422" s="3">
+        <v>80</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E422" s="16">
+        <f t="shared" si="29"/>
+        <v>445.86993619215906</v>
+      </c>
+      <c r="F422" s="3">
+        <v>430.15</v>
+      </c>
+      <c r="G422" s="3">
+        <v>-65.36</v>
+      </c>
+      <c r="H422" s="3">
+        <f t="shared" si="30"/>
+        <v>180</v>
+      </c>
+      <c r="I422" s="16">
+        <v>470.85</v>
+      </c>
+      <c r="J422" s="16">
+        <f t="shared" si="28"/>
+        <v>470.85130572188075</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="A423" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B423" s="37">
+        <v>400</v>
+      </c>
+      <c r="C423" s="37">
+        <v>-80</v>
+      </c>
+      <c r="D423" s="37">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E423" s="38">
+        <f t="shared" si="29"/>
+        <v>445.86993619215906</v>
+      </c>
+      <c r="F423" s="37">
+        <v>185.39</v>
+      </c>
+      <c r="G423" s="37">
+        <v>-35.32</v>
+      </c>
+      <c r="H423" s="37">
+        <f t="shared" si="30"/>
+        <v>180</v>
+      </c>
+      <c r="I423" s="38">
+        <v>260.8</v>
+      </c>
+      <c r="J423" s="38">
+        <f t="shared" ref="J423:J429" si="31">SQRT((F423*F423)+(G423*G423)+(H423*H423))</f>
+        <v>260.80060295175696</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
+      <c r="A424" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B424" s="3">
+        <v>450</v>
+      </c>
+      <c r="C424" s="3">
+        <v>0</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="E424" s="16">
+        <f t="shared" si="29"/>
+        <v>484.66483264210535</v>
+      </c>
+      <c r="F424" s="3">
+        <v>259.87</v>
+      </c>
+      <c r="G424" s="3">
+        <v>-55.65</v>
+      </c>
+      <c r="H424" s="3">
+        <f t="shared" si="30"/>
+        <v>180</v>
+      </c>
+      <c r="I424" s="16">
+        <v>320.98</v>
+      </c>
+      <c r="J424" s="16">
+        <f t="shared" si="31"/>
+        <v>320.9818365577716</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425" s="69"/>
+      <c r="B425" s="69"/>
+      <c r="C425" s="69"/>
+      <c r="D425" s="69"/>
+      <c r="E425" s="70"/>
+      <c r="F425" s="69"/>
+      <c r="G425" s="69"/>
+      <c r="H425" s="69"/>
+      <c r="I425" s="70"/>
+      <c r="J425" s="70"/>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426" s="69"/>
+      <c r="B426" s="69"/>
+      <c r="C426" s="69"/>
+      <c r="D426" s="69"/>
+      <c r="E426" s="70"/>
+      <c r="F426" s="70"/>
+      <c r="G426" s="69"/>
+      <c r="H426" s="69"/>
+      <c r="I426" s="70"/>
+      <c r="J426" s="70"/>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427" s="69"/>
+      <c r="B427" s="69"/>
+      <c r="C427" s="69"/>
+      <c r="D427" s="69"/>
+      <c r="E427" s="70"/>
+      <c r="F427" s="69"/>
+      <c r="G427" s="70"/>
+      <c r="H427" s="69"/>
+      <c r="I427" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J427" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K427" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L427" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428" s="69"/>
+      <c r="B428" s="69"/>
+      <c r="C428" s="69"/>
+      <c r="D428" s="69"/>
+      <c r="E428" s="70"/>
+      <c r="F428" s="69"/>
+      <c r="G428" s="69"/>
+      <c r="H428" s="69"/>
+      <c r="I428" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J428" s="3">
+        <v>190</v>
+      </c>
+      <c r="K428" s="17">
+        <v>262.24</v>
+      </c>
+      <c r="L428" s="18">
+        <f>ABS(K428-J428)</f>
+        <v>72.240000000000009</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429" s="69"/>
+      <c r="B429" s="69"/>
+      <c r="C429" s="69"/>
+      <c r="D429" s="69"/>
+      <c r="E429" s="70"/>
+      <c r="F429" s="69"/>
+      <c r="G429" s="69"/>
+      <c r="H429" s="69"/>
+      <c r="I429" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J429" s="3">
+        <v>190</v>
+      </c>
+      <c r="K429" s="17">
+        <v>466.78</v>
+      </c>
+      <c r="L429" s="18">
+        <f t="shared" ref="L429:L452" si="32">ABS(K429-J429)</f>
+        <v>276.77999999999997</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430" s="71"/>
+      <c r="B430" s="71"/>
+      <c r="C430" s="71"/>
+      <c r="D430" s="71"/>
+      <c r="E430" s="71"/>
+      <c r="F430" s="71"/>
+      <c r="G430" s="71"/>
+      <c r="H430" s="71"/>
+      <c r="I430" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J430" s="3">
+        <v>190</v>
+      </c>
+      <c r="K430" s="17">
+        <v>175.89</v>
+      </c>
+      <c r="L430" s="18">
+        <f t="shared" si="32"/>
+        <v>14.110000000000014</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="I431" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J431" s="3">
+        <v>220</v>
+      </c>
+      <c r="K431" s="23">
+        <v>248.64</v>
+      </c>
+      <c r="L431" s="18">
+        <f t="shared" si="32"/>
+        <v>28.639999999999986</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="I432" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J432" s="3">
+        <v>220</v>
+      </c>
+      <c r="K432" s="17">
+        <v>544.91999999999996</v>
+      </c>
+      <c r="L432" s="18">
+        <f t="shared" si="32"/>
+        <v>324.91999999999996</v>
+      </c>
+    </row>
+    <row r="433" spans="9:12">
+      <c r="I433" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J433" s="3">
+        <v>220</v>
+      </c>
+      <c r="K433" s="17">
+        <v>177.44</v>
+      </c>
+      <c r="L433" s="18">
+        <f t="shared" si="32"/>
+        <v>42.56</v>
+      </c>
+    </row>
+    <row r="434" spans="9:12">
+      <c r="I434" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J434" s="74">
+        <v>250</v>
+      </c>
+      <c r="K434" s="75">
+        <v>250.7</v>
+      </c>
+      <c r="L434" s="76">
+        <f t="shared" si="32"/>
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="435" spans="9:12">
+      <c r="I435" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J435" s="3">
+        <v>250</v>
+      </c>
+      <c r="K435" s="17">
+        <v>602.52</v>
+      </c>
+      <c r="L435" s="18">
+        <f t="shared" si="32"/>
+        <v>352.52</v>
+      </c>
+    </row>
+    <row r="436" spans="9:12">
+      <c r="I436" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J436" s="3">
+        <v>250</v>
+      </c>
+      <c r="K436" s="17">
+        <v>162.81</v>
+      </c>
+      <c r="L436" s="18">
+        <f t="shared" si="32"/>
+        <v>87.19</v>
+      </c>
+    </row>
+    <row r="437" spans="9:12">
+      <c r="I437" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J437" s="74">
+        <v>280</v>
+      </c>
+      <c r="K437" s="75">
+        <v>253.89</v>
+      </c>
+      <c r="L437" s="76">
+        <f t="shared" si="32"/>
+        <v>26.110000000000014</v>
+      </c>
+    </row>
+    <row r="438" spans="9:12">
+      <c r="I438" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J438" s="3">
+        <v>280</v>
+      </c>
+      <c r="K438" s="17">
+        <v>589.71</v>
+      </c>
+      <c r="L438" s="18">
+        <f t="shared" si="32"/>
+        <v>309.71000000000004</v>
+      </c>
+    </row>
+    <row r="439" spans="9:12">
+      <c r="I439" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J439" s="3">
+        <v>280</v>
+      </c>
+      <c r="K439" s="17">
+        <v>157.87</v>
+      </c>
+      <c r="L439" s="18">
+        <f t="shared" si="32"/>
+        <v>122.13</v>
+      </c>
+    </row>
+    <row r="440" spans="9:12">
+      <c r="I440" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J440" s="3">
+        <v>300</v>
+      </c>
+      <c r="K440" s="17">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="L440" s="18">
+        <f t="shared" si="32"/>
+        <v>38.899999999999977</v>
+      </c>
+    </row>
+    <row r="441" spans="9:12">
+      <c r="I441" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J441" s="74">
+        <v>300</v>
+      </c>
+      <c r="K441" s="75">
+        <v>322.72000000000003</v>
+      </c>
+      <c r="L441" s="76">
+        <f t="shared" si="32"/>
+        <v>22.720000000000027</v>
+      </c>
+    </row>
+    <row r="442" spans="9:12">
+      <c r="I442" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J442" s="3">
+        <v>300</v>
+      </c>
+      <c r="K442" s="23">
+        <v>236.74</v>
+      </c>
+      <c r="L442" s="18">
+        <f t="shared" si="32"/>
+        <v>63.259999999999991</v>
+      </c>
+    </row>
+    <row r="443" spans="9:12">
+      <c r="I443" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J443" s="3">
+        <v>350</v>
+      </c>
+      <c r="K443" s="17">
+        <v>261.91000000000003</v>
+      </c>
+      <c r="L443" s="18">
+        <f t="shared" si="32"/>
+        <v>88.089999999999975</v>
+      </c>
+    </row>
+    <row r="444" spans="9:12">
+      <c r="I444" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J444" s="74">
+        <v>350</v>
+      </c>
+      <c r="K444" s="75">
+        <v>369.51</v>
+      </c>
+      <c r="L444" s="76">
+        <f t="shared" si="32"/>
+        <v>19.509999999999991</v>
+      </c>
+    </row>
+    <row r="445" spans="9:12">
+      <c r="I445" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J445" s="3">
+        <v>350</v>
+      </c>
+      <c r="K445" s="17">
+        <v>212.74</v>
+      </c>
+      <c r="L445" s="18">
+        <f t="shared" si="32"/>
+        <v>137.26</v>
+      </c>
+    </row>
+    <row r="446" spans="9:12">
+      <c r="I446" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J446" s="3">
+        <v>370</v>
+      </c>
+      <c r="K446" s="17">
+        <v>259.89</v>
+      </c>
+      <c r="L446" s="18">
+        <f t="shared" si="32"/>
+        <v>110.11000000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="9:12">
+      <c r="I447" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J447" s="3">
+        <v>370</v>
+      </c>
+      <c r="K447" s="17">
+        <v>320.27</v>
+      </c>
+      <c r="L447" s="18">
+        <f t="shared" si="32"/>
+        <v>49.730000000000018</v>
+      </c>
+    </row>
+    <row r="448" spans="9:12">
+      <c r="I448" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J448" s="3">
+        <v>370</v>
+      </c>
+      <c r="K448" s="23">
+        <v>236.49</v>
+      </c>
+      <c r="L448" s="18">
+        <f t="shared" si="32"/>
+        <v>133.51</v>
+      </c>
+    </row>
+    <row r="449" spans="9:12">
+      <c r="I449" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J449" s="3">
+        <v>400</v>
+      </c>
+      <c r="K449" s="17">
+        <v>270.08999999999997</v>
+      </c>
+      <c r="L449" s="18">
+        <f t="shared" si="32"/>
+        <v>129.91000000000003</v>
+      </c>
+    </row>
+    <row r="450" spans="9:12">
+      <c r="I450" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J450" s="74">
+        <v>400</v>
+      </c>
+      <c r="K450" s="75">
+        <v>430.15</v>
+      </c>
+      <c r="L450" s="76">
+        <f t="shared" si="32"/>
+        <v>30.149999999999977</v>
+      </c>
+    </row>
+    <row r="451" spans="9:12">
+      <c r="I451" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J451" s="37">
+        <v>400</v>
+      </c>
+      <c r="K451" s="42">
+        <v>185.39</v>
+      </c>
+      <c r="L451" s="18">
+        <f t="shared" si="32"/>
+        <v>214.61</v>
+      </c>
+    </row>
+    <row r="452" spans="9:12">
+      <c r="I452" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J452" s="3">
+        <v>450</v>
+      </c>
+      <c r="K452" s="17">
+        <v>259.87</v>
+      </c>
+      <c r="L452" s="18">
+        <f t="shared" si="32"/>
+        <v>190.13</v>
+      </c>
+    </row>
+    <row r="455" spans="9:12">
+      <c r="K455" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L455" s="24">
+        <f>MAX(L428:L452)</f>
+        <v>352.52</v>
+      </c>
+    </row>
+    <row r="456" spans="9:12">
+      <c r="K456" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L456" s="24">
+        <f>MIN(L428:L452)</f>
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="457" spans="9:12">
+      <c r="K457" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L457" s="24">
+        <f>SUM(L428:L452)/25</f>
+        <v>115.42</v>
+      </c>
+    </row>
+    <row r="462" spans="9:12">
+      <c r="I462" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J462" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K462" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L462" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="463" spans="9:12">
+      <c r="I463" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J463" s="3">
+        <v>0</v>
+      </c>
+      <c r="K463" s="17">
+        <v>58.83</v>
+      </c>
+      <c r="L463" s="18">
+        <f>ABS(K463-J463)</f>
+        <v>58.83</v>
+      </c>
+    </row>
+    <row r="464" spans="9:12">
+      <c r="I464" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J464" s="3">
+        <v>50</v>
+      </c>
+      <c r="K464" s="17">
+        <v>101.58</v>
+      </c>
+      <c r="L464" s="18">
+        <f t="shared" ref="L464:L487" si="33">ABS(K464-J464)</f>
+        <v>51.58</v>
+      </c>
+    </row>
+    <row r="465" spans="9:12">
+      <c r="I465" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J465" s="3">
+        <v>-50</v>
+      </c>
+      <c r="K465" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="L465" s="18">
+        <f t="shared" si="33"/>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="466" spans="9:12">
+      <c r="I466" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J466" s="3">
+        <v>0</v>
+      </c>
+      <c r="K466" s="17">
+        <v>45.58</v>
+      </c>
+      <c r="L466" s="18">
+        <f t="shared" si="33"/>
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="467" spans="9:12">
+      <c r="I467" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J467" s="77">
+        <v>70</v>
+      </c>
+      <c r="K467" s="78">
+        <v>63.8</v>
+      </c>
+      <c r="L467" s="34">
+        <f t="shared" si="33"/>
+        <v>6.2000000000000028</v>
+      </c>
+    </row>
+    <row r="468" spans="9:12">
+      <c r="I468" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J468" s="3">
+        <v>-70</v>
+      </c>
+      <c r="K468" s="23">
+        <v>25.41</v>
+      </c>
+      <c r="L468" s="18">
+        <f t="shared" si="33"/>
+        <v>95.41</v>
+      </c>
+    </row>
+    <row r="469" spans="9:12">
+      <c r="I469" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J469" s="77">
+        <v>0</v>
+      </c>
+      <c r="K469" s="78">
+        <v>21.85</v>
+      </c>
+      <c r="L469" s="34">
+        <f t="shared" si="33"/>
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="470" spans="9:12">
+      <c r="I470" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J470" s="3">
+        <v>90</v>
+      </c>
+      <c r="K470" s="17">
+        <v>43.22</v>
+      </c>
+      <c r="L470" s="18">
+        <f t="shared" si="33"/>
+        <v>46.78</v>
+      </c>
+    </row>
+    <row r="471" spans="9:12">
+      <c r="I471" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J471" s="3">
+        <v>-90</v>
+      </c>
+      <c r="K471" s="17">
+        <v>14.27</v>
+      </c>
+      <c r="L471" s="18">
+        <f t="shared" si="33"/>
+        <v>104.27</v>
+      </c>
+    </row>
+    <row r="472" spans="9:12">
+      <c r="I472" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="J472" s="77">
+        <v>0</v>
+      </c>
+      <c r="K472" s="78">
+        <v>5.38</v>
+      </c>
+      <c r="L472" s="34">
+        <f t="shared" si="33"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="473" spans="9:12">
+      <c r="I473" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J473" s="3">
+        <v>100</v>
+      </c>
+      <c r="K473" s="17">
+        <v>5.32</v>
+      </c>
+      <c r="L473" s="18">
+        <f t="shared" si="33"/>
+        <v>94.68</v>
+      </c>
+    </row>
+    <row r="474" spans="9:12">
+      <c r="I474" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J474" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K474" s="17">
+        <v>3.38</v>
+      </c>
+      <c r="L474" s="18">
+        <f t="shared" si="33"/>
+        <v>103.38</v>
+      </c>
+    </row>
+    <row r="475" spans="9:12">
+      <c r="I475" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J475" s="77">
+        <v>0</v>
+      </c>
+      <c r="K475" s="78">
+        <v>-3.52</v>
+      </c>
+      <c r="L475" s="34">
+        <f t="shared" si="33"/>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="476" spans="9:12">
+      <c r="I476" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J476" s="3">
+        <v>10</v>
+      </c>
+      <c r="K476" s="23">
+        <v>-12.42</v>
+      </c>
+      <c r="L476" s="18">
+        <f t="shared" si="33"/>
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="477" spans="9:12">
+      <c r="I477" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="J477" s="77">
+        <v>-10</v>
+      </c>
+      <c r="K477" s="78">
+        <v>-3.42</v>
+      </c>
+      <c r="L477" s="34">
+        <f t="shared" si="33"/>
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="478" spans="9:12">
+      <c r="I478" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="J478" s="77">
+        <v>0</v>
+      </c>
+      <c r="K478" s="79">
+        <v>-27.14</v>
+      </c>
+      <c r="L478" s="34">
+        <f t="shared" si="33"/>
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="479" spans="9:12">
+      <c r="I479" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J479" s="3">
+        <v>40</v>
+      </c>
+      <c r="K479" s="17">
+        <v>-33.83</v>
+      </c>
+      <c r="L479" s="18">
+        <f t="shared" si="33"/>
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="480" spans="9:12">
+      <c r="I480" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J480" s="77">
+        <v>-40</v>
+      </c>
+      <c r="K480" s="78">
+        <v>-24.87</v>
+      </c>
+      <c r="L480" s="34">
+        <f t="shared" si="33"/>
+        <v>15.129999999999999</v>
+      </c>
+    </row>
+    <row r="481" spans="9:12">
+      <c r="I481" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J481" s="3">
+        <v>0</v>
+      </c>
+      <c r="K481" s="17">
+        <v>-31.71</v>
+      </c>
+      <c r="L481" s="18">
+        <f t="shared" si="33"/>
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="482" spans="9:12">
+      <c r="I482" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J482" s="3">
+        <v>20</v>
+      </c>
+      <c r="K482" s="17">
+        <v>-41.32</v>
+      </c>
+      <c r="L482" s="18">
+        <f t="shared" si="33"/>
+        <v>61.32</v>
+      </c>
+    </row>
+    <row r="483" spans="9:12">
+      <c r="I483" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="J483" s="77">
+        <v>-20</v>
+      </c>
+      <c r="K483" s="78">
+        <v>-30.17</v>
+      </c>
+      <c r="L483" s="34">
+        <f t="shared" si="33"/>
+        <v>10.170000000000002</v>
+      </c>
+    </row>
+    <row r="484" spans="9:12">
+      <c r="I484" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J484" s="3">
+        <v>0</v>
+      </c>
+      <c r="K484" s="23">
+        <v>-44.29</v>
+      </c>
+      <c r="L484" s="18">
+        <f t="shared" si="33"/>
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="485" spans="9:12">
+      <c r="I485" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J485" s="3">
+        <v>80</v>
+      </c>
+      <c r="K485" s="17">
+        <v>-65.36</v>
+      </c>
+      <c r="L485" s="18">
+        <f t="shared" si="33"/>
+        <v>145.36000000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="9:12">
+      <c r="I486" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J486" s="37">
+        <v>-80</v>
+      </c>
+      <c r="K486" s="42">
+        <v>-35.32</v>
+      </c>
+      <c r="L486" s="18">
+        <f t="shared" si="33"/>
+        <v>44.68</v>
+      </c>
+    </row>
+    <row r="487" spans="9:12">
+      <c r="I487" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J487" s="3">
+        <v>0</v>
+      </c>
+      <c r="K487" s="17">
+        <v>-55.65</v>
+      </c>
+      <c r="L487" s="18">
+        <f t="shared" si="33"/>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="490" spans="9:12">
+      <c r="K490" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L490" s="24">
+        <f>MAX(L463:L487)</f>
+        <v>145.36000000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="9:12">
+      <c r="K491" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L491" s="24">
+        <f>MIN(L463:L487)</f>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="492" spans="9:12">
+      <c r="K492" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L492" s="24">
+        <f>SUM(L463:L487)/25</f>
+        <v>50.849600000000002</v>
+      </c>
+    </row>
+    <row r="497" spans="9:12">
+      <c r="I497" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J497" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K497" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L497" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="498" spans="9:12">
+      <c r="I498" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J498" s="16">
+        <v>261.72504656604804</v>
+      </c>
+      <c r="K498" s="23">
+        <v>323.47000000000003</v>
+      </c>
+      <c r="L498" s="73">
+        <f>ABS(K498-J498)</f>
+        <v>61.744953433951991</v>
+      </c>
+    </row>
+    <row r="499" spans="9:12">
+      <c r="I499" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J499" s="16">
+        <v>266.45825188948453</v>
+      </c>
+      <c r="K499" s="23">
+        <v>510.49</v>
+      </c>
+      <c r="L499" s="73">
+        <f t="shared" ref="L499:L522" si="34">ABS(K499-J499)</f>
+        <v>244.03174811051548</v>
+      </c>
+    </row>
+    <row r="500" spans="9:12">
+      <c r="I500" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J500" s="81">
+        <v>266.45825188948453</v>
+      </c>
+      <c r="K500" s="82">
+        <v>255.75</v>
+      </c>
+      <c r="L500" s="83">
+        <f t="shared" si="34"/>
+        <v>10.708251889484529</v>
+      </c>
+    </row>
+    <row r="501" spans="9:12">
+      <c r="I501" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J501" s="81">
+        <v>284.25340807103788</v>
+      </c>
+      <c r="K501" s="82">
+        <v>310.32</v>
+      </c>
+      <c r="L501" s="83">
+        <f t="shared" si="34"/>
+        <v>26.066591928962112</v>
+      </c>
+    </row>
+    <row r="502" spans="9:12">
+      <c r="I502" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J502" s="16">
+        <v>292.74562336608892</v>
+      </c>
+      <c r="K502" s="23">
+        <v>577.41999999999996</v>
+      </c>
+      <c r="L502" s="73">
+        <f t="shared" si="34"/>
+        <v>284.67437663391104</v>
+      </c>
+    </row>
+    <row r="503" spans="9:12">
+      <c r="I503" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J503" s="16">
+        <v>292.74562336608892</v>
+      </c>
+      <c r="K503" s="23">
+        <v>254.03</v>
+      </c>
+      <c r="L503" s="73">
+        <f t="shared" si="34"/>
+        <v>38.71562336608892</v>
+      </c>
+    </row>
+    <row r="504" spans="9:12">
+      <c r="I504" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J504" s="81">
+        <v>308.05843601498725</v>
+      </c>
+      <c r="K504" s="82">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="L504" s="83">
+        <f t="shared" si="34"/>
+        <v>1.3415639850127263</v>
+      </c>
+    </row>
+    <row r="505" spans="9:12">
+      <c r="I505" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J505" s="16">
+        <v>320.93613071762422</v>
+      </c>
+      <c r="K505" s="23">
+        <v>630.30999999999995</v>
+      </c>
+      <c r="L505" s="73">
+        <f t="shared" si="34"/>
+        <v>309.37386928237572</v>
+      </c>
+    </row>
+    <row r="506" spans="9:12">
+      <c r="I506" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J506" s="16">
+        <v>320.93613071762422</v>
+      </c>
+      <c r="K506" s="23">
+        <v>243.13</v>
+      </c>
+      <c r="L506" s="73">
+        <f t="shared" si="34"/>
+        <v>77.806130717624228</v>
+      </c>
+    </row>
+    <row r="507" spans="9:12">
+      <c r="I507" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J507" s="81">
+        <v>332.86633954186476</v>
+      </c>
+      <c r="K507" s="82">
+        <v>311.27</v>
+      </c>
+      <c r="L507" s="83">
+        <f t="shared" si="34"/>
+        <v>21.596339541864779</v>
+      </c>
+    </row>
+    <row r="508" spans="9:12">
+      <c r="I508" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J508" s="16">
+        <v>347.56294393965533</v>
+      </c>
+      <c r="K508" s="23">
+        <v>616.59</v>
+      </c>
+      <c r="L508" s="73">
+        <f t="shared" si="34"/>
+        <v>269.02705606034471</v>
+      </c>
+    </row>
+    <row r="509" spans="9:12">
+      <c r="I509" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J509" s="16">
+        <v>347.56294393965533</v>
+      </c>
+      <c r="K509" s="23">
+        <v>239.44</v>
+      </c>
+      <c r="L509" s="73">
+        <f t="shared" si="34"/>
+        <v>108.12294393965533</v>
+      </c>
+    </row>
+    <row r="510" spans="9:12">
+      <c r="I510" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J510" s="16">
+        <v>349.85711369071805</v>
+      </c>
+      <c r="K510" s="23">
+        <v>317.14999999999998</v>
+      </c>
+      <c r="L510" s="73">
+        <f t="shared" si="34"/>
+        <v>32.707113690718074</v>
+      </c>
+    </row>
+    <row r="511" spans="9:12">
+      <c r="I511" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="J511" s="81">
+        <v>350</v>
+      </c>
+      <c r="K511" s="82">
+        <v>369.73</v>
+      </c>
+      <c r="L511" s="83">
+        <f t="shared" si="34"/>
+        <v>19.730000000000018</v>
+      </c>
+    </row>
+    <row r="512" spans="9:12">
+      <c r="I512" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J512" s="16">
+        <v>350</v>
+      </c>
+      <c r="K512" s="23">
+        <v>297.42</v>
+      </c>
+      <c r="L512" s="73">
+        <f t="shared" si="34"/>
+        <v>52.579999999999984</v>
+      </c>
+    </row>
+    <row r="513" spans="9:12">
+      <c r="I513" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J513" s="16">
+        <v>393.57337308308854</v>
+      </c>
+      <c r="K513" s="23">
+        <v>318.95999999999998</v>
+      </c>
+      <c r="L513" s="73">
+        <f t="shared" si="34"/>
+        <v>74.613373083088561</v>
+      </c>
+    </row>
+    <row r="514" spans="9:12">
+      <c r="I514" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="J514" s="81">
+        <v>395.60080889704966</v>
+      </c>
+      <c r="K514" s="82">
+        <v>412.41</v>
+      </c>
+      <c r="L514" s="83">
+        <f t="shared" si="34"/>
+        <v>16.809191102950365</v>
+      </c>
+    </row>
+    <row r="515" spans="9:12">
+      <c r="I515" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J515" s="16">
+        <v>395.60080889704966</v>
+      </c>
+      <c r="K515" s="23">
+        <v>279.77999999999997</v>
+      </c>
+      <c r="L515" s="73">
+        <f t="shared" si="34"/>
+        <v>115.82080889704969</v>
+      </c>
+    </row>
+    <row r="516" spans="9:12">
+      <c r="I516" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J516" s="16">
+        <v>411.46081222881969</v>
+      </c>
+      <c r="K516" s="23">
+        <v>317.72000000000003</v>
+      </c>
+      <c r="L516" s="73">
+        <f t="shared" si="34"/>
+        <v>93.740812228819664</v>
+      </c>
+    </row>
+    <row r="517" spans="9:12">
+      <c r="I517" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J517" s="16">
+        <v>411.94659848091959</v>
+      </c>
+      <c r="K517" s="23">
+        <v>369.7</v>
+      </c>
+      <c r="L517" s="73">
+        <f t="shared" si="34"/>
+        <v>42.246598480919602</v>
+      </c>
+    </row>
+    <row r="518" spans="9:12">
+      <c r="I518" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J518" s="16">
+        <v>411.94659848091959</v>
+      </c>
+      <c r="K518" s="23">
+        <v>298.73</v>
+      </c>
+      <c r="L518" s="73">
+        <f t="shared" si="34"/>
+        <v>113.21659848091957</v>
+      </c>
+    </row>
+    <row r="519" spans="9:12">
+      <c r="I519" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J519" s="16">
+        <v>438.63424398922615</v>
+      </c>
+      <c r="K519" s="23">
+        <v>327.58</v>
+      </c>
+      <c r="L519" s="73">
+        <f t="shared" si="34"/>
+        <v>111.05424398922617</v>
+      </c>
+    </row>
+    <row r="520" spans="9:12">
+      <c r="I520" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="J520" s="81">
+        <v>445.86993619215906</v>
+      </c>
+      <c r="K520" s="82">
+        <v>470.85</v>
+      </c>
+      <c r="L520" s="83">
+        <f t="shared" si="34"/>
+        <v>24.980063807840963</v>
+      </c>
+    </row>
+    <row r="521" spans="9:12">
+      <c r="I521" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J521" s="38">
+        <v>445.86993619215906</v>
+      </c>
+      <c r="K521" s="72">
+        <v>260.8</v>
+      </c>
+      <c r="L521" s="73">
+        <f t="shared" si="34"/>
+        <v>185.06993619215905</v>
+      </c>
+    </row>
+    <row r="522" spans="9:12">
+      <c r="I522" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J522" s="16">
+        <v>484.66483264210535</v>
+      </c>
+      <c r="K522" s="23">
+        <v>320.98</v>
+      </c>
+      <c r="L522" s="73">
+        <f t="shared" si="34"/>
+        <v>163.68483264210533</v>
+      </c>
+    </row>
+    <row r="525" spans="9:12">
+      <c r="K525" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L525" s="24">
+        <f>MAX(L498:L522)</f>
+        <v>309.37386928237572</v>
+      </c>
+    </row>
+    <row r="526" spans="9:12">
+      <c r="K526" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L526" s="24">
+        <f>MIN(L498:L522)</f>
+        <v>1.3415639850127263</v>
+      </c>
+    </row>
+    <row r="527" spans="9:12">
+      <c r="K527" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L527" s="24">
+        <f>SUM(L498:L522)/25</f>
+        <v>99.97852085942354</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="F398:J398"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="B319:E319"/>
     <mergeCell ref="F319:J319"/>
     <mergeCell ref="A314:C314"/>
     <mergeCell ref="A174:C174"/>
     <mergeCell ref="B179:E179"/>
     <mergeCell ref="F179:J179"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -26757,7 +31909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A53AE-05FE-4343-86A2-73C17600B97E}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
@@ -26774,16 +31926,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="66"/>
+      <c r="H1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
@@ -27887,16 +33039,16 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="H60" s="37" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="66"/>
+      <c r="H60" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="38"/>
-      <c r="J60" s="39"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="66"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="7" t="s">
@@ -27942,25 +33094,25 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="48" t="s">
+      <c r="J65" s="45" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="27" t="s">
@@ -27971,7 +33123,7 @@
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="44">
+      <c r="B66" s="41">
         <v>500</v>
       </c>
       <c r="C66" s="3">
@@ -27987,7 +33139,7 @@
       <c r="I66" s="18">
         <v>500</v>
       </c>
-      <c r="J66" s="61">
+      <c r="J66" s="57">
         <v>600.05999999999995</v>
       </c>
       <c r="K66" s="18">
@@ -28111,10 +33263,10 @@
       <c r="A71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="45">
+      <c r="B71" s="42">
         <v>650</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="37">
         <v>939.26</v>
       </c>
       <c r="D71" s="18">
@@ -28124,7 +33276,7 @@
       <c r="H71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="37">
         <v>650</v>
       </c>
       <c r="J71" s="17">
@@ -28139,7 +33291,7 @@
       <c r="A72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="66">
+      <c r="B72" s="62">
         <v>650</v>
       </c>
       <c r="C72" s="18">
@@ -28152,7 +33304,7 @@
       <c r="H72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="40">
         <v>650</v>
       </c>
       <c r="J72" s="17">
@@ -28167,7 +33319,7 @@
       <c r="A73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="44">
+      <c r="B73" s="41">
         <v>700</v>
       </c>
       <c r="C73" s="18">
@@ -28195,7 +33347,7 @@
       <c r="A74" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="44">
+      <c r="B74" s="41">
         <v>700</v>
       </c>
       <c r="C74" s="18">
@@ -28223,7 +33375,7 @@
       <c r="A75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="44">
+      <c r="B75" s="41">
         <v>700</v>
       </c>
       <c r="C75" s="18">
@@ -28296,25 +33448,25 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="45" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="62" t="s">
+      <c r="H84" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="48" t="s">
+      <c r="I84" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J84" s="48" t="s">
+      <c r="J84" s="45" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="27" t="s">
@@ -28341,7 +33493,7 @@
       <c r="I85" s="18">
         <v>0</v>
       </c>
-      <c r="J85" s="44">
+      <c r="J85" s="41">
         <v>61.47</v>
       </c>
       <c r="K85" s="18">
@@ -28465,10 +33617,10 @@
       <c r="A90" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B90" s="40">
+      <c r="B90" s="37">
         <v>50</v>
       </c>
-      <c r="C90" s="45">
+      <c r="C90" s="42">
         <v>-1.4</v>
       </c>
       <c r="D90" s="18">
@@ -28478,7 +33630,7 @@
       <c r="H90" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I90" s="40">
+      <c r="I90" s="37">
         <v>50</v>
       </c>
       <c r="J90" s="17">
@@ -28496,7 +33648,7 @@
       <c r="B91" s="18">
         <v>-50</v>
       </c>
-      <c r="C91" s="44">
+      <c r="C91" s="41">
         <v>-1.55</v>
       </c>
       <c r="D91" s="18">
@@ -28524,7 +33676,7 @@
       <c r="B92" s="18">
         <v>0</v>
       </c>
-      <c r="C92" s="44">
+      <c r="C92" s="41">
         <v>-17.91</v>
       </c>
       <c r="D92" s="34">
@@ -28552,7 +33704,7 @@
       <c r="B93" s="18">
         <v>100</v>
       </c>
-      <c r="C93" s="44">
+      <c r="C93" s="41">
         <v>-27.69</v>
       </c>
       <c r="D93" s="18">
@@ -28580,7 +33732,7 @@
       <c r="B94" s="18">
         <v>-100</v>
       </c>
-      <c r="C94" s="44">
+      <c r="C94" s="41">
         <v>-13.81</v>
       </c>
       <c r="D94" s="18">
@@ -28695,7 +33847,7 @@
       <c r="I104" s="24">
         <v>559.91427915351471</v>
       </c>
-      <c r="J104" s="61">
+      <c r="J104" s="57">
         <v>653.72</v>
       </c>
       <c r="K104" s="24">
@@ -28723,7 +33875,7 @@
       <c r="I105" s="24">
         <v>650.7718494218999</v>
       </c>
-      <c r="J105" s="63">
+      <c r="J105" s="59">
         <v>641.9</v>
       </c>
       <c r="K105" s="36">
@@ -28751,7 +33903,7 @@
       <c r="I106" s="24">
         <v>651.46296901665869</v>
       </c>
-      <c r="J106" s="64">
+      <c r="J106" s="60">
         <v>741.5</v>
       </c>
       <c r="K106" s="24">
@@ -28779,7 +33931,7 @@
       <c r="I107" s="24">
         <v>651.46296901665869</v>
       </c>
-      <c r="J107" s="64">
+      <c r="J107" s="60">
         <v>589.14</v>
       </c>
       <c r="K107" s="24">
@@ -28807,7 +33959,7 @@
       <c r="I108" s="24">
         <v>697.1398711879848</v>
       </c>
-      <c r="J108" s="64">
+      <c r="J108" s="60">
         <v>662.43</v>
       </c>
       <c r="K108" s="36">
@@ -28835,7 +33987,7 @@
       <c r="I109" s="24">
         <v>698.93061172050545</v>
       </c>
-      <c r="J109" s="64">
+      <c r="J109" s="60">
         <v>832.24</v>
       </c>
       <c r="K109" s="24">
@@ -28863,7 +34015,7 @@
       <c r="I110" s="24">
         <v>698.93061172050545</v>
       </c>
-      <c r="J110" s="64">
+      <c r="J110" s="60">
         <v>590.91999999999996</v>
       </c>
       <c r="K110" s="24">
@@ -28891,7 +34043,7 @@
       <c r="I111" s="24">
         <v>743.97849431283964</v>
       </c>
-      <c r="J111" s="64">
+      <c r="J111" s="60">
         <v>662.3</v>
       </c>
       <c r="K111" s="24">
@@ -28919,7 +34071,7 @@
       <c r="I112" s="24">
         <v>750.66903492817664</v>
       </c>
-      <c r="J112" s="64">
+      <c r="J112" s="60">
         <v>1069.96</v>
       </c>
       <c r="K112" s="24">
@@ -28947,7 +34099,7 @@
       <c r="I113" s="24">
         <v>750.66903492817664</v>
       </c>
-      <c r="J113" s="64">
+      <c r="J113" s="60">
         <v>507.25</v>
       </c>
       <c r="K113" s="24">

--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D0617E-3F4C-4A3B-A1B3-E8E283661589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4D6CEB-391C-4296-BFEC-F287EA5F67F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Distancias Fresas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="48">
   <si>
     <t>Parámetros de la cámara</t>
   </si>
@@ -171,6 +171,12 @@
   <si>
     <t>P25</t>
   </si>
+  <si>
+    <t>EJE Y INVERTIDO</t>
+  </si>
+  <si>
+    <t>COORDENDAS SUPUESTAS</t>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -440,11 +446,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,31 +646,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,6 +685,74 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,8 +762,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFAC9"/>
+      <color rgb="FFFFD1D1"/>
       <color rgb="FFFFF596"/>
-      <color rgb="FFFFD1D1"/>
       <color rgb="FFFFADAD"/>
     </mruColors>
   </colors>
@@ -22949,10 +23019,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA527"/>
+  <dimension ref="A1:AA550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="L520" sqref="I520:L520"/>
+    <sheetView topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="F532" sqref="F532:J550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22982,11 +23052,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -23050,19 +23120,19 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="63" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="66"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
@@ -23908,19 +23978,19 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="63" t="s">
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="66"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
@@ -24148,11 +24218,11 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -24243,19 +24313,19 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="3"/>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="63" t="s">
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="66"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="90"/>
       <c r="K35" s="1"/>
       <c r="N35" s="22" t="s">
         <v>28</v>
@@ -25426,11 +25496,11 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="63" t="s">
+      <c r="A101" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="64"/>
-      <c r="C101" s="66"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="90"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
@@ -25457,19 +25527,19 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="3"/>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="63" t="s">
+      <c r="C106" s="89"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="66"/>
+      <c r="G106" s="89"/>
+      <c r="H106" s="89"/>
+      <c r="I106" s="89"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="4" t="s">
@@ -26427,11 +26497,11 @@
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="63" t="s">
+      <c r="A174" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="64"/>
-      <c r="C174" s="66"/>
+      <c r="B174" s="89"/>
+      <c r="C174" s="90"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="7" t="s">
@@ -26459,19 +26529,19 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="3"/>
-      <c r="B179" s="63" t="s">
+      <c r="B179" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
-      <c r="E179" s="66"/>
-      <c r="F179" s="63" t="s">
+      <c r="C179" s="89"/>
+      <c r="D179" s="89"/>
+      <c r="E179" s="90"/>
+      <c r="F179" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G179" s="64"/>
-      <c r="H179" s="64"/>
-      <c r="I179" s="64"/>
-      <c r="J179" s="66"/>
+      <c r="G179" s="89"/>
+      <c r="H179" s="89"/>
+      <c r="I179" s="89"/>
+      <c r="J179" s="90"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="4" t="s">
@@ -28604,11 +28674,11 @@
       </c>
     </row>
     <row r="314" spans="1:12">
-      <c r="A314" s="63" t="s">
+      <c r="A314" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B314" s="64"/>
-      <c r="C314" s="66"/>
+      <c r="B314" s="89"/>
+      <c r="C314" s="90"/>
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="7" t="s">
@@ -28635,19 +28705,19 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="3"/>
-      <c r="B319" s="63" t="s">
+      <c r="B319" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C319" s="64"/>
-      <c r="D319" s="64"/>
-      <c r="E319" s="65"/>
-      <c r="F319" s="63" t="s">
+      <c r="C319" s="89"/>
+      <c r="D319" s="89"/>
+      <c r="E319" s="91"/>
+      <c r="F319" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G319" s="64"/>
-      <c r="H319" s="64"/>
-      <c r="I319" s="64"/>
-      <c r="J319" s="65"/>
+      <c r="G319" s="89"/>
+      <c r="H319" s="89"/>
+      <c r="I319" s="89"/>
+      <c r="J319" s="91"/>
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="47" t="s">
@@ -29595,11 +29665,11 @@
       </c>
     </row>
     <row r="393" spans="1:10">
-      <c r="A393" s="63" t="s">
+      <c r="A393" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B393" s="64"/>
-      <c r="C393" s="66"/>
+      <c r="B393" s="89"/>
+      <c r="C393" s="90"/>
     </row>
     <row r="394" spans="1:10">
       <c r="A394" s="7" t="s">
@@ -29625,20 +29695,20 @@
       </c>
     </row>
     <row r="398" spans="1:10">
-      <c r="A398" s="67" t="s">
+      <c r="A398" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B398" s="68"/>
-      <c r="C398" s="68"/>
-      <c r="D398" s="68"/>
-      <c r="E398" s="65"/>
-      <c r="F398" s="67" t="s">
+      <c r="B398" s="97"/>
+      <c r="C398" s="97"/>
+      <c r="D398" s="97"/>
+      <c r="E398" s="91"/>
+      <c r="F398" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="G398" s="68"/>
-      <c r="H398" s="68"/>
-      <c r="I398" s="68"/>
-      <c r="J398" s="65"/>
+      <c r="G398" s="97"/>
+      <c r="H398" s="97"/>
+      <c r="I398" s="97"/>
+      <c r="J398" s="91"/>
     </row>
     <row r="399" spans="1:10">
       <c r="A399" s="4" t="s">
@@ -30573,38 +30643,38 @@
       </c>
     </row>
     <row r="425" spans="1:12">
-      <c r="A425" s="69"/>
-      <c r="B425" s="69"/>
-      <c r="C425" s="69"/>
-      <c r="D425" s="69"/>
-      <c r="E425" s="70"/>
-      <c r="F425" s="69"/>
-      <c r="G425" s="69"/>
-      <c r="H425" s="69"/>
-      <c r="I425" s="70"/>
-      <c r="J425" s="70"/>
+      <c r="A425" s="10"/>
+      <c r="B425" s="10"/>
+      <c r="C425" s="10"/>
+      <c r="D425" s="10"/>
+      <c r="E425" s="63"/>
+      <c r="F425" s="10"/>
+      <c r="G425" s="10"/>
+      <c r="H425" s="10"/>
+      <c r="I425" s="63"/>
+      <c r="J425" s="63"/>
     </row>
     <row r="426" spans="1:12">
-      <c r="A426" s="69"/>
-      <c r="B426" s="69"/>
-      <c r="C426" s="69"/>
-      <c r="D426" s="69"/>
-      <c r="E426" s="70"/>
-      <c r="F426" s="70"/>
-      <c r="G426" s="69"/>
-      <c r="H426" s="69"/>
-      <c r="I426" s="70"/>
-      <c r="J426" s="70"/>
+      <c r="A426" s="10"/>
+      <c r="B426" s="10"/>
+      <c r="C426" s="10"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="63"/>
+      <c r="F426" s="63"/>
+      <c r="G426" s="10"/>
+      <c r="H426" s="10"/>
+      <c r="I426" s="63"/>
+      <c r="J426" s="63"/>
     </row>
     <row r="427" spans="1:12">
-      <c r="A427" s="69"/>
-      <c r="B427" s="69"/>
-      <c r="C427" s="69"/>
-      <c r="D427" s="69"/>
-      <c r="E427" s="70"/>
-      <c r="F427" s="69"/>
-      <c r="G427" s="70"/>
-      <c r="H427" s="69"/>
+      <c r="A427" s="10"/>
+      <c r="B427" s="10"/>
+      <c r="C427" s="10"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="63"/>
+      <c r="F427" s="10"/>
+      <c r="G427" s="63"/>
+      <c r="H427" s="10"/>
       <c r="I427" s="4" t="s">
         <v>6</v>
       </c>
@@ -30619,14 +30689,14 @@
       </c>
     </row>
     <row r="428" spans="1:12">
-      <c r="A428" s="69"/>
-      <c r="B428" s="69"/>
-      <c r="C428" s="69"/>
-      <c r="D428" s="69"/>
-      <c r="E428" s="70"/>
-      <c r="F428" s="69"/>
-      <c r="G428" s="69"/>
-      <c r="H428" s="69"/>
+      <c r="A428" s="10"/>
+      <c r="B428" s="10"/>
+      <c r="C428" s="10"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="63"/>
+      <c r="F428" s="10"/>
+      <c r="G428" s="10"/>
+      <c r="H428" s="10"/>
       <c r="I428" s="3" t="s">
         <v>18</v>
       </c>
@@ -30642,14 +30712,14 @@
       </c>
     </row>
     <row r="429" spans="1:12">
-      <c r="A429" s="69"/>
-      <c r="B429" s="69"/>
-      <c r="C429" s="69"/>
-      <c r="D429" s="69"/>
-      <c r="E429" s="70"/>
-      <c r="F429" s="69"/>
-      <c r="G429" s="69"/>
-      <c r="H429" s="69"/>
+      <c r="A429" s="10"/>
+      <c r="B429" s="10"/>
+      <c r="C429" s="10"/>
+      <c r="D429" s="10"/>
+      <c r="E429" s="63"/>
+      <c r="F429" s="10"/>
+      <c r="G429" s="10"/>
+      <c r="H429" s="10"/>
       <c r="I429" s="3" t="s">
         <v>19</v>
       </c>
@@ -30665,24 +30735,16 @@
       </c>
     </row>
     <row r="430" spans="1:12">
-      <c r="A430" s="71"/>
-      <c r="B430" s="71"/>
-      <c r="C430" s="71"/>
-      <c r="D430" s="71"/>
-      <c r="E430" s="71"/>
-      <c r="F430" s="71"/>
-      <c r="G430" s="71"/>
-      <c r="H430" s="71"/>
-      <c r="I430" s="3" t="s">
+      <c r="I430" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J430" s="3">
+      <c r="J430" s="66">
         <v>190</v>
       </c>
-      <c r="K430" s="17">
+      <c r="K430" s="67">
         <v>175.89</v>
       </c>
-      <c r="L430" s="18">
+      <c r="L430" s="68">
         <f t="shared" si="32"/>
         <v>14.110000000000014</v>
       </c>
@@ -30733,16 +30795,16 @@
       </c>
     </row>
     <row r="434" spans="9:12">
-      <c r="I434" s="74" t="s">
+      <c r="I434" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J434" s="74">
+      <c r="J434" s="66">
         <v>250</v>
       </c>
-      <c r="K434" s="75">
+      <c r="K434" s="67">
         <v>250.7</v>
       </c>
-      <c r="L434" s="76">
+      <c r="L434" s="68">
         <f t="shared" si="32"/>
         <v>0.69999999999998863</v>
       </c>
@@ -30778,16 +30840,16 @@
       </c>
     </row>
     <row r="437" spans="9:12">
-      <c r="I437" s="74" t="s">
+      <c r="I437" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J437" s="74">
+      <c r="J437" s="66">
         <v>280</v>
       </c>
-      <c r="K437" s="75">
+      <c r="K437" s="67">
         <v>253.89</v>
       </c>
-      <c r="L437" s="76">
+      <c r="L437" s="68">
         <f t="shared" si="32"/>
         <v>26.110000000000014</v>
       </c>
@@ -30838,16 +30900,16 @@
       </c>
     </row>
     <row r="441" spans="9:12">
-      <c r="I441" s="74" t="s">
+      <c r="I441" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J441" s="74">
+      <c r="J441" s="66">
         <v>300</v>
       </c>
-      <c r="K441" s="75">
+      <c r="K441" s="67">
         <v>322.72000000000003</v>
       </c>
-      <c r="L441" s="76">
+      <c r="L441" s="68">
         <f t="shared" si="32"/>
         <v>22.720000000000027</v>
       </c>
@@ -30883,16 +30945,16 @@
       </c>
     </row>
     <row r="444" spans="9:12">
-      <c r="I444" s="74" t="s">
+      <c r="I444" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="J444" s="74">
+      <c r="J444" s="66">
         <v>350</v>
       </c>
-      <c r="K444" s="75">
+      <c r="K444" s="67">
         <v>369.51</v>
       </c>
-      <c r="L444" s="76">
+      <c r="L444" s="68">
         <f t="shared" si="32"/>
         <v>19.509999999999991</v>
       </c>
@@ -30973,16 +31035,16 @@
       </c>
     </row>
     <row r="450" spans="9:12">
-      <c r="I450" s="74" t="s">
+      <c r="I450" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="J450" s="74">
+      <c r="J450" s="66">
         <v>400</v>
       </c>
-      <c r="K450" s="75">
+      <c r="K450" s="67">
         <v>430.15</v>
       </c>
-      <c r="L450" s="76">
+      <c r="L450" s="68">
         <f t="shared" si="32"/>
         <v>30.149999999999977</v>
       </c>
@@ -31119,13 +31181,13 @@
       </c>
     </row>
     <row r="467" spans="9:12">
-      <c r="I467" s="77" t="s">
+      <c r="I467" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="J467" s="77">
+      <c r="J467" s="69">
         <v>70</v>
       </c>
-      <c r="K467" s="78">
+      <c r="K467" s="70">
         <v>63.8</v>
       </c>
       <c r="L467" s="34">
@@ -31149,13 +31211,13 @@
       </c>
     </row>
     <row r="469" spans="9:12">
-      <c r="I469" s="77" t="s">
+      <c r="I469" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J469" s="77">
+      <c r="J469" s="69">
         <v>0</v>
       </c>
-      <c r="K469" s="78">
+      <c r="K469" s="70">
         <v>21.85</v>
       </c>
       <c r="L469" s="34">
@@ -31194,13 +31256,13 @@
       </c>
     </row>
     <row r="472" spans="9:12">
-      <c r="I472" s="77" t="s">
+      <c r="I472" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J472" s="77">
+      <c r="J472" s="69">
         <v>0</v>
       </c>
-      <c r="K472" s="78">
+      <c r="K472" s="70">
         <v>5.38</v>
       </c>
       <c r="L472" s="34">
@@ -31239,13 +31301,13 @@
       </c>
     </row>
     <row r="475" spans="9:12">
-      <c r="I475" s="77" t="s">
+      <c r="I475" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J475" s="77">
+      <c r="J475" s="69">
         <v>0</v>
       </c>
-      <c r="K475" s="78">
+      <c r="K475" s="70">
         <v>-3.52</v>
       </c>
       <c r="L475" s="34">
@@ -31254,28 +31316,28 @@
       </c>
     </row>
     <row r="476" spans="9:12">
-      <c r="I476" s="3" t="s">
+      <c r="I476" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="J476" s="3">
+      <c r="J476" s="69">
         <v>10</v>
       </c>
-      <c r="K476" s="23">
+      <c r="K476" s="71">
         <v>-12.42</v>
       </c>
-      <c r="L476" s="18">
-        <f t="shared" si="33"/>
+      <c r="L476" s="34">
+        <f>ABS(K476-J476)</f>
         <v>22.42</v>
       </c>
     </row>
     <row r="477" spans="9:12">
-      <c r="I477" s="77" t="s">
+      <c r="I477" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J477" s="77">
+      <c r="J477" s="69">
         <v>-10</v>
       </c>
-      <c r="K477" s="78">
+      <c r="K477" s="70">
         <v>-3.42</v>
       </c>
       <c r="L477" s="34">
@@ -31284,13 +31346,13 @@
       </c>
     </row>
     <row r="478" spans="9:12">
-      <c r="I478" s="77" t="s">
+      <c r="I478" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="J478" s="77">
+      <c r="J478" s="69">
         <v>0</v>
       </c>
-      <c r="K478" s="79">
+      <c r="K478" s="71">
         <v>-27.14</v>
       </c>
       <c r="L478" s="34">
@@ -31314,13 +31376,13 @@
       </c>
     </row>
     <row r="480" spans="9:12">
-      <c r="I480" s="77" t="s">
+      <c r="I480" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J480" s="77">
+      <c r="J480" s="69">
         <v>-40</v>
       </c>
-      <c r="K480" s="78">
+      <c r="K480" s="70">
         <v>-24.87</v>
       </c>
       <c r="L480" s="34">
@@ -31359,13 +31421,13 @@
       </c>
     </row>
     <row r="483" spans="9:12">
-      <c r="I483" s="77" t="s">
+      <c r="I483" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="J483" s="77">
+      <c r="J483" s="69">
         <v>-20</v>
       </c>
-      <c r="K483" s="78">
+      <c r="K483" s="70">
         <v>-30.17</v>
       </c>
       <c r="L483" s="34">
@@ -31484,7 +31546,7 @@
       <c r="K498" s="23">
         <v>323.47000000000003</v>
       </c>
-      <c r="L498" s="73">
+      <c r="L498" s="65">
         <f>ABS(K498-J498)</f>
         <v>61.744953433951991</v>
       </c>
@@ -31499,37 +31561,37 @@
       <c r="K499" s="23">
         <v>510.49</v>
       </c>
-      <c r="L499" s="73">
+      <c r="L499" s="65">
         <f t="shared" ref="L499:L522" si="34">ABS(K499-J499)</f>
         <v>244.03174811051548</v>
       </c>
     </row>
     <row r="500" spans="9:12">
-      <c r="I500" s="80" t="s">
+      <c r="I500" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="J500" s="81">
+      <c r="J500" s="73">
         <v>266.45825188948453</v>
       </c>
-      <c r="K500" s="82">
+      <c r="K500" s="74">
         <v>255.75</v>
       </c>
-      <c r="L500" s="83">
+      <c r="L500" s="75">
         <f t="shared" si="34"/>
         <v>10.708251889484529</v>
       </c>
     </row>
     <row r="501" spans="9:12">
-      <c r="I501" s="80" t="s">
+      <c r="I501" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J501" s="81">
+      <c r="J501" s="73">
         <v>284.25340807103788</v>
       </c>
-      <c r="K501" s="82">
+      <c r="K501" s="74">
         <v>310.32</v>
       </c>
-      <c r="L501" s="83">
+      <c r="L501" s="75">
         <f t="shared" si="34"/>
         <v>26.066591928962112</v>
       </c>
@@ -31544,7 +31606,7 @@
       <c r="K502" s="23">
         <v>577.41999999999996</v>
       </c>
-      <c r="L502" s="73">
+      <c r="L502" s="65">
         <f t="shared" si="34"/>
         <v>284.67437663391104</v>
       </c>
@@ -31559,22 +31621,22 @@
       <c r="K503" s="23">
         <v>254.03</v>
       </c>
-      <c r="L503" s="73">
+      <c r="L503" s="65">
         <f t="shared" si="34"/>
         <v>38.71562336608892</v>
       </c>
     </row>
     <row r="504" spans="9:12">
-      <c r="I504" s="80" t="s">
+      <c r="I504" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="J504" s="81">
+      <c r="J504" s="73">
         <v>308.05843601498725</v>
       </c>
-      <c r="K504" s="82">
+      <c r="K504" s="74">
         <v>309.39999999999998</v>
       </c>
-      <c r="L504" s="83">
+      <c r="L504" s="75">
         <f t="shared" si="34"/>
         <v>1.3415639850127263</v>
       </c>
@@ -31589,7 +31651,7 @@
       <c r="K505" s="23">
         <v>630.30999999999995</v>
       </c>
-      <c r="L505" s="73">
+      <c r="L505" s="65">
         <f t="shared" si="34"/>
         <v>309.37386928237572</v>
       </c>
@@ -31604,22 +31666,22 @@
       <c r="K506" s="23">
         <v>243.13</v>
       </c>
-      <c r="L506" s="73">
+      <c r="L506" s="65">
         <f t="shared" si="34"/>
         <v>77.806130717624228</v>
       </c>
     </row>
     <row r="507" spans="9:12">
-      <c r="I507" s="80" t="s">
+      <c r="I507" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J507" s="81">
+      <c r="J507" s="73">
         <v>332.86633954186476</v>
       </c>
-      <c r="K507" s="82">
+      <c r="K507" s="74">
         <v>311.27</v>
       </c>
-      <c r="L507" s="83">
+      <c r="L507" s="75">
         <f t="shared" si="34"/>
         <v>21.596339541864779</v>
       </c>
@@ -31634,7 +31696,7 @@
       <c r="K508" s="23">
         <v>616.59</v>
       </c>
-      <c r="L508" s="73">
+      <c r="L508" s="65">
         <f t="shared" si="34"/>
         <v>269.02705606034471</v>
       </c>
@@ -31649,7 +31711,7 @@
       <c r="K509" s="23">
         <v>239.44</v>
       </c>
-      <c r="L509" s="73">
+      <c r="L509" s="65">
         <f t="shared" si="34"/>
         <v>108.12294393965533</v>
       </c>
@@ -31664,22 +31726,22 @@
       <c r="K510" s="23">
         <v>317.14999999999998</v>
       </c>
-      <c r="L510" s="73">
+      <c r="L510" s="65">
         <f t="shared" si="34"/>
         <v>32.707113690718074</v>
       </c>
     </row>
     <row r="511" spans="9:12">
-      <c r="I511" s="80" t="s">
+      <c r="I511" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J511" s="81">
+      <c r="J511" s="73">
         <v>350</v>
       </c>
-      <c r="K511" s="82">
+      <c r="K511" s="74">
         <v>369.73</v>
       </c>
-      <c r="L511" s="83">
+      <c r="L511" s="75">
         <f t="shared" si="34"/>
         <v>19.730000000000018</v>
       </c>
@@ -31694,7 +31756,7 @@
       <c r="K512" s="23">
         <v>297.42</v>
       </c>
-      <c r="L512" s="73">
+      <c r="L512" s="65">
         <f t="shared" si="34"/>
         <v>52.579999999999984</v>
       </c>
@@ -31709,22 +31771,22 @@
       <c r="K513" s="23">
         <v>318.95999999999998</v>
       </c>
-      <c r="L513" s="73">
+      <c r="L513" s="65">
         <f t="shared" si="34"/>
         <v>74.613373083088561</v>
       </c>
     </row>
     <row r="514" spans="9:12">
-      <c r="I514" s="80" t="s">
+      <c r="I514" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="J514" s="81">
+      <c r="J514" s="73">
         <v>395.60080889704966</v>
       </c>
-      <c r="K514" s="82">
+      <c r="K514" s="74">
         <v>412.41</v>
       </c>
-      <c r="L514" s="83">
+      <c r="L514" s="75">
         <f t="shared" si="34"/>
         <v>16.809191102950365</v>
       </c>
@@ -31739,7 +31801,7 @@
       <c r="K515" s="23">
         <v>279.77999999999997</v>
       </c>
-      <c r="L515" s="73">
+      <c r="L515" s="65">
         <f t="shared" si="34"/>
         <v>115.82080889704969</v>
       </c>
@@ -31754,7 +31816,7 @@
       <c r="K516" s="23">
         <v>317.72000000000003</v>
       </c>
-      <c r="L516" s="73">
+      <c r="L516" s="65">
         <f t="shared" si="34"/>
         <v>93.740812228819664</v>
       </c>
@@ -31769,7 +31831,7 @@
       <c r="K517" s="23">
         <v>369.7</v>
       </c>
-      <c r="L517" s="73">
+      <c r="L517" s="65">
         <f t="shared" si="34"/>
         <v>42.246598480919602</v>
       </c>
@@ -31784,7 +31846,7 @@
       <c r="K518" s="23">
         <v>298.73</v>
       </c>
-      <c r="L518" s="73">
+      <c r="L518" s="65">
         <f t="shared" si="34"/>
         <v>113.21659848091957</v>
       </c>
@@ -31799,22 +31861,22 @@
       <c r="K519" s="23">
         <v>327.58</v>
       </c>
-      <c r="L519" s="73">
+      <c r="L519" s="65">
         <f t="shared" si="34"/>
         <v>111.05424398922617</v>
       </c>
     </row>
     <row r="520" spans="9:12">
-      <c r="I520" s="80" t="s">
+      <c r="I520" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="J520" s="81">
+      <c r="J520" s="73">
         <v>445.86993619215906</v>
       </c>
-      <c r="K520" s="82">
+      <c r="K520" s="74">
         <v>470.85</v>
       </c>
-      <c r="L520" s="83">
+      <c r="L520" s="75">
         <f t="shared" si="34"/>
         <v>24.980063807840963</v>
       </c>
@@ -31826,10 +31888,10 @@
       <c r="J521" s="38">
         <v>445.86993619215906</v>
       </c>
-      <c r="K521" s="72">
+      <c r="K521" s="64">
         <v>260.8</v>
       </c>
-      <c r="L521" s="73">
+      <c r="L521" s="65">
         <f t="shared" si="34"/>
         <v>185.06993619215905</v>
       </c>
@@ -31844,7 +31906,7 @@
       <c r="K522" s="23">
         <v>320.98</v>
       </c>
-      <c r="L522" s="73">
+      <c r="L522" s="65">
         <f t="shared" si="34"/>
         <v>163.68483264210533</v>
       </c>
@@ -31876,8 +31938,739 @@
         <v>99.97852085942354</v>
       </c>
     </row>
+    <row r="530" spans="1:10">
+      <c r="A530" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B530" s="95"/>
+      <c r="C530" s="95"/>
+      <c r="D530" s="95"/>
+      <c r="E530" s="95"/>
+      <c r="F530" s="95"/>
+      <c r="G530" s="95"/>
+      <c r="H530" s="95"/>
+      <c r="I530" s="95"/>
+      <c r="J530" s="95"/>
+    </row>
+    <row r="531" spans="1:10">
+      <c r="A531" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B531" s="93"/>
+      <c r="C531" s="93"/>
+      <c r="D531" s="93"/>
+      <c r="E531" s="94"/>
+      <c r="F531" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G531" s="93"/>
+      <c r="H531" s="93"/>
+      <c r="I531" s="93"/>
+      <c r="J531" s="94"/>
+    </row>
+    <row r="532" spans="1:10">
+      <c r="A532" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C532" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D532" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E532" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G532" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H532" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I532" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J532" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10">
+      <c r="A533" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B533" s="3">
+        <v>250</v>
+      </c>
+      <c r="C533" s="3">
+        <v>0</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" ref="D533:D538" si="35">$A$395</f>
+        <v>180</v>
+      </c>
+      <c r="E533" s="16">
+        <f t="shared" ref="E533:E538" si="36">SQRT((B533*B533)+(C533*C533)+(D533*D533))</f>
+        <v>308.05843601498725</v>
+      </c>
+      <c r="F533" s="3">
+        <v>262.38</v>
+      </c>
+      <c r="G533" s="3">
+        <v>-21.53</v>
+      </c>
+      <c r="H533" s="3">
+        <f t="shared" ref="H533:H538" si="37">D533</f>
+        <v>180</v>
+      </c>
+      <c r="I533" s="16">
+        <f>J533</f>
+        <v>318.91504401642766</v>
+      </c>
+      <c r="J533" s="16">
+        <f t="shared" ref="J533:J538" si="38">SQRT((F533*F533)+(G533*G533)+(H533*H533))</f>
+        <v>318.91504401642766</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10">
+      <c r="A534" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B534" s="3">
+        <v>250</v>
+      </c>
+      <c r="C534" s="3">
+        <v>90</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="35"/>
+        <v>180</v>
+      </c>
+      <c r="E534" s="16">
+        <f t="shared" si="36"/>
+        <v>320.93613071762422</v>
+      </c>
+      <c r="F534" s="3">
+        <v>639.46</v>
+      </c>
+      <c r="G534" s="3">
+        <v>-47.46</v>
+      </c>
+      <c r="H534" s="3">
+        <f t="shared" si="37"/>
+        <v>180</v>
+      </c>
+      <c r="I534" s="16">
+        <f t="shared" ref="I534:I550" si="39">J534</f>
+        <v>666.00416154855975</v>
+      </c>
+      <c r="J534" s="16">
+        <f t="shared" si="38"/>
+        <v>666.00416154855975</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10">
+      <c r="A535" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B535" s="3">
+        <v>250</v>
+      </c>
+      <c r="C535" s="3">
+        <v>-90</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="35"/>
+        <v>180</v>
+      </c>
+      <c r="E535" s="16">
+        <f t="shared" si="36"/>
+        <v>320.93613071762422</v>
+      </c>
+      <c r="F535" s="3">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="G535" s="3">
+        <v>-10.71</v>
+      </c>
+      <c r="H535" s="3">
+        <f t="shared" si="37"/>
+        <v>180</v>
+      </c>
+      <c r="I535" s="16">
+        <f t="shared" si="39"/>
+        <v>236.43018102602718</v>
+      </c>
+      <c r="J535" s="16">
+        <f t="shared" si="38"/>
+        <v>236.43018102602718</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10">
+      <c r="A536" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B536" s="3">
+        <v>280</v>
+      </c>
+      <c r="C536" s="3">
+        <v>0</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="35"/>
+        <v>180</v>
+      </c>
+      <c r="E536" s="16">
+        <f t="shared" si="36"/>
+        <v>332.86633954186476</v>
+      </c>
+      <c r="F536" s="3">
+        <v>269.91000000000003</v>
+      </c>
+      <c r="G536" s="3">
+        <v>-3.65</v>
+      </c>
+      <c r="H536" s="3">
+        <f t="shared" si="37"/>
+        <v>180</v>
+      </c>
+      <c r="I536" s="16">
+        <f t="shared" si="39"/>
+        <v>324.44526595405893</v>
+      </c>
+      <c r="J536" s="16">
+        <f t="shared" si="38"/>
+        <v>324.44526595405893</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10">
+      <c r="A537" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B537" s="3">
+        <v>280</v>
+      </c>
+      <c r="C537" s="3">
+        <v>100</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="35"/>
+        <v>180</v>
+      </c>
+      <c r="E537" s="16">
+        <f t="shared" si="36"/>
+        <v>347.56294393965533</v>
+      </c>
+      <c r="F537" s="3">
+        <v>634.74</v>
+      </c>
+      <c r="G537" s="3">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="H537" s="3">
+        <f t="shared" si="37"/>
+        <v>180</v>
+      </c>
+      <c r="I537" s="16">
+        <f t="shared" si="39"/>
+        <v>660.06884307623545</v>
+      </c>
+      <c r="J537" s="16">
+        <f t="shared" si="38"/>
+        <v>660.06884307623545</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10">
+      <c r="A538" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B538" s="3">
+        <v>280</v>
+      </c>
+      <c r="C538" s="3">
+        <v>-100</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="35"/>
+        <v>180</v>
+      </c>
+      <c r="E538" s="16">
+        <f t="shared" si="36"/>
+        <v>347.56294393965533</v>
+      </c>
+      <c r="F538" s="3">
+        <v>156.62</v>
+      </c>
+      <c r="G538" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="H538" s="3">
+        <f t="shared" si="37"/>
+        <v>180</v>
+      </c>
+      <c r="I538" s="16">
+        <f t="shared" si="39"/>
+        <v>238.60060121466583</v>
+      </c>
+      <c r="J538" s="16">
+        <f t="shared" si="38"/>
+        <v>238.60060121466583</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10">
+      <c r="A539" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B539" s="3">
+        <v>300</v>
+      </c>
+      <c r="C539" s="3">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" ref="D539:D550" si="40">$A$395</f>
+        <v>180</v>
+      </c>
+      <c r="E539" s="16">
+        <f t="shared" ref="E539:E550" si="41">SQRT((B539*B539)+(C539*C539)+(D539*D539))</f>
+        <v>349.85711369071805</v>
+      </c>
+      <c r="F539" s="3">
+        <v>264.91000000000003</v>
+      </c>
+      <c r="G539" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="H539" s="3">
+        <f t="shared" ref="H539:H550" si="42">D539</f>
+        <v>180</v>
+      </c>
+      <c r="I539" s="16">
+        <f t="shared" si="39"/>
+        <v>320.34846807812272</v>
+      </c>
+      <c r="J539" s="16">
+        <f t="shared" ref="J539:J550" si="43">SQRT((F539*F539)+(G539*G539)+(H539*H539))</f>
+        <v>320.34846807812272</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10">
+      <c r="A540" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B540" s="3">
+        <v>300</v>
+      </c>
+      <c r="C540" s="3">
+        <v>10</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E540" s="16">
+        <f t="shared" si="41"/>
+        <v>350</v>
+      </c>
+      <c r="F540" s="3">
+        <v>304.61</v>
+      </c>
+      <c r="G540" s="16">
+        <v>8.86</v>
+      </c>
+      <c r="H540" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I540" s="16">
+        <f t="shared" si="39"/>
+        <v>353.92902070895514</v>
+      </c>
+      <c r="J540" s="16">
+        <f t="shared" si="43"/>
+        <v>353.92902070895514</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10">
+      <c r="A541" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B541" s="3">
+        <v>300</v>
+      </c>
+      <c r="C541" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E541" s="16">
+        <f t="shared" si="41"/>
+        <v>350</v>
+      </c>
+      <c r="F541" s="16">
+        <v>252.68</v>
+      </c>
+      <c r="G541" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="H541" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I541" s="16">
+        <f t="shared" si="39"/>
+        <v>310.25604023129029</v>
+      </c>
+      <c r="J541" s="16">
+        <f t="shared" si="43"/>
+        <v>310.25604023129029</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10">
+      <c r="A542" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B542" s="3">
+        <v>350</v>
+      </c>
+      <c r="C542" s="3">
+        <v>0</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E542" s="16">
+        <f t="shared" si="41"/>
+        <v>393.57337308308854</v>
+      </c>
+      <c r="F542" s="3">
+        <v>269.7</v>
+      </c>
+      <c r="G542" s="16">
+        <v>25.79</v>
+      </c>
+      <c r="H542" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I542" s="16">
+        <f t="shared" si="39"/>
+        <v>325.27405998634441</v>
+      </c>
+      <c r="J542" s="16">
+        <f t="shared" si="43"/>
+        <v>325.27405998634441</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10">
+      <c r="A543" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B543" s="3">
+        <v>350</v>
+      </c>
+      <c r="C543" s="3">
+        <v>40</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E543" s="16">
+        <f t="shared" si="41"/>
+        <v>395.60080889704966</v>
+      </c>
+      <c r="F543" s="3">
+        <v>392.4</v>
+      </c>
+      <c r="G543" s="3">
+        <v>28.66</v>
+      </c>
+      <c r="H543" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I543" s="16">
+        <f t="shared" si="39"/>
+        <v>432.66517724448312</v>
+      </c>
+      <c r="J543" s="16">
+        <f>SQRT((F543*F543)+(G543*G543)+(H543*H543))</f>
+        <v>432.66517724448312</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10">
+      <c r="A544" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B544" s="3">
+        <v>350</v>
+      </c>
+      <c r="C544" s="3">
+        <v>-40</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E544" s="16">
+        <f t="shared" si="41"/>
+        <v>395.60080889704966</v>
+      </c>
+      <c r="F544" s="3">
+        <v>228.12</v>
+      </c>
+      <c r="G544" s="3">
+        <v>23.57</v>
+      </c>
+      <c r="H544" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I544" s="16">
+        <f t="shared" si="39"/>
+        <v>291.53778365762474</v>
+      </c>
+      <c r="J544" s="16">
+        <f t="shared" ref="J544:J550" si="44">SQRT((F544*F544)+(G544*G544)+(H544*H544))</f>
+        <v>291.53778365762474</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10">
+      <c r="A545" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B545" s="3">
+        <v>370</v>
+      </c>
+      <c r="C545" s="3">
+        <v>0</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E545" s="16">
+        <f t="shared" si="41"/>
+        <v>411.46081222881969</v>
+      </c>
+      <c r="F545" s="3">
+        <v>271.43</v>
+      </c>
+      <c r="G545" s="3">
+        <v>32.03</v>
+      </c>
+      <c r="H545" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I545" s="16">
+        <f t="shared" si="39"/>
+        <v>327.26161675332474</v>
+      </c>
+      <c r="J545" s="16">
+        <f t="shared" si="44"/>
+        <v>327.26161675332474</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10">
+      <c r="A546" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B546" s="3">
+        <v>370</v>
+      </c>
+      <c r="C546" s="3">
+        <v>20</v>
+      </c>
+      <c r="D546" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E546" s="16">
+        <f t="shared" si="41"/>
+        <v>411.94659848091959</v>
+      </c>
+      <c r="F546" s="3">
+        <v>321.45</v>
+      </c>
+      <c r="G546" s="3">
+        <v>44.03</v>
+      </c>
+      <c r="H546" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I546" s="16">
+        <f t="shared" si="39"/>
+        <v>371.03738814302795</v>
+      </c>
+      <c r="J546" s="16">
+        <f t="shared" si="44"/>
+        <v>371.03738814302795</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10">
+      <c r="A547" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B547" s="3">
+        <v>370</v>
+      </c>
+      <c r="C547" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D547" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E547" s="16">
+        <f t="shared" si="41"/>
+        <v>411.94659848091959</v>
+      </c>
+      <c r="F547" s="16">
+        <v>240.81</v>
+      </c>
+      <c r="G547" s="3">
+        <v>30.26</v>
+      </c>
+      <c r="H547" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I547" s="16">
+        <f t="shared" si="39"/>
+        <v>302.16737696184214</v>
+      </c>
+      <c r="J547" s="16">
+        <f t="shared" si="44"/>
+        <v>302.16737696184214</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10">
+      <c r="A548" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B548" s="3">
+        <v>400</v>
+      </c>
+      <c r="C548" s="3">
+        <v>0</v>
+      </c>
+      <c r="D548" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E548" s="16">
+        <f t="shared" si="41"/>
+        <v>438.63424398922615</v>
+      </c>
+      <c r="F548" s="3">
+        <v>271.16000000000003</v>
+      </c>
+      <c r="G548" s="16">
+        <v>41.19</v>
+      </c>
+      <c r="H548" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I548" s="16">
+        <f t="shared" si="39"/>
+        <v>328.06152121210437</v>
+      </c>
+      <c r="J548" s="16">
+        <f t="shared" si="44"/>
+        <v>328.06152121210437</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10">
+      <c r="A549" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B549" s="37">
+        <v>400</v>
+      </c>
+      <c r="C549" s="37">
+        <v>80</v>
+      </c>
+      <c r="D549" s="37">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E549" s="38">
+        <f t="shared" si="41"/>
+        <v>445.86993619215906</v>
+      </c>
+      <c r="F549" s="37">
+        <v>453.41</v>
+      </c>
+      <c r="G549" s="37">
+        <v>59.09</v>
+      </c>
+      <c r="H549" s="37">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I549" s="16">
+        <f t="shared" si="39"/>
+        <v>491.3982663787084</v>
+      </c>
+      <c r="J549" s="38">
+        <f t="shared" si="44"/>
+        <v>491.3982663787084</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10">
+      <c r="A550" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B550" s="3">
+        <v>400</v>
+      </c>
+      <c r="C550" s="3">
+        <v>-80</v>
+      </c>
+      <c r="D550" s="3">
+        <f t="shared" si="40"/>
+        <v>180</v>
+      </c>
+      <c r="E550" s="16">
+        <f t="shared" si="41"/>
+        <v>445.86993619215906</v>
+      </c>
+      <c r="F550" s="3">
+        <v>192.68</v>
+      </c>
+      <c r="G550" s="3">
+        <v>33.46</v>
+      </c>
+      <c r="H550" s="3">
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="I550" s="16">
+        <f t="shared" si="39"/>
+        <v>265.79156119034332</v>
+      </c>
+      <c r="J550" s="16">
+        <f t="shared" si="44"/>
+        <v>265.79156119034332</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="A531:E531"/>
+    <mergeCell ref="F531:J531"/>
+    <mergeCell ref="A530:J530"/>
     <mergeCell ref="A393:C393"/>
     <mergeCell ref="A398:E398"/>
     <mergeCell ref="F398:J398"/>
@@ -31886,18 +32679,18 @@
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="B106:E106"/>
     <mergeCell ref="F106:J106"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="F319:J319"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="F179:J179"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="F319:J319"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="F179:J179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -31907,35 +32700,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A53AE-05FE-4343-86A2-73C17600B97E}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+    <sheetView tabSelected="1" topLeftCell="I122" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="66"/>
-      <c r="H1" s="63" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="H1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="66"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
@@ -33039,16 +33837,16 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="63" t="s">
+      <c r="A60" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="66"/>
-      <c r="H60" s="63" t="s">
+      <c r="B60" s="89"/>
+      <c r="C60" s="90"/>
+      <c r="H60" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="64"/>
-      <c r="J60" s="66"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="7" t="s">
@@ -34079,7 +34877,7 @@
         <v>319.29096507182339</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:15">
       <c r="A113" s="17" t="s">
         <v>27</v>
       </c>
@@ -34107,7 +34905,7 @@
         <v>243.41903492817664</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:15">
       <c r="C116" s="22" t="s">
         <v>28</v>
       </c>
@@ -34123,7 +34921,7 @@
         <v>319.29096507182339</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:15">
       <c r="C117" s="22" t="s">
         <v>29</v>
       </c>
@@ -34139,7 +34937,7 @@
         <v>8.871849421899924</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:15">
       <c r="C118" s="22" t="s">
         <v>30</v>
       </c>
@@ -34155,12 +34953,948 @@
         <v>117.54559357692099</v>
       </c>
     </row>
+    <row r="123" spans="1:15">
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="G123" s="95"/>
+      <c r="H123" s="95"/>
+      <c r="I123" s="95"/>
+      <c r="J123" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K123" s="95"/>
+      <c r="L123" s="95"/>
+      <c r="M123" s="95"/>
+      <c r="N123" s="76"/>
+      <c r="O123" s="76"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="98"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="98"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="K124" s="98"/>
+      <c r="L124" s="98"/>
+      <c r="M124" s="98"/>
+      <c r="N124" s="82"/>
+      <c r="O124" s="82"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I125" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M125" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O125" s="10"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="3">
+        <v>250</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3">
+        <v>180</v>
+      </c>
+      <c r="E126" s="16">
+        <f>SQRT((B126*B126)+(C126*C126)+(D126*D126))</f>
+        <v>308.05843601498725</v>
+      </c>
+      <c r="F126" s="66">
+        <v>250.7</v>
+      </c>
+      <c r="G126" s="3">
+        <v>21.85</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" ref="H126:H143" si="11">D126</f>
+        <v>180</v>
+      </c>
+      <c r="I126" s="74">
+        <f>SQRT((G126*G126)+(F126*F126)+(D126*D126))</f>
+        <v>309.39927682526991</v>
+      </c>
+      <c r="J126" s="3">
+        <v>262.38</v>
+      </c>
+      <c r="K126" s="69">
+        <v>-21.53</v>
+      </c>
+      <c r="L126" s="3">
+        <f t="shared" ref="L126:L143" si="12">H126</f>
+        <v>180</v>
+      </c>
+      <c r="M126" s="16">
+        <f>SQRT((J126*J126)+(K126*K126)+(L126*L126))</f>
+        <v>318.91504401642766</v>
+      </c>
+      <c r="O126" s="63"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="3">
+        <v>250</v>
+      </c>
+      <c r="C127" s="3">
+        <v>90</v>
+      </c>
+      <c r="D127" s="3">
+        <v>180</v>
+      </c>
+      <c r="E127" s="16">
+        <f t="shared" ref="E126:E143" si="13">SQRT((B127*B127)+(C127*C127)+(D127*D127))</f>
+        <v>320.93613071762422</v>
+      </c>
+      <c r="F127" s="66">
+        <v>602.52</v>
+      </c>
+      <c r="G127" s="69">
+        <v>43.22</v>
+      </c>
+      <c r="H127" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I127" s="74">
+        <f t="shared" ref="I127:I143" si="14">SQRT((G127*G127)+(F127*F127)+(D127*D127))</f>
+        <v>630.3160467574977</v>
+      </c>
+      <c r="J127" s="3">
+        <v>639.46</v>
+      </c>
+      <c r="K127" s="3">
+        <v>-47.46</v>
+      </c>
+      <c r="L127" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M127" s="16">
+        <f>SQRT((J127*J127)+(K127*K127)+(L127*L127))</f>
+        <v>666.00416154855975</v>
+      </c>
+      <c r="O127" s="63"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="3">
+        <v>250</v>
+      </c>
+      <c r="C128" s="3">
+        <v>-90</v>
+      </c>
+      <c r="D128" s="3">
+        <v>180</v>
+      </c>
+      <c r="E128" s="16">
+        <f t="shared" si="13"/>
+        <v>320.93613071762422</v>
+      </c>
+      <c r="F128" s="66">
+        <v>162.81</v>
+      </c>
+      <c r="G128" s="3">
+        <v>14.27</v>
+      </c>
+      <c r="H128" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I128" s="74">
+        <f t="shared" si="14"/>
+        <v>243.12698122586067</v>
+      </c>
+      <c r="J128" s="3">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="K128" s="69">
+        <v>-10.71</v>
+      </c>
+      <c r="L128" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M128" s="16">
+        <f>SQRT((J128*J128)+(K128*K128)+(L128*L128))</f>
+        <v>236.43018102602718</v>
+      </c>
+      <c r="O128" s="63"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="3">
+        <v>280</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3">
+        <v>180</v>
+      </c>
+      <c r="E129" s="16">
+        <f t="shared" si="13"/>
+        <v>332.86633954186476</v>
+      </c>
+      <c r="F129" s="3">
+        <v>253.89</v>
+      </c>
+      <c r="G129" s="3">
+        <v>5.38</v>
+      </c>
+      <c r="H129" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I129" s="23">
+        <f t="shared" si="14"/>
+        <v>311.27010216209328</v>
+      </c>
+      <c r="J129" s="66">
+        <v>269.91000000000003</v>
+      </c>
+      <c r="K129" s="69">
+        <v>-3.65</v>
+      </c>
+      <c r="L129" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M129" s="73">
+        <f>SQRT((J129*J129)+(K129*K129)+(L129*L129))</f>
+        <v>324.44526595405893</v>
+      </c>
+      <c r="O129" s="63"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="3">
+        <v>280</v>
+      </c>
+      <c r="C130" s="3">
+        <v>100</v>
+      </c>
+      <c r="D130" s="3">
+        <v>180</v>
+      </c>
+      <c r="E130" s="16">
+        <f t="shared" si="13"/>
+        <v>347.56294393965533</v>
+      </c>
+      <c r="F130" s="66">
+        <v>589.71</v>
+      </c>
+      <c r="G130" s="69">
+        <v>5.32</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I130" s="74">
+        <f t="shared" si="14"/>
+        <v>616.59239899628994</v>
+      </c>
+      <c r="J130" s="3">
+        <v>634.74</v>
+      </c>
+      <c r="K130" s="3">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="L130" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M130" s="16">
+        <f>SQRT((J130*J130)+(K130*K130)+(L130*L130))</f>
+        <v>660.06884307623545</v>
+      </c>
+      <c r="O130" s="63"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="3">
+        <v>280</v>
+      </c>
+      <c r="C131" s="3">
+        <v>-100</v>
+      </c>
+      <c r="D131" s="3">
+        <v>180</v>
+      </c>
+      <c r="E131" s="16">
+        <f t="shared" si="13"/>
+        <v>347.56294393965533</v>
+      </c>
+      <c r="F131" s="66">
+        <v>157.87</v>
+      </c>
+      <c r="G131" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="H131" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I131" s="74">
+        <f t="shared" si="14"/>
+        <v>239.44594650985428</v>
+      </c>
+      <c r="J131" s="3">
+        <v>156.62</v>
+      </c>
+      <c r="K131" s="69">
+        <v>0.65</v>
+      </c>
+      <c r="L131" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M131" s="16">
+        <f>SQRT((J131*J131)+(K131*K131)+(L131*L131))</f>
+        <v>238.60060121466583</v>
+      </c>
+      <c r="O131" s="63"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="3">
+        <v>300</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>180</v>
+      </c>
+      <c r="E132" s="16">
+        <f t="shared" si="13"/>
+        <v>349.85711369071805</v>
+      </c>
+      <c r="F132" s="3">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="G132" s="69">
+        <v>-3.52</v>
+      </c>
+      <c r="H132" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I132" s="23">
+        <f t="shared" si="14"/>
+        <v>317.15232996148711</v>
+      </c>
+      <c r="J132" s="66">
+        <v>264.91000000000003</v>
+      </c>
+      <c r="K132" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="L132" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M132" s="73">
+        <f>SQRT((J132*J132)+(K132*K132)+(L132*L132))</f>
+        <v>320.34846807812272</v>
+      </c>
+      <c r="O132" s="63"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="3">
+        <v>300</v>
+      </c>
+      <c r="C133" s="3">
+        <v>10</v>
+      </c>
+      <c r="D133" s="3">
+        <v>180</v>
+      </c>
+      <c r="E133" s="16">
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="F133" s="3">
+        <v>322.72000000000003</v>
+      </c>
+      <c r="G133" s="16">
+        <v>-12.42</v>
+      </c>
+      <c r="H133" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I133" s="23">
+        <f t="shared" si="14"/>
+        <v>369.7329506549288</v>
+      </c>
+      <c r="J133" s="66">
+        <v>304.61</v>
+      </c>
+      <c r="K133" s="86">
+        <v>8.86</v>
+      </c>
+      <c r="L133" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M133" s="73">
+        <f>SQRT((J133*J133)+(K133*K133)+(L133*L133))</f>
+        <v>353.92902070895514</v>
+      </c>
+      <c r="O133" s="63"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" s="3">
+        <v>300</v>
+      </c>
+      <c r="C134" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D134" s="3">
+        <v>180</v>
+      </c>
+      <c r="E134" s="16">
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="F134" s="16">
+        <v>236.74</v>
+      </c>
+      <c r="G134" s="69">
+        <v>-3.42</v>
+      </c>
+      <c r="H134" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I134" s="23">
+        <f t="shared" si="14"/>
+        <v>297.41809628870936</v>
+      </c>
+      <c r="J134" s="84">
+        <v>252.68</v>
+      </c>
+      <c r="K134" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="L134" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M134" s="73">
+        <f>SQRT((J134*J134)+(K134*K134)+(L134*L134))</f>
+        <v>310.25604023129029</v>
+      </c>
+      <c r="O134" s="63"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" s="3">
+        <v>350</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3">
+        <v>180</v>
+      </c>
+      <c r="E135" s="16">
+        <f t="shared" si="13"/>
+        <v>393.57337308308854</v>
+      </c>
+      <c r="F135" s="3">
+        <v>261.91000000000003</v>
+      </c>
+      <c r="G135" s="16">
+        <v>-27.14</v>
+      </c>
+      <c r="H135" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I135" s="23">
+        <f t="shared" si="14"/>
+        <v>318.95678030103079</v>
+      </c>
+      <c r="J135" s="66">
+        <v>269.7</v>
+      </c>
+      <c r="K135" s="86">
+        <v>25.79</v>
+      </c>
+      <c r="L135" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M135" s="73">
+        <f>SQRT((J135*J135)+(K135*K135)+(L135*L135))</f>
+        <v>325.27405998634441</v>
+      </c>
+      <c r="O135" s="63"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="3">
+        <v>350</v>
+      </c>
+      <c r="C136" s="3">
+        <v>40</v>
+      </c>
+      <c r="D136" s="3">
+        <v>180</v>
+      </c>
+      <c r="E136" s="16">
+        <f t="shared" si="13"/>
+        <v>395.60080889704966</v>
+      </c>
+      <c r="F136" s="66">
+        <v>369.51</v>
+      </c>
+      <c r="G136" s="3">
+        <v>-33.83</v>
+      </c>
+      <c r="H136" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I136" s="74">
+        <f t="shared" si="14"/>
+        <v>412.41012232970229</v>
+      </c>
+      <c r="J136" s="3">
+        <v>392.4</v>
+      </c>
+      <c r="K136" s="69">
+        <v>28.66</v>
+      </c>
+      <c r="L136" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M136" s="16">
+        <f>SQRT((J136*J136)+(K136*K136)+(L136*L136))</f>
+        <v>432.66517724448312</v>
+      </c>
+      <c r="O136" s="63"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="3">
+        <v>350</v>
+      </c>
+      <c r="C137" s="3">
+        <v>-40</v>
+      </c>
+      <c r="D137" s="3">
+        <v>180</v>
+      </c>
+      <c r="E137" s="16">
+        <f t="shared" si="13"/>
+        <v>395.60080889704966</v>
+      </c>
+      <c r="F137" s="3">
+        <v>212.74</v>
+      </c>
+      <c r="G137" s="69">
+        <v>-24.87</v>
+      </c>
+      <c r="H137" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I137" s="23">
+        <f t="shared" si="14"/>
+        <v>279.77995728786578</v>
+      </c>
+      <c r="J137" s="66">
+        <v>228.12</v>
+      </c>
+      <c r="K137" s="3">
+        <v>23.57</v>
+      </c>
+      <c r="L137" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M137" s="73">
+        <f>SQRT((J137*J137)+(K137*K137)+(L137*L137))</f>
+        <v>291.53778365762474</v>
+      </c>
+      <c r="O137" s="63"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="3">
+        <v>370</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3">
+        <v>180</v>
+      </c>
+      <c r="E138" s="16">
+        <f t="shared" si="13"/>
+        <v>411.46081222881969</v>
+      </c>
+      <c r="F138" s="3">
+        <v>259.89</v>
+      </c>
+      <c r="G138" s="69">
+        <v>-31.71</v>
+      </c>
+      <c r="H138" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I138" s="23">
+        <f t="shared" si="14"/>
+        <v>317.72367900425678</v>
+      </c>
+      <c r="J138" s="66">
+        <v>271.43</v>
+      </c>
+      <c r="K138" s="3">
+        <v>32.03</v>
+      </c>
+      <c r="L138" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M138" s="73">
+        <f>SQRT((J138*J138)+(K138*K138)+(L138*L138))</f>
+        <v>327.26161675332474</v>
+      </c>
+      <c r="O138" s="63"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="3">
+        <v>370</v>
+      </c>
+      <c r="C139" s="3">
+        <v>20</v>
+      </c>
+      <c r="D139" s="3">
+        <v>180</v>
+      </c>
+      <c r="E139" s="16">
+        <f t="shared" si="13"/>
+        <v>411.94659848091959</v>
+      </c>
+      <c r="F139" s="3">
+        <v>320.27</v>
+      </c>
+      <c r="G139" s="3">
+        <v>-41.32</v>
+      </c>
+      <c r="H139" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I139" s="23">
+        <f t="shared" si="14"/>
+        <v>369.70287434641347</v>
+      </c>
+      <c r="J139" s="66">
+        <v>321.45</v>
+      </c>
+      <c r="K139" s="69">
+        <v>44.03</v>
+      </c>
+      <c r="L139" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M139" s="73">
+        <f>SQRT((J139*J139)+(K139*K139)+(L139*L139))</f>
+        <v>371.03738814302795</v>
+      </c>
+      <c r="O139" s="63"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="3">
+        <v>370</v>
+      </c>
+      <c r="C140" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D140" s="3">
+        <v>180</v>
+      </c>
+      <c r="E140" s="16">
+        <f t="shared" si="13"/>
+        <v>411.94659848091959</v>
+      </c>
+      <c r="F140" s="16">
+        <v>236.49</v>
+      </c>
+      <c r="G140" s="69">
+        <v>-30.17</v>
+      </c>
+      <c r="H140" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I140" s="23">
+        <f t="shared" si="14"/>
+        <v>298.72688027695131</v>
+      </c>
+      <c r="J140" s="84">
+        <v>240.81</v>
+      </c>
+      <c r="K140" s="3">
+        <v>30.26</v>
+      </c>
+      <c r="L140" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M140" s="73">
+        <f>SQRT((J140*J140)+(K140*K140)+(L140*L140))</f>
+        <v>302.16737696184214</v>
+      </c>
+      <c r="O140" s="63"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" s="3">
+        <v>400</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3">
+        <v>180</v>
+      </c>
+      <c r="E141" s="16">
+        <f t="shared" si="13"/>
+        <v>438.63424398922615</v>
+      </c>
+      <c r="F141" s="3">
+        <v>270.08999999999997</v>
+      </c>
+      <c r="G141" s="16">
+        <v>-44.29</v>
+      </c>
+      <c r="H141" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I141" s="23">
+        <f t="shared" si="14"/>
+        <v>327.5823746784921</v>
+      </c>
+      <c r="J141" s="66">
+        <v>271.16000000000003</v>
+      </c>
+      <c r="K141" s="86">
+        <v>41.19</v>
+      </c>
+      <c r="L141" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M141" s="73">
+        <f>SQRT((J141*J141)+(K141*K141)+(L141*L141))</f>
+        <v>328.06152121210437</v>
+      </c>
+      <c r="O141" s="63"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="37">
+        <v>400</v>
+      </c>
+      <c r="C142" s="37">
+        <v>80</v>
+      </c>
+      <c r="D142" s="3">
+        <v>180</v>
+      </c>
+      <c r="E142" s="38">
+        <f t="shared" si="13"/>
+        <v>445.86993619215906</v>
+      </c>
+      <c r="F142" s="85">
+        <v>430.15</v>
+      </c>
+      <c r="G142" s="37">
+        <v>-65.36</v>
+      </c>
+      <c r="H142" s="37">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I142" s="74">
+        <f t="shared" si="14"/>
+        <v>470.85130572188075</v>
+      </c>
+      <c r="J142" s="37">
+        <v>453.41</v>
+      </c>
+      <c r="K142" s="87">
+        <v>59.09</v>
+      </c>
+      <c r="L142" s="37">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M142" s="38">
+        <f>SQRT((J142*J142)+(K142*K142)+(L142*L142))</f>
+        <v>491.3982663787084</v>
+      </c>
+      <c r="O142" s="63"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="3">
+        <v>400</v>
+      </c>
+      <c r="C143" s="3">
+        <v>-80</v>
+      </c>
+      <c r="D143" s="3">
+        <v>180</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" si="13"/>
+        <v>445.86993619215906</v>
+      </c>
+      <c r="F143" s="3">
+        <v>185.39</v>
+      </c>
+      <c r="G143" s="69">
+        <v>-35.32</v>
+      </c>
+      <c r="H143" s="3">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="14"/>
+        <v>260.80060295175696</v>
+      </c>
+      <c r="J143" s="66">
+        <v>192.68</v>
+      </c>
+      <c r="K143" s="3">
+        <v>33.46</v>
+      </c>
+      <c r="L143" s="3">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="M143" s="73">
+        <f>SQRT((J143*J143)+(K143*K143)+(L143*L143))</f>
+        <v>265.79156119034332</v>
+      </c>
+      <c r="O143" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="F124:I124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4D6CEB-391C-4296-BFEC-F287EA5F67F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70DCR\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CA67E2-C72E-415A-9BB5-99B36EC56EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Distancias Fresas" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="48">
   <si>
     <t>Parámetros de la cámara</t>
   </si>
@@ -309,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -464,11 +469,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,18 +737,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,16 +749,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -761,10 +787,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFD7293E"/>
+      <color rgb="FFFFADAD"/>
       <color rgb="FFFFFAC9"/>
       <color rgb="FFFFD1D1"/>
       <color rgb="FFFFF596"/>
-      <color rgb="FFFFADAD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -7281,6 +7308,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Distancia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7418,6 +7475,1546 @@
         <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" b="1"/>
+              <a:t>Coordenadas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" b="1" baseline="0"/>
+              <a:t> Eje X (Eje Y invertido)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35439287799182717"/>
+          <c:y val="2.5445292620865138E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$553</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$554:$I$571</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$554:$J$571</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D8C-4BE3-B298-6D3596895806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$553</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$554:$I$571</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$554:$K$571</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>262.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>639.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>634.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>304.61</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>252.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>269.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>392.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>271.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321.45</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>240.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>271.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>453.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>192.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D8C-4BE3-B298-6D3596895806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411456768"/>
+        <c:axId val="411454368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411456768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47243439469365806"/>
+              <c:y val="0.82159157586217757"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411454368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411454368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Coordenadas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411456768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" b="1"/>
+              <a:t>Coordenadas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" b="1" baseline="0"/>
+              <a:t> Eje Y invertido</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36625542986166032"/>
+          <c:y val="2.2002200220022004E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$579</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$580:$I$597</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$580:$J$597</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D20D-44F6-A34A-737148F6C30F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$579</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coordenadas obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$580:$I$597</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$580:$K$597</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-21.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-47.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>25.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.26</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>41.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D20D-44F6-A34A-737148F6C30F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="735470272"/>
+        <c:axId val="735468352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="735470272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47596740363786411"/>
+              <c:y val="0.82368845808465363"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735468352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="735468352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Coordenadas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735470272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8063,6 +9660,770 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" b="1"/>
+              <a:t>Distancias</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" b="1" baseline="0"/>
+              <a:t> (Eje Y invertido)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$605</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distancia real </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$606:$I$623</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$J$606:$J$623</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>308.05843601498725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.93613071762422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320.93613071762422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332.86633954186476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>347.56294393965533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347.56294393965533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.85711369071805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>393.57337308308854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>395.60080889704966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>395.60080889704966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>411.46081222881969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>411.94659848091959</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>411.94659848091959</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>438.63424398922615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>445.86993619215906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>445.86993619215906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFA1-4B68-96B5-D56EA9C00581}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$605</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distancia obtenida </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$I$606:$I$623</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pruebas Distancias Fresas'!$K$606:$K$623</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>318.91504401642766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>666.00416154855975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.43018102602718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324.44526595405893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660.06884307623545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238.60060121466583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320.34846807812272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353.92902070895514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310.25604023129029</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325.27405998634441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>432.66517724448312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>291.53778365762474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327.26161675332474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>371.03738814302795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>302.16737696184214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>328.06152121210437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>491.3982663787084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>265.79156119034332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFA1-4B68-96B5-D56EA9C00581}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="735469312"/>
+        <c:axId val="735469792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="735469312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Puntos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47562142297317006"/>
+              <c:y val="0.81759901067861618"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735469792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="735469792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1000"/>
+                  <a:t>Distancias</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1000" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735469312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -12942,7 +15303,127 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17906,7 +20387,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22696,6 +26725,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>551</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Gráfico 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43199F6B-2585-B5D7-6D08-21F7A255CFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>577</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Gráfico 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68D599A-4519-3FB6-984E-5F1A730AACFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>623</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Gráfico 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45A4E1B-74A2-D980-C2D7-A6DA627367DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23019,44 +27156,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA550"/>
+  <dimension ref="A1:AA628"/>
   <sheetViews>
-    <sheetView topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="F532" sqref="F532:J550"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="D576" sqref="D576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="20.140625" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" customWidth="1"/>
-    <col min="27" max="27" width="21.5703125" customWidth="1"/>
+    <col min="25" max="25" width="20.109375" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" customWidth="1"/>
+    <col min="27" max="27" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -23120,19 +27257,19 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="88" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
@@ -23978,19 +28115,19 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="88" t="s">
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
@@ -24218,11 +28355,11 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -24313,19 +28450,19 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="3"/>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="88" t="s">
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="90"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="94"/>
       <c r="K35" s="1"/>
       <c r="N35" s="22" t="s">
         <v>28</v>
@@ -25496,11 +29633,11 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="88" t="s">
+      <c r="A101" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="89"/>
-      <c r="C101" s="90"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="94"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
@@ -25527,19 +29664,19 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="3"/>
-      <c r="B106" s="88" t="s">
+      <c r="B106" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="89"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="88" t="s">
+      <c r="C106" s="93"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="90"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="93"/>
+      <c r="I106" s="93"/>
+      <c r="J106" s="94"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="4" t="s">
@@ -25637,7 +29774,7 @@
         <v>288.41898203828401</v>
       </c>
       <c r="J109" s="16">
-        <f t="shared" ref="I109:J117" si="7">SQRT((F109*F109)+(G109*G109)+(H109*H109))</f>
+        <f t="shared" ref="J109:J117" si="7">SQRT((F109*F109)+(G109*G109)+(H109*H109))</f>
         <v>288.41898203828401</v>
       </c>
     </row>
@@ -26497,11 +30634,11 @@
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="88" t="s">
+      <c r="A174" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="89"/>
-      <c r="C174" s="90"/>
+      <c r="B174" s="93"/>
+      <c r="C174" s="94"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="7" t="s">
@@ -26529,19 +30666,19 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="3"/>
-      <c r="B179" s="88" t="s">
+      <c r="B179" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="89"/>
-      <c r="D179" s="89"/>
-      <c r="E179" s="90"/>
-      <c r="F179" s="88" t="s">
+      <c r="C179" s="93"/>
+      <c r="D179" s="93"/>
+      <c r="E179" s="94"/>
+      <c r="F179" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G179" s="89"/>
-      <c r="H179" s="89"/>
-      <c r="I179" s="89"/>
-      <c r="J179" s="90"/>
+      <c r="G179" s="93"/>
+      <c r="H179" s="93"/>
+      <c r="I179" s="93"/>
+      <c r="J179" s="94"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="4" t="s">
@@ -26945,7 +31082,7 @@
         <v>863.67</v>
       </c>
       <c r="J191" s="16">
-        <f t="shared" ref="J191:J200" si="15">SQRT((F191*F191)+(G191*G191)+(H191*H191))</f>
+        <f t="shared" ref="J191:J196" si="15">SQRT((F191*F191)+(G191*G191)+(H191*H191))</f>
         <v>863.66997661143694</v>
       </c>
     </row>
@@ -28674,11 +32811,11 @@
       </c>
     </row>
     <row r="314" spans="1:12">
-      <c r="A314" s="88" t="s">
+      <c r="A314" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B314" s="89"/>
-      <c r="C314" s="90"/>
+      <c r="B314" s="93"/>
+      <c r="C314" s="94"/>
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="7" t="s">
@@ -28705,19 +32842,19 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="3"/>
-      <c r="B319" s="88" t="s">
+      <c r="B319" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C319" s="89"/>
-      <c r="D319" s="89"/>
-      <c r="E319" s="91"/>
-      <c r="F319" s="88" t="s">
+      <c r="C319" s="93"/>
+      <c r="D319" s="93"/>
+      <c r="E319" s="97"/>
+      <c r="F319" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G319" s="89"/>
-      <c r="H319" s="89"/>
-      <c r="I319" s="89"/>
-      <c r="J319" s="91"/>
+      <c r="G319" s="93"/>
+      <c r="H319" s="93"/>
+      <c r="I319" s="93"/>
+      <c r="J319" s="97"/>
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="47" t="s">
@@ -28765,7 +32902,7 @@
         <v>252</v>
       </c>
       <c r="E321" s="16">
-        <f>SQRT((B321*B321)+(C321*C321)+(D321*D321))</f>
+        <f t="shared" ref="E321:E330" si="21">SQRT((B321*B321)+(C321*C321)+(D321*D321))</f>
         <v>559.91427915351471</v>
       </c>
       <c r="F321" s="55">
@@ -28781,7 +32918,7 @@
         <v>653.72</v>
       </c>
       <c r="J321" s="16">
-        <f>SQRT((F321*F321)+(G321*G321)+(H321*H321))</f>
+        <f t="shared" ref="J321:J330" si="22">SQRT((F321*F321)+(G321*G321)+(H321*H321))</f>
         <v>653.72361476391529</v>
       </c>
     </row>
@@ -28799,7 +32936,7 @@
         <v>252</v>
       </c>
       <c r="E322" s="52">
-        <f>SQRT((B322*B322)+(C322*C322)+(D322*D322))</f>
+        <f t="shared" si="21"/>
         <v>650.7718494218999</v>
       </c>
       <c r="F322" s="14">
@@ -28815,7 +32952,7 @@
         <v>641.9</v>
       </c>
       <c r="J322" s="52">
-        <f>SQRT((F322*F322)+(G322*G322)+(H322*H322))</f>
+        <f t="shared" si="22"/>
         <v>641.90210663309097</v>
       </c>
     </row>
@@ -28833,7 +32970,7 @@
         <v>252</v>
       </c>
       <c r="E323" s="16">
-        <f>SQRT((B323*B323)+(C323*C323)+(D323*D323))</f>
+        <f t="shared" si="21"/>
         <v>651.46296901665869</v>
       </c>
       <c r="F323" s="3">
@@ -28849,7 +32986,7 @@
         <v>741.5</v>
       </c>
       <c r="J323" s="16">
-        <f>SQRT((F323*F323)+(G323*G323)+(H323*H323))</f>
+        <f t="shared" si="22"/>
         <v>741.49836311350009</v>
       </c>
     </row>
@@ -28867,7 +33004,7 @@
         <v>252</v>
       </c>
       <c r="E324" s="16">
-        <f>SQRT((B324*B324)+(C324*C324)+(D324*D324))</f>
+        <f t="shared" si="21"/>
         <v>651.46296901665869</v>
       </c>
       <c r="F324" s="3">
@@ -28883,7 +33020,7 @@
         <v>589.14</v>
       </c>
       <c r="J324" s="16">
-        <f>SQRT((F324*F324)+(G324*G324)+(H324*H324))</f>
+        <f t="shared" si="22"/>
         <v>589.14726613979974</v>
       </c>
     </row>
@@ -28901,7 +33038,7 @@
         <v>252</v>
       </c>
       <c r="E325" s="16">
-        <f>SQRT((B325*B325)+(C325*C325)+(D325*D325))</f>
+        <f t="shared" si="21"/>
         <v>697.1398711879848</v>
       </c>
       <c r="F325" s="16">
@@ -28917,7 +33054,7 @@
         <v>662.43</v>
       </c>
       <c r="J325" s="16">
-        <f>SQRT((F325*F325)+(G325*G325)+(H325*H325))</f>
+        <f t="shared" si="22"/>
         <v>662.43802683722799</v>
       </c>
     </row>
@@ -28935,7 +33072,7 @@
         <v>252</v>
       </c>
       <c r="E326" s="16">
-        <f>SQRT((B326*B326)+(C326*C326)+(D326*D326))</f>
+        <f t="shared" si="21"/>
         <v>698.93061172050545</v>
       </c>
       <c r="F326" s="3">
@@ -28951,7 +33088,7 @@
         <v>832.24</v>
       </c>
       <c r="J326" s="16">
-        <f>SQRT((F326*F326)+(G326*G326)+(H326*H326))</f>
+        <f t="shared" si="22"/>
         <v>832.23358451819274</v>
       </c>
     </row>
@@ -28969,7 +33106,7 @@
         <v>252</v>
       </c>
       <c r="E327" s="16">
-        <f>SQRT((B327*B327)+(C327*C327)+(D327*D327))</f>
+        <f t="shared" si="21"/>
         <v>698.93061172050545</v>
       </c>
       <c r="F327" s="3">
@@ -28985,7 +33122,7 @@
         <v>590.91999999999996</v>
       </c>
       <c r="J327" s="16">
-        <f>SQRT((F327*F327)+(G327*G327)+(H327*H327))</f>
+        <f t="shared" si="22"/>
         <v>590.91756320150103</v>
       </c>
     </row>
@@ -29003,7 +33140,7 @@
         <v>252</v>
       </c>
       <c r="E328" s="16">
-        <f>SQRT((B328*B328)+(C328*C328)+(D328*D328))</f>
+        <f t="shared" si="21"/>
         <v>743.97849431283964</v>
       </c>
       <c r="F328" s="3">
@@ -29019,7 +33156,7 @@
         <v>662.3</v>
       </c>
       <c r="J328" s="16">
-        <f>SQRT((F328*F328)+(G328*G328)+(H328*H328))</f>
+        <f t="shared" si="22"/>
         <v>662.30117023903858</v>
       </c>
     </row>
@@ -29037,7 +33174,7 @@
         <v>252</v>
       </c>
       <c r="E329" s="16">
-        <f>SQRT((B329*B329)+(C329*C329)+(D329*D329))</f>
+        <f t="shared" si="21"/>
         <v>750.66903492817664</v>
       </c>
       <c r="F329" s="3">
@@ -29053,7 +33190,7 @@
         <v>1069.96</v>
       </c>
       <c r="J329" s="16">
-        <f>SQRT((F329*F329)+(G329*G329)+(H329*H329))</f>
+        <f t="shared" si="22"/>
         <v>1069.9647366619145</v>
       </c>
     </row>
@@ -29071,7 +33208,7 @@
         <v>252</v>
       </c>
       <c r="E330" s="16">
-        <f>SQRT((B330*B330)+(C330*C330)+(D330*D330))</f>
+        <f t="shared" si="21"/>
         <v>750.66903492817664</v>
       </c>
       <c r="F330" s="3">
@@ -29087,7 +33224,7 @@
         <v>507.25</v>
       </c>
       <c r="J330" s="16">
-        <f>SQRT((F330*F330)+(G330*G330)+(H330*H330))</f>
+        <f t="shared" si="22"/>
         <v>507.24646001721885</v>
       </c>
     </row>
@@ -29131,7 +33268,7 @@
         <v>590.13</v>
       </c>
       <c r="I336" s="18">
-        <f t="shared" ref="I336:I344" si="21">ABS(H336-G336)</f>
+        <f t="shared" ref="I336:I344" si="23">ABS(H336-G336)</f>
         <v>9.8700000000000045</v>
       </c>
     </row>
@@ -29146,7 +33283,7 @@
         <v>697.28</v>
       </c>
       <c r="I337" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>97.279999999999973</v>
       </c>
     </row>
@@ -29161,7 +33298,7 @@
         <v>532.36</v>
       </c>
       <c r="I338" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>67.639999999999986</v>
       </c>
     </row>
@@ -29176,7 +33313,7 @@
         <v>612.63</v>
       </c>
       <c r="I339" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>37.370000000000005</v>
       </c>
     </row>
@@ -29191,7 +33328,7 @@
         <v>793.16</v>
       </c>
       <c r="I340" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>143.15999999999997</v>
       </c>
     </row>
@@ -29206,7 +33343,7 @@
         <v>534.49</v>
       </c>
       <c r="I341" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>115.50999999999999</v>
       </c>
     </row>
@@ -29221,7 +33358,7 @@
         <v>612.24</v>
       </c>
       <c r="I342" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>87.759999999999991</v>
       </c>
     </row>
@@ -29236,7 +33373,7 @@
         <v>1039.56</v>
       </c>
       <c r="I343" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>339.55999999999995</v>
       </c>
     </row>
@@ -29251,7 +33388,7 @@
         <v>440.04</v>
       </c>
       <c r="I344" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>259.95999999999998</v>
       </c>
     </row>
@@ -29322,7 +33459,7 @@
         <v>16.760000000000002</v>
       </c>
       <c r="I354" s="18">
-        <f t="shared" ref="I354:I362" si="22">ABS(H354-G354)</f>
+        <f t="shared" ref="I354:I362" si="24">ABS(H354-G354)</f>
         <v>16.760000000000002</v>
       </c>
     </row>
@@ -29337,7 +33474,7 @@
         <v>10.79</v>
       </c>
       <c r="I355" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>19.21</v>
       </c>
     </row>
@@ -29352,7 +33489,7 @@
         <v>13.54</v>
       </c>
       <c r="I356" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>43.54</v>
       </c>
     </row>
@@ -29367,7 +33504,7 @@
         <v>-2.15</v>
       </c>
       <c r="I357" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.15</v>
       </c>
     </row>
@@ -29382,7 +33519,7 @@
         <v>-2.44</v>
       </c>
       <c r="I358" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>52.44</v>
       </c>
     </row>
@@ -29397,7 +33534,7 @@
         <v>0.08</v>
       </c>
       <c r="I359" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50.08</v>
       </c>
     </row>
@@ -29412,7 +33549,7 @@
         <v>-17.350000000000001</v>
       </c>
       <c r="I360" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>17.350000000000001</v>
       </c>
     </row>
@@ -29427,7 +33564,7 @@
         <v>-25.21</v>
       </c>
       <c r="I361" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>125.21000000000001</v>
       </c>
     </row>
@@ -29442,7 +33579,7 @@
         <v>-12.64</v>
       </c>
       <c r="I362" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>87.36</v>
       </c>
     </row>
@@ -29513,7 +33650,7 @@
         <v>641.9</v>
       </c>
       <c r="I372" s="24">
-        <f t="shared" ref="I372:I380" si="23">ABS(H372-G372)</f>
+        <f t="shared" ref="I372:I380" si="25">ABS(H372-G372)</f>
         <v>8.871849421899924</v>
       </c>
     </row>
@@ -29528,7 +33665,7 @@
         <v>741.5</v>
       </c>
       <c r="I373" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90.03703098334131</v>
       </c>
     </row>
@@ -29543,7 +33680,7 @@
         <v>589.14</v>
       </c>
       <c r="I374" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>62.322969016658703</v>
       </c>
     </row>
@@ -29558,7 +33695,7 @@
         <v>662.43</v>
       </c>
       <c r="I375" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34.709871187984845</v>
       </c>
     </row>
@@ -29573,7 +33710,7 @@
         <v>832.24</v>
       </c>
       <c r="I376" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>133.30938827949456</v>
       </c>
     </row>
@@ -29588,7 +33725,7 @@
         <v>590.91999999999996</v>
       </c>
       <c r="I377" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>108.01061172050549</v>
       </c>
     </row>
@@ -29603,7 +33740,7 @@
         <v>662.3</v>
       </c>
       <c r="I378" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>81.678494312839689</v>
       </c>
     </row>
@@ -29618,7 +33755,7 @@
         <v>1069.96</v>
       </c>
       <c r="I379" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>319.29096507182339</v>
       </c>
     </row>
@@ -29633,7 +33770,7 @@
         <v>507.25</v>
       </c>
       <c r="I380" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>243.41903492817664</v>
       </c>
     </row>
@@ -29665,11 +33802,11 @@
       </c>
     </row>
     <row r="393" spans="1:10">
-      <c r="A393" s="88" t="s">
+      <c r="A393" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B393" s="89"/>
-      <c r="C393" s="90"/>
+      <c r="B393" s="93"/>
+      <c r="C393" s="94"/>
     </row>
     <row r="394" spans="1:10">
       <c r="A394" s="7" t="s">
@@ -29695,20 +33832,20 @@
       </c>
     </row>
     <row r="398" spans="1:10">
-      <c r="A398" s="96" t="s">
+      <c r="A398" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B398" s="97"/>
-      <c r="C398" s="97"/>
-      <c r="D398" s="97"/>
-      <c r="E398" s="91"/>
-      <c r="F398" s="96" t="s">
+      <c r="B398" s="96"/>
+      <c r="C398" s="96"/>
+      <c r="D398" s="96"/>
+      <c r="E398" s="97"/>
+      <c r="F398" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G398" s="97"/>
-      <c r="H398" s="97"/>
-      <c r="I398" s="97"/>
-      <c r="J398" s="91"/>
+      <c r="G398" s="96"/>
+      <c r="H398" s="96"/>
+      <c r="I398" s="96"/>
+      <c r="J398" s="97"/>
     </row>
     <row r="399" spans="1:10">
       <c r="A399" s="4" t="s">
@@ -29789,11 +33926,11 @@
         <v>50</v>
       </c>
       <c r="D401" s="3">
-        <f t="shared" ref="D401:D429" si="24">$A$395</f>
+        <f t="shared" ref="D401:D424" si="26">$A$395</f>
         <v>180</v>
       </c>
       <c r="E401" s="16">
-        <f t="shared" ref="E401:E419" si="25">SQRT((B401*B401)+(C401*C401)+(D401*D401))</f>
+        <f t="shared" ref="E401:E419" si="27">SQRT((B401*B401)+(C401*C401)+(D401*D401))</f>
         <v>266.45825188948453</v>
       </c>
       <c r="F401" s="3">
@@ -29803,14 +33940,14 @@
         <v>101.58</v>
       </c>
       <c r="H401" s="3">
-        <f t="shared" ref="H401:H419" si="26">D401</f>
+        <f t="shared" ref="H401:H419" si="28">D401</f>
         <v>180</v>
       </c>
       <c r="I401" s="16">
         <v>510.49</v>
       </c>
       <c r="J401" s="16">
-        <f t="shared" ref="I401:J415" si="27">SQRT((F401*F401)+(G401*G401)+(H401*H401))</f>
+        <f t="shared" ref="J401:J415" si="29">SQRT((F401*F401)+(G401*G401)+(H401*H401))</f>
         <v>510.49198309082186</v>
       </c>
     </row>
@@ -29825,11 +33962,11 @@
         <v>-50</v>
       </c>
       <c r="D402" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E402" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>266.45825188948453</v>
       </c>
       <c r="F402" s="3">
@@ -29839,14 +33976,14 @@
         <v>45.5</v>
       </c>
       <c r="H402" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I402" s="16">
         <v>255.75</v>
       </c>
       <c r="J402" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>255.74898259817181</v>
       </c>
     </row>
@@ -29861,11 +33998,11 @@
         <v>0</v>
       </c>
       <c r="D403" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E403" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>284.25340807103788</v>
       </c>
       <c r="F403" s="16">
@@ -29875,14 +34012,14 @@
         <v>45.58</v>
       </c>
       <c r="H403" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I403" s="16">
         <v>310.32</v>
       </c>
       <c r="J403" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>310.32142368840732</v>
       </c>
     </row>
@@ -29897,11 +34034,11 @@
         <v>70</v>
       </c>
       <c r="D404" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E404" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>292.74562336608892</v>
       </c>
       <c r="F404" s="3">
@@ -29911,14 +34048,14 @@
         <v>63.8</v>
       </c>
       <c r="H404" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I404" s="16">
         <v>577.41999999999996</v>
       </c>
       <c r="J404" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>577.41514216376413</v>
       </c>
     </row>
@@ -29933,11 +34070,11 @@
         <v>-70</v>
       </c>
       <c r="D405" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E405" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>292.74562336608892</v>
       </c>
       <c r="F405" s="3">
@@ -29947,14 +34084,14 @@
         <v>25.41</v>
       </c>
       <c r="H405" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I405" s="16">
         <v>254.03</v>
       </c>
       <c r="J405" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>254.02878124338588</v>
       </c>
     </row>
@@ -29969,11 +34106,11 @@
         <v>0</v>
       </c>
       <c r="D406" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E406" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>308.05843601498725</v>
       </c>
       <c r="F406" s="3">
@@ -29983,14 +34120,14 @@
         <v>21.85</v>
       </c>
       <c r="H406" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I406" s="16">
         <v>309.39999999999998</v>
       </c>
       <c r="J406" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>309.39927682526991</v>
       </c>
     </row>
@@ -30005,11 +34142,11 @@
         <v>90</v>
       </c>
       <c r="D407" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E407" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>320.93613071762422</v>
       </c>
       <c r="F407" s="3">
@@ -30019,14 +34156,14 @@
         <v>43.22</v>
       </c>
       <c r="H407" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I407" s="16">
         <v>630.30999999999995</v>
       </c>
       <c r="J407" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>630.3160467574977</v>
       </c>
     </row>
@@ -30041,11 +34178,11 @@
         <v>-90</v>
       </c>
       <c r="D408" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E408" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>320.93613071762422</v>
       </c>
       <c r="F408" s="3">
@@ -30055,14 +34192,14 @@
         <v>14.27</v>
       </c>
       <c r="H408" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I408" s="16">
         <v>243.13</v>
       </c>
       <c r="J408" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>243.12698122586067</v>
       </c>
     </row>
@@ -30077,11 +34214,11 @@
         <v>0</v>
       </c>
       <c r="D409" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E409" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>332.86633954186476</v>
       </c>
       <c r="F409" s="3">
@@ -30091,14 +34228,14 @@
         <v>5.38</v>
       </c>
       <c r="H409" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I409" s="16">
         <v>311.27</v>
       </c>
       <c r="J409" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>311.27010216209328</v>
       </c>
     </row>
@@ -30113,11 +34250,11 @@
         <v>100</v>
       </c>
       <c r="D410" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E410" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>347.56294393965533</v>
       </c>
       <c r="F410" s="3">
@@ -30127,14 +34264,14 @@
         <v>5.32</v>
       </c>
       <c r="H410" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I410" s="16">
         <v>616.59</v>
       </c>
       <c r="J410" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>616.59239899628994</v>
       </c>
     </row>
@@ -30149,11 +34286,11 @@
         <v>-100</v>
       </c>
       <c r="D411" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E411" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>347.56294393965533</v>
       </c>
       <c r="F411" s="3">
@@ -30163,14 +34300,14 @@
         <v>3.38</v>
       </c>
       <c r="H411" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I411" s="16">
         <v>239.44</v>
       </c>
       <c r="J411" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>239.44594650985428</v>
       </c>
     </row>
@@ -30185,11 +34322,11 @@
         <v>0</v>
       </c>
       <c r="D412" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E412" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>349.85711369071805</v>
       </c>
       <c r="F412" s="3">
@@ -30199,14 +34336,14 @@
         <v>-3.52</v>
       </c>
       <c r="H412" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I412" s="16">
         <v>317.14999999999998</v>
       </c>
       <c r="J412" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>317.15232996148711</v>
       </c>
     </row>
@@ -30221,11 +34358,11 @@
         <v>10</v>
       </c>
       <c r="D413" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E413" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>350</v>
       </c>
       <c r="F413" s="3">
@@ -30235,14 +34372,14 @@
         <v>-12.42</v>
       </c>
       <c r="H413" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I413" s="16">
         <v>369.73</v>
       </c>
       <c r="J413" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>369.7329506549288</v>
       </c>
     </row>
@@ -30257,11 +34394,11 @@
         <v>-10</v>
       </c>
       <c r="D414" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E414" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>350</v>
       </c>
       <c r="F414" s="16">
@@ -30271,14 +34408,14 @@
         <v>-3.42</v>
       </c>
       <c r="H414" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I414" s="16">
         <v>297.42</v>
       </c>
       <c r="J414" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>297.41809628870936</v>
       </c>
     </row>
@@ -30293,11 +34430,11 @@
         <v>0</v>
       </c>
       <c r="D415" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E415" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>393.57337308308854</v>
       </c>
       <c r="F415" s="3">
@@ -30307,14 +34444,14 @@
         <v>-27.14</v>
       </c>
       <c r="H415" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I415" s="16">
         <v>318.95999999999998</v>
       </c>
       <c r="J415" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>318.95678030103079</v>
       </c>
     </row>
@@ -30329,11 +34466,11 @@
         <v>40</v>
       </c>
       <c r="D416" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E416" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>395.60080889704966</v>
       </c>
       <c r="F416" s="3">
@@ -30343,7 +34480,7 @@
         <v>-33.83</v>
       </c>
       <c r="H416" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I416" s="16">
@@ -30365,11 +34502,11 @@
         <v>-40</v>
       </c>
       <c r="D417" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E417" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>395.60080889704966</v>
       </c>
       <c r="F417" s="3">
@@ -30379,14 +34516,14 @@
         <v>-24.87</v>
       </c>
       <c r="H417" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I417" s="16">
         <v>279.77999999999997</v>
       </c>
       <c r="J417" s="16">
-        <f t="shared" ref="J417:J422" si="28">SQRT((F417*F417)+(G417*G417)+(H417*H417))</f>
+        <f t="shared" ref="J417:J422" si="30">SQRT((F417*F417)+(G417*G417)+(H417*H417))</f>
         <v>279.77995728786578</v>
       </c>
     </row>
@@ -30401,11 +34538,11 @@
         <v>0</v>
       </c>
       <c r="D418" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E418" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>411.46081222881969</v>
       </c>
       <c r="F418" s="3">
@@ -30415,14 +34552,14 @@
         <v>-31.71</v>
       </c>
       <c r="H418" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I418" s="16">
         <v>317.72000000000003</v>
       </c>
       <c r="J418" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>317.72367900425678</v>
       </c>
     </row>
@@ -30437,11 +34574,11 @@
         <v>20</v>
       </c>
       <c r="D419" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E419" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>411.94659848091959</v>
       </c>
       <c r="F419" s="3">
@@ -30451,14 +34588,14 @@
         <v>-41.32</v>
       </c>
       <c r="H419" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180</v>
       </c>
       <c r="I419" s="16">
         <v>369.7</v>
       </c>
       <c r="J419" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>369.70287434641347</v>
       </c>
     </row>
@@ -30473,11 +34610,11 @@
         <v>-20</v>
       </c>
       <c r="D420" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E420" s="16">
-        <f t="shared" ref="E420:E429" si="29">SQRT((B420*B420)+(C420*C420)+(D420*D420))</f>
+        <f t="shared" ref="E420:E424" si="31">SQRT((B420*B420)+(C420*C420)+(D420*D420))</f>
         <v>411.94659848091959</v>
       </c>
       <c r="F420" s="16">
@@ -30487,14 +34624,14 @@
         <v>-30.17</v>
       </c>
       <c r="H420" s="3">
-        <f t="shared" ref="H420:H429" si="30">D420</f>
+        <f t="shared" ref="H420:H424" si="32">D420</f>
         <v>180</v>
       </c>
       <c r="I420" s="16">
         <v>298.73</v>
       </c>
       <c r="J420" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>298.72688027695131</v>
       </c>
     </row>
@@ -30509,11 +34646,11 @@
         <v>0</v>
       </c>
       <c r="D421" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E421" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>438.63424398922615</v>
       </c>
       <c r="F421" s="3">
@@ -30523,14 +34660,14 @@
         <v>-44.29</v>
       </c>
       <c r="H421" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>180</v>
       </c>
       <c r="I421" s="16">
         <v>327.58</v>
       </c>
       <c r="J421" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>327.5823746784921</v>
       </c>
     </row>
@@ -30545,11 +34682,11 @@
         <v>80</v>
       </c>
       <c r="D422" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E422" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>445.86993619215906</v>
       </c>
       <c r="F422" s="3">
@@ -30559,14 +34696,14 @@
         <v>-65.36</v>
       </c>
       <c r="H422" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>180</v>
       </c>
       <c r="I422" s="16">
         <v>470.85</v>
       </c>
       <c r="J422" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>470.85130572188075</v>
       </c>
     </row>
@@ -30581,11 +34718,11 @@
         <v>-80</v>
       </c>
       <c r="D423" s="37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E423" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>445.86993619215906</v>
       </c>
       <c r="F423" s="37">
@@ -30595,14 +34732,14 @@
         <v>-35.32</v>
       </c>
       <c r="H423" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>180</v>
       </c>
       <c r="I423" s="38">
         <v>260.8</v>
       </c>
       <c r="J423" s="38">
-        <f t="shared" ref="J423:J429" si="31">SQRT((F423*F423)+(G423*G423)+(H423*H423))</f>
+        <f t="shared" ref="J423:J424" si="33">SQRT((F423*F423)+(G423*G423)+(H423*H423))</f>
         <v>260.80060295175696</v>
       </c>
     </row>
@@ -30617,11 +34754,11 @@
         <v>0</v>
       </c>
       <c r="D424" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="E424" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>484.66483264210535</v>
       </c>
       <c r="F424" s="3">
@@ -30631,14 +34768,14 @@
         <v>-55.65</v>
       </c>
       <c r="H424" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>180</v>
       </c>
       <c r="I424" s="16">
         <v>320.98</v>
       </c>
       <c r="J424" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>320.9818365577716</v>
       </c>
     </row>
@@ -30730,7 +34867,7 @@
         <v>466.78</v>
       </c>
       <c r="L429" s="18">
-        <f t="shared" ref="L429:L452" si="32">ABS(K429-J429)</f>
+        <f t="shared" ref="L429:L452" si="34">ABS(K429-J429)</f>
         <v>276.77999999999997</v>
       </c>
     </row>
@@ -30745,7 +34882,7 @@
         <v>175.89</v>
       </c>
       <c r="L430" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>14.110000000000014</v>
       </c>
     </row>
@@ -30760,7 +34897,7 @@
         <v>248.64</v>
       </c>
       <c r="L431" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>28.639999999999986</v>
       </c>
     </row>
@@ -30775,7 +34912,7 @@
         <v>544.91999999999996</v>
       </c>
       <c r="L432" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>324.91999999999996</v>
       </c>
     </row>
@@ -30790,7 +34927,7 @@
         <v>177.44</v>
       </c>
       <c r="L433" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>42.56</v>
       </c>
     </row>
@@ -30805,7 +34942,7 @@
         <v>250.7</v>
       </c>
       <c r="L434" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69999999999998863</v>
       </c>
     </row>
@@ -30820,7 +34957,7 @@
         <v>602.52</v>
       </c>
       <c r="L435" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>352.52</v>
       </c>
     </row>
@@ -30835,7 +34972,7 @@
         <v>162.81</v>
       </c>
       <c r="L436" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>87.19</v>
       </c>
     </row>
@@ -30850,7 +34987,7 @@
         <v>253.89</v>
       </c>
       <c r="L437" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>26.110000000000014</v>
       </c>
     </row>
@@ -30865,7 +35002,7 @@
         <v>589.71</v>
       </c>
       <c r="L438" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>309.71000000000004</v>
       </c>
     </row>
@@ -30880,7 +35017,7 @@
         <v>157.87</v>
       </c>
       <c r="L439" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>122.13</v>
       </c>
     </row>
@@ -30895,7 +35032,7 @@
         <v>261.10000000000002</v>
       </c>
       <c r="L440" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>38.899999999999977</v>
       </c>
     </row>
@@ -30910,7 +35047,7 @@
         <v>322.72000000000003</v>
       </c>
       <c r="L441" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>22.720000000000027</v>
       </c>
     </row>
@@ -30925,7 +35062,7 @@
         <v>236.74</v>
       </c>
       <c r="L442" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>63.259999999999991</v>
       </c>
     </row>
@@ -30940,7 +35077,7 @@
         <v>261.91000000000003</v>
       </c>
       <c r="L443" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>88.089999999999975</v>
       </c>
     </row>
@@ -30955,7 +35092,7 @@
         <v>369.51</v>
       </c>
       <c r="L444" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>19.509999999999991</v>
       </c>
     </row>
@@ -30970,7 +35107,7 @@
         <v>212.74</v>
       </c>
       <c r="L445" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>137.26</v>
       </c>
     </row>
@@ -30985,7 +35122,7 @@
         <v>259.89</v>
       </c>
       <c r="L446" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>110.11000000000001</v>
       </c>
     </row>
@@ -31000,7 +35137,7 @@
         <v>320.27</v>
       </c>
       <c r="L447" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>49.730000000000018</v>
       </c>
     </row>
@@ -31015,7 +35152,7 @@
         <v>236.49</v>
       </c>
       <c r="L448" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>133.51</v>
       </c>
     </row>
@@ -31030,7 +35167,7 @@
         <v>270.08999999999997</v>
       </c>
       <c r="L449" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>129.91000000000003</v>
       </c>
     </row>
@@ -31045,7 +35182,7 @@
         <v>430.15</v>
       </c>
       <c r="L450" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>30.149999999999977</v>
       </c>
     </row>
@@ -31060,7 +35197,7 @@
         <v>185.39</v>
       </c>
       <c r="L451" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>214.61</v>
       </c>
     </row>
@@ -31075,7 +35212,7 @@
         <v>259.87</v>
       </c>
       <c r="L452" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>190.13</v>
       </c>
     </row>
@@ -31146,7 +35283,7 @@
         <v>101.58</v>
       </c>
       <c r="L464" s="18">
-        <f t="shared" ref="L464:L487" si="33">ABS(K464-J464)</f>
+        <f t="shared" ref="L464:L487" si="35">ABS(K464-J464)</f>
         <v>51.58</v>
       </c>
     </row>
@@ -31161,7 +35298,7 @@
         <v>45.5</v>
       </c>
       <c r="L465" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>95.5</v>
       </c>
     </row>
@@ -31176,7 +35313,7 @@
         <v>45.58</v>
       </c>
       <c r="L466" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>45.58</v>
       </c>
     </row>
@@ -31191,7 +35328,7 @@
         <v>63.8</v>
       </c>
       <c r="L467" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.2000000000000028</v>
       </c>
     </row>
@@ -31206,7 +35343,7 @@
         <v>25.41</v>
       </c>
       <c r="L468" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>95.41</v>
       </c>
     </row>
@@ -31221,7 +35358,7 @@
         <v>21.85</v>
       </c>
       <c r="L469" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>21.85</v>
       </c>
     </row>
@@ -31236,7 +35373,7 @@
         <v>43.22</v>
       </c>
       <c r="L470" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>46.78</v>
       </c>
     </row>
@@ -31251,7 +35388,7 @@
         <v>14.27</v>
       </c>
       <c r="L471" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>104.27</v>
       </c>
     </row>
@@ -31266,7 +35403,7 @@
         <v>5.38</v>
       </c>
       <c r="L472" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.38</v>
       </c>
     </row>
@@ -31281,7 +35418,7 @@
         <v>5.32</v>
       </c>
       <c r="L473" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>94.68</v>
       </c>
     </row>
@@ -31296,7 +35433,7 @@
         <v>3.38</v>
       </c>
       <c r="L474" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>103.38</v>
       </c>
     </row>
@@ -31311,7 +35448,7 @@
         <v>-3.52</v>
       </c>
       <c r="L475" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.52</v>
       </c>
     </row>
@@ -31341,7 +35478,7 @@
         <v>-3.42</v>
       </c>
       <c r="L477" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.58</v>
       </c>
     </row>
@@ -31356,7 +35493,7 @@
         <v>-27.14</v>
       </c>
       <c r="L478" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>27.14</v>
       </c>
     </row>
@@ -31371,7 +35508,7 @@
         <v>-33.83</v>
       </c>
       <c r="L479" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>73.83</v>
       </c>
     </row>
@@ -31386,7 +35523,7 @@
         <v>-24.87</v>
       </c>
       <c r="L480" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>15.129999999999999</v>
       </c>
     </row>
@@ -31401,7 +35538,7 @@
         <v>-31.71</v>
       </c>
       <c r="L481" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>31.71</v>
       </c>
     </row>
@@ -31416,7 +35553,7 @@
         <v>-41.32</v>
       </c>
       <c r="L482" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>61.32</v>
       </c>
     </row>
@@ -31431,7 +35568,7 @@
         <v>-30.17</v>
       </c>
       <c r="L483" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10.170000000000002</v>
       </c>
     </row>
@@ -31446,7 +35583,7 @@
         <v>-44.29</v>
       </c>
       <c r="L484" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44.29</v>
       </c>
     </row>
@@ -31461,7 +35598,7 @@
         <v>-65.36</v>
       </c>
       <c r="L485" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>145.36000000000001</v>
       </c>
     </row>
@@ -31476,7 +35613,7 @@
         <v>-35.32</v>
       </c>
       <c r="L486" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44.68</v>
       </c>
     </row>
@@ -31491,7 +35628,7 @@
         <v>-55.65</v>
       </c>
       <c r="L487" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>55.65</v>
       </c>
     </row>
@@ -31562,7 +35699,7 @@
         <v>510.49</v>
       </c>
       <c r="L499" s="65">
-        <f t="shared" ref="L499:L522" si="34">ABS(K499-J499)</f>
+        <f t="shared" ref="L499:L522" si="36">ABS(K499-J499)</f>
         <v>244.03174811051548</v>
       </c>
     </row>
@@ -31577,7 +35714,7 @@
         <v>255.75</v>
       </c>
       <c r="L500" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10.708251889484529</v>
       </c>
     </row>
@@ -31592,7 +35729,7 @@
         <v>310.32</v>
       </c>
       <c r="L501" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>26.066591928962112</v>
       </c>
     </row>
@@ -31607,7 +35744,7 @@
         <v>577.41999999999996</v>
       </c>
       <c r="L502" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>284.67437663391104</v>
       </c>
     </row>
@@ -31622,7 +35759,7 @@
         <v>254.03</v>
       </c>
       <c r="L503" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>38.71562336608892</v>
       </c>
     </row>
@@ -31637,7 +35774,7 @@
         <v>309.39999999999998</v>
       </c>
       <c r="L504" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.3415639850127263</v>
       </c>
     </row>
@@ -31652,7 +35789,7 @@
         <v>630.30999999999995</v>
       </c>
       <c r="L505" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>309.37386928237572</v>
       </c>
     </row>
@@ -31667,7 +35804,7 @@
         <v>243.13</v>
       </c>
       <c r="L506" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>77.806130717624228</v>
       </c>
     </row>
@@ -31682,7 +35819,7 @@
         <v>311.27</v>
       </c>
       <c r="L507" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>21.596339541864779</v>
       </c>
     </row>
@@ -31697,7 +35834,7 @@
         <v>616.59</v>
       </c>
       <c r="L508" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>269.02705606034471</v>
       </c>
     </row>
@@ -31712,7 +35849,7 @@
         <v>239.44</v>
       </c>
       <c r="L509" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>108.12294393965533</v>
       </c>
     </row>
@@ -31727,7 +35864,7 @@
         <v>317.14999999999998</v>
       </c>
       <c r="L510" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>32.707113690718074</v>
       </c>
     </row>
@@ -31742,7 +35879,7 @@
         <v>369.73</v>
       </c>
       <c r="L511" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>19.730000000000018</v>
       </c>
     </row>
@@ -31757,7 +35894,7 @@
         <v>297.42</v>
       </c>
       <c r="L512" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>52.579999999999984</v>
       </c>
     </row>
@@ -31772,7 +35909,7 @@
         <v>318.95999999999998</v>
       </c>
       <c r="L513" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>74.613373083088561</v>
       </c>
     </row>
@@ -31787,7 +35924,7 @@
         <v>412.41</v>
       </c>
       <c r="L514" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>16.809191102950365</v>
       </c>
     </row>
@@ -31802,7 +35939,7 @@
         <v>279.77999999999997</v>
       </c>
       <c r="L515" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>115.82080889704969</v>
       </c>
     </row>
@@ -31817,7 +35954,7 @@
         <v>317.72000000000003</v>
       </c>
       <c r="L516" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>93.740812228819664</v>
       </c>
     </row>
@@ -31832,7 +35969,7 @@
         <v>369.7</v>
       </c>
       <c r="L517" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>42.246598480919602</v>
       </c>
     </row>
@@ -31847,7 +35984,7 @@
         <v>298.73</v>
       </c>
       <c r="L518" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>113.21659848091957</v>
       </c>
     </row>
@@ -31862,7 +35999,7 @@
         <v>327.58</v>
       </c>
       <c r="L519" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>111.05424398922617</v>
       </c>
     </row>
@@ -31877,7 +36014,7 @@
         <v>470.85</v>
       </c>
       <c r="L520" s="75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>24.980063807840963</v>
       </c>
     </row>
@@ -31892,7 +36029,7 @@
         <v>260.8</v>
       </c>
       <c r="L521" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>185.06993619215905</v>
       </c>
     </row>
@@ -31907,7 +36044,7 @@
         <v>320.98</v>
       </c>
       <c r="L522" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>163.68483264210533</v>
       </c>
     </row>
@@ -31939,34 +36076,34 @@
       </c>
     </row>
     <row r="530" spans="1:10">
-      <c r="A530" s="95" t="s">
+      <c r="A530" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B530" s="95"/>
-      <c r="C530" s="95"/>
-      <c r="D530" s="95"/>
-      <c r="E530" s="95"/>
-      <c r="F530" s="95"/>
-      <c r="G530" s="95"/>
-      <c r="H530" s="95"/>
-      <c r="I530" s="95"/>
-      <c r="J530" s="95"/>
+      <c r="B530" s="91"/>
+      <c r="C530" s="91"/>
+      <c r="D530" s="91"/>
+      <c r="E530" s="91"/>
+      <c r="F530" s="91"/>
+      <c r="G530" s="91"/>
+      <c r="H530" s="91"/>
+      <c r="I530" s="91"/>
+      <c r="J530" s="91"/>
     </row>
     <row r="531" spans="1:10">
-      <c r="A531" s="92" t="s">
+      <c r="A531" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B531" s="93"/>
-      <c r="C531" s="93"/>
-      <c r="D531" s="93"/>
-      <c r="E531" s="94"/>
-      <c r="F531" s="92" t="s">
+      <c r="B531" s="89"/>
+      <c r="C531" s="89"/>
+      <c r="D531" s="89"/>
+      <c r="E531" s="90"/>
+      <c r="F531" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G531" s="93"/>
-      <c r="H531" s="93"/>
-      <c r="I531" s="93"/>
-      <c r="J531" s="94"/>
+      <c r="G531" s="89"/>
+      <c r="H531" s="89"/>
+      <c r="I531" s="89"/>
+      <c r="J531" s="90"/>
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="4" t="s">
@@ -32011,11 +36148,11 @@
         <v>0</v>
       </c>
       <c r="D533" s="3">
-        <f t="shared" ref="D533:D538" si="35">$A$395</f>
+        <f t="shared" ref="D533:D538" si="37">$A$395</f>
         <v>180</v>
       </c>
       <c r="E533" s="16">
-        <f t="shared" ref="E533:E538" si="36">SQRT((B533*B533)+(C533*C533)+(D533*D533))</f>
+        <f t="shared" ref="E533:E538" si="38">SQRT((B533*B533)+(C533*C533)+(D533*D533))</f>
         <v>308.05843601498725</v>
       </c>
       <c r="F533" s="3">
@@ -32025,7 +36162,7 @@
         <v>-21.53</v>
       </c>
       <c r="H533" s="3">
-        <f t="shared" ref="H533:H538" si="37">D533</f>
+        <f t="shared" ref="H533:H538" si="39">D533</f>
         <v>180</v>
       </c>
       <c r="I533" s="16">
@@ -32033,7 +36170,7 @@
         <v>318.91504401642766</v>
       </c>
       <c r="J533" s="16">
-        <f t="shared" ref="J533:J538" si="38">SQRT((F533*F533)+(G533*G533)+(H533*H533))</f>
+        <f t="shared" ref="J533:J538" si="40">SQRT((F533*F533)+(G533*G533)+(H533*H533))</f>
         <v>318.91504401642766</v>
       </c>
     </row>
@@ -32048,11 +36185,11 @@
         <v>90</v>
       </c>
       <c r="D534" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>180</v>
       </c>
       <c r="E534" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>320.93613071762422</v>
       </c>
       <c r="F534" s="3">
@@ -32062,15 +36199,15 @@
         <v>-47.46</v>
       </c>
       <c r="H534" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>180</v>
       </c>
       <c r="I534" s="16">
-        <f t="shared" ref="I534:I550" si="39">J534</f>
+        <f t="shared" ref="I534:I550" si="41">J534</f>
         <v>666.00416154855975</v>
       </c>
       <c r="J534" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>666.00416154855975</v>
       </c>
     </row>
@@ -32085,11 +36222,11 @@
         <v>-90</v>
       </c>
       <c r="D535" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>180</v>
       </c>
       <c r="E535" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>320.93613071762422</v>
       </c>
       <c r="F535" s="3">
@@ -32099,15 +36236,15 @@
         <v>-10.71</v>
       </c>
       <c r="H535" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>180</v>
       </c>
       <c r="I535" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>236.43018102602718</v>
       </c>
       <c r="J535" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>236.43018102602718</v>
       </c>
     </row>
@@ -32122,11 +36259,11 @@
         <v>0</v>
       </c>
       <c r="D536" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>180</v>
       </c>
       <c r="E536" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>332.86633954186476</v>
       </c>
       <c r="F536" s="3">
@@ -32136,15 +36273,15 @@
         <v>-3.65</v>
       </c>
       <c r="H536" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>180</v>
       </c>
       <c r="I536" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>324.44526595405893</v>
       </c>
       <c r="J536" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>324.44526595405893</v>
       </c>
     </row>
@@ -32159,11 +36296,11 @@
         <v>100</v>
       </c>
       <c r="D537" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>180</v>
       </c>
       <c r="E537" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>347.56294393965533</v>
       </c>
       <c r="F537" s="3">
@@ -32173,15 +36310,15 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="H537" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>180</v>
       </c>
       <c r="I537" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>660.06884307623545</v>
       </c>
       <c r="J537" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>660.06884307623545</v>
       </c>
     </row>
@@ -32196,11 +36333,11 @@
         <v>-100</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>180</v>
       </c>
       <c r="E538" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>347.56294393965533</v>
       </c>
       <c r="F538" s="3">
@@ -32210,15 +36347,15 @@
         <v>0.65</v>
       </c>
       <c r="H538" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>180</v>
       </c>
       <c r="I538" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>238.60060121466583</v>
       </c>
       <c r="J538" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>238.60060121466583</v>
       </c>
     </row>
@@ -32233,11 +36370,11 @@
         <v>0</v>
       </c>
       <c r="D539" s="3">
-        <f t="shared" ref="D539:D550" si="40">$A$395</f>
+        <f t="shared" ref="D539:D550" si="42">$A$395</f>
         <v>180</v>
       </c>
       <c r="E539" s="16">
-        <f t="shared" ref="E539:E550" si="41">SQRT((B539*B539)+(C539*C539)+(D539*D539))</f>
+        <f t="shared" ref="E539:E550" si="43">SQRT((B539*B539)+(C539*C539)+(D539*D539))</f>
         <v>349.85711369071805</v>
       </c>
       <c r="F539" s="3">
@@ -32247,15 +36384,15 @@
         <v>6.77</v>
       </c>
       <c r="H539" s="3">
-        <f t="shared" ref="H539:H550" si="42">D539</f>
+        <f t="shared" ref="H539:H550" si="44">D539</f>
         <v>180</v>
       </c>
       <c r="I539" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>320.34846807812272</v>
       </c>
       <c r="J539" s="16">
-        <f t="shared" ref="J539:J550" si="43">SQRT((F539*F539)+(G539*G539)+(H539*H539))</f>
+        <f t="shared" ref="J539:J542" si="45">SQRT((F539*F539)+(G539*G539)+(H539*H539))</f>
         <v>320.34846807812272</v>
       </c>
     </row>
@@ -32270,11 +36407,11 @@
         <v>10</v>
       </c>
       <c r="D540" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E540" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>350</v>
       </c>
       <c r="F540" s="3">
@@ -32284,15 +36421,15 @@
         <v>8.86</v>
       </c>
       <c r="H540" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>180</v>
       </c>
       <c r="I540" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>353.92902070895514</v>
       </c>
       <c r="J540" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>353.92902070895514</v>
       </c>
     </row>
@@ -32307,11 +36444,11 @@
         <v>-10</v>
       </c>
       <c r="D541" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E541" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>350</v>
       </c>
       <c r="F541" s="16">
@@ -32321,15 +36458,15 @@
         <v>3.41</v>
       </c>
       <c r="H541" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>180</v>
       </c>
       <c r="I541" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>310.25604023129029</v>
       </c>
       <c r="J541" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>310.25604023129029</v>
       </c>
     </row>
@@ -32344,11 +36481,11 @@
         <v>0</v>
       </c>
       <c r="D542" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E542" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>393.57337308308854</v>
       </c>
       <c r="F542" s="3">
@@ -32358,15 +36495,15 @@
         <v>25.79</v>
       </c>
       <c r="H542" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>180</v>
       </c>
       <c r="I542" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>325.27405998634441</v>
       </c>
       <c r="J542" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>325.27405998634441</v>
       </c>
     </row>
@@ -32381,11 +36518,11 @@
         <v>40</v>
       </c>
       <c r="D543" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E543" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>395.60080889704966</v>
       </c>
       <c r="F543" s="3">
@@ -32395,11 +36532,11 @@
         <v>28.66</v>
       </c>
       <c r="H543" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>180</v>
       </c>
       <c r="I543" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>432.66517724448312</v>
       </c>
       <c r="J543" s="16">
@@ -32418,11 +36555,11 @@
         <v>-40</v>
       </c>
       <c r="D544" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E544" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>395.60080889704966</v>
       </c>
       <c r="F544" s="3">
@@ -32432,34 +36569,34 @@
         <v>23.57</v>
       </c>
       <c r="H544" s="3">
+        <f t="shared" si="44"/>
+        <v>180</v>
+      </c>
+      <c r="I544" s="16">
+        <f t="shared" si="41"/>
+        <v>291.53778365762474</v>
+      </c>
+      <c r="J544" s="16">
+        <f t="shared" ref="J544:J550" si="46">SQRT((F544*F544)+(G544*G544)+(H544*H544))</f>
+        <v>291.53778365762474</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
+      <c r="A545" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B545" s="3">
+        <v>370</v>
+      </c>
+      <c r="C545" s="3">
+        <v>0</v>
+      </c>
+      <c r="D545" s="3">
         <f t="shared" si="42"/>
         <v>180</v>
       </c>
-      <c r="I544" s="16">
-        <f t="shared" si="39"/>
-        <v>291.53778365762474</v>
-      </c>
-      <c r="J544" s="16">
-        <f t="shared" ref="J544:J550" si="44">SQRT((F544*F544)+(G544*G544)+(H544*H544))</f>
-        <v>291.53778365762474</v>
-      </c>
-    </row>
-    <row r="545" spans="1:10">
-      <c r="A545" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B545" s="3">
-        <v>370</v>
-      </c>
-      <c r="C545" s="3">
-        <v>0</v>
-      </c>
-      <c r="D545" s="3">
-        <f t="shared" si="40"/>
-        <v>180</v>
-      </c>
       <c r="E545" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>411.46081222881969</v>
       </c>
       <c r="F545" s="3">
@@ -32469,34 +36606,34 @@
         <v>32.03</v>
       </c>
       <c r="H545" s="3">
+        <f t="shared" si="44"/>
+        <v>180</v>
+      </c>
+      <c r="I545" s="16">
+        <f t="shared" si="41"/>
+        <v>327.26161675332474</v>
+      </c>
+      <c r="J545" s="16">
+        <f t="shared" si="46"/>
+        <v>327.26161675332474</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
+      <c r="A546" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B546" s="3">
+        <v>370</v>
+      </c>
+      <c r="C546" s="3">
+        <v>20</v>
+      </c>
+      <c r="D546" s="3">
         <f t="shared" si="42"/>
         <v>180</v>
       </c>
-      <c r="I545" s="16">
-        <f t="shared" si="39"/>
-        <v>327.26161675332474</v>
-      </c>
-      <c r="J545" s="16">
-        <f t="shared" si="44"/>
-        <v>327.26161675332474</v>
-      </c>
-    </row>
-    <row r="546" spans="1:10">
-      <c r="A546" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B546" s="3">
-        <v>370</v>
-      </c>
-      <c r="C546" s="3">
-        <v>20</v>
-      </c>
-      <c r="D546" s="3">
-        <f t="shared" si="40"/>
-        <v>180</v>
-      </c>
       <c r="E546" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>411.94659848091959</v>
       </c>
       <c r="F546" s="3">
@@ -32506,34 +36643,34 @@
         <v>44.03</v>
       </c>
       <c r="H546" s="3">
+        <f t="shared" si="44"/>
+        <v>180</v>
+      </c>
+      <c r="I546" s="16">
+        <f t="shared" si="41"/>
+        <v>371.03738814302795</v>
+      </c>
+      <c r="J546" s="16">
+        <f t="shared" si="46"/>
+        <v>371.03738814302795</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
+      <c r="A547" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B547" s="3">
+        <v>370</v>
+      </c>
+      <c r="C547" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D547" s="3">
         <f t="shared" si="42"/>
         <v>180</v>
       </c>
-      <c r="I546" s="16">
-        <f t="shared" si="39"/>
-        <v>371.03738814302795</v>
-      </c>
-      <c r="J546" s="16">
-        <f t="shared" si="44"/>
-        <v>371.03738814302795</v>
-      </c>
-    </row>
-    <row r="547" spans="1:10">
-      <c r="A547" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B547" s="3">
-        <v>370</v>
-      </c>
-      <c r="C547" s="3">
-        <v>-20</v>
-      </c>
-      <c r="D547" s="3">
-        <f t="shared" si="40"/>
-        <v>180</v>
-      </c>
       <c r="E547" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>411.94659848091959</v>
       </c>
       <c r="F547" s="16">
@@ -32543,34 +36680,34 @@
         <v>30.26</v>
       </c>
       <c r="H547" s="3">
+        <f t="shared" si="44"/>
+        <v>180</v>
+      </c>
+      <c r="I547" s="16">
+        <f t="shared" si="41"/>
+        <v>302.16737696184214</v>
+      </c>
+      <c r="J547" s="16">
+        <f t="shared" si="46"/>
+        <v>302.16737696184214</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
+      <c r="A548" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B548" s="3">
+        <v>400</v>
+      </c>
+      <c r="C548" s="3">
+        <v>0</v>
+      </c>
+      <c r="D548" s="3">
         <f t="shared" si="42"/>
         <v>180</v>
       </c>
-      <c r="I547" s="16">
-        <f t="shared" si="39"/>
-        <v>302.16737696184214</v>
-      </c>
-      <c r="J547" s="16">
-        <f t="shared" si="44"/>
-        <v>302.16737696184214</v>
-      </c>
-    </row>
-    <row r="548" spans="1:10">
-      <c r="A548" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B548" s="3">
-        <v>400</v>
-      </c>
-      <c r="C548" s="3">
-        <v>0</v>
-      </c>
-      <c r="D548" s="3">
-        <f t="shared" si="40"/>
-        <v>180</v>
-      </c>
       <c r="E548" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>438.63424398922615</v>
       </c>
       <c r="F548" s="3">
@@ -32580,34 +36717,34 @@
         <v>41.19</v>
       </c>
       <c r="H548" s="3">
+        <f t="shared" si="44"/>
+        <v>180</v>
+      </c>
+      <c r="I548" s="16">
+        <f t="shared" si="41"/>
+        <v>328.06152121210437</v>
+      </c>
+      <c r="J548" s="16">
+        <f t="shared" si="46"/>
+        <v>328.06152121210437</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
+      <c r="A549" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B549" s="37">
+        <v>400</v>
+      </c>
+      <c r="C549" s="37">
+        <v>80</v>
+      </c>
+      <c r="D549" s="37">
         <f t="shared" si="42"/>
         <v>180</v>
       </c>
-      <c r="I548" s="16">
-        <f t="shared" si="39"/>
-        <v>328.06152121210437</v>
-      </c>
-      <c r="J548" s="16">
-        <f t="shared" si="44"/>
-        <v>328.06152121210437</v>
-      </c>
-    </row>
-    <row r="549" spans="1:10">
-      <c r="A549" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B549" s="37">
-        <v>400</v>
-      </c>
-      <c r="C549" s="37">
-        <v>80</v>
-      </c>
-      <c r="D549" s="37">
-        <f t="shared" si="40"/>
-        <v>180</v>
-      </c>
       <c r="E549" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>445.86993619215906</v>
       </c>
       <c r="F549" s="37">
@@ -32617,34 +36754,34 @@
         <v>59.09</v>
       </c>
       <c r="H549" s="37">
+        <f t="shared" si="44"/>
+        <v>180</v>
+      </c>
+      <c r="I549" s="16">
+        <f t="shared" si="41"/>
+        <v>491.3982663787084</v>
+      </c>
+      <c r="J549" s="38">
+        <f t="shared" si="46"/>
+        <v>491.3982663787084</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
+      <c r="A550" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B550" s="3">
+        <v>400</v>
+      </c>
+      <c r="C550" s="3">
+        <v>-80</v>
+      </c>
+      <c r="D550" s="3">
         <f t="shared" si="42"/>
         <v>180</v>
       </c>
-      <c r="I549" s="16">
-        <f t="shared" si="39"/>
-        <v>491.3982663787084</v>
-      </c>
-      <c r="J549" s="38">
-        <f t="shared" si="44"/>
-        <v>491.3982663787084</v>
-      </c>
-    </row>
-    <row r="550" spans="1:10">
-      <c r="A550" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B550" s="3">
-        <v>400</v>
-      </c>
-      <c r="C550" s="3">
-        <v>-80</v>
-      </c>
-      <c r="D550" s="3">
-        <f t="shared" si="40"/>
-        <v>180</v>
-      </c>
       <c r="E550" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>445.86993619215906</v>
       </c>
       <c r="F550" s="3">
@@ -32654,43 +36791,976 @@
         <v>33.46</v>
       </c>
       <c r="H550" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>180</v>
       </c>
       <c r="I550" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>265.79156119034332</v>
       </c>
       <c r="J550" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>265.79156119034332</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12">
+      <c r="I553" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J553" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K553" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L553" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12">
+      <c r="I554" s="3">
+        <v>7</v>
+      </c>
+      <c r="J554" s="3">
+        <v>250</v>
+      </c>
+      <c r="K554" s="17">
+        <v>262.38</v>
+      </c>
+      <c r="L554" s="100">
+        <f>ABS(K554-J554)</f>
+        <v>12.379999999999995</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12">
+      <c r="I555" s="3">
+        <v>8</v>
+      </c>
+      <c r="J555" s="3">
+        <v>250</v>
+      </c>
+      <c r="K555" s="17">
+        <v>639.46</v>
+      </c>
+      <c r="L555" s="100">
+        <f t="shared" ref="L555:L571" si="47">ABS(K555-J555)</f>
+        <v>389.46000000000004</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12">
+      <c r="I556" s="3">
+        <v>9</v>
+      </c>
+      <c r="J556" s="3">
+        <v>250</v>
+      </c>
+      <c r="K556" s="17">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="L556" s="100">
+        <f t="shared" si="47"/>
+        <v>97.080000000000013</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12">
+      <c r="I557" s="3">
+        <v>10</v>
+      </c>
+      <c r="J557" s="3">
+        <v>280</v>
+      </c>
+      <c r="K557" s="17">
+        <v>269.91000000000003</v>
+      </c>
+      <c r="L557" s="100">
+        <f t="shared" si="47"/>
+        <v>10.089999999999975</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12">
+      <c r="I558" s="3">
+        <v>11</v>
+      </c>
+      <c r="J558" s="3">
+        <v>280</v>
+      </c>
+      <c r="K558" s="17">
+        <v>634.74</v>
+      </c>
+      <c r="L558" s="100">
+        <f t="shared" si="47"/>
+        <v>354.74</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12">
+      <c r="I559" s="3">
+        <v>12</v>
+      </c>
+      <c r="J559" s="3">
+        <v>280</v>
+      </c>
+      <c r="K559" s="17">
+        <v>156.62</v>
+      </c>
+      <c r="L559" s="100">
+        <f t="shared" si="47"/>
+        <v>123.38</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12">
+      <c r="I560" s="3">
+        <v>13</v>
+      </c>
+      <c r="J560" s="3">
+        <v>300</v>
+      </c>
+      <c r="K560" s="17">
+        <v>264.91000000000003</v>
+      </c>
+      <c r="L560" s="100">
+        <f t="shared" si="47"/>
+        <v>35.089999999999975</v>
+      </c>
+    </row>
+    <row r="561" spans="9:12">
+      <c r="I561" s="3">
+        <v>14</v>
+      </c>
+      <c r="J561" s="3">
+        <v>300</v>
+      </c>
+      <c r="K561" s="17">
+        <v>304.61</v>
+      </c>
+      <c r="L561" s="100">
+        <f t="shared" si="47"/>
+        <v>4.6100000000000136</v>
+      </c>
+    </row>
+    <row r="562" spans="9:12">
+      <c r="I562" s="3">
+        <v>15</v>
+      </c>
+      <c r="J562" s="3">
+        <v>300</v>
+      </c>
+      <c r="K562" s="23">
+        <v>252.68</v>
+      </c>
+      <c r="L562" s="100">
+        <f t="shared" si="47"/>
+        <v>47.319999999999993</v>
+      </c>
+    </row>
+    <row r="563" spans="9:12">
+      <c r="I563" s="3">
+        <v>16</v>
+      </c>
+      <c r="J563" s="3">
+        <v>350</v>
+      </c>
+      <c r="K563" s="17">
+        <v>269.7</v>
+      </c>
+      <c r="L563" s="100">
+        <f t="shared" si="47"/>
+        <v>80.300000000000011</v>
+      </c>
+    </row>
+    <row r="564" spans="9:12">
+      <c r="I564" s="3">
+        <v>17</v>
+      </c>
+      <c r="J564" s="3">
+        <v>350</v>
+      </c>
+      <c r="K564" s="17">
+        <v>392.4</v>
+      </c>
+      <c r="L564" s="100">
+        <f t="shared" si="47"/>
+        <v>42.399999999999977</v>
+      </c>
+    </row>
+    <row r="565" spans="9:12">
+      <c r="I565" s="3">
+        <v>18</v>
+      </c>
+      <c r="J565" s="3">
+        <v>350</v>
+      </c>
+      <c r="K565" s="17">
+        <v>228.12</v>
+      </c>
+      <c r="L565" s="100">
+        <f t="shared" si="47"/>
+        <v>121.88</v>
+      </c>
+    </row>
+    <row r="566" spans="9:12">
+      <c r="I566" s="3">
+        <v>19</v>
+      </c>
+      <c r="J566" s="3">
+        <v>370</v>
+      </c>
+      <c r="K566" s="17">
+        <v>271.43</v>
+      </c>
+      <c r="L566" s="100">
+        <f t="shared" si="47"/>
+        <v>98.57</v>
+      </c>
+    </row>
+    <row r="567" spans="9:12">
+      <c r="I567" s="3">
+        <v>20</v>
+      </c>
+      <c r="J567" s="3">
+        <v>370</v>
+      </c>
+      <c r="K567" s="17">
+        <v>321.45</v>
+      </c>
+      <c r="L567" s="100">
+        <f t="shared" si="47"/>
+        <v>48.550000000000011</v>
+      </c>
+    </row>
+    <row r="568" spans="9:12">
+      <c r="I568" s="3">
+        <v>21</v>
+      </c>
+      <c r="J568" s="3">
+        <v>370</v>
+      </c>
+      <c r="K568" s="23">
+        <v>240.81</v>
+      </c>
+      <c r="L568" s="100">
+        <f t="shared" si="47"/>
+        <v>129.19</v>
+      </c>
+    </row>
+    <row r="569" spans="9:12">
+      <c r="I569" s="3">
+        <v>22</v>
+      </c>
+      <c r="J569" s="3">
+        <v>400</v>
+      </c>
+      <c r="K569" s="17">
+        <v>271.16000000000003</v>
+      </c>
+      <c r="L569" s="100">
+        <f t="shared" si="47"/>
+        <v>128.83999999999997</v>
+      </c>
+    </row>
+    <row r="570" spans="9:12">
+      <c r="I570" s="3">
+        <v>23</v>
+      </c>
+      <c r="J570" s="37">
+        <v>400</v>
+      </c>
+      <c r="K570" s="42">
+        <v>453.41</v>
+      </c>
+      <c r="L570" s="100">
+        <f t="shared" si="47"/>
+        <v>53.410000000000025</v>
+      </c>
+    </row>
+    <row r="571" spans="9:12">
+      <c r="I571" s="3">
+        <v>24</v>
+      </c>
+      <c r="J571" s="3">
+        <v>400</v>
+      </c>
+      <c r="K571" s="17">
+        <v>192.68</v>
+      </c>
+      <c r="L571" s="100">
+        <f t="shared" si="47"/>
+        <v>207.32</v>
+      </c>
+    </row>
+    <row r="574" spans="9:12">
+      <c r="K574" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L574" s="24">
+        <f>MAX(L554:L571)</f>
+        <v>389.46000000000004</v>
+      </c>
+    </row>
+    <row r="575" spans="9:12">
+      <c r="K575" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L575" s="24">
+        <f>MIN(L554:L571)</f>
+        <v>4.6100000000000136</v>
+      </c>
+    </row>
+    <row r="576" spans="9:12">
+      <c r="K576" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L576" s="24">
+        <f>SUM(L554:L571)/18</f>
+        <v>110.25611111111111</v>
+      </c>
+    </row>
+    <row r="579" spans="9:12">
+      <c r="I579" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J579" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K579" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L579" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="580" spans="9:12">
+      <c r="I580" s="3">
+        <v>7</v>
+      </c>
+      <c r="J580" s="3">
+        <v>0</v>
+      </c>
+      <c r="K580" s="17">
+        <v>-21.53</v>
+      </c>
+      <c r="L580" s="100">
+        <f>ABS(K580-J580)</f>
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="581" spans="9:12">
+      <c r="I581" s="3">
+        <v>8</v>
+      </c>
+      <c r="J581" s="3">
+        <v>90</v>
+      </c>
+      <c r="K581" s="17">
+        <v>-47.46</v>
+      </c>
+      <c r="L581" s="100">
+        <f t="shared" ref="L581:L597" si="48">ABS(K581-J581)</f>
+        <v>137.46</v>
+      </c>
+    </row>
+    <row r="582" spans="9:12">
+      <c r="I582" s="3">
+        <v>9</v>
+      </c>
+      <c r="J582" s="3">
+        <v>-90</v>
+      </c>
+      <c r="K582" s="17">
+        <v>-10.71</v>
+      </c>
+      <c r="L582" s="100">
+        <f t="shared" si="48"/>
+        <v>79.289999999999992</v>
+      </c>
+    </row>
+    <row r="583" spans="9:12">
+      <c r="I583" s="3">
+        <v>10</v>
+      </c>
+      <c r="J583" s="3">
+        <v>0</v>
+      </c>
+      <c r="K583" s="17">
+        <v>-3.65</v>
+      </c>
+      <c r="L583" s="100">
+        <f t="shared" si="48"/>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="584" spans="9:12">
+      <c r="I584" s="3">
+        <v>11</v>
+      </c>
+      <c r="J584" s="3">
+        <v>100</v>
+      </c>
+      <c r="K584" s="17">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="L584" s="100">
+        <f t="shared" si="48"/>
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="585" spans="9:12">
+      <c r="I585" s="3">
+        <v>12</v>
+      </c>
+      <c r="J585" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K585" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="L585" s="100">
+        <f t="shared" si="48"/>
+        <v>100.65</v>
+      </c>
+    </row>
+    <row r="586" spans="9:12">
+      <c r="I586" s="3">
+        <v>13</v>
+      </c>
+      <c r="J586" s="3">
+        <v>0</v>
+      </c>
+      <c r="K586" s="17">
+        <v>6.77</v>
+      </c>
+      <c r="L586" s="100">
+        <f t="shared" si="48"/>
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="587" spans="9:12">
+      <c r="I587" s="3">
+        <v>14</v>
+      </c>
+      <c r="J587" s="3">
+        <v>10</v>
+      </c>
+      <c r="K587" s="23">
+        <v>8.86</v>
+      </c>
+      <c r="L587" s="100">
+        <f t="shared" si="48"/>
+        <v>1.1400000000000006</v>
+      </c>
+    </row>
+    <row r="588" spans="9:12">
+      <c r="I588" s="3">
+        <v>15</v>
+      </c>
+      <c r="J588" s="3">
+        <v>-10</v>
+      </c>
+      <c r="K588" s="17">
+        <v>3.41</v>
+      </c>
+      <c r="L588" s="100">
+        <f t="shared" si="48"/>
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="589" spans="9:12">
+      <c r="I589" s="3">
+        <v>16</v>
+      </c>
+      <c r="J589" s="3">
+        <v>0</v>
+      </c>
+      <c r="K589" s="23">
+        <v>25.79</v>
+      </c>
+      <c r="L589" s="100">
+        <f t="shared" si="48"/>
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="590" spans="9:12">
+      <c r="I590" s="3">
+        <v>17</v>
+      </c>
+      <c r="J590" s="3">
+        <v>40</v>
+      </c>
+      <c r="K590" s="17">
+        <v>28.66</v>
+      </c>
+      <c r="L590" s="100">
+        <f t="shared" si="48"/>
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="591" spans="9:12">
+      <c r="I591" s="3">
+        <v>18</v>
+      </c>
+      <c r="J591" s="3">
+        <v>-40</v>
+      </c>
+      <c r="K591" s="17">
+        <v>23.57</v>
+      </c>
+      <c r="L591" s="100">
+        <f t="shared" si="48"/>
+        <v>63.57</v>
+      </c>
+    </row>
+    <row r="592" spans="9:12">
+      <c r="I592" s="3">
+        <v>19</v>
+      </c>
+      <c r="J592" s="3">
+        <v>0</v>
+      </c>
+      <c r="K592" s="17">
+        <v>32.03</v>
+      </c>
+      <c r="L592" s="100">
+        <f t="shared" si="48"/>
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="593" spans="9:12">
+      <c r="I593" s="3">
+        <v>20</v>
+      </c>
+      <c r="J593" s="3">
+        <v>20</v>
+      </c>
+      <c r="K593" s="17">
+        <v>44.03</v>
+      </c>
+      <c r="L593" s="100">
+        <f t="shared" si="48"/>
+        <v>24.03</v>
+      </c>
+    </row>
+    <row r="594" spans="9:12">
+      <c r="I594" s="3">
+        <v>21</v>
+      </c>
+      <c r="J594" s="3">
+        <v>-20</v>
+      </c>
+      <c r="K594" s="17">
+        <v>30.26</v>
+      </c>
+      <c r="L594" s="100">
+        <f t="shared" si="48"/>
+        <v>50.260000000000005</v>
+      </c>
+    </row>
+    <row r="595" spans="9:12">
+      <c r="I595" s="3">
+        <v>22</v>
+      </c>
+      <c r="J595" s="3">
+        <v>0</v>
+      </c>
+      <c r="K595" s="23">
+        <v>41.19</v>
+      </c>
+      <c r="L595" s="100">
+        <f t="shared" si="48"/>
+        <v>41.19</v>
+      </c>
+    </row>
+    <row r="596" spans="9:12">
+      <c r="I596" s="3">
+        <v>23</v>
+      </c>
+      <c r="J596" s="37">
+        <v>80</v>
+      </c>
+      <c r="K596" s="42">
+        <v>59.09</v>
+      </c>
+      <c r="L596" s="100">
+        <f t="shared" si="48"/>
+        <v>20.909999999999997</v>
+      </c>
+    </row>
+    <row r="597" spans="9:12">
+      <c r="I597" s="3">
+        <v>24</v>
+      </c>
+      <c r="J597" s="3">
+        <v>-80</v>
+      </c>
+      <c r="K597" s="17">
+        <v>33.46</v>
+      </c>
+      <c r="L597" s="100">
+        <f t="shared" si="48"/>
+        <v>113.46000000000001</v>
+      </c>
+    </row>
+    <row r="600" spans="9:12">
+      <c r="K600" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L600" s="24">
+        <f>MAX(L580:L597)</f>
+        <v>137.46</v>
+      </c>
+    </row>
+    <row r="601" spans="9:12">
+      <c r="K601" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L601" s="24">
+        <f>MIN(L580:L597)</f>
+        <v>1.1400000000000006</v>
+      </c>
+    </row>
+    <row r="602" spans="9:12">
+      <c r="K602" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L602" s="24">
+        <f>SUM(L580:L597)/18</f>
+        <v>48.132222222222225</v>
+      </c>
+    </row>
+    <row r="605" spans="9:12">
+      <c r="I605" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J605" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K605" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L605" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="606" spans="9:12">
+      <c r="I606" s="17">
+        <v>7</v>
+      </c>
+      <c r="J606" s="101">
+        <v>308.05843601498725</v>
+      </c>
+      <c r="K606" s="101">
+        <v>318.91504401642766</v>
+      </c>
+      <c r="L606" s="101">
+        <f>ABS(K606-J606)</f>
+        <v>10.856608001440406</v>
+      </c>
+    </row>
+    <row r="607" spans="9:12">
+      <c r="I607" s="17">
+        <v>8</v>
+      </c>
+      <c r="J607" s="101">
+        <v>320.93613071762422</v>
+      </c>
+      <c r="K607" s="101">
+        <v>666.00416154855975</v>
+      </c>
+      <c r="L607" s="101">
+        <f t="shared" ref="L607:L623" si="49">ABS(K607-J607)</f>
+        <v>345.06803083093553</v>
+      </c>
+    </row>
+    <row r="608" spans="9:12">
+      <c r="I608" s="17">
+        <v>9</v>
+      </c>
+      <c r="J608" s="101">
+        <v>320.93613071762422</v>
+      </c>
+      <c r="K608" s="101">
+        <v>236.43018102602718</v>
+      </c>
+      <c r="L608" s="101">
+        <f t="shared" si="49"/>
+        <v>84.505949691597039</v>
+      </c>
+    </row>
+    <row r="609" spans="9:12">
+      <c r="I609" s="17">
+        <v>10</v>
+      </c>
+      <c r="J609" s="101">
+        <v>332.86633954186476</v>
+      </c>
+      <c r="K609" s="101">
+        <v>324.44526595405893</v>
+      </c>
+      <c r="L609" s="101">
+        <f t="shared" si="49"/>
+        <v>8.4210735878058358</v>
+      </c>
+    </row>
+    <row r="610" spans="9:12">
+      <c r="I610" s="17">
+        <v>11</v>
+      </c>
+      <c r="J610" s="101">
+        <v>347.56294393965533</v>
+      </c>
+      <c r="K610" s="101">
+        <v>660.06884307623545</v>
+      </c>
+      <c r="L610" s="101">
+        <f t="shared" si="49"/>
+        <v>312.50589913658013</v>
+      </c>
+    </row>
+    <row r="611" spans="9:12">
+      <c r="I611" s="17">
+        <v>12</v>
+      </c>
+      <c r="J611" s="101">
+        <v>347.56294393965533</v>
+      </c>
+      <c r="K611" s="101">
+        <v>238.60060121466583</v>
+      </c>
+      <c r="L611" s="101">
+        <f t="shared" si="49"/>
+        <v>108.9623427249895</v>
+      </c>
+    </row>
+    <row r="612" spans="9:12">
+      <c r="I612" s="17">
+        <v>13</v>
+      </c>
+      <c r="J612" s="101">
+        <v>349.85711369071805</v>
+      </c>
+      <c r="K612" s="101">
+        <v>320.34846807812272</v>
+      </c>
+      <c r="L612" s="101">
+        <f t="shared" si="49"/>
+        <v>29.50864561259533</v>
+      </c>
+    </row>
+    <row r="613" spans="9:12">
+      <c r="I613" s="17">
+        <v>14</v>
+      </c>
+      <c r="J613" s="101">
+        <v>350</v>
+      </c>
+      <c r="K613" s="101">
+        <v>353.92902070895514</v>
+      </c>
+      <c r="L613" s="101">
+        <f t="shared" si="49"/>
+        <v>3.9290207089551359</v>
+      </c>
+    </row>
+    <row r="614" spans="9:12">
+      <c r="I614" s="17">
+        <v>15</v>
+      </c>
+      <c r="J614" s="101">
+        <v>350</v>
+      </c>
+      <c r="K614" s="101">
+        <v>310.25604023129029</v>
+      </c>
+      <c r="L614" s="101">
+        <f t="shared" si="49"/>
+        <v>39.743959768709715</v>
+      </c>
+    </row>
+    <row r="615" spans="9:12">
+      <c r="I615" s="17">
+        <v>16</v>
+      </c>
+      <c r="J615" s="101">
+        <v>393.57337308308854</v>
+      </c>
+      <c r="K615" s="101">
+        <v>325.27405998634441</v>
+      </c>
+      <c r="L615" s="101">
+        <f t="shared" si="49"/>
+        <v>68.299313096744129</v>
+      </c>
+    </row>
+    <row r="616" spans="9:12">
+      <c r="I616" s="17">
+        <v>17</v>
+      </c>
+      <c r="J616" s="101">
+        <v>395.60080889704966</v>
+      </c>
+      <c r="K616" s="101">
+        <v>432.66517724448312</v>
+      </c>
+      <c r="L616" s="101">
+        <f t="shared" si="49"/>
+        <v>37.064368347433458</v>
+      </c>
+    </row>
+    <row r="617" spans="9:12">
+      <c r="I617" s="17">
+        <v>18</v>
+      </c>
+      <c r="J617" s="101">
+        <v>395.60080889704966</v>
+      </c>
+      <c r="K617" s="101">
+        <v>291.53778365762474</v>
+      </c>
+      <c r="L617" s="101">
+        <f t="shared" si="49"/>
+        <v>104.06302523942492</v>
+      </c>
+    </row>
+    <row r="618" spans="9:12">
+      <c r="I618" s="17">
+        <v>19</v>
+      </c>
+      <c r="J618" s="101">
+        <v>411.46081222881969</v>
+      </c>
+      <c r="K618" s="101">
+        <v>327.26161675332474</v>
+      </c>
+      <c r="L618" s="101">
+        <f t="shared" si="49"/>
+        <v>84.199195475494946</v>
+      </c>
+    </row>
+    <row r="619" spans="9:12">
+      <c r="I619" s="17">
+        <v>20</v>
+      </c>
+      <c r="J619" s="101">
+        <v>411.94659848091959</v>
+      </c>
+      <c r="K619" s="101">
+        <v>371.03738814302795</v>
+      </c>
+      <c r="L619" s="101">
+        <f t="shared" si="49"/>
+        <v>40.909210337891636</v>
+      </c>
+    </row>
+    <row r="620" spans="9:12">
+      <c r="I620" s="17">
+        <v>21</v>
+      </c>
+      <c r="J620" s="101">
+        <v>411.94659848091959</v>
+      </c>
+      <c r="K620" s="101">
+        <v>302.16737696184214</v>
+      </c>
+      <c r="L620" s="101">
+        <f t="shared" si="49"/>
+        <v>109.77922151907745</v>
+      </c>
+    </row>
+    <row r="621" spans="9:12">
+      <c r="I621" s="17">
+        <v>22</v>
+      </c>
+      <c r="J621" s="101">
+        <v>438.63424398922615</v>
+      </c>
+      <c r="K621" s="101">
+        <v>328.06152121210437</v>
+      </c>
+      <c r="L621" s="101">
+        <f t="shared" si="49"/>
+        <v>110.57272277712178</v>
+      </c>
+    </row>
+    <row r="622" spans="9:12">
+      <c r="I622" s="17">
+        <v>23</v>
+      </c>
+      <c r="J622" s="101">
+        <v>445.86993619215906</v>
+      </c>
+      <c r="K622" s="101">
+        <v>491.3982663787084</v>
+      </c>
+      <c r="L622" s="101">
+        <f t="shared" si="49"/>
+        <v>45.52833018654934</v>
+      </c>
+    </row>
+    <row r="623" spans="9:12">
+      <c r="I623" s="17">
+        <v>24</v>
+      </c>
+      <c r="J623" s="101">
+        <v>445.86993619215906</v>
+      </c>
+      <c r="K623" s="101">
+        <v>265.79156119034332</v>
+      </c>
+      <c r="L623" s="101">
+        <f t="shared" si="49"/>
+        <v>180.07837500181574</v>
+      </c>
+    </row>
+    <row r="626" spans="11:12">
+      <c r="K626" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L626" s="24">
+        <f>MAX(L606:L623)</f>
+        <v>345.06803083093553</v>
+      </c>
+    </row>
+    <row r="627" spans="11:12">
+      <c r="K627" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L627" s="24">
+        <f>MIN(L606:L623)</f>
+        <v>3.9290207089551359</v>
+      </c>
+    </row>
+    <row r="628" spans="11:12">
+      <c r="K628" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L628" s="24">
+        <f>SUM(L606:L623)/18</f>
+        <v>95.777516224731215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="F319:J319"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="F179:J179"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
     <mergeCell ref="A531:E531"/>
     <mergeCell ref="F531:J531"/>
     <mergeCell ref="A530:J530"/>
     <mergeCell ref="A393:C393"/>
     <mergeCell ref="A398:E398"/>
     <mergeCell ref="F398:J398"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="F319:J319"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="F179:J179"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -32702,38 +37772,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A53AE-05FE-4343-86A2-73C17600B97E}">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I122" workbookViewId="0">
+    <sheetView topLeftCell="I122" workbookViewId="0">
       <selection activeCell="A123" sqref="A123:M143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="H1" s="88" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="H1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
@@ -33837,16 +38907,16 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="H60" s="88" t="s">
+      <c r="B60" s="93"/>
+      <c r="C60" s="94"/>
+      <c r="H60" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="89"/>
-      <c r="J60" s="90"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="7" t="s">
@@ -34958,18 +40028,18 @@
       <c r="C123" s="76"/>
       <c r="D123" s="76"/>
       <c r="E123" s="76"/>
-      <c r="F123" s="95" t="s">
+      <c r="F123" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="95"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
       <c r="J123" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="K123" s="95"/>
-      <c r="L123" s="95"/>
-      <c r="M123" s="95"/>
+      <c r="K123" s="91"/>
+      <c r="L123" s="91"/>
+      <c r="M123" s="91"/>
       <c r="N123" s="76"/>
       <c r="O123" s="76"/>
     </row>
@@ -34980,14 +40050,14 @@
       <c r="B124" s="98"/>
       <c r="C124" s="98"/>
       <c r="D124" s="98"/>
-      <c r="E124" s="88"/>
+      <c r="E124" s="92"/>
       <c r="F124" s="98" t="s">
         <v>5</v>
       </c>
       <c r="G124" s="98"/>
       <c r="H124" s="98"/>
       <c r="I124" s="98"/>
-      <c r="J124" s="90" t="s">
+      <c r="J124" s="94" t="s">
         <v>5</v>
       </c>
       <c r="K124" s="98"/>
@@ -35080,7 +40150,7 @@
         <v>180</v>
       </c>
       <c r="M126" s="16">
-        <f>SQRT((J126*J126)+(K126*K126)+(L126*L126))</f>
+        <f t="shared" ref="M126:M143" si="13">SQRT((J126*J126)+(K126*K126)+(L126*L126))</f>
         <v>318.91504401642766</v>
       </c>
       <c r="O126" s="63"/>
@@ -35099,7 +40169,7 @@
         <v>180</v>
       </c>
       <c r="E127" s="16">
-        <f t="shared" ref="E126:E143" si="13">SQRT((B127*B127)+(C127*C127)+(D127*D127))</f>
+        <f t="shared" ref="E127:E143" si="14">SQRT((B127*B127)+(C127*C127)+(D127*D127))</f>
         <v>320.93613071762422</v>
       </c>
       <c r="F127" s="66">
@@ -35113,7 +40183,7 @@
         <v>180</v>
       </c>
       <c r="I127" s="74">
-        <f t="shared" ref="I127:I143" si="14">SQRT((G127*G127)+(F127*F127)+(D127*D127))</f>
+        <f t="shared" ref="I127:I143" si="15">SQRT((G127*G127)+(F127*F127)+(D127*D127))</f>
         <v>630.3160467574977</v>
       </c>
       <c r="J127" s="3">
@@ -35127,7 +40197,7 @@
         <v>180</v>
       </c>
       <c r="M127" s="16">
-        <f>SQRT((J127*J127)+(K127*K127)+(L127*L127))</f>
+        <f t="shared" si="13"/>
         <v>666.00416154855975</v>
       </c>
       <c r="O127" s="63"/>
@@ -35146,7 +40216,7 @@
         <v>180</v>
       </c>
       <c r="E128" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>320.93613071762422</v>
       </c>
       <c r="F128" s="66">
@@ -35160,7 +40230,7 @@
         <v>180</v>
       </c>
       <c r="I128" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>243.12698122586067</v>
       </c>
       <c r="J128" s="3">
@@ -35174,7 +40244,7 @@
         <v>180</v>
       </c>
       <c r="M128" s="16">
-        <f>SQRT((J128*J128)+(K128*K128)+(L128*L128))</f>
+        <f t="shared" si="13"/>
         <v>236.43018102602718</v>
       </c>
       <c r="O128" s="63"/>
@@ -35193,7 +40263,7 @@
         <v>180</v>
       </c>
       <c r="E129" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>332.86633954186476</v>
       </c>
       <c r="F129" s="3">
@@ -35207,7 +40277,7 @@
         <v>180</v>
       </c>
       <c r="I129" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>311.27010216209328</v>
       </c>
       <c r="J129" s="66">
@@ -35221,7 +40291,7 @@
         <v>180</v>
       </c>
       <c r="M129" s="73">
-        <f>SQRT((J129*J129)+(K129*K129)+(L129*L129))</f>
+        <f t="shared" si="13"/>
         <v>324.44526595405893</v>
       </c>
       <c r="O129" s="63"/>
@@ -35240,7 +40310,7 @@
         <v>180</v>
       </c>
       <c r="E130" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>347.56294393965533</v>
       </c>
       <c r="F130" s="66">
@@ -35254,7 +40324,7 @@
         <v>180</v>
       </c>
       <c r="I130" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>616.59239899628994</v>
       </c>
       <c r="J130" s="3">
@@ -35268,7 +40338,7 @@
         <v>180</v>
       </c>
       <c r="M130" s="16">
-        <f>SQRT((J130*J130)+(K130*K130)+(L130*L130))</f>
+        <f t="shared" si="13"/>
         <v>660.06884307623545</v>
       </c>
       <c r="O130" s="63"/>
@@ -35287,7 +40357,7 @@
         <v>180</v>
       </c>
       <c r="E131" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>347.56294393965533</v>
       </c>
       <c r="F131" s="66">
@@ -35301,7 +40371,7 @@
         <v>180</v>
       </c>
       <c r="I131" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>239.44594650985428</v>
       </c>
       <c r="J131" s="3">
@@ -35315,7 +40385,7 @@
         <v>180</v>
       </c>
       <c r="M131" s="16">
-        <f>SQRT((J131*J131)+(K131*K131)+(L131*L131))</f>
+        <f t="shared" si="13"/>
         <v>238.60060121466583</v>
       </c>
       <c r="O131" s="63"/>
@@ -35334,7 +40404,7 @@
         <v>180</v>
       </c>
       <c r="E132" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>349.85711369071805</v>
       </c>
       <c r="F132" s="3">
@@ -35348,7 +40418,7 @@
         <v>180</v>
       </c>
       <c r="I132" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>317.15232996148711</v>
       </c>
       <c r="J132" s="66">
@@ -35362,7 +40432,7 @@
         <v>180</v>
       </c>
       <c r="M132" s="73">
-        <f>SQRT((J132*J132)+(K132*K132)+(L132*L132))</f>
+        <f t="shared" si="13"/>
         <v>320.34846807812272</v>
       </c>
       <c r="O132" s="63"/>
@@ -35381,7 +40451,7 @@
         <v>180</v>
       </c>
       <c r="E133" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="F133" s="3">
@@ -35395,7 +40465,7 @@
         <v>180</v>
       </c>
       <c r="I133" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>369.7329506549288</v>
       </c>
       <c r="J133" s="66">
@@ -35409,7 +40479,7 @@
         <v>180</v>
       </c>
       <c r="M133" s="73">
-        <f>SQRT((J133*J133)+(K133*K133)+(L133*L133))</f>
+        <f t="shared" si="13"/>
         <v>353.92902070895514</v>
       </c>
       <c r="O133" s="63"/>
@@ -35428,7 +40498,7 @@
         <v>180</v>
       </c>
       <c r="E134" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="F134" s="16">
@@ -35442,7 +40512,7 @@
         <v>180</v>
       </c>
       <c r="I134" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>297.41809628870936</v>
       </c>
       <c r="J134" s="84">
@@ -35456,7 +40526,7 @@
         <v>180</v>
       </c>
       <c r="M134" s="73">
-        <f>SQRT((J134*J134)+(K134*K134)+(L134*L134))</f>
+        <f t="shared" si="13"/>
         <v>310.25604023129029</v>
       </c>
       <c r="O134" s="63"/>
@@ -35475,7 +40545,7 @@
         <v>180</v>
       </c>
       <c r="E135" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>393.57337308308854</v>
       </c>
       <c r="F135" s="3">
@@ -35489,7 +40559,7 @@
         <v>180</v>
       </c>
       <c r="I135" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>318.95678030103079</v>
       </c>
       <c r="J135" s="66">
@@ -35503,7 +40573,7 @@
         <v>180</v>
       </c>
       <c r="M135" s="73">
-        <f>SQRT((J135*J135)+(K135*K135)+(L135*L135))</f>
+        <f t="shared" si="13"/>
         <v>325.27405998634441</v>
       </c>
       <c r="O135" s="63"/>
@@ -35522,7 +40592,7 @@
         <v>180</v>
       </c>
       <c r="E136" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>395.60080889704966</v>
       </c>
       <c r="F136" s="66">
@@ -35536,7 +40606,7 @@
         <v>180</v>
       </c>
       <c r="I136" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>412.41012232970229</v>
       </c>
       <c r="J136" s="3">
@@ -35550,7 +40620,7 @@
         <v>180</v>
       </c>
       <c r="M136" s="16">
-        <f>SQRT((J136*J136)+(K136*K136)+(L136*L136))</f>
+        <f t="shared" si="13"/>
         <v>432.66517724448312</v>
       </c>
       <c r="O136" s="63"/>
@@ -35569,7 +40639,7 @@
         <v>180</v>
       </c>
       <c r="E137" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>395.60080889704966</v>
       </c>
       <c r="F137" s="3">
@@ -35583,7 +40653,7 @@
         <v>180</v>
       </c>
       <c r="I137" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>279.77995728786578</v>
       </c>
       <c r="J137" s="66">
@@ -35597,7 +40667,7 @@
         <v>180</v>
       </c>
       <c r="M137" s="73">
-        <f>SQRT((J137*J137)+(K137*K137)+(L137*L137))</f>
+        <f t="shared" si="13"/>
         <v>291.53778365762474</v>
       </c>
       <c r="O137" s="63"/>
@@ -35616,7 +40686,7 @@
         <v>180</v>
       </c>
       <c r="E138" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>411.46081222881969</v>
       </c>
       <c r="F138" s="3">
@@ -35630,7 +40700,7 @@
         <v>180</v>
       </c>
       <c r="I138" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>317.72367900425678</v>
       </c>
       <c r="J138" s="66">
@@ -35644,7 +40714,7 @@
         <v>180</v>
       </c>
       <c r="M138" s="73">
-        <f>SQRT((J138*J138)+(K138*K138)+(L138*L138))</f>
+        <f t="shared" si="13"/>
         <v>327.26161675332474</v>
       </c>
       <c r="O138" s="63"/>
@@ -35663,7 +40733,7 @@
         <v>180</v>
       </c>
       <c r="E139" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>411.94659848091959</v>
       </c>
       <c r="F139" s="3">
@@ -35677,7 +40747,7 @@
         <v>180</v>
       </c>
       <c r="I139" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>369.70287434641347</v>
       </c>
       <c r="J139" s="66">
@@ -35691,7 +40761,7 @@
         <v>180</v>
       </c>
       <c r="M139" s="73">
-        <f>SQRT((J139*J139)+(K139*K139)+(L139*L139))</f>
+        <f t="shared" si="13"/>
         <v>371.03738814302795</v>
       </c>
       <c r="O139" s="63"/>
@@ -35710,7 +40780,7 @@
         <v>180</v>
       </c>
       <c r="E140" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>411.94659848091959</v>
       </c>
       <c r="F140" s="16">
@@ -35724,7 +40794,7 @@
         <v>180</v>
       </c>
       <c r="I140" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>298.72688027695131</v>
       </c>
       <c r="J140" s="84">
@@ -35738,7 +40808,7 @@
         <v>180</v>
       </c>
       <c r="M140" s="73">
-        <f>SQRT((J140*J140)+(K140*K140)+(L140*L140))</f>
+        <f t="shared" si="13"/>
         <v>302.16737696184214</v>
       </c>
       <c r="O140" s="63"/>
@@ -35757,7 +40827,7 @@
         <v>180</v>
       </c>
       <c r="E141" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>438.63424398922615</v>
       </c>
       <c r="F141" s="3">
@@ -35771,7 +40841,7 @@
         <v>180</v>
       </c>
       <c r="I141" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>327.5823746784921</v>
       </c>
       <c r="J141" s="66">
@@ -35785,7 +40855,7 @@
         <v>180</v>
       </c>
       <c r="M141" s="73">
-        <f>SQRT((J141*J141)+(K141*K141)+(L141*L141))</f>
+        <f t="shared" si="13"/>
         <v>328.06152121210437</v>
       </c>
       <c r="O141" s="63"/>
@@ -35804,7 +40874,7 @@
         <v>180</v>
       </c>
       <c r="E142" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>445.86993619215906</v>
       </c>
       <c r="F142" s="85">
@@ -35818,7 +40888,7 @@
         <v>180</v>
       </c>
       <c r="I142" s="74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>470.85130572188075</v>
       </c>
       <c r="J142" s="37">
@@ -35832,7 +40902,7 @@
         <v>180</v>
       </c>
       <c r="M142" s="38">
-        <f>SQRT((J142*J142)+(K142*K142)+(L142*L142))</f>
+        <f t="shared" si="13"/>
         <v>491.3982663787084</v>
       </c>
       <c r="O142" s="63"/>
@@ -35851,7 +40921,7 @@
         <v>180</v>
       </c>
       <c r="E143" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>445.86993619215906</v>
       </c>
       <c r="F143" s="3">
@@ -35865,7 +40935,7 @@
         <v>180</v>
       </c>
       <c r="I143" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>260.80060295175696</v>
       </c>
       <c r="J143" s="66">
@@ -35879,7 +40949,7 @@
         <v>180</v>
       </c>
       <c r="M143" s="73">
-        <f>SQRT((J143*J143)+(K143*K143)+(L143*L143))</f>
+        <f t="shared" si="13"/>
         <v>265.79156119034332</v>
       </c>
       <c r="O143" s="63"/>

--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70DCR\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CA67E2-C72E-415A-9BB5-99B36EC56EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53475A5B-07E1-4290-8038-B6AEED0DBEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Distancias Fresas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="56">
   <si>
     <t>Parámetros de la cámara</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>EJE Y INVERTIDO</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
   </si>
   <si>
     <t>COORDENDAS SUPUESTAS</t>
@@ -488,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,16 +761,16 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +782,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,16 +794,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7363,7 +7393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -27156,36 +27186,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA628"/>
+  <dimension ref="A1:AA670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="D576" sqref="D576"/>
+    <sheetView topLeftCell="A657" workbookViewId="0">
+      <selection activeCell="A631" sqref="A631:J670"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" customWidth="1"/>
-    <col min="21" max="21" width="21.5546875" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="20.109375" customWidth="1"/>
-    <col min="26" max="26" width="23.6640625" customWidth="1"/>
-    <col min="27" max="27" width="21.5546875" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" customWidth="1"/>
+    <col min="27" max="27" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -32847,14 +32877,14 @@
       </c>
       <c r="C319" s="93"/>
       <c r="D319" s="93"/>
-      <c r="E319" s="97"/>
+      <c r="E319" s="98"/>
       <c r="F319" s="92" t="s">
         <v>5</v>
       </c>
       <c r="G319" s="93"/>
       <c r="H319" s="93"/>
       <c r="I319" s="93"/>
-      <c r="J319" s="97"/>
+      <c r="J319" s="98"/>
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="47" t="s">
@@ -33832,20 +33862,20 @@
       </c>
     </row>
     <row r="398" spans="1:10">
-      <c r="A398" s="95" t="s">
+      <c r="A398" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B398" s="96"/>
-      <c r="C398" s="96"/>
-      <c r="D398" s="96"/>
-      <c r="E398" s="97"/>
-      <c r="F398" s="95" t="s">
+      <c r="B398" s="97"/>
+      <c r="C398" s="97"/>
+      <c r="D398" s="97"/>
+      <c r="E398" s="98"/>
+      <c r="F398" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="G398" s="96"/>
-      <c r="H398" s="96"/>
-      <c r="I398" s="96"/>
-      <c r="J398" s="97"/>
+      <c r="G398" s="97"/>
+      <c r="H398" s="97"/>
+      <c r="I398" s="97"/>
+      <c r="J398" s="98"/>
     </row>
     <row r="399" spans="1:10">
       <c r="A399" s="4" t="s">
@@ -36076,34 +36106,34 @@
       </c>
     </row>
     <row r="530" spans="1:10">
-      <c r="A530" s="91" t="s">
+      <c r="A530" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B530" s="91"/>
-      <c r="C530" s="91"/>
-      <c r="D530" s="91"/>
-      <c r="E530" s="91"/>
-      <c r="F530" s="91"/>
-      <c r="G530" s="91"/>
-      <c r="H530" s="91"/>
-      <c r="I530" s="91"/>
-      <c r="J530" s="91"/>
+      <c r="B530" s="95"/>
+      <c r="C530" s="95"/>
+      <c r="D530" s="95"/>
+      <c r="E530" s="95"/>
+      <c r="F530" s="95"/>
+      <c r="G530" s="95"/>
+      <c r="H530" s="95"/>
+      <c r="I530" s="95"/>
+      <c r="J530" s="95"/>
     </row>
     <row r="531" spans="1:10">
-      <c r="A531" s="88" t="s">
+      <c r="A531" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B531" s="89"/>
-      <c r="C531" s="89"/>
-      <c r="D531" s="89"/>
-      <c r="E531" s="90"/>
-      <c r="F531" s="88" t="s">
+      <c r="B531" s="100"/>
+      <c r="C531" s="100"/>
+      <c r="D531" s="100"/>
+      <c r="E531" s="101"/>
+      <c r="F531" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G531" s="89"/>
-      <c r="H531" s="89"/>
-      <c r="I531" s="89"/>
-      <c r="J531" s="90"/>
+      <c r="G531" s="100"/>
+      <c r="H531" s="100"/>
+      <c r="I531" s="100"/>
+      <c r="J531" s="101"/>
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="4" t="s">
@@ -36827,7 +36857,7 @@
       <c r="K554" s="17">
         <v>262.38</v>
       </c>
-      <c r="L554" s="100">
+      <c r="L554" s="88">
         <f>ABS(K554-J554)</f>
         <v>12.379999999999995</v>
       </c>
@@ -36842,7 +36872,7 @@
       <c r="K555" s="17">
         <v>639.46</v>
       </c>
-      <c r="L555" s="100">
+      <c r="L555" s="88">
         <f t="shared" ref="L555:L571" si="47">ABS(K555-J555)</f>
         <v>389.46000000000004</v>
       </c>
@@ -36857,7 +36887,7 @@
       <c r="K556" s="17">
         <v>152.91999999999999</v>
       </c>
-      <c r="L556" s="100">
+      <c r="L556" s="88">
         <f t="shared" si="47"/>
         <v>97.080000000000013</v>
       </c>
@@ -36872,7 +36902,7 @@
       <c r="K557" s="17">
         <v>269.91000000000003</v>
       </c>
-      <c r="L557" s="100">
+      <c r="L557" s="88">
         <f t="shared" si="47"/>
         <v>10.089999999999975</v>
       </c>
@@ -36887,7 +36917,7 @@
       <c r="K558" s="17">
         <v>634.74</v>
       </c>
-      <c r="L558" s="100">
+      <c r="L558" s="88">
         <f t="shared" si="47"/>
         <v>354.74</v>
       </c>
@@ -36902,7 +36932,7 @@
       <c r="K559" s="17">
         <v>156.62</v>
       </c>
-      <c r="L559" s="100">
+      <c r="L559" s="88">
         <f t="shared" si="47"/>
         <v>123.38</v>
       </c>
@@ -36917,7 +36947,7 @@
       <c r="K560" s="17">
         <v>264.91000000000003</v>
       </c>
-      <c r="L560" s="100">
+      <c r="L560" s="88">
         <f t="shared" si="47"/>
         <v>35.089999999999975</v>
       </c>
@@ -36932,7 +36962,7 @@
       <c r="K561" s="17">
         <v>304.61</v>
       </c>
-      <c r="L561" s="100">
+      <c r="L561" s="88">
         <f t="shared" si="47"/>
         <v>4.6100000000000136</v>
       </c>
@@ -36947,7 +36977,7 @@
       <c r="K562" s="23">
         <v>252.68</v>
       </c>
-      <c r="L562" s="100">
+      <c r="L562" s="88">
         <f t="shared" si="47"/>
         <v>47.319999999999993</v>
       </c>
@@ -36962,7 +36992,7 @@
       <c r="K563" s="17">
         <v>269.7</v>
       </c>
-      <c r="L563" s="100">
+      <c r="L563" s="88">
         <f t="shared" si="47"/>
         <v>80.300000000000011</v>
       </c>
@@ -36977,7 +37007,7 @@
       <c r="K564" s="17">
         <v>392.4</v>
       </c>
-      <c r="L564" s="100">
+      <c r="L564" s="88">
         <f t="shared" si="47"/>
         <v>42.399999999999977</v>
       </c>
@@ -36992,7 +37022,7 @@
       <c r="K565" s="17">
         <v>228.12</v>
       </c>
-      <c r="L565" s="100">
+      <c r="L565" s="88">
         <f t="shared" si="47"/>
         <v>121.88</v>
       </c>
@@ -37007,7 +37037,7 @@
       <c r="K566" s="17">
         <v>271.43</v>
       </c>
-      <c r="L566" s="100">
+      <c r="L566" s="88">
         <f t="shared" si="47"/>
         <v>98.57</v>
       </c>
@@ -37022,7 +37052,7 @@
       <c r="K567" s="17">
         <v>321.45</v>
       </c>
-      <c r="L567" s="100">
+      <c r="L567" s="88">
         <f t="shared" si="47"/>
         <v>48.550000000000011</v>
       </c>
@@ -37037,7 +37067,7 @@
       <c r="K568" s="23">
         <v>240.81</v>
       </c>
-      <c r="L568" s="100">
+      <c r="L568" s="88">
         <f t="shared" si="47"/>
         <v>129.19</v>
       </c>
@@ -37052,7 +37082,7 @@
       <c r="K569" s="17">
         <v>271.16000000000003</v>
       </c>
-      <c r="L569" s="100">
+      <c r="L569" s="88">
         <f t="shared" si="47"/>
         <v>128.83999999999997</v>
       </c>
@@ -37067,7 +37097,7 @@
       <c r="K570" s="42">
         <v>453.41</v>
       </c>
-      <c r="L570" s="100">
+      <c r="L570" s="88">
         <f t="shared" si="47"/>
         <v>53.410000000000025</v>
       </c>
@@ -37082,7 +37112,7 @@
       <c r="K571" s="17">
         <v>192.68</v>
       </c>
-      <c r="L571" s="100">
+      <c r="L571" s="88">
         <f t="shared" si="47"/>
         <v>207.32</v>
       </c>
@@ -37138,7 +37168,7 @@
       <c r="K580" s="17">
         <v>-21.53</v>
       </c>
-      <c r="L580" s="100">
+      <c r="L580" s="88">
         <f>ABS(K580-J580)</f>
         <v>21.53</v>
       </c>
@@ -37153,7 +37183,7 @@
       <c r="K581" s="17">
         <v>-47.46</v>
       </c>
-      <c r="L581" s="100">
+      <c r="L581" s="88">
         <f t="shared" ref="L581:L597" si="48">ABS(K581-J581)</f>
         <v>137.46</v>
       </c>
@@ -37168,7 +37198,7 @@
       <c r="K582" s="17">
         <v>-10.71</v>
       </c>
-      <c r="L582" s="100">
+      <c r="L582" s="88">
         <f t="shared" si="48"/>
         <v>79.289999999999992</v>
       </c>
@@ -37183,7 +37213,7 @@
       <c r="K583" s="17">
         <v>-3.65</v>
       </c>
-      <c r="L583" s="100">
+      <c r="L583" s="88">
         <f t="shared" si="48"/>
         <v>3.65</v>
       </c>
@@ -37198,7 +37228,7 @@
       <c r="K584" s="17">
         <v>-19.899999999999999</v>
       </c>
-      <c r="L584" s="100">
+      <c r="L584" s="88">
         <f t="shared" si="48"/>
         <v>119.9</v>
       </c>
@@ -37213,7 +37243,7 @@
       <c r="K585" s="17">
         <v>0.65</v>
       </c>
-      <c r="L585" s="100">
+      <c r="L585" s="88">
         <f t="shared" si="48"/>
         <v>100.65</v>
       </c>
@@ -37228,7 +37258,7 @@
       <c r="K586" s="17">
         <v>6.77</v>
       </c>
-      <c r="L586" s="100">
+      <c r="L586" s="88">
         <f t="shared" si="48"/>
         <v>6.77</v>
       </c>
@@ -37243,7 +37273,7 @@
       <c r="K587" s="23">
         <v>8.86</v>
       </c>
-      <c r="L587" s="100">
+      <c r="L587" s="88">
         <f t="shared" si="48"/>
         <v>1.1400000000000006</v>
       </c>
@@ -37258,7 +37288,7 @@
       <c r="K588" s="17">
         <v>3.41</v>
       </c>
-      <c r="L588" s="100">
+      <c r="L588" s="88">
         <f t="shared" si="48"/>
         <v>13.41</v>
       </c>
@@ -37273,7 +37303,7 @@
       <c r="K589" s="23">
         <v>25.79</v>
       </c>
-      <c r="L589" s="100">
+      <c r="L589" s="88">
         <f t="shared" si="48"/>
         <v>25.79</v>
       </c>
@@ -37288,7 +37318,7 @@
       <c r="K590" s="17">
         <v>28.66</v>
       </c>
-      <c r="L590" s="100">
+      <c r="L590" s="88">
         <f t="shared" si="48"/>
         <v>11.34</v>
       </c>
@@ -37303,7 +37333,7 @@
       <c r="K591" s="17">
         <v>23.57</v>
       </c>
-      <c r="L591" s="100">
+      <c r="L591" s="88">
         <f t="shared" si="48"/>
         <v>63.57</v>
       </c>
@@ -37318,7 +37348,7 @@
       <c r="K592" s="17">
         <v>32.03</v>
       </c>
-      <c r="L592" s="100">
+      <c r="L592" s="88">
         <f t="shared" si="48"/>
         <v>32.03</v>
       </c>
@@ -37333,7 +37363,7 @@
       <c r="K593" s="17">
         <v>44.03</v>
       </c>
-      <c r="L593" s="100">
+      <c r="L593" s="88">
         <f t="shared" si="48"/>
         <v>24.03</v>
       </c>
@@ -37348,7 +37378,7 @@
       <c r="K594" s="17">
         <v>30.26</v>
       </c>
-      <c r="L594" s="100">
+      <c r="L594" s="88">
         <f t="shared" si="48"/>
         <v>50.260000000000005</v>
       </c>
@@ -37363,7 +37393,7 @@
       <c r="K595" s="23">
         <v>41.19</v>
       </c>
-      <c r="L595" s="100">
+      <c r="L595" s="88">
         <f t="shared" si="48"/>
         <v>41.19</v>
       </c>
@@ -37378,7 +37408,7 @@
       <c r="K596" s="42">
         <v>59.09</v>
       </c>
-      <c r="L596" s="100">
+      <c r="L596" s="88">
         <f t="shared" si="48"/>
         <v>20.909999999999997</v>
       </c>
@@ -37393,7 +37423,7 @@
       <c r="K597" s="17">
         <v>33.46</v>
       </c>
-      <c r="L597" s="100">
+      <c r="L597" s="88">
         <f t="shared" si="48"/>
         <v>113.46000000000001</v>
       </c>
@@ -37443,13 +37473,13 @@
       <c r="I606" s="17">
         <v>7</v>
       </c>
-      <c r="J606" s="101">
+      <c r="J606" s="89">
         <v>308.05843601498725</v>
       </c>
-      <c r="K606" s="101">
+      <c r="K606" s="89">
         <v>318.91504401642766</v>
       </c>
-      <c r="L606" s="101">
+      <c r="L606" s="89">
         <f>ABS(K606-J606)</f>
         <v>10.856608001440406</v>
       </c>
@@ -37458,13 +37488,13 @@
       <c r="I607" s="17">
         <v>8</v>
       </c>
-      <c r="J607" s="101">
+      <c r="J607" s="89">
         <v>320.93613071762422</v>
       </c>
-      <c r="K607" s="101">
+      <c r="K607" s="89">
         <v>666.00416154855975</v>
       </c>
-      <c r="L607" s="101">
+      <c r="L607" s="89">
         <f t="shared" ref="L607:L623" si="49">ABS(K607-J607)</f>
         <v>345.06803083093553</v>
       </c>
@@ -37473,13 +37503,13 @@
       <c r="I608" s="17">
         <v>9</v>
       </c>
-      <c r="J608" s="101">
+      <c r="J608" s="89">
         <v>320.93613071762422</v>
       </c>
-      <c r="K608" s="101">
+      <c r="K608" s="89">
         <v>236.43018102602718</v>
       </c>
-      <c r="L608" s="101">
+      <c r="L608" s="89">
         <f t="shared" si="49"/>
         <v>84.505949691597039</v>
       </c>
@@ -37488,13 +37518,13 @@
       <c r="I609" s="17">
         <v>10</v>
       </c>
-      <c r="J609" s="101">
+      <c r="J609" s="89">
         <v>332.86633954186476</v>
       </c>
-      <c r="K609" s="101">
+      <c r="K609" s="89">
         <v>324.44526595405893</v>
       </c>
-      <c r="L609" s="101">
+      <c r="L609" s="89">
         <f t="shared" si="49"/>
         <v>8.4210735878058358</v>
       </c>
@@ -37503,13 +37533,13 @@
       <c r="I610" s="17">
         <v>11</v>
       </c>
-      <c r="J610" s="101">
+      <c r="J610" s="89">
         <v>347.56294393965533</v>
       </c>
-      <c r="K610" s="101">
+      <c r="K610" s="89">
         <v>660.06884307623545</v>
       </c>
-      <c r="L610" s="101">
+      <c r="L610" s="89">
         <f t="shared" si="49"/>
         <v>312.50589913658013</v>
       </c>
@@ -37518,13 +37548,13 @@
       <c r="I611" s="17">
         <v>12</v>
       </c>
-      <c r="J611" s="101">
+      <c r="J611" s="89">
         <v>347.56294393965533</v>
       </c>
-      <c r="K611" s="101">
+      <c r="K611" s="89">
         <v>238.60060121466583</v>
       </c>
-      <c r="L611" s="101">
+      <c r="L611" s="89">
         <f t="shared" si="49"/>
         <v>108.9623427249895</v>
       </c>
@@ -37533,13 +37563,13 @@
       <c r="I612" s="17">
         <v>13</v>
       </c>
-      <c r="J612" s="101">
+      <c r="J612" s="89">
         <v>349.85711369071805</v>
       </c>
-      <c r="K612" s="101">
+      <c r="K612" s="89">
         <v>320.34846807812272</v>
       </c>
-      <c r="L612" s="101">
+      <c r="L612" s="89">
         <f t="shared" si="49"/>
         <v>29.50864561259533</v>
       </c>
@@ -37548,13 +37578,13 @@
       <c r="I613" s="17">
         <v>14</v>
       </c>
-      <c r="J613" s="101">
+      <c r="J613" s="89">
         <v>350</v>
       </c>
-      <c r="K613" s="101">
+      <c r="K613" s="89">
         <v>353.92902070895514</v>
       </c>
-      <c r="L613" s="101">
+      <c r="L613" s="89">
         <f t="shared" si="49"/>
         <v>3.9290207089551359</v>
       </c>
@@ -37563,13 +37593,13 @@
       <c r="I614" s="17">
         <v>15</v>
       </c>
-      <c r="J614" s="101">
+      <c r="J614" s="89">
         <v>350</v>
       </c>
-      <c r="K614" s="101">
+      <c r="K614" s="89">
         <v>310.25604023129029</v>
       </c>
-      <c r="L614" s="101">
+      <c r="L614" s="89">
         <f t="shared" si="49"/>
         <v>39.743959768709715</v>
       </c>
@@ -37578,13 +37608,13 @@
       <c r="I615" s="17">
         <v>16</v>
       </c>
-      <c r="J615" s="101">
+      <c r="J615" s="89">
         <v>393.57337308308854</v>
       </c>
-      <c r="K615" s="101">
+      <c r="K615" s="89">
         <v>325.27405998634441</v>
       </c>
-      <c r="L615" s="101">
+      <c r="L615" s="89">
         <f t="shared" si="49"/>
         <v>68.299313096744129</v>
       </c>
@@ -37593,13 +37623,13 @@
       <c r="I616" s="17">
         <v>17</v>
       </c>
-      <c r="J616" s="101">
+      <c r="J616" s="89">
         <v>395.60080889704966</v>
       </c>
-      <c r="K616" s="101">
+      <c r="K616" s="89">
         <v>432.66517724448312</v>
       </c>
-      <c r="L616" s="101">
+      <c r="L616" s="89">
         <f t="shared" si="49"/>
         <v>37.064368347433458</v>
       </c>
@@ -37608,13 +37638,13 @@
       <c r="I617" s="17">
         <v>18</v>
       </c>
-      <c r="J617" s="101">
+      <c r="J617" s="89">
         <v>395.60080889704966</v>
       </c>
-      <c r="K617" s="101">
+      <c r="K617" s="89">
         <v>291.53778365762474</v>
       </c>
-      <c r="L617" s="101">
+      <c r="L617" s="89">
         <f t="shared" si="49"/>
         <v>104.06302523942492</v>
       </c>
@@ -37623,13 +37653,13 @@
       <c r="I618" s="17">
         <v>19</v>
       </c>
-      <c r="J618" s="101">
+      <c r="J618" s="89">
         <v>411.46081222881969</v>
       </c>
-      <c r="K618" s="101">
+      <c r="K618" s="89">
         <v>327.26161675332474</v>
       </c>
-      <c r="L618" s="101">
+      <c r="L618" s="89">
         <f t="shared" si="49"/>
         <v>84.199195475494946</v>
       </c>
@@ -37638,13 +37668,13 @@
       <c r="I619" s="17">
         <v>20</v>
       </c>
-      <c r="J619" s="101">
+      <c r="J619" s="89">
         <v>411.94659848091959</v>
       </c>
-      <c r="K619" s="101">
+      <c r="K619" s="89">
         <v>371.03738814302795</v>
       </c>
-      <c r="L619" s="101">
+      <c r="L619" s="89">
         <f t="shared" si="49"/>
         <v>40.909210337891636</v>
       </c>
@@ -37653,13 +37683,13 @@
       <c r="I620" s="17">
         <v>21</v>
       </c>
-      <c r="J620" s="101">
+      <c r="J620" s="89">
         <v>411.94659848091959</v>
       </c>
-      <c r="K620" s="101">
+      <c r="K620" s="89">
         <v>302.16737696184214</v>
       </c>
-      <c r="L620" s="101">
+      <c r="L620" s="89">
         <f t="shared" si="49"/>
         <v>109.77922151907745</v>
       </c>
@@ -37668,13 +37698,13 @@
       <c r="I621" s="17">
         <v>22</v>
       </c>
-      <c r="J621" s="101">
+      <c r="J621" s="89">
         <v>438.63424398922615</v>
       </c>
-      <c r="K621" s="101">
+      <c r="K621" s="89">
         <v>328.06152121210437</v>
       </c>
-      <c r="L621" s="101">
+      <c r="L621" s="89">
         <f t="shared" si="49"/>
         <v>110.57272277712178</v>
       </c>
@@ -37683,13 +37713,13 @@
       <c r="I622" s="17">
         <v>23</v>
       </c>
-      <c r="J622" s="101">
+      <c r="J622" s="89">
         <v>445.86993619215906</v>
       </c>
-      <c r="K622" s="101">
+      <c r="K622" s="89">
         <v>491.3982663787084</v>
       </c>
-      <c r="L622" s="101">
+      <c r="L622" s="89">
         <f t="shared" si="49"/>
         <v>45.52833018654934</v>
       </c>
@@ -37698,18 +37728,18 @@
       <c r="I623" s="17">
         <v>24</v>
       </c>
-      <c r="J623" s="101">
+      <c r="J623" s="89">
         <v>445.86993619215906</v>
       </c>
-      <c r="K623" s="101">
+      <c r="K623" s="89">
         <v>265.79156119034332</v>
       </c>
-      <c r="L623" s="101">
+      <c r="L623" s="89">
         <f t="shared" si="49"/>
         <v>180.07837500181574</v>
       </c>
     </row>
-    <row r="626" spans="11:12">
+    <row r="626" spans="1:12">
       <c r="K626" s="22" t="s">
         <v>28</v>
       </c>
@@ -37718,7 +37748,7 @@
         <v>345.06803083093553</v>
       </c>
     </row>
-    <row r="627" spans="11:12">
+    <row r="627" spans="1:12">
       <c r="K627" s="22" t="s">
         <v>29</v>
       </c>
@@ -37727,7 +37757,7 @@
         <v>3.9290207089551359</v>
       </c>
     </row>
-    <row r="628" spans="11:12">
+    <row r="628" spans="1:12">
       <c r="K628" s="22" t="s">
         <v>30</v>
       </c>
@@ -37736,31 +37766,1333 @@
         <v>95.777516224731215</v>
       </c>
     </row>
+    <row r="631" spans="1:12" ht="15">
+      <c r="A631" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B631" s="93"/>
+      <c r="C631" s="94"/>
+    </row>
+    <row r="632" spans="1:12" ht="15">
+      <c r="A632" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B632" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C632" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" ht="15">
+      <c r="A633" s="3">
+        <v>225</v>
+      </c>
+      <c r="B633" s="3">
+        <v>0</v>
+      </c>
+      <c r="C633" s="3">
+        <f>RADIANS(B633)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" ht="15">
+      <c r="A636" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B636" s="97"/>
+      <c r="C636" s="97"/>
+      <c r="D636" s="97"/>
+      <c r="E636" s="98"/>
+      <c r="F636" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G636" s="97"/>
+      <c r="H636" s="97"/>
+      <c r="I636" s="97"/>
+      <c r="J636" s="98"/>
+    </row>
+    <row r="637" spans="1:12" ht="15">
+      <c r="A637" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C637" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D637" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E637" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G637" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H637" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I637" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J637" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" ht="15">
+      <c r="A638" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B638" s="3">
+        <v>0</v>
+      </c>
+      <c r="C638" s="3">
+        <v>0</v>
+      </c>
+      <c r="D638" s="3">
+        <f>$A$633</f>
+        <v>225</v>
+      </c>
+      <c r="E638" s="16">
+        <f>SQRT((B638*B638)+(C638*C638)+(D638*D638))</f>
+        <v>225</v>
+      </c>
+      <c r="F638" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G638" s="3">
+        <v>-1.64</v>
+      </c>
+      <c r="H638" s="3">
+        <f>D638</f>
+        <v>225</v>
+      </c>
+      <c r="I638" s="16">
+        <f>J638</f>
+        <v>225.00612702768785</v>
+      </c>
+      <c r="J638" s="16">
+        <f>SQRT((F638*F638)+(G638*G638)+(H638*H638))</f>
+        <v>225.00612702768785</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" ht="15">
+      <c r="A639" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B639" s="3">
+        <v>0</v>
+      </c>
+      <c r="C639" s="3">
+        <v>20</v>
+      </c>
+      <c r="D639" s="3">
+        <f t="shared" ref="D639:D670" si="50">$A$633</f>
+        <v>225</v>
+      </c>
+      <c r="E639" s="16">
+        <f t="shared" ref="E639:E662" si="51">SQRT((B639*B639)+(C639*C639)+(D639*D639))</f>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F639" s="3">
+        <v>28.09</v>
+      </c>
+      <c r="G639" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="H639" s="3">
+        <f t="shared" ref="H639:H662" si="52">D639</f>
+        <v>225</v>
+      </c>
+      <c r="I639" s="16">
+        <f t="shared" ref="I639:I670" si="53">J639</f>
+        <v>226.75295852535197</v>
+      </c>
+      <c r="J639" s="16">
+        <f t="shared" ref="J639:J653" si="54">SQRT((F639*F639)+(G639*G639)+(H639*H639))</f>
+        <v>226.75295852535197</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" ht="15">
+      <c r="A640" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B640" s="3">
+        <v>0</v>
+      </c>
+      <c r="C640" s="3">
+        <v>50</v>
+      </c>
+      <c r="D640" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E640" s="16">
+        <f t="shared" si="51"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F640" s="3">
+        <v>51.31</v>
+      </c>
+      <c r="G640" s="3">
+        <v>-0.33</v>
+      </c>
+      <c r="H640" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I640" s="16">
+        <f t="shared" si="53"/>
+        <v>230.77656943459402</v>
+      </c>
+      <c r="J640" s="16">
+        <f t="shared" si="54"/>
+        <v>230.77656943459402</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" ht="15">
+      <c r="A641" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B641" s="3">
+        <v>10</v>
+      </c>
+      <c r="C641" s="3">
+        <v>0</v>
+      </c>
+      <c r="D641" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E641" s="16">
+        <f t="shared" si="51"/>
+        <v>225.22211259110415</v>
+      </c>
+      <c r="F641" s="16">
+        <v>-3.35</v>
+      </c>
+      <c r="G641" s="3">
+        <v>-9.69</v>
+      </c>
+      <c r="H641" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I641" s="16">
+        <f t="shared" si="53"/>
+        <v>225.2334757534945</v>
+      </c>
+      <c r="J641" s="16">
+        <f t="shared" si="54"/>
+        <v>225.2334757534945</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" ht="15">
+      <c r="A642" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B642" s="3">
+        <v>10</v>
+      </c>
+      <c r="C642" s="3">
+        <v>70</v>
+      </c>
+      <c r="D642" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E642" s="16">
+        <f t="shared" si="51"/>
+        <v>235.84952830141509</v>
+      </c>
+      <c r="F642" s="3">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="G642" s="3">
+        <v>-5.77</v>
+      </c>
+      <c r="H642" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I642" s="16">
+        <f t="shared" si="53"/>
+        <v>237.09598161925899</v>
+      </c>
+      <c r="J642" s="16">
+        <f t="shared" si="54"/>
+        <v>237.09598161925899</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" ht="15">
+      <c r="A643" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B643" s="3">
+        <v>10</v>
+      </c>
+      <c r="C643" s="3">
+        <v>-70</v>
+      </c>
+      <c r="D643" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E643" s="16">
+        <f t="shared" si="51"/>
+        <v>235.84952830141509</v>
+      </c>
+      <c r="F643" s="3">
+        <v>-70.86</v>
+      </c>
+      <c r="G643" s="16">
+        <v>-18.43</v>
+      </c>
+      <c r="H643" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I643" s="16">
+        <f t="shared" si="53"/>
+        <v>236.6131959549171</v>
+      </c>
+      <c r="J643" s="16">
+        <f t="shared" si="54"/>
+        <v>236.6131959549171</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" ht="15">
+      <c r="A644" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B644" s="3">
+        <v>20</v>
+      </c>
+      <c r="C644" s="3">
+        <v>0</v>
+      </c>
+      <c r="D644" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E644" s="16">
+        <f t="shared" si="51"/>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F644" s="3">
+        <v>-1.7</v>
+      </c>
+      <c r="G644" s="3">
+        <v>-19.21</v>
+      </c>
+      <c r="H644" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I644" s="16">
+        <f t="shared" si="53"/>
+        <v>225.82496341193107</v>
+      </c>
+      <c r="J644" s="16">
+        <f t="shared" si="54"/>
+        <v>225.82496341193107</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" ht="15">
+      <c r="A645" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B645" s="3">
+        <v>20</v>
+      </c>
+      <c r="C645" s="3">
+        <v>60</v>
+      </c>
+      <c r="D645" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E645" s="16">
+        <f t="shared" si="51"/>
+        <v>233.71991785040487</v>
+      </c>
+      <c r="F645" s="3">
+        <v>63.57</v>
+      </c>
+      <c r="G645" s="3">
+        <v>-15.74</v>
+      </c>
+      <c r="H645" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I645" s="16">
+        <f t="shared" si="53"/>
+        <v>234.33713427453191</v>
+      </c>
+      <c r="J645" s="16">
+        <f t="shared" si="54"/>
+        <v>234.33713427453191</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" ht="15">
+      <c r="A646" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B646" s="3">
+        <v>20</v>
+      </c>
+      <c r="C646" s="3">
+        <v>-90</v>
+      </c>
+      <c r="D646" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E646" s="16">
+        <f t="shared" si="51"/>
+        <v>243.15632831575658</v>
+      </c>
+      <c r="F646" s="3">
+        <v>-72.89</v>
+      </c>
+      <c r="G646" s="3">
+        <v>-27.81</v>
+      </c>
+      <c r="H646" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I646" s="16">
+        <f t="shared" si="53"/>
+        <v>238.14144578380302</v>
+      </c>
+      <c r="J646" s="16">
+        <f t="shared" si="54"/>
+        <v>238.14144578380302</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" ht="15">
+      <c r="A647" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B647" s="3">
+        <v>30</v>
+      </c>
+      <c r="C647" s="3">
+        <v>0</v>
+      </c>
+      <c r="D647" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E647" s="16">
+        <f t="shared" si="51"/>
+        <v>226.99118925632334</v>
+      </c>
+      <c r="F647" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="G647" s="3">
+        <v>-31.5</v>
+      </c>
+      <c r="H647" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I647" s="16">
+        <f t="shared" si="53"/>
+        <v>227.19433729738952</v>
+      </c>
+      <c r="J647" s="16">
+        <f t="shared" si="54"/>
+        <v>227.19433729738952</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" ht="15">
+      <c r="A648" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B648" s="3">
+        <v>30</v>
+      </c>
+      <c r="C648" s="3">
+        <v>80</v>
+      </c>
+      <c r="D648" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E648" s="16">
+        <f t="shared" si="51"/>
+        <v>240.67613093117481</v>
+      </c>
+      <c r="F648" s="3">
+        <v>77.38</v>
+      </c>
+      <c r="G648" s="3">
+        <v>-15.14</v>
+      </c>
+      <c r="H648" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I648" s="16">
+        <f t="shared" si="53"/>
+        <v>238.41536024342057</v>
+      </c>
+      <c r="J648" s="16">
+        <f t="shared" si="54"/>
+        <v>238.41536024342057</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" ht="15">
+      <c r="A649" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B649" s="3">
+        <v>30</v>
+      </c>
+      <c r="C649" s="3">
+        <v>-80</v>
+      </c>
+      <c r="D649" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E649" s="16">
+        <f t="shared" si="51"/>
+        <v>240.67613093117481</v>
+      </c>
+      <c r="F649" s="3">
+        <v>-70.83</v>
+      </c>
+      <c r="G649" s="3">
+        <v>-37.880000000000003</v>
+      </c>
+      <c r="H649" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I649" s="16">
+        <f t="shared" si="53"/>
+        <v>238.90747853510155</v>
+      </c>
+      <c r="J649" s="16">
+        <f t="shared" si="54"/>
+        <v>238.90747853510155</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" ht="15">
+      <c r="A650" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B650" s="3">
+        <v>40</v>
+      </c>
+      <c r="C650" s="3">
+        <v>0</v>
+      </c>
+      <c r="D650" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E650" s="16">
+        <f t="shared" si="51"/>
+        <v>228.52789764052878</v>
+      </c>
+      <c r="F650" s="3">
+        <v>4.46</v>
+      </c>
+      <c r="G650" s="3">
+        <v>-41.76</v>
+      </c>
+      <c r="H650" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I650" s="16">
+        <f t="shared" si="53"/>
+        <v>228.88597423171214</v>
+      </c>
+      <c r="J650" s="16">
+        <f t="shared" si="54"/>
+        <v>228.88597423171214</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" ht="15">
+      <c r="A651" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B651" s="3">
+        <v>40</v>
+      </c>
+      <c r="C651" s="3">
+        <v>10</v>
+      </c>
+      <c r="D651" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E651" s="16">
+        <f t="shared" si="51"/>
+        <v>228.74658467395747</v>
+      </c>
+      <c r="F651" s="3">
+        <v>23.23</v>
+      </c>
+      <c r="G651" s="16">
+        <v>-42.44</v>
+      </c>
+      <c r="H651" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I651" s="16">
+        <f t="shared" si="53"/>
+        <v>230.14296969492682</v>
+      </c>
+      <c r="J651" s="16">
+        <f t="shared" si="54"/>
+        <v>230.14296969492682</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" ht="15">
+      <c r="A652" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B652" s="3">
+        <v>40</v>
+      </c>
+      <c r="C652" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D652" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E652" s="16">
+        <f t="shared" si="51"/>
+        <v>228.74658467395747</v>
+      </c>
+      <c r="F652" s="16">
+        <v>-15.39</v>
+      </c>
+      <c r="G652" s="3">
+        <v>-44.21</v>
+      </c>
+      <c r="H652" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I652" s="16">
+        <f t="shared" si="53"/>
+        <v>229.81813723028912</v>
+      </c>
+      <c r="J652" s="16">
+        <f t="shared" si="54"/>
+        <v>229.81813723028912</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" ht="15">
+      <c r="A653" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B653" s="3">
+        <v>50</v>
+      </c>
+      <c r="C653" s="3">
+        <v>0</v>
+      </c>
+      <c r="D653" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E653" s="16">
+        <f t="shared" si="51"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F653" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="G653" s="16">
+        <v>-50.43</v>
+      </c>
+      <c r="H653" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I653" s="16">
+        <f t="shared" si="53"/>
+        <v>230.5912975374396</v>
+      </c>
+      <c r="J653" s="16">
+        <f t="shared" si="54"/>
+        <v>230.5912975374396</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" ht="15">
+      <c r="A654" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B654" s="3">
+        <v>50</v>
+      </c>
+      <c r="C654" s="3">
+        <v>40</v>
+      </c>
+      <c r="D654" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E654" s="16">
+        <f t="shared" si="51"/>
+        <v>233.9337513057917</v>
+      </c>
+      <c r="F654" s="3">
+        <v>50.13</v>
+      </c>
+      <c r="G654" s="3">
+        <v>-47.55</v>
+      </c>
+      <c r="H654" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I654" s="16">
+        <f t="shared" si="53"/>
+        <v>235.36996282448615</v>
+      </c>
+      <c r="J654" s="16">
+        <f>SQRT((F654*F654)+(G654*G654)+(H654*H654))</f>
+        <v>235.36996282448615</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" ht="15">
+      <c r="A655" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B655" s="3">
+        <v>50</v>
+      </c>
+      <c r="C655" s="3">
+        <v>-40</v>
+      </c>
+      <c r="D655" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E655" s="16">
+        <f t="shared" si="51"/>
+        <v>233.9337513057917</v>
+      </c>
+      <c r="F655" s="3">
+        <v>-30.09</v>
+      </c>
+      <c r="G655" s="3">
+        <v>-50.87</v>
+      </c>
+      <c r="H655" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I655" s="16">
+        <f t="shared" si="53"/>
+        <v>232.63311243243083</v>
+      </c>
+      <c r="J655" s="16">
+        <f t="shared" ref="J655:J662" si="55">SQRT((F655*F655)+(G655*G655)+(H655*H655))</f>
+        <v>232.63311243243083</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" ht="15">
+      <c r="A656" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B656" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C656" s="3">
+        <v>0</v>
+      </c>
+      <c r="D656" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E656" s="16">
+        <f t="shared" si="51"/>
+        <v>225.22211259110415</v>
+      </c>
+      <c r="F656" s="3">
+        <v>-1.17</v>
+      </c>
+      <c r="G656" s="3">
+        <v>8.24</v>
+      </c>
+      <c r="H656" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I656" s="16">
+        <f t="shared" si="53"/>
+        <v>225.15387294026277</v>
+      </c>
+      <c r="J656" s="16">
+        <f t="shared" si="55"/>
+        <v>225.15387294026277</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" ht="15">
+      <c r="A657" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B657" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C657" s="3">
+        <v>20</v>
+      </c>
+      <c r="D657" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E657" s="16">
+        <f t="shared" si="51"/>
+        <v>226.10838109190027</v>
+      </c>
+      <c r="F657" s="3">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="G657" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="H657" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I657" s="16">
+        <f t="shared" si="53"/>
+        <v>225.82453808211366</v>
+      </c>
+      <c r="J657" s="16">
+        <f t="shared" si="55"/>
+        <v>225.82453808211366</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" ht="15">
+      <c r="A658" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B658" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C658" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D658" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E658" s="16">
+        <f t="shared" si="51"/>
+        <v>226.10838109190027</v>
+      </c>
+      <c r="F658" s="16">
+        <v>-24.21</v>
+      </c>
+      <c r="G658" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="H658" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I658" s="16">
+        <f t="shared" si="53"/>
+        <v>227.30834586525853</v>
+      </c>
+      <c r="J658" s="16">
+        <f t="shared" si="55"/>
+        <v>227.30834586525853</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" ht="15">
+      <c r="A659" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B659" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C659" s="3">
+        <v>0</v>
+      </c>
+      <c r="D659" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E659" s="16">
+        <f t="shared" si="51"/>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F659" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G659" s="16">
+        <v>25.28</v>
+      </c>
+      <c r="H659" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I659" s="16">
+        <f t="shared" si="53"/>
+        <v>226.41580863535125</v>
+      </c>
+      <c r="J659" s="16">
+        <f t="shared" si="55"/>
+        <v>226.41580863535125</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" ht="15">
+      <c r="A660" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B660" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C660" s="3">
+        <v>50</v>
+      </c>
+      <c r="D660" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E660" s="16">
+        <f t="shared" si="51"/>
+        <v>231.35470602518549</v>
+      </c>
+      <c r="F660" s="3">
+        <v>51.77</v>
+      </c>
+      <c r="G660" s="3">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="H660" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I660" s="16">
+        <f t="shared" si="53"/>
+        <v>231.54056448061104</v>
+      </c>
+      <c r="J660" s="16">
+        <f t="shared" si="55"/>
+        <v>231.54056448061104</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" ht="15">
+      <c r="A661" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B661" s="37">
+        <v>-20</v>
+      </c>
+      <c r="C661" s="37">
+        <v>-80</v>
+      </c>
+      <c r="D661" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E661" s="38">
+        <f t="shared" si="51"/>
+        <v>239.63513932643517</v>
+      </c>
+      <c r="F661" s="37">
+        <v>-73.12</v>
+      </c>
+      <c r="G661" s="37">
+        <v>15.76</v>
+      </c>
+      <c r="H661" s="37">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I661" s="16">
+        <f t="shared" si="53"/>
+        <v>237.10738495458128</v>
+      </c>
+      <c r="J661" s="38">
+        <f t="shared" si="55"/>
+        <v>237.10738495458128</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" ht="15">
+      <c r="A662" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B662" s="37">
+        <v>-30</v>
+      </c>
+      <c r="C662" s="37">
+        <v>0</v>
+      </c>
+      <c r="D662" s="3">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E662" s="16">
+        <f t="shared" si="51"/>
+        <v>226.99118925632334</v>
+      </c>
+      <c r="F662" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="G662" s="3">
+        <v>30.06</v>
+      </c>
+      <c r="H662" s="3">
+        <f t="shared" si="52"/>
+        <v>225</v>
+      </c>
+      <c r="I662" s="16">
+        <f t="shared" si="53"/>
+        <v>227.00921390992039</v>
+      </c>
+      <c r="J662" s="16">
+        <f t="shared" si="55"/>
+        <v>227.00921390992039</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" ht="15">
+      <c r="A663" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B663" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C663" s="18">
+        <v>15</v>
+      </c>
+      <c r="D663" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E663" s="16">
+        <f t="shared" ref="E663:E670" si="56">SQRT((B663*B663)+(C663*C663)+(D663*D663))</f>
+        <v>227.48626332154652</v>
+      </c>
+      <c r="F663" s="3">
+        <v>23.67</v>
+      </c>
+      <c r="G663" s="3">
+        <v>34.31</v>
+      </c>
+      <c r="H663" s="3">
+        <f t="shared" ref="H663:H670" si="57">D663</f>
+        <v>225</v>
+      </c>
+      <c r="I663" s="16">
+        <f t="shared" si="53"/>
+        <v>228.82841825262875</v>
+      </c>
+      <c r="J663" s="16">
+        <f t="shared" ref="J663:J670" si="58">SQRT((F663*F663)+(G663*G663)+(H663*H663))</f>
+        <v>228.82841825262875</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" ht="15">
+      <c r="A664" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B664" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C664" s="18">
+        <v>-15</v>
+      </c>
+      <c r="D664" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E664" s="16">
+        <f t="shared" si="56"/>
+        <v>227.48626332154652</v>
+      </c>
+      <c r="F664" s="3">
+        <v>-19.09</v>
+      </c>
+      <c r="G664" s="3">
+        <v>31.75</v>
+      </c>
+      <c r="H664" s="3">
+        <f t="shared" si="57"/>
+        <v>225</v>
+      </c>
+      <c r="I664" s="16">
+        <f t="shared" si="53"/>
+        <v>228.02958272996071</v>
+      </c>
+      <c r="J664" s="16">
+        <f t="shared" si="58"/>
+        <v>228.02958272996071</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" ht="15">
+      <c r="A665" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B665" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C665" s="18">
+        <v>0</v>
+      </c>
+      <c r="D665" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E665" s="16">
+        <f t="shared" si="56"/>
+        <v>228.52789764052878</v>
+      </c>
+      <c r="F665" s="16">
+        <v>5.71</v>
+      </c>
+      <c r="G665" s="3">
+        <v>44.66</v>
+      </c>
+      <c r="H665" s="3">
+        <f t="shared" si="57"/>
+        <v>225</v>
+      </c>
+      <c r="I665" s="16">
+        <f t="shared" si="53"/>
+        <v>229.46049703598223</v>
+      </c>
+      <c r="J665" s="16">
+        <f t="shared" si="58"/>
+        <v>229.46049703598223</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" ht="15">
+      <c r="A666" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B666" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C666" s="18">
+        <v>40</v>
+      </c>
+      <c r="D666" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E666" s="16">
+        <f t="shared" si="56"/>
+        <v>232.0021551624036</v>
+      </c>
+      <c r="F666" s="3">
+        <v>48.34</v>
+      </c>
+      <c r="G666" s="16">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="H666" s="3">
+        <f t="shared" si="57"/>
+        <v>225</v>
+      </c>
+      <c r="I666" s="16">
+        <f t="shared" si="53"/>
+        <v>233.34064819486551</v>
+      </c>
+      <c r="J666" s="16">
+        <f t="shared" si="58"/>
+        <v>233.34064819486551</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" ht="15">
+      <c r="A667" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B667" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C667" s="18">
+        <v>-40</v>
+      </c>
+      <c r="D667" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E667" s="16">
+        <f t="shared" si="56"/>
+        <v>232.0021551624036</v>
+      </c>
+      <c r="F667" s="3">
+        <v>-37.19</v>
+      </c>
+      <c r="G667" s="3">
+        <v>41.19</v>
+      </c>
+      <c r="H667" s="3">
+        <f t="shared" si="57"/>
+        <v>225</v>
+      </c>
+      <c r="I667" s="16">
+        <f t="shared" si="53"/>
+        <v>231.74277162405735</v>
+      </c>
+      <c r="J667" s="16">
+        <f t="shared" si="58"/>
+        <v>231.74277162405735</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" ht="15">
+      <c r="A668" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B668" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C668" s="18">
+        <v>0</v>
+      </c>
+      <c r="D668" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E668" s="38">
+        <f t="shared" si="56"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F668" s="37">
+        <v>-5.96</v>
+      </c>
+      <c r="G668" s="37">
+        <v>48.37</v>
+      </c>
+      <c r="H668" s="37">
+        <f t="shared" si="57"/>
+        <v>225</v>
+      </c>
+      <c r="I668" s="16">
+        <f t="shared" si="53"/>
+        <v>230.21767634132701</v>
+      </c>
+      <c r="J668" s="38">
+        <f t="shared" si="58"/>
+        <v>230.21767634132701</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" ht="15">
+      <c r="A669" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B669" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C669" s="18">
+        <v>35</v>
+      </c>
+      <c r="D669" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E669" s="16">
+        <f t="shared" si="56"/>
+        <v>233.13086453749534</v>
+      </c>
+      <c r="F669" s="3">
+        <v>43.18</v>
+      </c>
+      <c r="G669" s="3">
+        <v>46.08</v>
+      </c>
+      <c r="H669" s="3">
+        <f t="shared" si="57"/>
+        <v>225</v>
+      </c>
+      <c r="I669" s="16">
+        <f t="shared" si="53"/>
+        <v>233.69398537403566</v>
+      </c>
+      <c r="J669" s="16">
+        <f t="shared" si="58"/>
+        <v>233.69398537403566</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" ht="15">
+      <c r="A670" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B670" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C670" s="18">
+        <v>-65</v>
+      </c>
+      <c r="D670" s="91">
+        <f t="shared" si="50"/>
+        <v>225</v>
+      </c>
+      <c r="E670" s="16">
+        <f t="shared" si="56"/>
+        <v>239.47860029656096</v>
+      </c>
+      <c r="F670" s="3">
+        <v>-63.22</v>
+      </c>
+      <c r="G670" s="3">
+        <v>49.21</v>
+      </c>
+      <c r="H670" s="3">
+        <f t="shared" si="57"/>
+        <v>225</v>
+      </c>
+      <c r="I670" s="16">
+        <f t="shared" si="53"/>
+        <v>238.8375860286651</v>
+      </c>
+      <c r="J670" s="16">
+        <f t="shared" si="58"/>
+        <v>238.8375860286651</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="A631:C631"/>
+    <mergeCell ref="A636:E636"/>
+    <mergeCell ref="F636:J636"/>
+    <mergeCell ref="A531:E531"/>
+    <mergeCell ref="F531:J531"/>
+    <mergeCell ref="A530:J530"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="F398:J398"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="F319:J319"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="F179:J179"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="F319:J319"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="F179:J179"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="A531:E531"/>
-    <mergeCell ref="F531:J531"/>
-    <mergeCell ref="A530:J530"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A398:E398"/>
-    <mergeCell ref="F398:J398"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -37772,25 +39104,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A53AE-05FE-4343-86A2-73C17600B97E}">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView topLeftCell="I122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I122" workbookViewId="0">
       <selection activeCell="A123" sqref="A123:M143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.5546875" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -40028,41 +41360,41 @@
       <c r="C123" s="76"/>
       <c r="D123" s="76"/>
       <c r="E123" s="76"/>
-      <c r="F123" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="G123" s="91"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="99" t="s">
+      <c r="F123" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="G123" s="95"/>
+      <c r="H123" s="95"/>
+      <c r="I123" s="95"/>
+      <c r="J123" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="K123" s="91"/>
-      <c r="L123" s="91"/>
-      <c r="M123" s="91"/>
+      <c r="K123" s="95"/>
+      <c r="L123" s="95"/>
+      <c r="M123" s="95"/>
       <c r="N123" s="76"/>
       <c r="O123" s="76"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="98" t="s">
+      <c r="A124" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="98"/>
-      <c r="C124" s="98"/>
-      <c r="D124" s="98"/>
+      <c r="B124" s="102"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="102"/>
       <c r="E124" s="92"/>
-      <c r="F124" s="98" t="s">
+      <c r="F124" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="G124" s="98"/>
-      <c r="H124" s="98"/>
-      <c r="I124" s="98"/>
+      <c r="G124" s="102"/>
+      <c r="H124" s="102"/>
+      <c r="I124" s="102"/>
       <c r="J124" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="K124" s="98"/>
-      <c r="L124" s="98"/>
-      <c r="M124" s="98"/>
+      <c r="K124" s="102"/>
+      <c r="L124" s="102"/>
+      <c r="M124" s="102"/>
       <c r="N124" s="82"/>
       <c r="O124" s="82"/>
     </row>

--- a/docs/Pruebas distancia detecciones.xlsx
+++ b/docs/Pruebas distancia detecciones.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70DCR\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53475A5B-07E1-4290-8038-B6AEED0DBEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F53A7D9-1F52-4E92-87DE-AE95FD6B1C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Distancias Fresas" sheetId="1" r:id="rId1"/>
     <sheet name="Comparaciones Resultados " sheetId="2" r:id="rId2"/>
+    <sheet name="Comparacion Camara 0 grados" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="58">
   <si>
     <t>Parámetros de la cámara</t>
   </si>
@@ -206,6 +207,12 @@
   <si>
     <t>COORDENDAS SUPUESTAS</t>
   </si>
+  <si>
+    <t>Coordenadas cambiadas según equivalencia (mm)</t>
+  </si>
+  <si>
+    <t>Distancias cambiadas según equivalencia (mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -508,11 +515,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -782,9 +802,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,11 +820,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -27186,36 +27253,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA670"/>
+  <dimension ref="A1:AA712"/>
   <sheetViews>
-    <sheetView topLeftCell="A657" workbookViewId="0">
-      <selection activeCell="A631" sqref="A631:J670"/>
+    <sheetView topLeftCell="H592" workbookViewId="0">
+      <selection activeCell="I605" sqref="I605:L605"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="20.140625" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" customWidth="1"/>
-    <col min="27" max="27" width="21.5703125" customWidth="1"/>
+    <col min="25" max="25" width="20.109375" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" customWidth="1"/>
+    <col min="27" max="27" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -32877,14 +32944,14 @@
       </c>
       <c r="C319" s="93"/>
       <c r="D319" s="93"/>
-      <c r="E319" s="98"/>
+      <c r="E319" s="97"/>
       <c r="F319" s="92" t="s">
         <v>5</v>
       </c>
       <c r="G319" s="93"/>
       <c r="H319" s="93"/>
       <c r="I319" s="93"/>
-      <c r="J319" s="98"/>
+      <c r="J319" s="97"/>
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="47" t="s">
@@ -33862,20 +33929,20 @@
       </c>
     </row>
     <row r="398" spans="1:10">
-      <c r="A398" s="96" t="s">
+      <c r="A398" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B398" s="97"/>
-      <c r="C398" s="97"/>
-      <c r="D398" s="97"/>
-      <c r="E398" s="98"/>
-      <c r="F398" s="96" t="s">
+      <c r="B398" s="96"/>
+      <c r="C398" s="96"/>
+      <c r="D398" s="96"/>
+      <c r="E398" s="97"/>
+      <c r="F398" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G398" s="97"/>
-      <c r="H398" s="97"/>
-      <c r="I398" s="97"/>
-      <c r="J398" s="98"/>
+      <c r="G398" s="96"/>
+      <c r="H398" s="96"/>
+      <c r="I398" s="96"/>
+      <c r="J398" s="97"/>
     </row>
     <row r="399" spans="1:10">
       <c r="A399" s="4" t="s">
@@ -36106,34 +36173,34 @@
       </c>
     </row>
     <row r="530" spans="1:10">
-      <c r="A530" s="95" t="s">
+      <c r="A530" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B530" s="95"/>
-      <c r="C530" s="95"/>
-      <c r="D530" s="95"/>
-      <c r="E530" s="95"/>
-      <c r="F530" s="95"/>
-      <c r="G530" s="95"/>
-      <c r="H530" s="95"/>
-      <c r="I530" s="95"/>
-      <c r="J530" s="95"/>
+      <c r="B530" s="101"/>
+      <c r="C530" s="101"/>
+      <c r="D530" s="101"/>
+      <c r="E530" s="101"/>
+      <c r="F530" s="101"/>
+      <c r="G530" s="101"/>
+      <c r="H530" s="101"/>
+      <c r="I530" s="101"/>
+      <c r="J530" s="101"/>
     </row>
     <row r="531" spans="1:10">
-      <c r="A531" s="99" t="s">
+      <c r="A531" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B531" s="100"/>
-      <c r="C531" s="100"/>
-      <c r="D531" s="100"/>
-      <c r="E531" s="101"/>
-      <c r="F531" s="99" t="s">
+      <c r="B531" s="99"/>
+      <c r="C531" s="99"/>
+      <c r="D531" s="99"/>
+      <c r="E531" s="100"/>
+      <c r="F531" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G531" s="100"/>
-      <c r="H531" s="100"/>
-      <c r="I531" s="100"/>
-      <c r="J531" s="101"/>
+      <c r="G531" s="99"/>
+      <c r="H531" s="99"/>
+      <c r="I531" s="99"/>
+      <c r="J531" s="100"/>
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="4" t="s">
@@ -37766,14 +37833,14 @@
         <v>95.777516224731215</v>
       </c>
     </row>
-    <row r="631" spans="1:12" ht="15">
+    <row r="631" spans="1:12">
       <c r="A631" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B631" s="93"/>
       <c r="C631" s="94"/>
     </row>
-    <row r="632" spans="1:12" ht="15">
+    <row r="632" spans="1:12">
       <c r="A632" s="7" t="s">
         <v>1</v>
       </c>
@@ -37784,7 +37851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:12" ht="15">
+    <row r="633" spans="1:12">
       <c r="A633" s="3">
         <v>225</v>
       </c>
@@ -37796,23 +37863,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:12" ht="15">
-      <c r="A636" s="96" t="s">
+    <row r="636" spans="1:12">
+      <c r="A636" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B636" s="97"/>
-      <c r="C636" s="97"/>
-      <c r="D636" s="97"/>
-      <c r="E636" s="98"/>
-      <c r="F636" s="96" t="s">
+      <c r="B636" s="96"/>
+      <c r="C636" s="96"/>
+      <c r="D636" s="96"/>
+      <c r="E636" s="97"/>
+      <c r="F636" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G636" s="97"/>
-      <c r="H636" s="97"/>
-      <c r="I636" s="97"/>
-      <c r="J636" s="98"/>
-    </row>
-    <row r="637" spans="1:12" ht="15">
+      <c r="G636" s="96"/>
+      <c r="H636" s="96"/>
+      <c r="I636" s="96"/>
+      <c r="J636" s="97"/>
+    </row>
+    <row r="637" spans="1:12">
       <c r="A637" s="4" t="s">
         <v>6</v>
       </c>
@@ -37844,7 +37911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:12" ht="15">
+    <row r="638" spans="1:12">
       <c r="A638" s="3" t="s">
         <v>18</v>
       </c>
@@ -37881,7 +37948,7 @@
         <v>225.00612702768785</v>
       </c>
     </row>
-    <row r="639" spans="1:12" ht="15">
+    <row r="639" spans="1:12">
       <c r="A639" s="3" t="s">
         <v>19</v>
       </c>
@@ -37918,7 +37985,7 @@
         <v>226.75295852535197</v>
       </c>
     </row>
-    <row r="640" spans="1:12" ht="15">
+    <row r="640" spans="1:12">
       <c r="A640" s="3" t="s">
         <v>20</v>
       </c>
@@ -37955,7 +38022,7 @@
         <v>230.77656943459402</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="15">
+    <row r="641" spans="1:10">
       <c r="A641" s="3" t="s">
         <v>21</v>
       </c>
@@ -37992,7 +38059,7 @@
         <v>225.2334757534945</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="15">
+    <row r="642" spans="1:10">
       <c r="A642" s="3" t="s">
         <v>22</v>
       </c>
@@ -38029,7 +38096,7 @@
         <v>237.09598161925899</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="15">
+    <row r="643" spans="1:10">
       <c r="A643" s="3" t="s">
         <v>23</v>
       </c>
@@ -38066,7 +38133,7 @@
         <v>236.6131959549171</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="15">
+    <row r="644" spans="1:10">
       <c r="A644" s="3" t="s">
         <v>24</v>
       </c>
@@ -38103,7 +38170,7 @@
         <v>225.82496341193107</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="15">
+    <row r="645" spans="1:10">
       <c r="A645" s="3" t="s">
         <v>25</v>
       </c>
@@ -38140,7 +38207,7 @@
         <v>234.33713427453191</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="15">
+    <row r="646" spans="1:10">
       <c r="A646" s="3" t="s">
         <v>26</v>
       </c>
@@ -38177,7 +38244,7 @@
         <v>238.14144578380302</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="15">
+    <row r="647" spans="1:10">
       <c r="A647" s="3" t="s">
         <v>27</v>
       </c>
@@ -38214,7 +38281,7 @@
         <v>227.19433729738952</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="15">
+    <row r="648" spans="1:10">
       <c r="A648" s="3" t="s">
         <v>31</v>
       </c>
@@ -38251,7 +38318,7 @@
         <v>238.41536024342057</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="15">
+    <row r="649" spans="1:10">
       <c r="A649" s="3" t="s">
         <v>32</v>
       </c>
@@ -38288,7 +38355,7 @@
         <v>238.90747853510155</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="15">
+    <row r="650" spans="1:10">
       <c r="A650" s="3" t="s">
         <v>33</v>
       </c>
@@ -38325,7 +38392,7 @@
         <v>228.88597423171214</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="15">
+    <row r="651" spans="1:10">
       <c r="A651" s="3" t="s">
         <v>34</v>
       </c>
@@ -38362,7 +38429,7 @@
         <v>230.14296969492682</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="15">
+    <row r="652" spans="1:10">
       <c r="A652" s="3" t="s">
         <v>35</v>
       </c>
@@ -38399,7 +38466,7 @@
         <v>229.81813723028912</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="15">
+    <row r="653" spans="1:10">
       <c r="A653" s="3" t="s">
         <v>36</v>
       </c>
@@ -38436,7 +38503,7 @@
         <v>230.5912975374396</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="15">
+    <row r="654" spans="1:10">
       <c r="A654" s="3" t="s">
         <v>37</v>
       </c>
@@ -38473,7 +38540,7 @@
         <v>235.36996282448615</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="15">
+    <row r="655" spans="1:10">
       <c r="A655" s="3" t="s">
         <v>38</v>
       </c>
@@ -38510,7 +38577,7 @@
         <v>232.63311243243083</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="15">
+    <row r="656" spans="1:10">
       <c r="A656" s="3" t="s">
         <v>39</v>
       </c>
@@ -38547,7 +38614,7 @@
         <v>225.15387294026277</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="15">
+    <row r="657" spans="1:10">
       <c r="A657" s="3" t="s">
         <v>40</v>
       </c>
@@ -38584,7 +38651,7 @@
         <v>225.82453808211366</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="15">
+    <row r="658" spans="1:10">
       <c r="A658" s="3" t="s">
         <v>41</v>
       </c>
@@ -38621,7 +38688,7 @@
         <v>227.30834586525853</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="15">
+    <row r="659" spans="1:10">
       <c r="A659" s="3" t="s">
         <v>42</v>
       </c>
@@ -38658,7 +38725,7 @@
         <v>226.41580863535125</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="15">
+    <row r="660" spans="1:10">
       <c r="A660" s="3" t="s">
         <v>43</v>
       </c>
@@ -38695,7 +38762,7 @@
         <v>231.54056448061104</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="15">
+    <row r="661" spans="1:10">
       <c r="A661" s="37" t="s">
         <v>44</v>
       </c>
@@ -38732,7 +38799,7 @@
         <v>237.10738495458128</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="15">
+    <row r="662" spans="1:10">
       <c r="A662" s="37" t="s">
         <v>45</v>
       </c>
@@ -38769,7 +38836,7 @@
         <v>227.00921390992039</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="15">
+    <row r="663" spans="1:10">
       <c r="A663" s="3" t="s">
         <v>47</v>
       </c>
@@ -38806,7 +38873,7 @@
         <v>228.82841825262875</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="15">
+    <row r="664" spans="1:10">
       <c r="A664" s="3" t="s">
         <v>48</v>
       </c>
@@ -38843,7 +38910,7 @@
         <v>228.02958272996071</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="15">
+    <row r="665" spans="1:10">
       <c r="A665" s="3" t="s">
         <v>49</v>
       </c>
@@ -38880,7 +38947,7 @@
         <v>229.46049703598223</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="15">
+    <row r="666" spans="1:10">
       <c r="A666" s="3" t="s">
         <v>50</v>
       </c>
@@ -38917,7 +38984,7 @@
         <v>233.34064819486551</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="15">
+    <row r="667" spans="1:10">
       <c r="A667" s="3" t="s">
         <v>51</v>
       </c>
@@ -38954,7 +39021,7 @@
         <v>231.74277162405735</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="15">
+    <row r="668" spans="1:10">
       <c r="A668" s="3" t="s">
         <v>52</v>
       </c>
@@ -38991,7 +39058,7 @@
         <v>230.21767634132701</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="15">
+    <row r="669" spans="1:10">
       <c r="A669" s="3" t="s">
         <v>53</v>
       </c>
@@ -39028,7 +39095,7 @@
         <v>233.69398537403566</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="15">
+    <row r="670" spans="1:10">
       <c r="A670" s="3" t="s">
         <v>54</v>
       </c>
@@ -39065,13 +39132,1966 @@
         <v>238.8375860286651</v>
       </c>
     </row>
+    <row r="673" spans="1:15">
+      <c r="A673" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B673" s="93"/>
+      <c r="C673" s="94"/>
+    </row>
+    <row r="674" spans="1:15">
+      <c r="A674" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B674" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C674" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:15">
+      <c r="A675" s="3">
+        <v>225</v>
+      </c>
+      <c r="B675" s="3">
+        <v>0</v>
+      </c>
+      <c r="C675" s="3">
+        <f>RADIANS(B675)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:15">
+      <c r="A678" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B678" s="96"/>
+      <c r="C678" s="96"/>
+      <c r="D678" s="96"/>
+      <c r="E678" s="97"/>
+      <c r="F678" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G678" s="96"/>
+      <c r="H678" s="96"/>
+      <c r="I678" s="96"/>
+      <c r="J678" s="97"/>
+      <c r="K678" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L678" s="96"/>
+      <c r="M678" s="96"/>
+      <c r="N678" s="96"/>
+      <c r="O678" s="97"/>
+    </row>
+    <row r="679" spans="1:15">
+      <c r="A679" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B679" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D679" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E679" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F679" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G679" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H679" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I679" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J679" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K679" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L679" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M679" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N679" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O679" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="680" spans="1:15">
+      <c r="A680" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B680" s="3">
+        <v>0</v>
+      </c>
+      <c r="C680" s="3">
+        <v>0</v>
+      </c>
+      <c r="D680" s="3">
+        <f>$A$633</f>
+        <v>225</v>
+      </c>
+      <c r="E680" s="16">
+        <f>SQRT((B680*B680)+(C680*C680)+(D680*D680))</f>
+        <v>225</v>
+      </c>
+      <c r="F680" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G680" s="3">
+        <v>-1.64</v>
+      </c>
+      <c r="H680" s="3">
+        <f>D680</f>
+        <v>225</v>
+      </c>
+      <c r="I680" s="16">
+        <f>J680</f>
+        <v>225.00612702768785</v>
+      </c>
+      <c r="J680" s="16">
+        <f>SQRT((F680*F680)+(G680*G680)+(H680*H680))</f>
+        <v>225.00612702768785</v>
+      </c>
+      <c r="K680" s="3">
+        <f>-G680</f>
+        <v>1.64</v>
+      </c>
+      <c r="L680" s="3">
+        <f>F680</f>
+        <v>0.26</v>
+      </c>
+      <c r="M680" s="3">
+        <v>225</v>
+      </c>
+      <c r="N680" s="16">
+        <f>O680</f>
+        <v>225.00612702768785</v>
+      </c>
+      <c r="O680" s="16">
+        <f>SQRT((K680*K680)+(L680*L680)+(M680*M680))</f>
+        <v>225.00612702768785</v>
+      </c>
+    </row>
+    <row r="681" spans="1:15">
+      <c r="A681" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B681" s="3">
+        <v>0</v>
+      </c>
+      <c r="C681" s="3">
+        <v>20</v>
+      </c>
+      <c r="D681" s="3">
+        <f t="shared" ref="D681:D712" si="59">$A$633</f>
+        <v>225</v>
+      </c>
+      <c r="E681" s="16">
+        <f t="shared" ref="E681:E712" si="60">SQRT((B681*B681)+(C681*C681)+(D681*D681))</f>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F681" s="3">
+        <v>28.09</v>
+      </c>
+      <c r="G681" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="H681" s="3">
+        <f t="shared" ref="H681:H712" si="61">D681</f>
+        <v>225</v>
+      </c>
+      <c r="I681" s="16">
+        <f t="shared" ref="I681:I712" si="62">J681</f>
+        <v>226.75295852535197</v>
+      </c>
+      <c r="J681" s="16">
+        <f t="shared" ref="J681:J695" si="63">SQRT((F681*F681)+(G681*G681)+(H681*H681))</f>
+        <v>226.75295852535197</v>
+      </c>
+      <c r="K681" s="3">
+        <f t="shared" ref="K681:K712" si="64">-G681</f>
+        <v>-1.69</v>
+      </c>
+      <c r="L681" s="3">
+        <f t="shared" ref="L681:L712" si="65">F681</f>
+        <v>28.09</v>
+      </c>
+      <c r="M681" s="3">
+        <v>225</v>
+      </c>
+      <c r="N681" s="16">
+        <f t="shared" ref="N681:N712" si="66">O681</f>
+        <v>226.75295852535197</v>
+      </c>
+      <c r="O681" s="16">
+        <f t="shared" ref="O681:O695" si="67">SQRT((K681*K681)+(L681*L681)+(M681*M681))</f>
+        <v>226.75295852535197</v>
+      </c>
+    </row>
+    <row r="682" spans="1:15">
+      <c r="A682" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B682" s="3">
+        <v>0</v>
+      </c>
+      <c r="C682" s="3">
+        <v>50</v>
+      </c>
+      <c r="D682" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E682" s="16">
+        <f t="shared" si="60"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F682" s="3">
+        <v>51.31</v>
+      </c>
+      <c r="G682" s="3">
+        <v>-0.33</v>
+      </c>
+      <c r="H682" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I682" s="16">
+        <f t="shared" si="62"/>
+        <v>230.77656943459402</v>
+      </c>
+      <c r="J682" s="16">
+        <f t="shared" si="63"/>
+        <v>230.77656943459402</v>
+      </c>
+      <c r="K682" s="3">
+        <f t="shared" si="64"/>
+        <v>0.33</v>
+      </c>
+      <c r="L682" s="3">
+        <f t="shared" si="65"/>
+        <v>51.31</v>
+      </c>
+      <c r="M682" s="3">
+        <v>225</v>
+      </c>
+      <c r="N682" s="16">
+        <f t="shared" si="66"/>
+        <v>230.77656943459402</v>
+      </c>
+      <c r="O682" s="16">
+        <f t="shared" si="67"/>
+        <v>230.77656943459402</v>
+      </c>
+    </row>
+    <row r="683" spans="1:15">
+      <c r="A683" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B683" s="3">
+        <v>10</v>
+      </c>
+      <c r="C683" s="3">
+        <v>0</v>
+      </c>
+      <c r="D683" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E683" s="16">
+        <f t="shared" si="60"/>
+        <v>225.22211259110415</v>
+      </c>
+      <c r="F683" s="16">
+        <v>-3.35</v>
+      </c>
+      <c r="G683" s="3">
+        <v>-9.69</v>
+      </c>
+      <c r="H683" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I683" s="16">
+        <f t="shared" si="62"/>
+        <v>225.2334757534945</v>
+      </c>
+      <c r="J683" s="16">
+        <f t="shared" si="63"/>
+        <v>225.2334757534945</v>
+      </c>
+      <c r="K683" s="3">
+        <f t="shared" si="64"/>
+        <v>9.69</v>
+      </c>
+      <c r="L683" s="3">
+        <f t="shared" si="65"/>
+        <v>-3.35</v>
+      </c>
+      <c r="M683" s="3">
+        <v>225</v>
+      </c>
+      <c r="N683" s="16">
+        <f t="shared" si="66"/>
+        <v>225.2334757534945</v>
+      </c>
+      <c r="O683" s="16">
+        <f t="shared" si="67"/>
+        <v>225.2334757534945</v>
+      </c>
+    </row>
+    <row r="684" spans="1:15">
+      <c r="A684" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B684" s="3">
+        <v>10</v>
+      </c>
+      <c r="C684" s="3">
+        <v>70</v>
+      </c>
+      <c r="D684" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E684" s="16">
+        <f t="shared" si="60"/>
+        <v>235.84952830141509</v>
+      </c>
+      <c r="F684" s="3">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="G684" s="3">
+        <v>-5.77</v>
+      </c>
+      <c r="H684" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I684" s="16">
+        <f t="shared" si="62"/>
+        <v>237.09598161925899</v>
+      </c>
+      <c r="J684" s="16">
+        <f t="shared" si="63"/>
+        <v>237.09598161925899</v>
+      </c>
+      <c r="K684" s="3">
+        <f t="shared" si="64"/>
+        <v>5.77</v>
+      </c>
+      <c r="L684" s="3">
+        <f t="shared" si="65"/>
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M684" s="3">
+        <v>225</v>
+      </c>
+      <c r="N684" s="16">
+        <f t="shared" si="66"/>
+        <v>237.09598161925899</v>
+      </c>
+      <c r="O684" s="16">
+        <f t="shared" si="67"/>
+        <v>237.09598161925899</v>
+      </c>
+    </row>
+    <row r="685" spans="1:15">
+      <c r="A685" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B685" s="3">
+        <v>10</v>
+      </c>
+      <c r="C685" s="3">
+        <v>-70</v>
+      </c>
+      <c r="D685" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E685" s="16">
+        <f t="shared" si="60"/>
+        <v>235.84952830141509</v>
+      </c>
+      <c r="F685" s="3">
+        <v>-70.86</v>
+      </c>
+      <c r="G685" s="16">
+        <v>-18.43</v>
+      </c>
+      <c r="H685" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I685" s="16">
+        <f t="shared" si="62"/>
+        <v>236.6131959549171</v>
+      </c>
+      <c r="J685" s="16">
+        <f t="shared" si="63"/>
+        <v>236.6131959549171</v>
+      </c>
+      <c r="K685" s="3">
+        <f t="shared" si="64"/>
+        <v>18.43</v>
+      </c>
+      <c r="L685" s="3">
+        <f t="shared" si="65"/>
+        <v>-70.86</v>
+      </c>
+      <c r="M685" s="3">
+        <v>225</v>
+      </c>
+      <c r="N685" s="16">
+        <f t="shared" si="66"/>
+        <v>236.6131959549171</v>
+      </c>
+      <c r="O685" s="16">
+        <f t="shared" si="67"/>
+        <v>236.6131959549171</v>
+      </c>
+    </row>
+    <row r="686" spans="1:15">
+      <c r="A686" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B686" s="3">
+        <v>20</v>
+      </c>
+      <c r="C686" s="3">
+        <v>0</v>
+      </c>
+      <c r="D686" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E686" s="16">
+        <f t="shared" si="60"/>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F686" s="3">
+        <v>-1.7</v>
+      </c>
+      <c r="G686" s="3">
+        <v>-19.21</v>
+      </c>
+      <c r="H686" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I686" s="16">
+        <f t="shared" si="62"/>
+        <v>225.82496341193107</v>
+      </c>
+      <c r="J686" s="16">
+        <f t="shared" si="63"/>
+        <v>225.82496341193107</v>
+      </c>
+      <c r="K686" s="3">
+        <f t="shared" si="64"/>
+        <v>19.21</v>
+      </c>
+      <c r="L686" s="3">
+        <f t="shared" si="65"/>
+        <v>-1.7</v>
+      </c>
+      <c r="M686" s="3">
+        <v>225</v>
+      </c>
+      <c r="N686" s="16">
+        <f t="shared" si="66"/>
+        <v>225.82496341193107</v>
+      </c>
+      <c r="O686" s="16">
+        <f t="shared" si="67"/>
+        <v>225.82496341193107</v>
+      </c>
+    </row>
+    <row r="687" spans="1:15">
+      <c r="A687" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B687" s="3">
+        <v>20</v>
+      </c>
+      <c r="C687" s="3">
+        <v>60</v>
+      </c>
+      <c r="D687" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E687" s="16">
+        <f t="shared" si="60"/>
+        <v>233.71991785040487</v>
+      </c>
+      <c r="F687" s="3">
+        <v>63.57</v>
+      </c>
+      <c r="G687" s="3">
+        <v>-15.74</v>
+      </c>
+      <c r="H687" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I687" s="16">
+        <f t="shared" si="62"/>
+        <v>234.33713427453191</v>
+      </c>
+      <c r="J687" s="16">
+        <f t="shared" si="63"/>
+        <v>234.33713427453191</v>
+      </c>
+      <c r="K687" s="3">
+        <f t="shared" si="64"/>
+        <v>15.74</v>
+      </c>
+      <c r="L687" s="3">
+        <f t="shared" si="65"/>
+        <v>63.57</v>
+      </c>
+      <c r="M687" s="3">
+        <v>225</v>
+      </c>
+      <c r="N687" s="16">
+        <f t="shared" si="66"/>
+        <v>234.33713427453191</v>
+      </c>
+      <c r="O687" s="16">
+        <f t="shared" si="67"/>
+        <v>234.33713427453191</v>
+      </c>
+    </row>
+    <row r="688" spans="1:15">
+      <c r="A688" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B688" s="3">
+        <v>20</v>
+      </c>
+      <c r="C688" s="3">
+        <v>-90</v>
+      </c>
+      <c r="D688" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E688" s="16">
+        <f t="shared" si="60"/>
+        <v>243.15632831575658</v>
+      </c>
+      <c r="F688" s="3">
+        <v>-72.89</v>
+      </c>
+      <c r="G688" s="3">
+        <v>-27.81</v>
+      </c>
+      <c r="H688" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I688" s="16">
+        <f t="shared" si="62"/>
+        <v>238.14144578380302</v>
+      </c>
+      <c r="J688" s="16">
+        <f t="shared" si="63"/>
+        <v>238.14144578380302</v>
+      </c>
+      <c r="K688" s="3">
+        <f t="shared" si="64"/>
+        <v>27.81</v>
+      </c>
+      <c r="L688" s="3">
+        <f t="shared" si="65"/>
+        <v>-72.89</v>
+      </c>
+      <c r="M688" s="3">
+        <v>225</v>
+      </c>
+      <c r="N688" s="16">
+        <f t="shared" si="66"/>
+        <v>238.14144578380302</v>
+      </c>
+      <c r="O688" s="16">
+        <f t="shared" si="67"/>
+        <v>238.14144578380302</v>
+      </c>
+    </row>
+    <row r="689" spans="1:15">
+      <c r="A689" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B689" s="3">
+        <v>30</v>
+      </c>
+      <c r="C689" s="3">
+        <v>0</v>
+      </c>
+      <c r="D689" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E689" s="16">
+        <f t="shared" si="60"/>
+        <v>226.99118925632334</v>
+      </c>
+      <c r="F689" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="G689" s="3">
+        <v>-31.5</v>
+      </c>
+      <c r="H689" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I689" s="16">
+        <f t="shared" si="62"/>
+        <v>227.19433729738952</v>
+      </c>
+      <c r="J689" s="16">
+        <f t="shared" si="63"/>
+        <v>227.19433729738952</v>
+      </c>
+      <c r="K689" s="3">
+        <f t="shared" si="64"/>
+        <v>31.5</v>
+      </c>
+      <c r="L689" s="3">
+        <f t="shared" si="65"/>
+        <v>-0.13</v>
+      </c>
+      <c r="M689" s="3">
+        <v>225</v>
+      </c>
+      <c r="N689" s="16">
+        <f t="shared" si="66"/>
+        <v>227.19433729738952</v>
+      </c>
+      <c r="O689" s="16">
+        <f t="shared" si="67"/>
+        <v>227.19433729738952</v>
+      </c>
+    </row>
+    <row r="690" spans="1:15">
+      <c r="A690" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B690" s="3">
+        <v>30</v>
+      </c>
+      <c r="C690" s="3">
+        <v>80</v>
+      </c>
+      <c r="D690" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E690" s="16">
+        <f t="shared" si="60"/>
+        <v>240.67613093117481</v>
+      </c>
+      <c r="F690" s="3">
+        <v>77.38</v>
+      </c>
+      <c r="G690" s="3">
+        <v>-15.14</v>
+      </c>
+      <c r="H690" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I690" s="16">
+        <f t="shared" si="62"/>
+        <v>238.41536024342057</v>
+      </c>
+      <c r="J690" s="16">
+        <f t="shared" si="63"/>
+        <v>238.41536024342057</v>
+      </c>
+      <c r="K690" s="3">
+        <f t="shared" si="64"/>
+        <v>15.14</v>
+      </c>
+      <c r="L690" s="3">
+        <f t="shared" si="65"/>
+        <v>77.38</v>
+      </c>
+      <c r="M690" s="3">
+        <v>225</v>
+      </c>
+      <c r="N690" s="16">
+        <f t="shared" si="66"/>
+        <v>238.41536024342057</v>
+      </c>
+      <c r="O690" s="16">
+        <f t="shared" si="67"/>
+        <v>238.41536024342057</v>
+      </c>
+    </row>
+    <row r="691" spans="1:15">
+      <c r="A691" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B691" s="3">
+        <v>30</v>
+      </c>
+      <c r="C691" s="3">
+        <v>-80</v>
+      </c>
+      <c r="D691" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E691" s="16">
+        <f t="shared" si="60"/>
+        <v>240.67613093117481</v>
+      </c>
+      <c r="F691" s="3">
+        <v>-70.83</v>
+      </c>
+      <c r="G691" s="3">
+        <v>-37.880000000000003</v>
+      </c>
+      <c r="H691" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I691" s="16">
+        <f t="shared" si="62"/>
+        <v>238.90747853510155</v>
+      </c>
+      <c r="J691" s="16">
+        <f t="shared" si="63"/>
+        <v>238.90747853510155</v>
+      </c>
+      <c r="K691" s="3">
+        <f t="shared" si="64"/>
+        <v>37.880000000000003</v>
+      </c>
+      <c r="L691" s="3">
+        <f t="shared" si="65"/>
+        <v>-70.83</v>
+      </c>
+      <c r="M691" s="3">
+        <v>225</v>
+      </c>
+      <c r="N691" s="16">
+        <f t="shared" si="66"/>
+        <v>238.90747853510155</v>
+      </c>
+      <c r="O691" s="16">
+        <f t="shared" si="67"/>
+        <v>238.90747853510155</v>
+      </c>
+    </row>
+    <row r="692" spans="1:15">
+      <c r="A692" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B692" s="3">
+        <v>40</v>
+      </c>
+      <c r="C692" s="3">
+        <v>0</v>
+      </c>
+      <c r="D692" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E692" s="16">
+        <f t="shared" si="60"/>
+        <v>228.52789764052878</v>
+      </c>
+      <c r="F692" s="3">
+        <v>4.46</v>
+      </c>
+      <c r="G692" s="3">
+        <v>-41.76</v>
+      </c>
+      <c r="H692" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I692" s="16">
+        <f t="shared" si="62"/>
+        <v>228.88597423171214</v>
+      </c>
+      <c r="J692" s="16">
+        <f t="shared" si="63"/>
+        <v>228.88597423171214</v>
+      </c>
+      <c r="K692" s="3">
+        <f t="shared" si="64"/>
+        <v>41.76</v>
+      </c>
+      <c r="L692" s="3">
+        <f t="shared" si="65"/>
+        <v>4.46</v>
+      </c>
+      <c r="M692" s="3">
+        <v>225</v>
+      </c>
+      <c r="N692" s="16">
+        <f t="shared" si="66"/>
+        <v>228.88597423171214</v>
+      </c>
+      <c r="O692" s="16">
+        <f t="shared" si="67"/>
+        <v>228.88597423171214</v>
+      </c>
+    </row>
+    <row r="693" spans="1:15">
+      <c r="A693" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B693" s="3">
+        <v>40</v>
+      </c>
+      <c r="C693" s="3">
+        <v>10</v>
+      </c>
+      <c r="D693" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E693" s="16">
+        <f t="shared" si="60"/>
+        <v>228.74658467395747</v>
+      </c>
+      <c r="F693" s="3">
+        <v>23.23</v>
+      </c>
+      <c r="G693" s="16">
+        <v>-42.44</v>
+      </c>
+      <c r="H693" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I693" s="16">
+        <f t="shared" si="62"/>
+        <v>230.14296969492682</v>
+      </c>
+      <c r="J693" s="16">
+        <f t="shared" si="63"/>
+        <v>230.14296969492682</v>
+      </c>
+      <c r="K693" s="3">
+        <f t="shared" si="64"/>
+        <v>42.44</v>
+      </c>
+      <c r="L693" s="3">
+        <f t="shared" si="65"/>
+        <v>23.23</v>
+      </c>
+      <c r="M693" s="3">
+        <v>225</v>
+      </c>
+      <c r="N693" s="16">
+        <f t="shared" si="66"/>
+        <v>230.14296969492682</v>
+      </c>
+      <c r="O693" s="16">
+        <f t="shared" si="67"/>
+        <v>230.14296969492682</v>
+      </c>
+    </row>
+    <row r="694" spans="1:15">
+      <c r="A694" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B694" s="3">
+        <v>40</v>
+      </c>
+      <c r="C694" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D694" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E694" s="16">
+        <f t="shared" si="60"/>
+        <v>228.74658467395747</v>
+      </c>
+      <c r="F694" s="16">
+        <v>-15.39</v>
+      </c>
+      <c r="G694" s="3">
+        <v>-44.21</v>
+      </c>
+      <c r="H694" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I694" s="16">
+        <f t="shared" si="62"/>
+        <v>229.81813723028912</v>
+      </c>
+      <c r="J694" s="16">
+        <f t="shared" si="63"/>
+        <v>229.81813723028912</v>
+      </c>
+      <c r="K694" s="3">
+        <f t="shared" si="64"/>
+        <v>44.21</v>
+      </c>
+      <c r="L694" s="3">
+        <f t="shared" si="65"/>
+        <v>-15.39</v>
+      </c>
+      <c r="M694" s="3">
+        <v>225</v>
+      </c>
+      <c r="N694" s="16">
+        <f t="shared" si="66"/>
+        <v>229.81813723028912</v>
+      </c>
+      <c r="O694" s="16">
+        <f t="shared" si="67"/>
+        <v>229.81813723028912</v>
+      </c>
+    </row>
+    <row r="695" spans="1:15">
+      <c r="A695" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B695" s="3">
+        <v>50</v>
+      </c>
+      <c r="C695" s="3">
+        <v>0</v>
+      </c>
+      <c r="D695" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E695" s="16">
+        <f t="shared" si="60"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F695" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="G695" s="16">
+        <v>-50.43</v>
+      </c>
+      <c r="H695" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I695" s="16">
+        <f t="shared" si="62"/>
+        <v>230.5912975374396</v>
+      </c>
+      <c r="J695" s="16">
+        <f t="shared" si="63"/>
+        <v>230.5912975374396</v>
+      </c>
+      <c r="K695" s="3">
+        <f t="shared" si="64"/>
+        <v>50.43</v>
+      </c>
+      <c r="L695" s="3">
+        <f t="shared" si="65"/>
+        <v>2.04</v>
+      </c>
+      <c r="M695" s="3">
+        <v>225</v>
+      </c>
+      <c r="N695" s="16">
+        <f t="shared" si="66"/>
+        <v>230.5912975374396</v>
+      </c>
+      <c r="O695" s="16">
+        <f t="shared" si="67"/>
+        <v>230.5912975374396</v>
+      </c>
+    </row>
+    <row r="696" spans="1:15">
+      <c r="A696" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B696" s="3">
+        <v>50</v>
+      </c>
+      <c r="C696" s="3">
+        <v>40</v>
+      </c>
+      <c r="D696" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E696" s="16">
+        <f t="shared" si="60"/>
+        <v>233.9337513057917</v>
+      </c>
+      <c r="F696" s="3">
+        <v>50.13</v>
+      </c>
+      <c r="G696" s="3">
+        <v>-47.55</v>
+      </c>
+      <c r="H696" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I696" s="16">
+        <f t="shared" si="62"/>
+        <v>235.36996282448615</v>
+      </c>
+      <c r="J696" s="16">
+        <f>SQRT((F696*F696)+(G696*G696)+(H696*H696))</f>
+        <v>235.36996282448615</v>
+      </c>
+      <c r="K696" s="3">
+        <f t="shared" si="64"/>
+        <v>47.55</v>
+      </c>
+      <c r="L696" s="3">
+        <f t="shared" si="65"/>
+        <v>50.13</v>
+      </c>
+      <c r="M696" s="3">
+        <v>225</v>
+      </c>
+      <c r="N696" s="16">
+        <f t="shared" si="66"/>
+        <v>235.36996282448615</v>
+      </c>
+      <c r="O696" s="16">
+        <f>SQRT((K696*K696)+(L696*L696)+(M696*M696))</f>
+        <v>235.36996282448615</v>
+      </c>
+    </row>
+    <row r="697" spans="1:15">
+      <c r="A697" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B697" s="3">
+        <v>50</v>
+      </c>
+      <c r="C697" s="3">
+        <v>-40</v>
+      </c>
+      <c r="D697" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E697" s="16">
+        <f t="shared" si="60"/>
+        <v>233.9337513057917</v>
+      </c>
+      <c r="F697" s="3">
+        <v>-30.09</v>
+      </c>
+      <c r="G697" s="3">
+        <v>-50.87</v>
+      </c>
+      <c r="H697" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I697" s="16">
+        <f t="shared" si="62"/>
+        <v>232.63311243243083</v>
+      </c>
+      <c r="J697" s="16">
+        <f t="shared" ref="J697:J712" si="68">SQRT((F697*F697)+(G697*G697)+(H697*H697))</f>
+        <v>232.63311243243083</v>
+      </c>
+      <c r="K697" s="3">
+        <f t="shared" si="64"/>
+        <v>50.87</v>
+      </c>
+      <c r="L697" s="3">
+        <f t="shared" si="65"/>
+        <v>-30.09</v>
+      </c>
+      <c r="M697" s="3">
+        <v>225</v>
+      </c>
+      <c r="N697" s="16">
+        <f t="shared" si="66"/>
+        <v>232.63311243243083</v>
+      </c>
+      <c r="O697" s="16">
+        <f t="shared" ref="O697:O712" si="69">SQRT((K697*K697)+(L697*L697)+(M697*M697))</f>
+        <v>232.63311243243083</v>
+      </c>
+    </row>
+    <row r="698" spans="1:15">
+      <c r="A698" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B698" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C698" s="3">
+        <v>0</v>
+      </c>
+      <c r="D698" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E698" s="16">
+        <f t="shared" si="60"/>
+        <v>225.22211259110415</v>
+      </c>
+      <c r="F698" s="3">
+        <v>-1.17</v>
+      </c>
+      <c r="G698" s="3">
+        <v>8.24</v>
+      </c>
+      <c r="H698" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I698" s="16">
+        <f t="shared" si="62"/>
+        <v>225.15387294026277</v>
+      </c>
+      <c r="J698" s="16">
+        <f t="shared" si="68"/>
+        <v>225.15387294026277</v>
+      </c>
+      <c r="K698" s="3">
+        <f t="shared" si="64"/>
+        <v>-8.24</v>
+      </c>
+      <c r="L698" s="3">
+        <f t="shared" si="65"/>
+        <v>-1.17</v>
+      </c>
+      <c r="M698" s="3">
+        <v>225</v>
+      </c>
+      <c r="N698" s="16">
+        <f t="shared" si="66"/>
+        <v>225.15387294026277</v>
+      </c>
+      <c r="O698" s="16">
+        <f t="shared" si="69"/>
+        <v>225.15387294026277</v>
+      </c>
+    </row>
+    <row r="699" spans="1:15">
+      <c r="A699" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B699" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C699" s="3">
+        <v>20</v>
+      </c>
+      <c r="D699" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E699" s="16">
+        <f t="shared" si="60"/>
+        <v>226.10838109190027</v>
+      </c>
+      <c r="F699" s="3">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="G699" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="H699" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I699" s="16">
+        <f t="shared" si="62"/>
+        <v>225.82453808211366</v>
+      </c>
+      <c r="J699" s="16">
+        <f t="shared" si="68"/>
+        <v>225.82453808211366</v>
+      </c>
+      <c r="K699" s="3">
+        <f t="shared" si="64"/>
+        <v>-9.84</v>
+      </c>
+      <c r="L699" s="3">
+        <f t="shared" si="65"/>
+        <v>16.579999999999998</v>
+      </c>
+      <c r="M699" s="3">
+        <v>225</v>
+      </c>
+      <c r="N699" s="16">
+        <f t="shared" si="66"/>
+        <v>225.82453808211366</v>
+      </c>
+      <c r="O699" s="16">
+        <f t="shared" si="69"/>
+        <v>225.82453808211366</v>
+      </c>
+    </row>
+    <row r="700" spans="1:15">
+      <c r="A700" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B700" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C700" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D700" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E700" s="16">
+        <f t="shared" si="60"/>
+        <v>226.10838109190027</v>
+      </c>
+      <c r="F700" s="16">
+        <v>-24.21</v>
+      </c>
+      <c r="G700" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="H700" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I700" s="16">
+        <f t="shared" si="62"/>
+        <v>227.30834586525853</v>
+      </c>
+      <c r="J700" s="16">
+        <f t="shared" si="68"/>
+        <v>227.30834586525853</v>
+      </c>
+      <c r="K700" s="3">
+        <f t="shared" si="64"/>
+        <v>-21.4</v>
+      </c>
+      <c r="L700" s="3">
+        <f t="shared" si="65"/>
+        <v>-24.21</v>
+      </c>
+      <c r="M700" s="3">
+        <v>225</v>
+      </c>
+      <c r="N700" s="16">
+        <f t="shared" si="66"/>
+        <v>227.30834586525853</v>
+      </c>
+      <c r="O700" s="16">
+        <f t="shared" si="69"/>
+        <v>227.30834586525853</v>
+      </c>
+    </row>
+    <row r="701" spans="1:15">
+      <c r="A701" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B701" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C701" s="3">
+        <v>0</v>
+      </c>
+      <c r="D701" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E701" s="16">
+        <f t="shared" si="60"/>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F701" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G701" s="16">
+        <v>25.28</v>
+      </c>
+      <c r="H701" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I701" s="16">
+        <f t="shared" si="62"/>
+        <v>226.41580863535125</v>
+      </c>
+      <c r="J701" s="16">
+        <f t="shared" si="68"/>
+        <v>226.41580863535125</v>
+      </c>
+      <c r="K701" s="3">
+        <f t="shared" si="64"/>
+        <v>-25.28</v>
+      </c>
+      <c r="L701" s="3">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="M701" s="3">
+        <v>225</v>
+      </c>
+      <c r="N701" s="16">
+        <f t="shared" si="66"/>
+        <v>226.41580863535125</v>
+      </c>
+      <c r="O701" s="16">
+        <f t="shared" si="69"/>
+        <v>226.41580863535125</v>
+      </c>
+    </row>
+    <row r="702" spans="1:15">
+      <c r="A702" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B702" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C702" s="3">
+        <v>50</v>
+      </c>
+      <c r="D702" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E702" s="16">
+        <f t="shared" si="60"/>
+        <v>231.35470602518549</v>
+      </c>
+      <c r="F702" s="3">
+        <v>51.77</v>
+      </c>
+      <c r="G702" s="3">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="H702" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I702" s="16">
+        <f t="shared" si="62"/>
+        <v>231.54056448061104</v>
+      </c>
+      <c r="J702" s="16">
+        <f t="shared" si="68"/>
+        <v>231.54056448061104</v>
+      </c>
+      <c r="K702" s="3">
+        <f t="shared" si="64"/>
+        <v>-17.489999999999998</v>
+      </c>
+      <c r="L702" s="3">
+        <f t="shared" si="65"/>
+        <v>51.77</v>
+      </c>
+      <c r="M702" s="3">
+        <v>225</v>
+      </c>
+      <c r="N702" s="16">
+        <f t="shared" si="66"/>
+        <v>231.54056448061104</v>
+      </c>
+      <c r="O702" s="16">
+        <f t="shared" si="69"/>
+        <v>231.54056448061104</v>
+      </c>
+    </row>
+    <row r="703" spans="1:15">
+      <c r="A703" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B703" s="37">
+        <v>-20</v>
+      </c>
+      <c r="C703" s="37">
+        <v>-80</v>
+      </c>
+      <c r="D703" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E703" s="38">
+        <f t="shared" si="60"/>
+        <v>239.63513932643517</v>
+      </c>
+      <c r="F703" s="37">
+        <v>-73.12</v>
+      </c>
+      <c r="G703" s="37">
+        <v>15.76</v>
+      </c>
+      <c r="H703" s="37">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I703" s="16">
+        <f t="shared" si="62"/>
+        <v>237.10738495458128</v>
+      </c>
+      <c r="J703" s="38">
+        <f t="shared" si="68"/>
+        <v>237.10738495458128</v>
+      </c>
+      <c r="K703" s="3">
+        <f t="shared" si="64"/>
+        <v>-15.76</v>
+      </c>
+      <c r="L703" s="3">
+        <f t="shared" si="65"/>
+        <v>-73.12</v>
+      </c>
+      <c r="M703" s="3">
+        <v>225</v>
+      </c>
+      <c r="N703" s="16">
+        <f t="shared" si="66"/>
+        <v>237.10738495458128</v>
+      </c>
+      <c r="O703" s="38">
+        <f t="shared" si="69"/>
+        <v>237.10738495458128</v>
+      </c>
+    </row>
+    <row r="704" spans="1:15">
+      <c r="A704" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B704" s="37">
+        <v>-30</v>
+      </c>
+      <c r="C704" s="37">
+        <v>0</v>
+      </c>
+      <c r="D704" s="3">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E704" s="16">
+        <f t="shared" si="60"/>
+        <v>226.99118925632334</v>
+      </c>
+      <c r="F704" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="G704" s="3">
+        <v>30.06</v>
+      </c>
+      <c r="H704" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I704" s="16">
+        <f t="shared" si="62"/>
+        <v>227.00921390992039</v>
+      </c>
+      <c r="J704" s="16">
+        <f t="shared" si="68"/>
+        <v>227.00921390992039</v>
+      </c>
+      <c r="K704" s="3">
+        <f t="shared" si="64"/>
+        <v>-30.06</v>
+      </c>
+      <c r="L704" s="3">
+        <f t="shared" si="65"/>
+        <v>2.14</v>
+      </c>
+      <c r="M704" s="3">
+        <v>225</v>
+      </c>
+      <c r="N704" s="16">
+        <f t="shared" si="66"/>
+        <v>227.00921390992039</v>
+      </c>
+      <c r="O704" s="16">
+        <f t="shared" si="69"/>
+        <v>227.00921390992039</v>
+      </c>
+    </row>
+    <row r="705" spans="1:15">
+      <c r="A705" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B705" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C705" s="18">
+        <v>15</v>
+      </c>
+      <c r="D705" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E705" s="16">
+        <f t="shared" si="60"/>
+        <v>227.48626332154652</v>
+      </c>
+      <c r="F705" s="3">
+        <v>23.67</v>
+      </c>
+      <c r="G705" s="3">
+        <v>34.31</v>
+      </c>
+      <c r="H705" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I705" s="16">
+        <f t="shared" si="62"/>
+        <v>228.82841825262875</v>
+      </c>
+      <c r="J705" s="16">
+        <f t="shared" si="68"/>
+        <v>228.82841825262875</v>
+      </c>
+      <c r="K705" s="3">
+        <f t="shared" si="64"/>
+        <v>-34.31</v>
+      </c>
+      <c r="L705" s="3">
+        <f t="shared" si="65"/>
+        <v>23.67</v>
+      </c>
+      <c r="M705" s="3">
+        <v>225</v>
+      </c>
+      <c r="N705" s="16">
+        <f t="shared" si="66"/>
+        <v>228.82841825262875</v>
+      </c>
+      <c r="O705" s="16">
+        <f t="shared" si="69"/>
+        <v>228.82841825262875</v>
+      </c>
+    </row>
+    <row r="706" spans="1:15">
+      <c r="A706" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B706" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C706" s="18">
+        <v>-15</v>
+      </c>
+      <c r="D706" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E706" s="16">
+        <f t="shared" si="60"/>
+        <v>227.48626332154652</v>
+      </c>
+      <c r="F706" s="3">
+        <v>-19.09</v>
+      </c>
+      <c r="G706" s="3">
+        <v>31.75</v>
+      </c>
+      <c r="H706" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I706" s="16">
+        <f t="shared" si="62"/>
+        <v>228.02958272996071</v>
+      </c>
+      <c r="J706" s="16">
+        <f t="shared" si="68"/>
+        <v>228.02958272996071</v>
+      </c>
+      <c r="K706" s="3">
+        <f t="shared" si="64"/>
+        <v>-31.75</v>
+      </c>
+      <c r="L706" s="3">
+        <f t="shared" si="65"/>
+        <v>-19.09</v>
+      </c>
+      <c r="M706" s="3">
+        <v>225</v>
+      </c>
+      <c r="N706" s="16">
+        <f t="shared" si="66"/>
+        <v>228.02958272996071</v>
+      </c>
+      <c r="O706" s="16">
+        <f t="shared" si="69"/>
+        <v>228.02958272996071</v>
+      </c>
+    </row>
+    <row r="707" spans="1:15">
+      <c r="A707" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B707" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C707" s="18">
+        <v>0</v>
+      </c>
+      <c r="D707" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E707" s="16">
+        <f t="shared" si="60"/>
+        <v>228.52789764052878</v>
+      </c>
+      <c r="F707" s="16">
+        <v>5.71</v>
+      </c>
+      <c r="G707" s="3">
+        <v>44.66</v>
+      </c>
+      <c r="H707" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I707" s="16">
+        <f t="shared" si="62"/>
+        <v>229.46049703598223</v>
+      </c>
+      <c r="J707" s="16">
+        <f t="shared" si="68"/>
+        <v>229.46049703598223</v>
+      </c>
+      <c r="K707" s="3">
+        <f t="shared" si="64"/>
+        <v>-44.66</v>
+      </c>
+      <c r="L707" s="3">
+        <f t="shared" si="65"/>
+        <v>5.71</v>
+      </c>
+      <c r="M707" s="3">
+        <v>225</v>
+      </c>
+      <c r="N707" s="16">
+        <f t="shared" si="66"/>
+        <v>229.46049703598223</v>
+      </c>
+      <c r="O707" s="16">
+        <f t="shared" si="69"/>
+        <v>229.46049703598223</v>
+      </c>
+    </row>
+    <row r="708" spans="1:15">
+      <c r="A708" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B708" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C708" s="18">
+        <v>40</v>
+      </c>
+      <c r="D708" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E708" s="16">
+        <f t="shared" si="60"/>
+        <v>232.0021551624036</v>
+      </c>
+      <c r="F708" s="3">
+        <v>48.34</v>
+      </c>
+      <c r="G708" s="16">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="H708" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I708" s="16">
+        <f t="shared" si="62"/>
+        <v>233.34064819486551</v>
+      </c>
+      <c r="J708" s="16">
+        <f t="shared" si="68"/>
+        <v>233.34064819486551</v>
+      </c>
+      <c r="K708" s="3">
+        <f t="shared" si="64"/>
+        <v>-38.549999999999997</v>
+      </c>
+      <c r="L708" s="3">
+        <f t="shared" si="65"/>
+        <v>48.34</v>
+      </c>
+      <c r="M708" s="3">
+        <v>225</v>
+      </c>
+      <c r="N708" s="16">
+        <f t="shared" si="66"/>
+        <v>233.34064819486551</v>
+      </c>
+      <c r="O708" s="16">
+        <f t="shared" si="69"/>
+        <v>233.34064819486551</v>
+      </c>
+    </row>
+    <row r="709" spans="1:15">
+      <c r="A709" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B709" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C709" s="18">
+        <v>-40</v>
+      </c>
+      <c r="D709" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E709" s="16">
+        <f t="shared" si="60"/>
+        <v>232.0021551624036</v>
+      </c>
+      <c r="F709" s="3">
+        <v>-37.19</v>
+      </c>
+      <c r="G709" s="3">
+        <v>41.19</v>
+      </c>
+      <c r="H709" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I709" s="16">
+        <f t="shared" si="62"/>
+        <v>231.74277162405735</v>
+      </c>
+      <c r="J709" s="16">
+        <f t="shared" si="68"/>
+        <v>231.74277162405735</v>
+      </c>
+      <c r="K709" s="3">
+        <f t="shared" si="64"/>
+        <v>-41.19</v>
+      </c>
+      <c r="L709" s="3">
+        <f t="shared" si="65"/>
+        <v>-37.19</v>
+      </c>
+      <c r="M709" s="3">
+        <v>225</v>
+      </c>
+      <c r="N709" s="16">
+        <f t="shared" si="66"/>
+        <v>231.74277162405735</v>
+      </c>
+      <c r="O709" s="16">
+        <f t="shared" si="69"/>
+        <v>231.74277162405735</v>
+      </c>
+    </row>
+    <row r="710" spans="1:15">
+      <c r="A710" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B710" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C710" s="18">
+        <v>0</v>
+      </c>
+      <c r="D710" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E710" s="38">
+        <f t="shared" si="60"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F710" s="37">
+        <v>-5.96</v>
+      </c>
+      <c r="G710" s="37">
+        <v>48.37</v>
+      </c>
+      <c r="H710" s="37">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I710" s="16">
+        <f t="shared" si="62"/>
+        <v>230.21767634132701</v>
+      </c>
+      <c r="J710" s="38">
+        <f t="shared" si="68"/>
+        <v>230.21767634132701</v>
+      </c>
+      <c r="K710" s="3">
+        <f t="shared" si="64"/>
+        <v>-48.37</v>
+      </c>
+      <c r="L710" s="3">
+        <f t="shared" si="65"/>
+        <v>-5.96</v>
+      </c>
+      <c r="M710" s="3">
+        <v>225</v>
+      </c>
+      <c r="N710" s="16">
+        <f t="shared" si="66"/>
+        <v>230.21767634132701</v>
+      </c>
+      <c r="O710" s="38">
+        <f t="shared" si="69"/>
+        <v>230.21767634132701</v>
+      </c>
+    </row>
+    <row r="711" spans="1:15">
+      <c r="A711" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B711" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C711" s="18">
+        <v>35</v>
+      </c>
+      <c r="D711" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E711" s="16">
+        <f t="shared" si="60"/>
+        <v>233.13086453749534</v>
+      </c>
+      <c r="F711" s="3">
+        <v>43.18</v>
+      </c>
+      <c r="G711" s="3">
+        <v>46.08</v>
+      </c>
+      <c r="H711" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I711" s="16">
+        <f t="shared" si="62"/>
+        <v>233.69398537403566</v>
+      </c>
+      <c r="J711" s="16">
+        <f t="shared" si="68"/>
+        <v>233.69398537403566</v>
+      </c>
+      <c r="K711" s="3">
+        <f t="shared" si="64"/>
+        <v>-46.08</v>
+      </c>
+      <c r="L711" s="3">
+        <f t="shared" si="65"/>
+        <v>43.18</v>
+      </c>
+      <c r="M711" s="3">
+        <v>225</v>
+      </c>
+      <c r="N711" s="16">
+        <f t="shared" si="66"/>
+        <v>233.69398537403566</v>
+      </c>
+      <c r="O711" s="16">
+        <f t="shared" si="69"/>
+        <v>233.69398537403566</v>
+      </c>
+    </row>
+    <row r="712" spans="1:15">
+      <c r="A712" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B712" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C712" s="18">
+        <v>-65</v>
+      </c>
+      <c r="D712" s="91">
+        <f t="shared" si="59"/>
+        <v>225</v>
+      </c>
+      <c r="E712" s="16">
+        <f t="shared" si="60"/>
+        <v>239.47860029656096</v>
+      </c>
+      <c r="F712" s="3">
+        <v>-63.22</v>
+      </c>
+      <c r="G712" s="3">
+        <v>49.21</v>
+      </c>
+      <c r="H712" s="3">
+        <f t="shared" si="61"/>
+        <v>225</v>
+      </c>
+      <c r="I712" s="16">
+        <f t="shared" si="62"/>
+        <v>238.8375860286651</v>
+      </c>
+      <c r="J712" s="16">
+        <f t="shared" si="68"/>
+        <v>238.8375860286651</v>
+      </c>
+      <c r="K712" s="3">
+        <f t="shared" si="64"/>
+        <v>-49.21</v>
+      </c>
+      <c r="L712" s="3">
+        <f t="shared" si="65"/>
+        <v>-63.22</v>
+      </c>
+      <c r="M712" s="3">
+        <v>225</v>
+      </c>
+      <c r="N712" s="16">
+        <f t="shared" si="66"/>
+        <v>238.8375860286651</v>
+      </c>
+      <c r="O712" s="16">
+        <f t="shared" si="69"/>
+        <v>238.8375860286651</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A631:C631"/>
-    <mergeCell ref="A636:E636"/>
-    <mergeCell ref="F636:J636"/>
-    <mergeCell ref="A531:E531"/>
-    <mergeCell ref="F531:J531"/>
+  <mergeCells count="30">
+    <mergeCell ref="A673:C673"/>
+    <mergeCell ref="A678:E678"/>
+    <mergeCell ref="F678:J678"/>
+    <mergeCell ref="K678:O678"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="A530:J530"/>
     <mergeCell ref="A393:C393"/>
     <mergeCell ref="A398:E398"/>
@@ -39087,12 +41107,11 @@
     <mergeCell ref="A174:C174"/>
     <mergeCell ref="B179:E179"/>
     <mergeCell ref="F179:J179"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A631:C631"/>
+    <mergeCell ref="A636:E636"/>
+    <mergeCell ref="F636:J636"/>
+    <mergeCell ref="A531:E531"/>
+    <mergeCell ref="F531:J531"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -39104,25 +41123,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A53AE-05FE-4343-86A2-73C17600B97E}">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I122" workbookViewId="0">
+    <sheetView topLeftCell="I119" workbookViewId="0">
       <selection activeCell="A123" sqref="A123:M143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -41360,18 +43379,18 @@
       <c r="C123" s="76"/>
       <c r="D123" s="76"/>
       <c r="E123" s="76"/>
-      <c r="F123" s="95" t="s">
+      <c r="F123" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="95"/>
+      <c r="G123" s="101"/>
+      <c r="H123" s="101"/>
+      <c r="I123" s="101"/>
       <c r="J123" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="K123" s="95"/>
-      <c r="L123" s="95"/>
-      <c r="M123" s="95"/>
+      <c r="K123" s="101"/>
+      <c r="L123" s="101"/>
+      <c r="M123" s="101"/>
       <c r="N123" s="76"/>
       <c r="O123" s="76"/>
     </row>
@@ -42300,4 +44319,4023 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F01216-2AC4-4586-8A6A-10705029B006}">
+  <dimension ref="A1:J227"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>225</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f>RADIANS(B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1.64</v>
+      </c>
+      <c r="C8" s="3">
+        <f>D52</f>
+        <v>225</v>
+      </c>
+      <c r="D8" s="16">
+        <f>E8</f>
+        <v>225.00612702768785</v>
+      </c>
+      <c r="E8" s="16">
+        <f>SQRT((A8*A8)+(B8*B8)+(C8*C8))</f>
+        <v>225.00612702768785</v>
+      </c>
+      <c r="F8" s="3">
+        <f>-B8</f>
+        <v>1.64</v>
+      </c>
+      <c r="G8" s="3">
+        <f>A8</f>
+        <v>0.26</v>
+      </c>
+      <c r="H8" s="3">
+        <v>225</v>
+      </c>
+      <c r="I8" s="16">
+        <f>J8</f>
+        <v>225.00612702768785</v>
+      </c>
+      <c r="J8" s="16">
+        <f>SQRT((F8*F8)+(G8*G8)+(H8*H8))</f>
+        <v>225.00612702768785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>28.09</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="C9" s="3">
+        <f>D53</f>
+        <v>225</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:D40" si="0">E9</f>
+        <v>226.75295852535197</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" ref="E9:E23" si="1">SQRT((A9*A9)+(B9*B9)+(C9*C9))</f>
+        <v>226.75295852535197</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ref="F9:F40" si="2">-B9</f>
+        <v>-1.69</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ref="G9:G40" si="3">A9</f>
+        <v>28.09</v>
+      </c>
+      <c r="H9" s="3">
+        <v>225</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" ref="I9:I40" si="4">J9</f>
+        <v>226.75295852535197</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" ref="J9:J23" si="5">SQRT((F9*F9)+(G9*G9)+(H9*H9))</f>
+        <v>226.75295852535197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>51.31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.33</v>
+      </c>
+      <c r="C10" s="3">
+        <f>D54</f>
+        <v>225</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>230.77656943459402</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
+        <v>230.77656943459402</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>51.31</v>
+      </c>
+      <c r="H10" s="3">
+        <v>225</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="4"/>
+        <v>230.77656943459402</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="5"/>
+        <v>230.77656943459402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="16">
+        <v>-3.35</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-9.69</v>
+      </c>
+      <c r="C11" s="3">
+        <f>D55</f>
+        <v>225</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>225.2334757534945</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>225.2334757534945</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>9.69</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.35</v>
+      </c>
+      <c r="H11" s="3">
+        <v>225</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="4"/>
+        <v>225.2334757534945</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="5"/>
+        <v>225.2334757534945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-5.77</v>
+      </c>
+      <c r="C12" s="3">
+        <f>D56</f>
+        <v>225</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>237.09598161925899</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>237.09598161925899</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>5.77</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>74.540000000000006</v>
+      </c>
+      <c r="H12" s="3">
+        <v>225</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="4"/>
+        <v>237.09598161925899</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="5"/>
+        <v>237.09598161925899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>-70.86</v>
+      </c>
+      <c r="B13" s="16">
+        <v>-18.43</v>
+      </c>
+      <c r="C13" s="3">
+        <f>D57</f>
+        <v>225</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>236.6131959549171</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>236.6131959549171</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>18.43</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>-70.86</v>
+      </c>
+      <c r="H13" s="3">
+        <v>225</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="4"/>
+        <v>236.6131959549171</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="5"/>
+        <v>236.6131959549171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>-1.7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-19.21</v>
+      </c>
+      <c r="C14" s="3">
+        <f>D58</f>
+        <v>225</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>225.82496341193107</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
+        <v>225.82496341193107</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>19.21</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>225</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="4"/>
+        <v>225.82496341193107</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="5"/>
+        <v>225.82496341193107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>63.57</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-15.74</v>
+      </c>
+      <c r="C15" s="3">
+        <f>D59</f>
+        <v>225</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>234.33713427453191</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="1"/>
+        <v>234.33713427453191</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>15.74</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>63.57</v>
+      </c>
+      <c r="H15" s="3">
+        <v>225</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="4"/>
+        <v>234.33713427453191</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="5"/>
+        <v>234.33713427453191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>-72.89</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-27.81</v>
+      </c>
+      <c r="C16" s="3">
+        <f>D60</f>
+        <v>225</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>238.14144578380302</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>238.14144578380302</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>27.81</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>-72.89</v>
+      </c>
+      <c r="H16" s="3">
+        <v>225</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="4"/>
+        <v>238.14144578380302</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="5"/>
+        <v>238.14144578380302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-31.5</v>
+      </c>
+      <c r="C17" s="3">
+        <f>D61</f>
+        <v>225</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>227.19433729738952</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="1"/>
+        <v>227.19433729738952</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.13</v>
+      </c>
+      <c r="H17" s="3">
+        <v>225</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="4"/>
+        <v>227.19433729738952</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="5"/>
+        <v>227.19433729738952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>77.38</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-15.14</v>
+      </c>
+      <c r="C18" s="3">
+        <f>D62</f>
+        <v>225</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>238.41536024342057</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="1"/>
+        <v>238.41536024342057</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>15.14</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>77.38</v>
+      </c>
+      <c r="H18" s="3">
+        <v>225</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="4"/>
+        <v>238.41536024342057</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="5"/>
+        <v>238.41536024342057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>-70.83</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-37.880000000000003</v>
+      </c>
+      <c r="C19" s="3">
+        <f>D63</f>
+        <v>225</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>238.90747853510155</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="1"/>
+        <v>238.90747853510155</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>37.880000000000003</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>-70.83</v>
+      </c>
+      <c r="H19" s="3">
+        <v>225</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="4"/>
+        <v>238.90747853510155</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="5"/>
+        <v>238.90747853510155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>4.46</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-41.76</v>
+      </c>
+      <c r="C20" s="3">
+        <f>D64</f>
+        <v>225</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>228.88597423171214</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="1"/>
+        <v>228.88597423171214</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>41.76</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>4.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>225</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="4"/>
+        <v>228.88597423171214</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="5"/>
+        <v>228.88597423171214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>23.23</v>
+      </c>
+      <c r="B21" s="16">
+        <v>-42.44</v>
+      </c>
+      <c r="C21" s="3">
+        <f>D65</f>
+        <v>225</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>230.14296969492682</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="1"/>
+        <v>230.14296969492682</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>42.44</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>23.23</v>
+      </c>
+      <c r="H21" s="3">
+        <v>225</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="4"/>
+        <v>230.14296969492682</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="5"/>
+        <v>230.14296969492682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="16">
+        <v>-15.39</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-44.21</v>
+      </c>
+      <c r="C22" s="3">
+        <f>D66</f>
+        <v>225</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>229.81813723028912</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="1"/>
+        <v>229.81813723028912</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>44.21</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>-15.39</v>
+      </c>
+      <c r="H22" s="3">
+        <v>225</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="4"/>
+        <v>229.81813723028912</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="5"/>
+        <v>229.81813723028912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="B23" s="16">
+        <v>-50.43</v>
+      </c>
+      <c r="C23" s="3">
+        <f>D67</f>
+        <v>225</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>230.5912975374396</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
+        <v>230.5912975374396</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>50.43</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>2.04</v>
+      </c>
+      <c r="H23" s="3">
+        <v>225</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="4"/>
+        <v>230.5912975374396</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="5"/>
+        <v>230.5912975374396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>50.13</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-47.55</v>
+      </c>
+      <c r="C24" s="3">
+        <f>D68</f>
+        <v>225</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>235.36996282448615</v>
+      </c>
+      <c r="E24" s="16">
+        <f>SQRT((A24*A24)+(B24*B24)+(C24*C24))</f>
+        <v>235.36996282448615</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>47.55</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>50.13</v>
+      </c>
+      <c r="H24" s="3">
+        <v>225</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="4"/>
+        <v>235.36996282448615</v>
+      </c>
+      <c r="J24" s="16">
+        <f>SQRT((F24*F24)+(G24*G24)+(H24*H24))</f>
+        <v>235.36996282448615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>-30.09</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-50.87</v>
+      </c>
+      <c r="C25" s="3">
+        <f>D69</f>
+        <v>225</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="0"/>
+        <v>232.63311243243083</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" ref="E25:E40" si="6">SQRT((A25*A25)+(B25*B25)+(C25*C25))</f>
+        <v>232.63311243243083</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>50.87</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>-30.09</v>
+      </c>
+      <c r="H25" s="3">
+        <v>225</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="4"/>
+        <v>232.63311243243083</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" ref="J25:J40" si="7">SQRT((F25*F25)+(G25*G25)+(H25*H25))</f>
+        <v>232.63311243243083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>-1.17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>8.24</v>
+      </c>
+      <c r="C26" s="3">
+        <f>D70</f>
+        <v>225</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="0"/>
+        <v>225.15387294026277</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="6"/>
+        <v>225.15387294026277</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.24</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.17</v>
+      </c>
+      <c r="H26" s="3">
+        <v>225</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="4"/>
+        <v>225.15387294026277</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="7"/>
+        <v>225.15387294026277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="C27" s="3">
+        <f>D71</f>
+        <v>225</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>225.82453808211366</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="6"/>
+        <v>225.82453808211366</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.84</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>16.579999999999998</v>
+      </c>
+      <c r="H27" s="3">
+        <v>225</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="4"/>
+        <v>225.82453808211366</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="7"/>
+        <v>225.82453808211366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="16">
+        <v>-24.21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="C28" s="3">
+        <f>D72</f>
+        <v>225</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>227.30834586525853</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="6"/>
+        <v>227.30834586525853</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>-21.4</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>-24.21</v>
+      </c>
+      <c r="H28" s="3">
+        <v>225</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="4"/>
+        <v>227.30834586525853</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="7"/>
+        <v>227.30834586525853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B29" s="16">
+        <v>25.28</v>
+      </c>
+      <c r="C29" s="3">
+        <f>D73</f>
+        <v>225</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>226.41580863535125</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="6"/>
+        <v>226.41580863535125</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="2"/>
+        <v>-25.28</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>225</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="4"/>
+        <v>226.41580863535125</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="7"/>
+        <v>226.41580863535125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>51.77</v>
+      </c>
+      <c r="B30" s="3">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="C30" s="3">
+        <f>D74</f>
+        <v>225</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>231.54056448061104</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="6"/>
+        <v>231.54056448061104</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="2"/>
+        <v>-17.489999999999998</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>51.77</v>
+      </c>
+      <c r="H30" s="3">
+        <v>225</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="4"/>
+        <v>231.54056448061104</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="7"/>
+        <v>231.54056448061104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="37">
+        <v>-73.12</v>
+      </c>
+      <c r="B31" s="37">
+        <v>15.76</v>
+      </c>
+      <c r="C31" s="37">
+        <f>D75</f>
+        <v>225</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>237.10738495458128</v>
+      </c>
+      <c r="E31" s="38">
+        <f t="shared" si="6"/>
+        <v>237.10738495458128</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
+        <v>-15.76</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>-73.12</v>
+      </c>
+      <c r="H31" s="3">
+        <v>225</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="4"/>
+        <v>237.10738495458128</v>
+      </c>
+      <c r="J31" s="38">
+        <f t="shared" si="7"/>
+        <v>237.10738495458128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="B32" s="3">
+        <v>30.06</v>
+      </c>
+      <c r="C32" s="3">
+        <f>D76</f>
+        <v>225</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>227.00921390992039</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="6"/>
+        <v>227.00921390992039</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="2"/>
+        <v>-30.06</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>2.14</v>
+      </c>
+      <c r="H32" s="3">
+        <v>225</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="4"/>
+        <v>227.00921390992039</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="7"/>
+        <v>227.00921390992039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>23.67</v>
+      </c>
+      <c r="B33" s="3">
+        <v>34.31</v>
+      </c>
+      <c r="C33" s="3">
+        <f>D77</f>
+        <v>225</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>228.82841825262875</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="6"/>
+        <v>228.82841825262875</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>-34.31</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>23.67</v>
+      </c>
+      <c r="H33" s="3">
+        <v>225</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="4"/>
+        <v>228.82841825262875</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="7"/>
+        <v>228.82841825262875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>-19.09</v>
+      </c>
+      <c r="B34" s="3">
+        <v>31.75</v>
+      </c>
+      <c r="C34" s="3">
+        <f>D78</f>
+        <v>225</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>228.02958272996071</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="6"/>
+        <v>228.02958272996071</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>-31.75</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="3"/>
+        <v>-19.09</v>
+      </c>
+      <c r="H34" s="3">
+        <v>225</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="4"/>
+        <v>228.02958272996071</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="7"/>
+        <v>228.02958272996071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="16">
+        <v>5.71</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44.66</v>
+      </c>
+      <c r="C35" s="3">
+        <f>D79</f>
+        <v>225</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>229.46049703598223</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="6"/>
+        <v>229.46049703598223</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="2"/>
+        <v>-44.66</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>5.71</v>
+      </c>
+      <c r="H35" s="3">
+        <v>225</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="4"/>
+        <v>229.46049703598223</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="7"/>
+        <v>229.46049703598223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>48.34</v>
+      </c>
+      <c r="B36" s="16">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="C36" s="3">
+        <f>D80</f>
+        <v>225</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
+        <v>233.34064819486551</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="6"/>
+        <v>233.34064819486551</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>-38.549999999999997</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="3"/>
+        <v>48.34</v>
+      </c>
+      <c r="H36" s="3">
+        <v>225</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="4"/>
+        <v>233.34064819486551</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="7"/>
+        <v>233.34064819486551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>-37.19</v>
+      </c>
+      <c r="B37" s="3">
+        <v>41.19</v>
+      </c>
+      <c r="C37" s="3">
+        <f>D81</f>
+        <v>225</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>231.74277162405735</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="6"/>
+        <v>231.74277162405735</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="2"/>
+        <v>-41.19</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="3"/>
+        <v>-37.19</v>
+      </c>
+      <c r="H37" s="3">
+        <v>225</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="4"/>
+        <v>231.74277162405735</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="7"/>
+        <v>231.74277162405735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="37">
+        <v>-5.96</v>
+      </c>
+      <c r="B38" s="37">
+        <v>48.37</v>
+      </c>
+      <c r="C38" s="37">
+        <f>D82</f>
+        <v>225</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
+        <v>230.21767634132701</v>
+      </c>
+      <c r="E38" s="38">
+        <f t="shared" si="6"/>
+        <v>230.21767634132701</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="2"/>
+        <v>-48.37</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="3"/>
+        <v>-5.96</v>
+      </c>
+      <c r="H38" s="3">
+        <v>225</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="4"/>
+        <v>230.21767634132701</v>
+      </c>
+      <c r="J38" s="38">
+        <f t="shared" si="7"/>
+        <v>230.21767634132701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>43.18</v>
+      </c>
+      <c r="B39" s="3">
+        <v>46.08</v>
+      </c>
+      <c r="C39" s="3">
+        <f>D83</f>
+        <v>225</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>233.69398537403566</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="6"/>
+        <v>233.69398537403566</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="2"/>
+        <v>-46.08</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="3"/>
+        <v>43.18</v>
+      </c>
+      <c r="H39" s="3">
+        <v>225</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="4"/>
+        <v>233.69398537403566</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="7"/>
+        <v>233.69398537403566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>-63.22</v>
+      </c>
+      <c r="B40" s="3">
+        <v>49.21</v>
+      </c>
+      <c r="C40" s="3">
+        <f>D84</f>
+        <v>225</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
+        <v>238.8375860286651</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="6"/>
+        <v>238.8375860286651</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="2"/>
+        <v>-49.21</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="3"/>
+        <v>-63.22</v>
+      </c>
+      <c r="H40" s="3">
+        <v>225</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>238.8375860286651</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="7"/>
+        <v>238.8375860286651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="114"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="106"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>225</v>
+      </c>
+      <c r="E52" s="23">
+        <f>SQRT((B52*B52)+(C52*C52)+(D52*D52))</f>
+        <v>225</v>
+      </c>
+      <c r="F52" s="112">
+        <v>1.64</v>
+      </c>
+      <c r="G52" s="112">
+        <v>0.26</v>
+      </c>
+      <c r="H52" s="112">
+        <v>225</v>
+      </c>
+      <c r="I52" s="113">
+        <v>225.00612702768785</v>
+      </c>
+      <c r="J52" s="107"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>20</v>
+      </c>
+      <c r="D53" s="3">
+        <v>225</v>
+      </c>
+      <c r="E53" s="23">
+        <f t="shared" ref="E53:E84" si="8">SQRT((B53*B53)+(C53*C53)+(D53*D53))</f>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F53" s="112">
+        <v>-1.69</v>
+      </c>
+      <c r="G53" s="112">
+        <v>28.09</v>
+      </c>
+      <c r="H53" s="112">
+        <v>225</v>
+      </c>
+      <c r="I53" s="113">
+        <v>226.75295852535197</v>
+      </c>
+      <c r="J53" s="107"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>225</v>
+      </c>
+      <c r="E54" s="23">
+        <f t="shared" si="8"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F54" s="112">
+        <v>0.33</v>
+      </c>
+      <c r="G54" s="112">
+        <v>51.31</v>
+      </c>
+      <c r="H54" s="112">
+        <v>225</v>
+      </c>
+      <c r="I54" s="113">
+        <v>230.77656943459402</v>
+      </c>
+      <c r="J54" s="107"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="3">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>225</v>
+      </c>
+      <c r="E55" s="23">
+        <f t="shared" si="8"/>
+        <v>225.22211259110415</v>
+      </c>
+      <c r="F55" s="112">
+        <v>9.69</v>
+      </c>
+      <c r="G55" s="112">
+        <v>-3.35</v>
+      </c>
+      <c r="H55" s="112">
+        <v>225</v>
+      </c>
+      <c r="I55" s="113">
+        <v>225.2334757534945</v>
+      </c>
+      <c r="J55" s="107"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="3">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3">
+        <v>70</v>
+      </c>
+      <c r="D56" s="3">
+        <v>225</v>
+      </c>
+      <c r="E56" s="23">
+        <f t="shared" si="8"/>
+        <v>235.84952830141509</v>
+      </c>
+      <c r="F56" s="112">
+        <v>5.77</v>
+      </c>
+      <c r="G56" s="112">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="H56" s="112">
+        <v>225</v>
+      </c>
+      <c r="I56" s="113">
+        <v>237.09598161925899</v>
+      </c>
+      <c r="J56" s="107"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="3">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-70</v>
+      </c>
+      <c r="D57" s="3">
+        <v>225</v>
+      </c>
+      <c r="E57" s="23">
+        <f t="shared" si="8"/>
+        <v>235.84952830141509</v>
+      </c>
+      <c r="F57" s="112">
+        <v>18.43</v>
+      </c>
+      <c r="G57" s="112">
+        <v>-70.86</v>
+      </c>
+      <c r="H57" s="112">
+        <v>225</v>
+      </c>
+      <c r="I57" s="113">
+        <v>236.6131959549171</v>
+      </c>
+      <c r="J57" s="107"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="3">
+        <v>20</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>225</v>
+      </c>
+      <c r="E58" s="23">
+        <f t="shared" si="8"/>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F58" s="112">
+        <v>19.21</v>
+      </c>
+      <c r="G58" s="112">
+        <v>-1.7</v>
+      </c>
+      <c r="H58" s="112">
+        <v>225</v>
+      </c>
+      <c r="I58" s="113">
+        <v>225.82496341193107</v>
+      </c>
+      <c r="J58" s="107"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="3">
+        <v>20</v>
+      </c>
+      <c r="C59" s="3">
+        <v>60</v>
+      </c>
+      <c r="D59" s="3">
+        <v>225</v>
+      </c>
+      <c r="E59" s="23">
+        <f t="shared" si="8"/>
+        <v>233.71991785040487</v>
+      </c>
+      <c r="F59" s="112">
+        <v>15.74</v>
+      </c>
+      <c r="G59" s="112">
+        <v>63.57</v>
+      </c>
+      <c r="H59" s="112">
+        <v>225</v>
+      </c>
+      <c r="I59" s="113">
+        <v>234.33713427453191</v>
+      </c>
+      <c r="J59" s="107"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="3">
+        <v>20</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-90</v>
+      </c>
+      <c r="D60" s="3">
+        <v>225</v>
+      </c>
+      <c r="E60" s="23">
+        <f t="shared" si="8"/>
+        <v>243.15632831575658</v>
+      </c>
+      <c r="F60" s="112">
+        <v>27.81</v>
+      </c>
+      <c r="G60" s="112">
+        <v>-72.89</v>
+      </c>
+      <c r="H60" s="112">
+        <v>225</v>
+      </c>
+      <c r="I60" s="113">
+        <v>238.14144578380302</v>
+      </c>
+      <c r="J60" s="107"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="3">
+        <v>30</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>225</v>
+      </c>
+      <c r="E61" s="23">
+        <f t="shared" si="8"/>
+        <v>226.99118925632334</v>
+      </c>
+      <c r="F61" s="112">
+        <v>31.5</v>
+      </c>
+      <c r="G61" s="112">
+        <v>-0.13</v>
+      </c>
+      <c r="H61" s="112">
+        <v>225</v>
+      </c>
+      <c r="I61" s="113">
+        <v>227.19433729738952</v>
+      </c>
+      <c r="J61" s="107"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="3">
+        <v>30</v>
+      </c>
+      <c r="C62" s="3">
+        <v>80</v>
+      </c>
+      <c r="D62" s="3">
+        <v>225</v>
+      </c>
+      <c r="E62" s="23">
+        <f t="shared" si="8"/>
+        <v>240.67613093117481</v>
+      </c>
+      <c r="F62" s="112">
+        <v>15.14</v>
+      </c>
+      <c r="G62" s="112">
+        <v>77.38</v>
+      </c>
+      <c r="H62" s="112">
+        <v>225</v>
+      </c>
+      <c r="I62" s="113">
+        <v>238.41536024342057</v>
+      </c>
+      <c r="J62" s="107"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="3">
+        <v>30</v>
+      </c>
+      <c r="C63" s="3">
+        <v>-80</v>
+      </c>
+      <c r="D63" s="3">
+        <v>225</v>
+      </c>
+      <c r="E63" s="23">
+        <f t="shared" si="8"/>
+        <v>240.67613093117481</v>
+      </c>
+      <c r="F63" s="112">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="G63" s="112">
+        <v>-70.83</v>
+      </c>
+      <c r="H63" s="112">
+        <v>225</v>
+      </c>
+      <c r="I63" s="113">
+        <v>238.90747853510155</v>
+      </c>
+      <c r="J63" s="107"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="3">
+        <v>40</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>225</v>
+      </c>
+      <c r="E64" s="23">
+        <f t="shared" si="8"/>
+        <v>228.52789764052878</v>
+      </c>
+      <c r="F64" s="112">
+        <v>41.76</v>
+      </c>
+      <c r="G64" s="112">
+        <v>4.46</v>
+      </c>
+      <c r="H64" s="112">
+        <v>225</v>
+      </c>
+      <c r="I64" s="113">
+        <v>228.88597423171214</v>
+      </c>
+      <c r="J64" s="107"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="3">
+        <v>40</v>
+      </c>
+      <c r="C65" s="3">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3">
+        <v>225</v>
+      </c>
+      <c r="E65" s="23">
+        <f t="shared" si="8"/>
+        <v>228.74658467395747</v>
+      </c>
+      <c r="F65" s="112">
+        <v>42.44</v>
+      </c>
+      <c r="G65" s="112">
+        <v>23.23</v>
+      </c>
+      <c r="H65" s="112">
+        <v>225</v>
+      </c>
+      <c r="I65" s="113">
+        <v>230.14296969492682</v>
+      </c>
+      <c r="J65" s="107"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="3">
+        <v>40</v>
+      </c>
+      <c r="C66" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D66" s="3">
+        <v>225</v>
+      </c>
+      <c r="E66" s="23">
+        <f t="shared" si="8"/>
+        <v>228.74658467395747</v>
+      </c>
+      <c r="F66" s="112">
+        <v>44.21</v>
+      </c>
+      <c r="G66" s="112">
+        <v>-15.39</v>
+      </c>
+      <c r="H66" s="112">
+        <v>225</v>
+      </c>
+      <c r="I66" s="113">
+        <v>229.81813723028912</v>
+      </c>
+      <c r="J66" s="107"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="3">
+        <v>50</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>225</v>
+      </c>
+      <c r="E67" s="23">
+        <f t="shared" si="8"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F67" s="112">
+        <v>50.43</v>
+      </c>
+      <c r="G67" s="112">
+        <v>2.04</v>
+      </c>
+      <c r="H67" s="112">
+        <v>225</v>
+      </c>
+      <c r="I67" s="113">
+        <v>230.5912975374396</v>
+      </c>
+      <c r="J67" s="107"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="3">
+        <v>50</v>
+      </c>
+      <c r="C68" s="3">
+        <v>40</v>
+      </c>
+      <c r="D68" s="3">
+        <v>225</v>
+      </c>
+      <c r="E68" s="23">
+        <f t="shared" si="8"/>
+        <v>233.9337513057917</v>
+      </c>
+      <c r="F68" s="112">
+        <v>47.55</v>
+      </c>
+      <c r="G68" s="112">
+        <v>50.13</v>
+      </c>
+      <c r="H68" s="112">
+        <v>225</v>
+      </c>
+      <c r="I68" s="113">
+        <v>235.36996282448615</v>
+      </c>
+      <c r="J68" s="107"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="3">
+        <v>50</v>
+      </c>
+      <c r="C69" s="3">
+        <v>-40</v>
+      </c>
+      <c r="D69" s="3">
+        <v>225</v>
+      </c>
+      <c r="E69" s="23">
+        <f t="shared" si="8"/>
+        <v>233.9337513057917</v>
+      </c>
+      <c r="F69" s="112">
+        <v>50.87</v>
+      </c>
+      <c r="G69" s="112">
+        <v>-30.09</v>
+      </c>
+      <c r="H69" s="112">
+        <v>225</v>
+      </c>
+      <c r="I69" s="113">
+        <v>232.63311243243083</v>
+      </c>
+      <c r="J69" s="107"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>225</v>
+      </c>
+      <c r="E70" s="23">
+        <f t="shared" si="8"/>
+        <v>225.22211259110415</v>
+      </c>
+      <c r="F70" s="112">
+        <v>-8.24</v>
+      </c>
+      <c r="G70" s="112">
+        <v>-1.17</v>
+      </c>
+      <c r="H70" s="112">
+        <v>225</v>
+      </c>
+      <c r="I70" s="113">
+        <v>225.15387294026277</v>
+      </c>
+      <c r="J70" s="107"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C71" s="3">
+        <v>20</v>
+      </c>
+      <c r="D71" s="3">
+        <v>225</v>
+      </c>
+      <c r="E71" s="23">
+        <f t="shared" si="8"/>
+        <v>226.10838109190027</v>
+      </c>
+      <c r="F71" s="112">
+        <v>-9.84</v>
+      </c>
+      <c r="G71" s="112">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="H71" s="112">
+        <v>225</v>
+      </c>
+      <c r="I71" s="113">
+        <v>225.82453808211366</v>
+      </c>
+      <c r="J71" s="107"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C72" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D72" s="3">
+        <v>225</v>
+      </c>
+      <c r="E72" s="23">
+        <f t="shared" si="8"/>
+        <v>226.10838109190027</v>
+      </c>
+      <c r="F72" s="112">
+        <v>-21.4</v>
+      </c>
+      <c r="G72" s="112">
+        <v>-24.21</v>
+      </c>
+      <c r="H72" s="112">
+        <v>225</v>
+      </c>
+      <c r="I72" s="113">
+        <v>227.30834586525853</v>
+      </c>
+      <c r="J72" s="107"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>225</v>
+      </c>
+      <c r="E73" s="23">
+        <f t="shared" si="8"/>
+        <v>225.88713996153035</v>
+      </c>
+      <c r="F73" s="112">
+        <v>-25.28</v>
+      </c>
+      <c r="G73" s="112">
+        <v>0.2</v>
+      </c>
+      <c r="H73" s="112">
+        <v>225</v>
+      </c>
+      <c r="I73" s="113">
+        <v>226.41580863535125</v>
+      </c>
+      <c r="J73" s="107"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C74" s="3">
+        <v>50</v>
+      </c>
+      <c r="D74" s="3">
+        <v>225</v>
+      </c>
+      <c r="E74" s="23">
+        <f t="shared" si="8"/>
+        <v>231.35470602518549</v>
+      </c>
+      <c r="F74" s="112">
+        <v>-17.489999999999998</v>
+      </c>
+      <c r="G74" s="112">
+        <v>51.77</v>
+      </c>
+      <c r="H74" s="112">
+        <v>225</v>
+      </c>
+      <c r="I74" s="113">
+        <v>231.54056448061104</v>
+      </c>
+      <c r="J74" s="107"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="37">
+        <v>-20</v>
+      </c>
+      <c r="C75" s="37">
+        <v>-80</v>
+      </c>
+      <c r="D75" s="3">
+        <v>225</v>
+      </c>
+      <c r="E75" s="64">
+        <f t="shared" si="8"/>
+        <v>239.63513932643517</v>
+      </c>
+      <c r="F75" s="112">
+        <v>-15.76</v>
+      </c>
+      <c r="G75" s="112">
+        <v>-73.12</v>
+      </c>
+      <c r="H75" s="112">
+        <v>225</v>
+      </c>
+      <c r="I75" s="113">
+        <v>237.10738495458128</v>
+      </c>
+      <c r="J75" s="107"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="37">
+        <v>-30</v>
+      </c>
+      <c r="C76" s="37">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>225</v>
+      </c>
+      <c r="E76" s="23">
+        <f t="shared" si="8"/>
+        <v>226.99118925632334</v>
+      </c>
+      <c r="F76" s="112">
+        <v>-30.06</v>
+      </c>
+      <c r="G76" s="112">
+        <v>2.14</v>
+      </c>
+      <c r="H76" s="112">
+        <v>225</v>
+      </c>
+      <c r="I76" s="113">
+        <v>227.00921390992039</v>
+      </c>
+      <c r="J76" s="107"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C77" s="18">
+        <v>15</v>
+      </c>
+      <c r="D77" s="3">
+        <v>225</v>
+      </c>
+      <c r="E77" s="23">
+        <f t="shared" si="8"/>
+        <v>227.48626332154652</v>
+      </c>
+      <c r="F77" s="112">
+        <v>-34.31</v>
+      </c>
+      <c r="G77" s="112">
+        <v>23.67</v>
+      </c>
+      <c r="H77" s="112">
+        <v>225</v>
+      </c>
+      <c r="I77" s="113">
+        <v>228.82841825262875</v>
+      </c>
+      <c r="J77" s="107"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C78" s="18">
+        <v>-15</v>
+      </c>
+      <c r="D78" s="3">
+        <v>225</v>
+      </c>
+      <c r="E78" s="23">
+        <f t="shared" si="8"/>
+        <v>227.48626332154652</v>
+      </c>
+      <c r="F78" s="112">
+        <v>-31.75</v>
+      </c>
+      <c r="G78" s="112">
+        <v>-19.09</v>
+      </c>
+      <c r="H78" s="112">
+        <v>225</v>
+      </c>
+      <c r="I78" s="113">
+        <v>228.02958272996071</v>
+      </c>
+      <c r="J78" s="107"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C79" s="18">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>225</v>
+      </c>
+      <c r="E79" s="23">
+        <f t="shared" si="8"/>
+        <v>228.52789764052878</v>
+      </c>
+      <c r="F79" s="112">
+        <v>-44.66</v>
+      </c>
+      <c r="G79" s="112">
+        <v>5.71</v>
+      </c>
+      <c r="H79" s="112">
+        <v>225</v>
+      </c>
+      <c r="I79" s="113">
+        <v>229.46049703598223</v>
+      </c>
+      <c r="J79" s="107"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C80" s="18">
+        <v>40</v>
+      </c>
+      <c r="D80" s="3">
+        <v>225</v>
+      </c>
+      <c r="E80" s="23">
+        <f t="shared" si="8"/>
+        <v>232.0021551624036</v>
+      </c>
+      <c r="F80" s="112">
+        <v>-38.549999999999997</v>
+      </c>
+      <c r="G80" s="112">
+        <v>48.34</v>
+      </c>
+      <c r="H80" s="112">
+        <v>225</v>
+      </c>
+      <c r="I80" s="113">
+        <v>233.34064819486551</v>
+      </c>
+      <c r="J80" s="107"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C81" s="18">
+        <v>-40</v>
+      </c>
+      <c r="D81" s="3">
+        <v>225</v>
+      </c>
+      <c r="E81" s="23">
+        <f t="shared" si="8"/>
+        <v>232.0021551624036</v>
+      </c>
+      <c r="F81" s="112">
+        <v>-41.19</v>
+      </c>
+      <c r="G81" s="112">
+        <v>-37.19</v>
+      </c>
+      <c r="H81" s="112">
+        <v>225</v>
+      </c>
+      <c r="I81" s="113">
+        <v>231.74277162405735</v>
+      </c>
+      <c r="J81" s="107"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C82" s="18">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>225</v>
+      </c>
+      <c r="E82" s="64">
+        <f t="shared" si="8"/>
+        <v>230.48861143232219</v>
+      </c>
+      <c r="F82" s="112">
+        <v>-48.37</v>
+      </c>
+      <c r="G82" s="112">
+        <v>-5.96</v>
+      </c>
+      <c r="H82" s="112">
+        <v>225</v>
+      </c>
+      <c r="I82" s="113">
+        <v>230.21767634132701</v>
+      </c>
+      <c r="J82" s="107"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C83" s="18">
+        <v>35</v>
+      </c>
+      <c r="D83" s="3">
+        <v>225</v>
+      </c>
+      <c r="E83" s="23">
+        <f t="shared" si="8"/>
+        <v>233.13086453749534</v>
+      </c>
+      <c r="F83" s="112">
+        <v>-46.08</v>
+      </c>
+      <c r="G83" s="112">
+        <v>43.18</v>
+      </c>
+      <c r="H83" s="112">
+        <v>225</v>
+      </c>
+      <c r="I83" s="113">
+        <v>233.69398537403566</v>
+      </c>
+      <c r="J83" s="107"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C84" s="18">
+        <v>-65</v>
+      </c>
+      <c r="D84" s="3">
+        <v>225</v>
+      </c>
+      <c r="E84" s="23">
+        <f t="shared" si="8"/>
+        <v>239.47860029656096</v>
+      </c>
+      <c r="F84" s="112">
+        <v>-49.21</v>
+      </c>
+      <c r="G84" s="112">
+        <v>-63.22</v>
+      </c>
+      <c r="H84" s="112">
+        <v>225</v>
+      </c>
+      <c r="I84" s="113">
+        <v>238.8375860286651</v>
+      </c>
+      <c r="J84" s="107"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="114"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="115"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="112">
+        <v>1.64</v>
+      </c>
+      <c r="D98" s="88">
+        <f>ABS(C98-B98)</f>
+        <v>1.64</v>
+      </c>
+      <c r="E98" s="115"/>
+      <c r="F98" s="115"/>
+      <c r="G98" s="115"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="112">
+        <v>-1.69</v>
+      </c>
+      <c r="D99" s="88">
+        <f t="shared" ref="D99:D130" si="9">ABS(C99-B99)</f>
+        <v>1.69</v>
+      </c>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="112">
+        <v>0.33</v>
+      </c>
+      <c r="D100" s="88">
+        <f t="shared" si="9"/>
+        <v>0.33</v>
+      </c>
+      <c r="E100" s="115"/>
+      <c r="F100" s="115"/>
+      <c r="G100" s="115"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="3">
+        <v>10</v>
+      </c>
+      <c r="C101" s="112">
+        <v>9.69</v>
+      </c>
+      <c r="D101" s="88">
+        <f t="shared" si="9"/>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="E101" s="115"/>
+      <c r="F101" s="115"/>
+      <c r="G101" s="115"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="3">
+        <v>10</v>
+      </c>
+      <c r="C102" s="112">
+        <v>5.77</v>
+      </c>
+      <c r="D102" s="88">
+        <f t="shared" si="9"/>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E102" s="115"/>
+      <c r="F102" s="115"/>
+      <c r="G102" s="115"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="3">
+        <v>10</v>
+      </c>
+      <c r="C103" s="112">
+        <v>18.43</v>
+      </c>
+      <c r="D103" s="88">
+        <f t="shared" si="9"/>
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="3">
+        <v>20</v>
+      </c>
+      <c r="C104" s="112">
+        <v>19.21</v>
+      </c>
+      <c r="D104" s="88">
+        <f t="shared" si="9"/>
+        <v>0.78999999999999915</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="3">
+        <v>20</v>
+      </c>
+      <c r="C105" s="112">
+        <v>15.74</v>
+      </c>
+      <c r="D105" s="88">
+        <f t="shared" si="9"/>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="3">
+        <v>20</v>
+      </c>
+      <c r="C106" s="112">
+        <v>27.81</v>
+      </c>
+      <c r="D106" s="88">
+        <f t="shared" si="9"/>
+        <v>7.8099999999999987</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="3">
+        <v>30</v>
+      </c>
+      <c r="C107" s="112">
+        <v>31.5</v>
+      </c>
+      <c r="D107" s="88">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="3">
+        <v>30</v>
+      </c>
+      <c r="C108" s="112">
+        <v>15.14</v>
+      </c>
+      <c r="D108" s="88">
+        <f t="shared" si="9"/>
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="3">
+        <v>30</v>
+      </c>
+      <c r="C109" s="112">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="D109" s="88">
+        <f t="shared" si="9"/>
+        <v>7.8800000000000026</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="3">
+        <v>40</v>
+      </c>
+      <c r="C110" s="112">
+        <v>41.76</v>
+      </c>
+      <c r="D110" s="88">
+        <f t="shared" si="9"/>
+        <v>1.759999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="3">
+        <v>40</v>
+      </c>
+      <c r="C111" s="112">
+        <v>42.44</v>
+      </c>
+      <c r="D111" s="88">
+        <f t="shared" si="9"/>
+        <v>2.4399999999999977</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="3">
+        <v>40</v>
+      </c>
+      <c r="C112" s="112">
+        <v>44.21</v>
+      </c>
+      <c r="D112" s="88">
+        <f t="shared" si="9"/>
+        <v>4.2100000000000009</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="3">
+        <v>50</v>
+      </c>
+      <c r="C113" s="112">
+        <v>50.43</v>
+      </c>
+      <c r="D113" s="88">
+        <f t="shared" si="9"/>
+        <v>0.42999999999999972</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="3">
+        <v>50</v>
+      </c>
+      <c r="C114" s="112">
+        <v>47.55</v>
+      </c>
+      <c r="D114" s="88">
+        <f t="shared" si="9"/>
+        <v>2.4500000000000028</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="3">
+        <v>50</v>
+      </c>
+      <c r="C115" s="112">
+        <v>50.87</v>
+      </c>
+      <c r="D115" s="88">
+        <f t="shared" si="9"/>
+        <v>0.86999999999999744</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C116" s="112">
+        <v>-8.24</v>
+      </c>
+      <c r="D116" s="88">
+        <f t="shared" si="9"/>
+        <v>1.7599999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C117" s="112">
+        <v>-9.84</v>
+      </c>
+      <c r="D117" s="88">
+        <f t="shared" si="9"/>
+        <v>0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C118" s="112">
+        <v>-21.4</v>
+      </c>
+      <c r="D118" s="88">
+        <f t="shared" si="9"/>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C119" s="112">
+        <v>-25.28</v>
+      </c>
+      <c r="D119" s="88">
+        <f t="shared" si="9"/>
+        <v>5.2800000000000011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C120" s="112">
+        <v>-17.489999999999998</v>
+      </c>
+      <c r="D120" s="88">
+        <f t="shared" si="9"/>
+        <v>2.5100000000000016</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="37">
+        <v>-20</v>
+      </c>
+      <c r="C121" s="112">
+        <v>-15.76</v>
+      </c>
+      <c r="D121" s="88">
+        <f t="shared" si="9"/>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="37">
+        <v>-30</v>
+      </c>
+      <c r="C122" s="112">
+        <v>-30.06</v>
+      </c>
+      <c r="D122" s="88">
+        <f t="shared" si="9"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C123" s="112">
+        <v>-34.31</v>
+      </c>
+      <c r="D123" s="88">
+        <f t="shared" si="9"/>
+        <v>4.3100000000000023</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="90">
+        <v>-30</v>
+      </c>
+      <c r="C124" s="112">
+        <v>-31.75</v>
+      </c>
+      <c r="D124" s="88">
+        <f t="shared" si="9"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C125" s="112">
+        <v>-44.66</v>
+      </c>
+      <c r="D125" s="88">
+        <f t="shared" si="9"/>
+        <v>4.6599999999999966</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C126" s="112">
+        <v>-38.549999999999997</v>
+      </c>
+      <c r="D126" s="88">
+        <f t="shared" si="9"/>
+        <v>1.4500000000000028</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" s="90">
+        <v>-40</v>
+      </c>
+      <c r="C127" s="112">
+        <v>-41.19</v>
+      </c>
+      <c r="D127" s="88">
+        <f t="shared" si="9"/>
+        <v>1.1899999999999977</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C128" s="112">
+        <v>-48.37</v>
+      </c>
+      <c r="D128" s="88">
+        <f t="shared" si="9"/>
+        <v>1.6300000000000026</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C129" s="112">
+        <v>-46.08</v>
+      </c>
+      <c r="D129" s="88">
+        <f t="shared" si="9"/>
+        <v>3.9200000000000017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" s="90">
+        <v>-50</v>
+      </c>
+      <c r="C130" s="112">
+        <v>-49.21</v>
+      </c>
+      <c r="D130" s="88">
+        <f t="shared" si="9"/>
+        <v>0.78999999999999915</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="14">
+        <v>0</v>
+      </c>
+      <c r="C146" s="118">
+        <v>0.26</v>
+      </c>
+      <c r="D146" s="119">
+        <f>ABS(C146-B146)</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="3">
+        <v>20</v>
+      </c>
+      <c r="C147" s="112">
+        <v>28.09</v>
+      </c>
+      <c r="D147" s="88">
+        <f t="shared" ref="D147:D178" si="10">ABS(C147-B147)</f>
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="3">
+        <v>50</v>
+      </c>
+      <c r="C148" s="112">
+        <v>51.31</v>
+      </c>
+      <c r="D148" s="88">
+        <f t="shared" si="10"/>
+        <v>1.3100000000000023</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+      <c r="C149" s="112">
+        <v>-3.35</v>
+      </c>
+      <c r="D149" s="88">
+        <f t="shared" si="10"/>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="3">
+        <v>70</v>
+      </c>
+      <c r="C150" s="112">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="D150" s="88">
+        <f t="shared" si="10"/>
+        <v>4.5400000000000063</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="3">
+        <v>-70</v>
+      </c>
+      <c r="C151" s="112">
+        <v>-70.86</v>
+      </c>
+      <c r="D151" s="88">
+        <f t="shared" si="10"/>
+        <v>0.85999999999999943</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152" s="112">
+        <v>-1.7</v>
+      </c>
+      <c r="D152" s="88">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="3">
+        <v>60</v>
+      </c>
+      <c r="C153" s="112">
+        <v>63.57</v>
+      </c>
+      <c r="D153" s="88">
+        <f t="shared" si="10"/>
+        <v>3.5700000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" s="3">
+        <v>-90</v>
+      </c>
+      <c r="C154" s="112">
+        <v>-72.89</v>
+      </c>
+      <c r="D154" s="88">
+        <f t="shared" si="10"/>
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+      <c r="C155" s="112">
+        <v>-0.13</v>
+      </c>
+      <c r="D155" s="88">
+        <f t="shared" si="10"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="3">
+        <v>80</v>
+      </c>
+      <c r="C156" s="112">
+        <v>77.38</v>
+      </c>
+      <c r="D156" s="88">
+        <f t="shared" si="10"/>
+        <v>2.6200000000000045</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="3">
+        <v>-80</v>
+      </c>
+      <c r="C157" s="112">
+        <v>-70.83</v>
+      </c>
+      <c r="D157" s="88">
+        <f t="shared" si="10"/>
+        <v>9.1700000000000017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+      <c r="C158" s="112">
+        <v>4.46</v>
+      </c>
+      <c r="D158" s="88">
+        <f t="shared" si="10"/>
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" s="3">
+        <v>10</v>
+      </c>
+      <c r="C159" s="112">
+        <v>23.23</v>
+      </c>
+      <c r="D159" s="88">
+        <f t="shared" si="10"/>
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C160" s="112">
+        <v>-15.39</v>
+      </c>
+      <c r="D160" s="88">
+        <f t="shared" si="10"/>
+        <v>5.3900000000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="112">
+        <v>2.04</v>
+      </c>
+      <c r="D161" s="88">
+        <f t="shared" si="10"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" s="3">
+        <v>40</v>
+      </c>
+      <c r="C162" s="112">
+        <v>50.13</v>
+      </c>
+      <c r="D162" s="88">
+        <f t="shared" si="10"/>
+        <v>10.130000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B163" s="3">
+        <v>-40</v>
+      </c>
+      <c r="C163" s="112">
+        <v>-30.09</v>
+      </c>
+      <c r="D163" s="88">
+        <f t="shared" si="10"/>
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+      <c r="C164" s="112">
+        <v>-1.17</v>
+      </c>
+      <c r="D164" s="88">
+        <f t="shared" si="10"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="3">
+        <v>20</v>
+      </c>
+      <c r="C165" s="112">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="D165" s="88">
+        <f t="shared" si="10"/>
+        <v>3.4200000000000017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C166" s="112">
+        <v>-24.21</v>
+      </c>
+      <c r="D166" s="88">
+        <f t="shared" si="10"/>
+        <v>4.2100000000000009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167" s="112">
+        <v>0.2</v>
+      </c>
+      <c r="D167" s="88">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="3">
+        <v>50</v>
+      </c>
+      <c r="C168" s="112">
+        <v>51.77</v>
+      </c>
+      <c r="D168" s="88">
+        <f t="shared" si="10"/>
+        <v>1.7700000000000031</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169" s="37">
+        <v>-80</v>
+      </c>
+      <c r="C169" s="112">
+        <v>-73.12</v>
+      </c>
+      <c r="D169" s="88">
+        <f t="shared" si="10"/>
+        <v>6.8799999999999955</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" s="37">
+        <v>0</v>
+      </c>
+      <c r="C170" s="112">
+        <v>2.14</v>
+      </c>
+      <c r="D170" s="88">
+        <f t="shared" si="10"/>
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" s="18">
+        <v>15</v>
+      </c>
+      <c r="C171" s="112">
+        <v>23.67</v>
+      </c>
+      <c r="D171" s="88">
+        <f t="shared" si="10"/>
+        <v>8.6700000000000017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" s="18">
+        <v>-15</v>
+      </c>
+      <c r="C172" s="112">
+        <v>-19.09</v>
+      </c>
+      <c r="D172" s="88">
+        <f t="shared" si="10"/>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" s="18">
+        <v>0</v>
+      </c>
+      <c r="C173" s="112">
+        <v>5.71</v>
+      </c>
+      <c r="D173" s="88">
+        <f t="shared" si="10"/>
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="18">
+        <v>40</v>
+      </c>
+      <c r="C174" s="112">
+        <v>48.34</v>
+      </c>
+      <c r="D174" s="88">
+        <f t="shared" si="10"/>
+        <v>8.3400000000000034</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175" s="18">
+        <v>-40</v>
+      </c>
+      <c r="C175" s="112">
+        <v>-37.19</v>
+      </c>
+      <c r="D175" s="88">
+        <f t="shared" si="10"/>
+        <v>2.8100000000000023</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" s="18">
+        <v>0</v>
+      </c>
+      <c r="C176" s="112">
+        <v>-5.96</v>
+      </c>
+      <c r="D176" s="88">
+        <f t="shared" si="10"/>
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="18">
+        <v>35</v>
+      </c>
+      <c r="C177" s="112">
+        <v>43.18</v>
+      </c>
+      <c r="D177" s="88">
+        <f t="shared" si="10"/>
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B178" s="18">
+        <v>-65</v>
+      </c>
+      <c r="C178" s="112">
+        <v>-63.22</v>
+      </c>
+      <c r="D178" s="88">
+        <f t="shared" si="10"/>
+        <v>1.7800000000000011</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D194" s="120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="89">
+        <v>225</v>
+      </c>
+      <c r="C195" s="113">
+        <v>225.00612702768785</v>
+      </c>
+      <c r="D195" s="89">
+        <f>ABS(C195-B195)</f>
+        <v>6.1270276878531149E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="89">
+        <v>225.88713996153035</v>
+      </c>
+      <c r="C196" s="113">
+        <v>226.75295852535197</v>
+      </c>
+      <c r="D196" s="89">
+        <f t="shared" ref="D196:D227" si="11">ABS(C196-B196)</f>
+        <v>0.86581856382161959</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="89">
+        <v>230.48861143232219</v>
+      </c>
+      <c r="C197" s="113">
+        <v>230.77656943459402</v>
+      </c>
+      <c r="D197" s="89">
+        <f t="shared" si="11"/>
+        <v>0.28795800227183577</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" s="89">
+        <v>225.22211259110415</v>
+      </c>
+      <c r="C198" s="113">
+        <v>225.2334757534945</v>
+      </c>
+      <c r="D198" s="89">
+        <f t="shared" si="11"/>
+        <v>1.1363162390352954E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" s="89">
+        <v>235.84952830141509</v>
+      </c>
+      <c r="C199" s="113">
+        <v>237.09598161925899</v>
+      </c>
+      <c r="D199" s="89">
+        <f t="shared" si="11"/>
+        <v>1.2464533178439012</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="89">
+        <v>235.84952830141509</v>
+      </c>
+      <c r="C200" s="113">
+        <v>236.6131959549171</v>
+      </c>
+      <c r="D200" s="89">
+        <f t="shared" si="11"/>
+        <v>0.76366765350201149</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" s="89">
+        <v>225.88713996153035</v>
+      </c>
+      <c r="C201" s="113">
+        <v>225.82496341193107</v>
+      </c>
+      <c r="D201" s="89">
+        <f t="shared" si="11"/>
+        <v>6.2176549599286091E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B202" s="89">
+        <v>233.71991785040487</v>
+      </c>
+      <c r="C202" s="113">
+        <v>234.33713427453191</v>
+      </c>
+      <c r="D202" s="89">
+        <f t="shared" si="11"/>
+        <v>0.61721642412703659</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B203" s="89">
+        <v>243.15632831575658</v>
+      </c>
+      <c r="C203" s="113">
+        <v>238.14144578380302</v>
+      </c>
+      <c r="D203" s="89">
+        <f t="shared" si="11"/>
+        <v>5.0148825319535604</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" s="89">
+        <v>226.99118925632334</v>
+      </c>
+      <c r="C204" s="113">
+        <v>227.19433729738952</v>
+      </c>
+      <c r="D204" s="89">
+        <f t="shared" si="11"/>
+        <v>0.20314804106618567</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B205" s="89">
+        <v>240.67613093117481</v>
+      </c>
+      <c r="C205" s="113">
+        <v>238.41536024342057</v>
+      </c>
+      <c r="D205" s="89">
+        <f t="shared" si="11"/>
+        <v>2.2607706877542455</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B206" s="89">
+        <v>240.67613093117481</v>
+      </c>
+      <c r="C206" s="113">
+        <v>238.90747853510155</v>
+      </c>
+      <c r="D206" s="89">
+        <f t="shared" si="11"/>
+        <v>1.7686523960732643</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" s="89">
+        <v>228.52789764052878</v>
+      </c>
+      <c r="C207" s="113">
+        <v>228.88597423171214</v>
+      </c>
+      <c r="D207" s="89">
+        <f t="shared" si="11"/>
+        <v>0.35807659118336232</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" s="89">
+        <v>228.74658467395747</v>
+      </c>
+      <c r="C208" s="113">
+        <v>230.14296969492682</v>
+      </c>
+      <c r="D208" s="89">
+        <f t="shared" si="11"/>
+        <v>1.3963850209693476</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B209" s="89">
+        <v>228.74658467395747</v>
+      </c>
+      <c r="C209" s="113">
+        <v>229.81813723028912</v>
+      </c>
+      <c r="D209" s="89">
+        <f t="shared" si="11"/>
+        <v>1.0715525563316532</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210" s="89">
+        <v>230.48861143232219</v>
+      </c>
+      <c r="C210" s="113">
+        <v>230.5912975374396</v>
+      </c>
+      <c r="D210" s="89">
+        <f t="shared" si="11"/>
+        <v>0.10268610511741372</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B211" s="89">
+        <v>233.9337513057917</v>
+      </c>
+      <c r="C211" s="113">
+        <v>235.36996282448615</v>
+      </c>
+      <c r="D211" s="89">
+        <f t="shared" si="11"/>
+        <v>1.4362115186944493</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B212" s="89">
+        <v>233.9337513057917</v>
+      </c>
+      <c r="C212" s="113">
+        <v>232.63311243243083</v>
+      </c>
+      <c r="D212" s="89">
+        <f t="shared" si="11"/>
+        <v>1.3006388733608674</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" s="89">
+        <v>225.22211259110415</v>
+      </c>
+      <c r="C213" s="113">
+        <v>225.15387294026277</v>
+      </c>
+      <c r="D213" s="89">
+        <f t="shared" si="11"/>
+        <v>6.8239650841377397E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214" s="89">
+        <v>226.10838109190027</v>
+      </c>
+      <c r="C214" s="113">
+        <v>225.82453808211366</v>
+      </c>
+      <c r="D214" s="89">
+        <f t="shared" si="11"/>
+        <v>0.28384300978660804</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="89">
+        <v>226.10838109190027</v>
+      </c>
+      <c r="C215" s="113">
+        <v>227.30834586525853</v>
+      </c>
+      <c r="D215" s="89">
+        <f t="shared" si="11"/>
+        <v>1.1999647733582606</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B216" s="89">
+        <v>225.88713996153035</v>
+      </c>
+      <c r="C216" s="113">
+        <v>226.41580863535125</v>
+      </c>
+      <c r="D216" s="89">
+        <f t="shared" si="11"/>
+        <v>0.52866867382090277</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B217" s="89">
+        <v>231.35470602518549</v>
+      </c>
+      <c r="C217" s="113">
+        <v>231.54056448061104</v>
+      </c>
+      <c r="D217" s="89">
+        <f t="shared" si="11"/>
+        <v>0.1858584554255458</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B218" s="89">
+        <v>239.63513932643517</v>
+      </c>
+      <c r="C218" s="113">
+        <v>237.10738495458128</v>
+      </c>
+      <c r="D218" s="89">
+        <f t="shared" si="11"/>
+        <v>2.527754371853888</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B219" s="89">
+        <v>226.99118925632334</v>
+      </c>
+      <c r="C219" s="113">
+        <v>227.00921390992039</v>
+      </c>
+      <c r="D219" s="89">
+        <f t="shared" si="11"/>
+        <v>1.802465359705252E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B220" s="89">
+        <v>227.48626332154652</v>
+      </c>
+      <c r="C220" s="113">
+        <v>228.82841825262875</v>
+      </c>
+      <c r="D220" s="89">
+        <f t="shared" si="11"/>
+        <v>1.3421549310822343</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B221" s="89">
+        <v>227.48626332154652</v>
+      </c>
+      <c r="C221" s="113">
+        <v>228.02958272996071</v>
+      </c>
+      <c r="D221" s="89">
+        <f t="shared" si="11"/>
+        <v>0.54331940841419168</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B222" s="89">
+        <v>228.52789764052878</v>
+      </c>
+      <c r="C222" s="113">
+        <v>229.46049703598223</v>
+      </c>
+      <c r="D222" s="89">
+        <f t="shared" si="11"/>
+        <v>0.93259939545345105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223" s="89">
+        <v>232.0021551624036</v>
+      </c>
+      <c r="C223" s="113">
+        <v>233.34064819486551</v>
+      </c>
+      <c r="D223" s="89">
+        <f t="shared" si="11"/>
+        <v>1.338493032461912</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B224" s="89">
+        <v>232.0021551624036</v>
+      </c>
+      <c r="C224" s="113">
+        <v>231.74277162405735</v>
+      </c>
+      <c r="D224" s="89">
+        <f t="shared" si="11"/>
+        <v>0.25938353834624195</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B225" s="89">
+        <v>230.48861143232219</v>
+      </c>
+      <c r="C225" s="113">
+        <v>230.21767634132701</v>
+      </c>
+      <c r="D225" s="89">
+        <f t="shared" si="11"/>
+        <v>0.27093509099518087</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B226" s="89">
+        <v>233.13086453749534</v>
+      </c>
+      <c r="C226" s="113">
+        <v>233.69398537403566</v>
+      </c>
+      <c r="D226" s="89">
+        <f t="shared" si="11"/>
+        <v>0.56312083654032108</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B227" s="89">
+        <v>239.47860029656096</v>
+      </c>
+      <c r="C227" s="113">
+        <v>238.8375860286651</v>
+      </c>
+      <c r="D227" s="89">
+        <f t="shared" si="11"/>
+        <v>0.64101426789585503</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F50:I50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>